--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8242" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8241" uniqueCount="705">
   <si>
     <t>Path</t>
   </si>
@@ -1913,10 +1913,7 @@
     <t>Used to determine which contact person is the most relevant to approach, depending on circumstances.</t>
   </si>
   <si>
-    <t>The nature of the relationship between a patient and a contact person for that patient.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship</t>
+    <t>https://openimis.github.io/openimis_fhir_r4_ig/ValueSet/openimis-contact-relationship-vs</t>
   </si>
   <si>
     <t>code</t>
@@ -2378,7 +2375,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="76.9296875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="82.44921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="23.64453125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -26064,7 +26061,7 @@
       </c>
       <c r="D208" s="2"/>
       <c r="E208" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F208" t="s" s="2">
         <v>51</v>
@@ -26116,11 +26113,9 @@
       <c r="W208" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="X208" t="s" s="2">
+      <c r="X208" s="2"/>
+      <c r="Y208" t="s" s="2">
         <v>613</v>
-      </c>
-      <c r="Y208" t="s" s="2">
-        <v>614</v>
       </c>
       <c r="Z208" t="s" s="2">
         <v>44</v>
@@ -26153,7 +26148,7 @@
         <v>63</v>
       </c>
       <c r="AJ208" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AK208" t="s" s="2">
         <v>130</v>
@@ -26162,7 +26157,7 @@
         <v>44</v>
       </c>
       <c r="AM208" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AN208" t="s" s="2">
         <v>44</v>
@@ -26170,7 +26165,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -26178,7 +26173,7 @@
       </c>
       <c r="D209" s="2"/>
       <c r="E209" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F209" t="s" s="2">
         <v>51</v>
@@ -26196,14 +26191,14 @@
         <v>262</v>
       </c>
       <c r="K209" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="L209" t="s" s="2">
         <v>618</v>
-      </c>
-      <c r="L209" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="M209" s="2"/>
       <c r="N209" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="O209" t="s" s="2">
         <v>44</v>
@@ -26252,7 +26247,7 @@
         <v>44</v>
       </c>
       <c r="AE209" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AF209" t="s" s="2">
         <v>42</v>
@@ -26276,7 +26271,7 @@
         <v>44</v>
       </c>
       <c r="AM209" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AN209" t="s" s="2">
         <v>44</v>
@@ -26284,7 +26279,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -26310,13 +26305,13 @@
         <v>326</v>
       </c>
       <c r="K210" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="L210" t="s" s="2">
         <v>623</v>
       </c>
-      <c r="L210" t="s" s="2">
+      <c r="M210" t="s" s="2">
         <v>624</v>
-      </c>
-      <c r="M210" t="s" s="2">
-        <v>625</v>
       </c>
       <c r="N210" t="s" s="2">
         <v>330</v>
@@ -26368,7 +26363,7 @@
         <v>44</v>
       </c>
       <c r="AE210" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AF210" t="s" s="2">
         <v>42</v>
@@ -26392,7 +26387,7 @@
         <v>44</v>
       </c>
       <c r="AM210" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AN210" t="s" s="2">
         <v>44</v>
@@ -26400,7 +26395,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -26426,14 +26421,14 @@
         <v>404</v>
       </c>
       <c r="K211" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="L211" t="s" s="2">
         <v>628</v>
-      </c>
-      <c r="L211" t="s" s="2">
-        <v>629</v>
       </c>
       <c r="M211" s="2"/>
       <c r="N211" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="O211" t="s" s="2">
         <v>44</v>
@@ -26482,7 +26477,7 @@
         <v>44</v>
       </c>
       <c r="AE211" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AF211" t="s" s="2">
         <v>42</v>
@@ -26506,7 +26501,7 @@
         <v>44</v>
       </c>
       <c r="AM211" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AN211" t="s" s="2">
         <v>44</v>
@@ -26514,7 +26509,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -26543,11 +26538,11 @@
         <v>376</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M212" s="2"/>
       <c r="N212" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O212" t="s" s="2">
         <v>44</v>
@@ -26596,7 +26591,7 @@
         <v>44</v>
       </c>
       <c r="AE212" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AF212" t="s" s="2">
         <v>42</v>
@@ -26620,7 +26615,7 @@
         <v>44</v>
       </c>
       <c r="AM212" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AN212" t="s" s="2">
         <v>44</v>
@@ -26628,7 +26623,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -26654,14 +26649,14 @@
         <v>242</v>
       </c>
       <c r="K213" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="L213" t="s" s="2">
         <v>637</v>
-      </c>
-      <c r="L213" t="s" s="2">
-        <v>638</v>
       </c>
       <c r="M213" s="2"/>
       <c r="N213" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="O213" t="s" s="2">
         <v>44</v>
@@ -26710,7 +26705,7 @@
         <v>44</v>
       </c>
       <c r="AE213" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AF213" t="s" s="2">
         <v>42</v>
@@ -26719,13 +26714,13 @@
         <v>51</v>
       </c>
       <c r="AH213" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AI213" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ213" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AK213" t="s" s="2">
         <v>130</v>
@@ -26734,7 +26729,7 @@
         <v>44</v>
       </c>
       <c r="AM213" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AN213" t="s" s="2">
         <v>44</v>
@@ -26742,7 +26737,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -26768,10 +26763,10 @@
         <v>235</v>
       </c>
       <c r="K214" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="L214" t="s" s="2">
         <v>644</v>
-      </c>
-      <c r="L214" t="s" s="2">
-        <v>645</v>
       </c>
       <c r="M214" s="2"/>
       <c r="N214" s="2"/>
@@ -26822,7 +26817,7 @@
         <v>44</v>
       </c>
       <c r="AE214" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AF214" t="s" s="2">
         <v>42</v>
@@ -26837,7 +26832,7 @@
         <v>63</v>
       </c>
       <c r="AJ214" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AK214" t="s" s="2">
         <v>130</v>
@@ -26854,7 +26849,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -26880,16 +26875,16 @@
         <v>595</v>
       </c>
       <c r="K215" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="L215" t="s" s="2">
         <v>648</v>
       </c>
-      <c r="L215" t="s" s="2">
+      <c r="M215" t="s" s="2">
         <v>649</v>
       </c>
-      <c r="M215" t="s" s="2">
+      <c r="N215" t="s" s="2">
         <v>650</v>
-      </c>
-      <c r="N215" t="s" s="2">
-        <v>651</v>
       </c>
       <c r="O215" t="s" s="2">
         <v>44</v>
@@ -26938,7 +26933,7 @@
         <v>44</v>
       </c>
       <c r="AE215" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AF215" t="s" s="2">
         <v>42</v>
@@ -26953,10 +26948,10 @@
         <v>63</v>
       </c>
       <c r="AJ215" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="AK215" t="s" s="2">
         <v>652</v>
-      </c>
-      <c r="AK215" t="s" s="2">
-        <v>653</v>
       </c>
       <c r="AL215" t="s" s="2">
         <v>44</v>
@@ -26970,7 +26965,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -27082,7 +27077,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -27196,7 +27191,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -27312,7 +27307,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -27338,16 +27333,16 @@
         <v>147</v>
       </c>
       <c r="K219" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="L219" t="s" s="2">
         <v>658</v>
       </c>
-      <c r="L219" t="s" s="2">
+      <c r="M219" t="s" s="2">
         <v>659</v>
       </c>
-      <c r="M219" t="s" s="2">
+      <c r="N219" t="s" s="2">
         <v>660</v>
-      </c>
-      <c r="N219" t="s" s="2">
-        <v>661</v>
       </c>
       <c r="O219" t="s" s="2">
         <v>44</v>
@@ -27396,7 +27391,7 @@
         <v>44</v>
       </c>
       <c r="AE219" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AF219" t="s" s="2">
         <v>51</v>
@@ -27411,16 +27406,16 @@
         <v>63</v>
       </c>
       <c r="AJ219" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="AK219" t="s" s="2">
         <v>662</v>
       </c>
-      <c r="AK219" t="s" s="2">
+      <c r="AL219" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM219" t="s" s="2">
         <v>663</v>
-      </c>
-      <c r="AL219" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM219" t="s" s="2">
-        <v>664</v>
       </c>
       <c r="AN219" t="s" s="2">
         <v>44</v>
@@ -27428,7 +27423,7 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
@@ -27454,16 +27449,16 @@
         <v>201</v>
       </c>
       <c r="K220" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="L220" t="s" s="2">
         <v>666</v>
       </c>
-      <c r="L220" t="s" s="2">
+      <c r="M220" t="s" s="2">
         <v>667</v>
       </c>
-      <c r="M220" t="s" s="2">
+      <c r="N220" t="s" s="2">
         <v>668</v>
-      </c>
-      <c r="N220" t="s" s="2">
-        <v>669</v>
       </c>
       <c r="O220" t="s" s="2">
         <v>44</v>
@@ -27512,7 +27507,7 @@
         <v>44</v>
       </c>
       <c r="AE220" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AF220" t="s" s="2">
         <v>42</v>
@@ -27527,16 +27522,16 @@
         <v>63</v>
       </c>
       <c r="AJ220" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="AK220" t="s" s="2">
         <v>670</v>
       </c>
-      <c r="AK220" t="s" s="2">
+      <c r="AL220" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM220" t="s" s="2">
         <v>671</v>
-      </c>
-      <c r="AL220" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM220" t="s" s="2">
-        <v>672</v>
       </c>
       <c r="AN220" t="s" s="2">
         <v>44</v>
@@ -27544,11 +27539,11 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" t="s" s="2">
@@ -27570,13 +27565,13 @@
         <v>242</v>
       </c>
       <c r="K221" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="L221" t="s" s="2">
         <v>675</v>
       </c>
-      <c r="L221" t="s" s="2">
+      <c r="M221" t="s" s="2">
         <v>676</v>
-      </c>
-      <c r="M221" t="s" s="2">
-        <v>677</v>
       </c>
       <c r="N221" s="2"/>
       <c r="O221" t="s" s="2">
@@ -27626,7 +27621,7 @@
         <v>44</v>
       </c>
       <c r="AE221" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AF221" t="s" s="2">
         <v>42</v>
@@ -27641,7 +27636,7 @@
         <v>63</v>
       </c>
       <c r="AJ221" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AK221" t="s" s="2">
         <v>130</v>
@@ -27650,7 +27645,7 @@
         <v>44</v>
       </c>
       <c r="AM221" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AN221" t="s" s="2">
         <v>44</v>
@@ -27658,7 +27653,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
@@ -27684,16 +27679,16 @@
         <v>242</v>
       </c>
       <c r="K222" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="L222" t="s" s="2">
         <v>681</v>
       </c>
-      <c r="L222" t="s" s="2">
+      <c r="M222" t="s" s="2">
         <v>682</v>
       </c>
-      <c r="M222" t="s" s="2">
+      <c r="N222" t="s" s="2">
         <v>683</v>
-      </c>
-      <c r="N222" t="s" s="2">
-        <v>684</v>
       </c>
       <c r="O222" t="s" s="2">
         <v>44</v>
@@ -27742,7 +27737,7 @@
         <v>44</v>
       </c>
       <c r="AE222" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AF222" t="s" s="2">
         <v>42</v>
@@ -27757,10 +27752,10 @@
         <v>63</v>
       </c>
       <c r="AJ222" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AK222" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AL222" t="s" s="2">
         <v>44</v>
@@ -27774,7 +27769,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -27800,16 +27795,16 @@
         <v>595</v>
       </c>
       <c r="K223" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="L223" t="s" s="2">
         <v>687</v>
       </c>
-      <c r="L223" t="s" s="2">
+      <c r="M223" t="s" s="2">
         <v>688</v>
       </c>
-      <c r="M223" t="s" s="2">
+      <c r="N223" t="s" s="2">
         <v>689</v>
-      </c>
-      <c r="N223" t="s" s="2">
-        <v>690</v>
       </c>
       <c r="O223" t="s" s="2">
         <v>44</v>
@@ -27858,7 +27853,7 @@
         <v>44</v>
       </c>
       <c r="AE223" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AF223" t="s" s="2">
         <v>42</v>
@@ -27873,7 +27868,7 @@
         <v>63</v>
       </c>
       <c r="AJ223" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AK223" t="s" s="2">
         <v>130</v>
@@ -27890,7 +27885,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -28002,7 +27997,7 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -28116,7 +28111,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -28232,7 +28227,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -28255,16 +28250,16 @@
         <v>52</v>
       </c>
       <c r="J227" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="K227" t="s" s="2">
         <v>696</v>
       </c>
-      <c r="K227" t="s" s="2">
+      <c r="L227" t="s" s="2">
         <v>697</v>
       </c>
-      <c r="L227" t="s" s="2">
+      <c r="M227" t="s" s="2">
         <v>698</v>
-      </c>
-      <c r="M227" t="s" s="2">
-        <v>699</v>
       </c>
       <c r="N227" s="2"/>
       <c r="O227" t="s" s="2">
@@ -28314,7 +28309,7 @@
         <v>44</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="AF227" t="s" s="2">
         <v>51</v>
@@ -28338,7 +28333,7 @@
         <v>44</v>
       </c>
       <c r="AM227" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AN227" t="s" s="2">
         <v>44</v>
@@ -28346,7 +28341,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -28372,10 +28367,10 @@
         <v>71</v>
       </c>
       <c r="K228" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="L228" t="s" s="2">
         <v>702</v>
-      </c>
-      <c r="L228" t="s" s="2">
-        <v>703</v>
       </c>
       <c r="M228" s="2"/>
       <c r="N228" s="2"/>
@@ -28405,11 +28400,11 @@
         <v>141</v>
       </c>
       <c r="X228" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="Y228" t="s" s="2">
         <v>703</v>
       </c>
-      <c r="Y228" t="s" s="2">
-        <v>704</v>
-      </c>
       <c r="Z228" t="s" s="2">
         <v>44</v>
       </c>
@@ -28426,7 +28421,7 @@
         <v>44</v>
       </c>
       <c r="AE228" t="s" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AF228" t="s" s="2">
         <v>51</v>
@@ -28441,7 +28436,7 @@
         <v>63</v>
       </c>
       <c r="AJ228" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AK228" t="s" s="2">
         <v>130</v>

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$229</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$230</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8276" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8312" uniqueCount="729">
   <si>
     <t>Path</t>
   </si>
@@ -1331,17 +1331,33 @@
     <t>Patient.address.extension</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>municipality</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition/municipality}
+    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition/address-municipality-ext}
 </t>
   </si>
   <si>
-    <t>Municipality Location</t>
+    <t>Address Municipality Location</t>
   </si>
   <si>
     <t>The location level between District and City/Village</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition/address-location-reference-ext}
+</t>
+  </si>
+  <si>
+    <t>Address Location Reference</t>
+  </si>
+  <si>
+    <t>The reference to adress location for City/Village level</t>
   </si>
   <si>
     <t>Patient.address.use</t>
@@ -1528,10 +1544,10 @@
 </t>
   </si>
   <si>
-    <t>Village Location Code</t>
-  </si>
-  <si>
-    <t>Insuree`s village Location Code as it is configured in openIMIS.</t>
+    <t>Postal code for area</t>
+  </si>
+  <si>
+    <t>A postal code designating a region defined by the postal service.</t>
   </si>
   <si>
     <t>9132</t>
@@ -1604,12 +1620,6 @@
   </si>
   <si>
     <t>The name of the administrative area (county).</t>
-  </si>
-  <si>
-    <t>Postal code for area</t>
-  </si>
-  <si>
-    <t>A postal code designating a region defined by the postal service.</t>
   </si>
   <si>
     <t>InsureeAddress</t>
@@ -2406,7 +2416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN229"/>
+  <dimension ref="A1:AN230"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -17439,7 +17449,7 @@
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
-        <v>51</v>
+        <v>426</v>
       </c>
       <c r="F132" t="s" s="2">
         <v>43</v>
@@ -17546,7 +17556,7 @@
         <v>425</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C133" t="s" s="2">
         <v>44</v>
@@ -17568,13 +17578,13 @@
         <v>44</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -17655,45 +17665,43 @@
         <v>44</v>
       </c>
     </row>
-    <row r="134" hidden="true">
+    <row r="134">
       <c r="A134" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="B134" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="B134" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="C134" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F134" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G134" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H134" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I134" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>71</v>
+        <v>432</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M134" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N134" t="s" s="2">
         <v>434</v>
       </c>
+      <c r="M134" s="2"/>
+      <c r="N134" s="2"/>
       <c r="O134" t="s" s="2">
         <v>44</v>
       </c>
@@ -17705,7 +17713,7 @@
         <v>44</v>
       </c>
       <c r="S134" t="s" s="2">
-        <v>435</v>
+        <v>44</v>
       </c>
       <c r="T134" t="s" s="2">
         <v>44</v>
@@ -17717,13 +17725,13 @@
         <v>44</v>
       </c>
       <c r="W134" t="s" s="2">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="X134" t="s" s="2">
-        <v>436</v>
+        <v>44</v>
       </c>
       <c r="Y134" t="s" s="2">
-        <v>437</v>
+        <v>44</v>
       </c>
       <c r="Z134" t="s" s="2">
         <v>44</v>
@@ -17741,22 +17749,22 @@
         <v>44</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>438</v>
+        <v>135</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ134" t="s" s="2">
-        <v>287</v>
+        <v>44</v>
       </c>
       <c r="AK134" t="s" s="2">
         <v>44</v>
@@ -17765,7 +17773,7 @@
         <v>44</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>439</v>
+        <v>44</v>
       </c>
       <c r="AN134" t="s" s="2">
         <v>44</v>
@@ -17773,7 +17781,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17790,7 +17798,7 @@
         <v>44</v>
       </c>
       <c r="H135" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I135" t="s" s="2">
         <v>52</v>
@@ -17799,15 +17807,17 @@
         <v>71</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N135" s="2"/>
+        <v>438</v>
+      </c>
+      <c r="N135" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="O135" t="s" s="2">
         <v>44</v>
       </c>
@@ -17816,10 +17826,10 @@
         <v>44</v>
       </c>
       <c r="R135" t="s" s="2">
-        <v>444</v>
+        <v>44</v>
       </c>
       <c r="S135" t="s" s="2">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="T135" t="s" s="2">
         <v>44</v>
@@ -17834,10 +17844,10 @@
         <v>141</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="Z135" t="s" s="2">
         <v>44</v>
@@ -17855,7 +17865,7 @@
         <v>44</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>42</v>
@@ -17879,7 +17889,7 @@
         <v>44</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="AN135" t="s" s="2">
         <v>44</v>
@@ -17887,7 +17897,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -17910,20 +17920,18 @@
         <v>52</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
         <v>44</v>
       </c>
@@ -17932,10 +17940,10 @@
         <v>44</v>
       </c>
       <c r="R136" t="s" s="2">
-        <v>44</v>
+        <v>449</v>
       </c>
       <c r="S136" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="T136" t="s" s="2">
         <v>44</v>
@@ -17947,13 +17955,13 @@
         <v>44</v>
       </c>
       <c r="W136" t="s" s="2">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="X136" t="s" s="2">
-        <v>44</v>
+        <v>451</v>
       </c>
       <c r="Y136" t="s" s="2">
-        <v>44</v>
+        <v>452</v>
       </c>
       <c r="Z136" t="s" s="2">
         <v>44</v>
@@ -17971,7 +17979,7 @@
         <v>44</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>42</v>
@@ -17986,7 +17994,7 @@
         <v>63</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="AK136" t="s" s="2">
         <v>44</v>
@@ -17995,7 +18003,7 @@
         <v>44</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AN136" t="s" s="2">
         <v>44</v>
@@ -18003,7 +18011,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -18029,13 +18037,17 @@
         <v>53</v>
       </c>
       <c r="K137" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L137" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M137" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="L137" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="M137" s="2"/>
-      <c r="N137" s="2"/>
+      <c r="N137" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="O137" t="s" s="2">
         <v>44</v>
       </c>
@@ -18047,49 +18059,49 @@
         <v>44</v>
       </c>
       <c r="S137" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="T137" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U137" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V137" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W137" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X137" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y137" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z137" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA137" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB137" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC137" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD137" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE137" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="T137" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U137" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V137" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W137" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X137" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y137" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z137" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA137" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB137" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC137" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD137" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE137" t="s" s="2">
-        <v>461</v>
-      </c>
       <c r="AF137" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>44</v>
@@ -18098,38 +18110,38 @@
         <v>63</v>
       </c>
       <c r="AJ137" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AK137" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL137" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM137" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AN137" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="138" hidden="true">
+      <c r="A138" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="AK137" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL137" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM137" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AN137" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
-        <v>465</v>
+        <v>44</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F138" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G138" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H138" t="s" s="2">
         <v>44</v>
@@ -18141,10 +18153,10 @@
         <v>53</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="M138" s="2"/>
       <c r="N138" s="2"/>
@@ -18159,7 +18171,7 @@
         <v>44</v>
       </c>
       <c r="S138" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="T138" t="s" s="2">
         <v>44</v>
@@ -18195,13 +18207,13 @@
         <v>44</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>44</v>
@@ -18210,7 +18222,7 @@
         <v>63</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="AK138" t="s" s="2">
         <v>44</v>
@@ -18219,7 +18231,7 @@
         <v>44</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="AN138" t="s" s="2">
         <v>44</v>
@@ -18227,11 +18239,11 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -18253,14 +18265,12 @@
         <v>53</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>476</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="M139" s="2"/>
       <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
         <v>44</v>
@@ -18273,7 +18283,7 @@
         <v>44</v>
       </c>
       <c r="S139" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="T139" t="s" s="2">
         <v>44</v>
@@ -18309,7 +18319,7 @@
         <v>44</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>42</v>
@@ -18324,7 +18334,7 @@
         <v>63</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="AK139" t="s" s="2">
         <v>44</v>
@@ -18333,7 +18343,7 @@
         <v>44</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="AN139" t="s" s="2">
         <v>44</v>
@@ -18341,11 +18351,11 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -18367,12 +18377,14 @@
         <v>53</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="M140" s="2"/>
+        <v>480</v>
+      </c>
+      <c r="M140" t="s" s="2">
+        <v>481</v>
+      </c>
       <c r="N140" s="2"/>
       <c r="O140" t="s" s="2">
         <v>44</v>
@@ -18385,7 +18397,7 @@
         <v>44</v>
       </c>
       <c r="S140" t="s" s="2">
-        <v>44</v>
+        <v>482</v>
       </c>
       <c r="T140" t="s" s="2">
         <v>44</v>
@@ -18421,7 +18433,7 @@
         <v>44</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>42</v>
@@ -18436,7 +18448,7 @@
         <v>63</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>44</v>
@@ -18445,7 +18457,7 @@
         <v>44</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="AN140" t="s" s="2">
         <v>44</v>
@@ -18453,11 +18465,11 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
@@ -18479,10 +18491,10 @@
         <v>53</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
@@ -18497,7 +18509,7 @@
         <v>44</v>
       </c>
       <c r="S141" t="s" s="2">
-        <v>492</v>
+        <v>44</v>
       </c>
       <c r="T141" t="s" s="2">
         <v>44</v>
@@ -18533,7 +18545,7 @@
         <v>44</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>42</v>
@@ -18548,7 +18560,7 @@
         <v>63</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="AK141" t="s" s="2">
         <v>44</v>
@@ -18557,7 +18569,7 @@
         <v>44</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="AN141" t="s" s="2">
         <v>44</v>
@@ -18565,11 +18577,11 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
-        <v>44</v>
+        <v>494</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
@@ -18591,14 +18603,12 @@
         <v>53</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="M142" t="s" s="2">
-        <v>499</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="M142" s="2"/>
       <c r="N142" s="2"/>
       <c r="O142" t="s" s="2">
         <v>44</v>
@@ -18611,7 +18621,7 @@
         <v>44</v>
       </c>
       <c r="S142" t="s" s="2">
-        <v>44</v>
+        <v>497</v>
       </c>
       <c r="T142" t="s" s="2">
         <v>44</v>
@@ -18647,7 +18657,7 @@
         <v>44</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>42</v>
@@ -18662,7 +18672,7 @@
         <v>63</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>44</v>
@@ -18671,7 +18681,7 @@
         <v>44</v>
       </c>
       <c r="AM142" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="AN142" t="s" s="2">
         <v>44</v>
@@ -18679,7 +18689,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -18690,7 +18700,7 @@
         <v>42</v>
       </c>
       <c r="F143" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G143" t="s" s="2">
         <v>44</v>
@@ -18702,18 +18712,18 @@
         <v>52</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>235</v>
+        <v>53</v>
       </c>
       <c r="K143" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="L143" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M143" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="L143" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="M143" s="2"/>
-      <c r="N143" t="s" s="2">
-        <v>506</v>
-      </c>
+      <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
         <v>44</v>
       </c>
@@ -18725,7 +18735,7 @@
         <v>44</v>
       </c>
       <c r="S143" t="s" s="2">
-        <v>507</v>
+        <v>44</v>
       </c>
       <c r="T143" t="s" s="2">
         <v>44</v>
@@ -18761,7 +18771,7 @@
         <v>44</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>42</v>
@@ -18776,7 +18786,7 @@
         <v>63</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>330</v>
+        <v>506</v>
       </c>
       <c r="AK143" t="s" s="2">
         <v>44</v>
@@ -18785,19 +18795,17 @@
         <v>44</v>
       </c>
       <c r="AM143" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AN143" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="B144" t="s" s="2">
-        <v>510</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
         <v>44</v>
       </c>
@@ -18809,7 +18817,7 @@
         <v>51</v>
       </c>
       <c r="G144" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H144" t="s" s="2">
         <v>44</v>
@@ -18818,19 +18826,17 @@
         <v>52</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>415</v>
+        <v>235</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>416</v>
+        <v>509</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="M144" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="M144" s="2"/>
       <c r="N144" t="s" s="2">
-        <v>419</v>
+        <v>511</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>44</v>
@@ -18843,7 +18849,7 @@
         <v>44</v>
       </c>
       <c r="S144" t="s" s="2">
-        <v>44</v>
+        <v>512</v>
       </c>
       <c r="T144" t="s" s="2">
         <v>44</v>
@@ -18879,13 +18885,13 @@
         <v>44</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>414</v>
+        <v>513</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>44</v>
@@ -18894,26 +18900,28 @@
         <v>63</v>
       </c>
       <c r="AJ144" t="s" s="2">
-        <v>421</v>
+        <v>330</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>422</v>
+        <v>44</v>
       </c>
       <c r="AL144" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM144" t="s" s="2">
-        <v>423</v>
+        <v>514</v>
       </c>
       <c r="AN144" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="145" hidden="true">
+    <row r="145">
       <c r="A145" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="B145" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="B145" t="s" s="2">
+        <v>515</v>
+      </c>
       <c r="C145" t="s" s="2">
         <v>44</v>
       </c>
@@ -18925,25 +18933,29 @@
         <v>51</v>
       </c>
       <c r="G145" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H145" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I145" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>53</v>
+        <v>415</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>127</v>
+        <v>416</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M145" s="2"/>
-      <c r="N145" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="M145" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="N145" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="O145" t="s" s="2">
         <v>44</v>
       </c>
@@ -18991,31 +19003,31 @@
         <v>44</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>129</v>
+        <v>414</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ145" t="s" s="2">
-        <v>130</v>
+        <v>421</v>
       </c>
       <c r="AK145" t="s" s="2">
-        <v>44</v>
+        <v>422</v>
       </c>
       <c r="AL145" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM145" t="s" s="2">
-        <v>44</v>
+        <v>423</v>
       </c>
       <c r="AN145" t="s" s="2">
         <v>44</v>
@@ -19023,18 +19035,18 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F146" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G146" t="s" s="2">
         <v>44</v>
@@ -19046,17 +19058,15 @@
         <v>44</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M146" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="M146" s="2"/>
       <c r="N146" s="2"/>
       <c r="O146" t="s" s="2">
         <v>44</v>
@@ -19093,31 +19103,31 @@
         <v>44</v>
       </c>
       <c r="AA146" t="s" s="2">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="AB146" t="s" s="2">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="AC146" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD146" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI146" t="s" s="2">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="AJ146" t="s" s="2">
         <v>130</v>
@@ -19137,43 +19147,41 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F147" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G147" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H147" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I147" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>431</v>
+        <v>132</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>432</v>
+        <v>133</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="N147" s="2"/>
       <c r="O147" t="s" s="2">
         <v>44</v>
       </c>
@@ -19182,10 +19190,10 @@
         <v>44</v>
       </c>
       <c r="R147" t="s" s="2">
-        <v>435</v>
+        <v>44</v>
       </c>
       <c r="S147" t="s" s="2">
-        <v>435</v>
+        <v>44</v>
       </c>
       <c r="T147" t="s" s="2">
         <v>44</v>
@@ -19197,46 +19205,46 @@
         <v>44</v>
       </c>
       <c r="W147" t="s" s="2">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="X147" t="s" s="2">
-        <v>436</v>
+        <v>44</v>
       </c>
       <c r="Y147" t="s" s="2">
-        <v>437</v>
+        <v>44</v>
       </c>
       <c r="Z147" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA147" t="s" s="2">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="AB147" t="s" s="2">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="AC147" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD147" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>438</v>
+        <v>135</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>287</v>
+        <v>130</v>
       </c>
       <c r="AK147" t="s" s="2">
         <v>44</v>
@@ -19245,7 +19253,7 @@
         <v>44</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>439</v>
+        <v>44</v>
       </c>
       <c r="AN147" t="s" s="2">
         <v>44</v>
@@ -19253,7 +19261,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -19261,7 +19269,7 @@
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F148" t="s" s="2">
         <v>51</v>
@@ -19270,7 +19278,7 @@
         <v>44</v>
       </c>
       <c r="H148" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I148" t="s" s="2">
         <v>52</v>
@@ -19279,15 +19287,17 @@
         <v>71</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N148" s="2"/>
+        <v>438</v>
+      </c>
+      <c r="N148" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="O148" t="s" s="2">
         <v>44</v>
       </c>
@@ -19296,10 +19306,10 @@
         <v>44</v>
       </c>
       <c r="R148" t="s" s="2">
-        <v>44</v>
+        <v>440</v>
       </c>
       <c r="S148" t="s" s="2">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="T148" t="s" s="2">
         <v>44</v>
@@ -19314,10 +19324,10 @@
         <v>141</v>
       </c>
       <c r="X148" t="s" s="2">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="Y148" t="s" s="2">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="Z148" t="s" s="2">
         <v>44</v>
@@ -19335,7 +19345,7 @@
         <v>44</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>42</v>
@@ -19359,7 +19369,7 @@
         <v>44</v>
       </c>
       <c r="AM148" t="s" s="2">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="AN148" t="s" s="2">
         <v>44</v>
@@ -19367,7 +19377,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -19390,20 +19400,18 @@
         <v>52</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N149" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="N149" s="2"/>
       <c r="O149" t="s" s="2">
         <v>44</v>
       </c>
@@ -19415,7 +19423,7 @@
         <v>44</v>
       </c>
       <c r="S149" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="T149" t="s" s="2">
         <v>44</v>
@@ -19427,13 +19435,13 @@
         <v>44</v>
       </c>
       <c r="W149" t="s" s="2">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="X149" t="s" s="2">
-        <v>44</v>
+        <v>451</v>
       </c>
       <c r="Y149" t="s" s="2">
-        <v>44</v>
+        <v>452</v>
       </c>
       <c r="Z149" t="s" s="2">
         <v>44</v>
@@ -19451,7 +19459,7 @@
         <v>44</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>42</v>
@@ -19466,7 +19474,7 @@
         <v>63</v>
       </c>
       <c r="AJ149" t="s" s="2">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="AK149" t="s" s="2">
         <v>44</v>
@@ -19475,7 +19483,7 @@
         <v>44</v>
       </c>
       <c r="AM149" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AN149" t="s" s="2">
         <v>44</v>
@@ -19483,7 +19491,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -19494,7 +19502,7 @@
         <v>42</v>
       </c>
       <c r="F150" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G150" t="s" s="2">
         <v>44</v>
@@ -19509,13 +19517,17 @@
         <v>53</v>
       </c>
       <c r="K150" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L150" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M150" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="L150" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="M150" s="2"/>
-      <c r="N150" s="2"/>
+      <c r="N150" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="O150" t="s" s="2">
         <v>44</v>
       </c>
@@ -19527,49 +19539,49 @@
         <v>44</v>
       </c>
       <c r="S150" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="T150" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U150" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V150" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W150" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X150" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y150" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z150" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA150" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB150" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC150" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD150" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE150" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="T150" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U150" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V150" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W150" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X150" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y150" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z150" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA150" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB150" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC150" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD150" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE150" t="s" s="2">
-        <v>461</v>
-      </c>
       <c r="AF150" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>44</v>
@@ -19578,7 +19590,7 @@
         <v>63</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>462</v>
+        <v>295</v>
       </c>
       <c r="AK150" t="s" s="2">
         <v>44</v>
@@ -19587,7 +19599,7 @@
         <v>44</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="AN150" t="s" s="2">
         <v>44</v>
@@ -19595,18 +19607,18 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
-        <v>465</v>
+        <v>44</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F151" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G151" t="s" s="2">
         <v>44</v>
@@ -19621,10 +19633,10 @@
         <v>53</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>511</v>
+        <v>463</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>512</v>
+        <v>464</v>
       </c>
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
@@ -19639,7 +19651,7 @@
         <v>44</v>
       </c>
       <c r="S151" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="T151" t="s" s="2">
         <v>44</v>
@@ -19675,13 +19687,13 @@
         <v>44</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>44</v>
@@ -19690,7 +19702,7 @@
         <v>63</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="AK151" t="s" s="2">
         <v>44</v>
@@ -19699,7 +19711,7 @@
         <v>44</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>44</v>
@@ -19707,11 +19719,11 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
@@ -19733,14 +19745,12 @@
         <v>53</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="M152" t="s" s="2">
-        <v>476</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="M152" s="2"/>
       <c r="N152" s="2"/>
       <c r="O152" t="s" s="2">
         <v>44</v>
@@ -19753,7 +19763,7 @@
         <v>44</v>
       </c>
       <c r="S152" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="T152" t="s" s="2">
         <v>44</v>
@@ -19789,7 +19799,7 @@
         <v>44</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>42</v>
@@ -19804,7 +19814,7 @@
         <v>63</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="AK152" t="s" s="2">
         <v>44</v>
@@ -19813,7 +19823,7 @@
         <v>44</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>44</v>
@@ -19821,11 +19831,11 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
@@ -19847,12 +19857,14 @@
         <v>53</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>483</v>
+        <v>518</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="M153" s="2"/>
+        <v>519</v>
+      </c>
+      <c r="M153" t="s" s="2">
+        <v>481</v>
+      </c>
       <c r="N153" s="2"/>
       <c r="O153" t="s" s="2">
         <v>44</v>
@@ -19865,7 +19877,7 @@
         <v>44</v>
       </c>
       <c r="S153" t="s" s="2">
-        <v>44</v>
+        <v>482</v>
       </c>
       <c r="T153" t="s" s="2">
         <v>44</v>
@@ -19901,7 +19913,7 @@
         <v>44</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>42</v>
@@ -19916,7 +19928,7 @@
         <v>63</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AK153" t="s" s="2">
         <v>44</v>
@@ -19925,7 +19937,7 @@
         <v>44</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="AN153" t="s" s="2">
         <v>44</v>
@@ -19933,11 +19945,11 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
@@ -19959,10 +19971,10 @@
         <v>53</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>515</v>
+        <v>488</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>516</v>
+        <v>489</v>
       </c>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
@@ -19977,7 +19989,7 @@
         <v>44</v>
       </c>
       <c r="S154" t="s" s="2">
-        <v>492</v>
+        <v>44</v>
       </c>
       <c r="T154" t="s" s="2">
         <v>44</v>
@@ -20013,7 +20025,7 @@
         <v>44</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>42</v>
@@ -20028,7 +20040,7 @@
         <v>63</v>
       </c>
       <c r="AJ154" t="s" s="2">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="AK154" t="s" s="2">
         <v>44</v>
@@ -20037,7 +20049,7 @@
         <v>44</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="AN154" t="s" s="2">
         <v>44</v>
@@ -20045,11 +20057,11 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
-        <v>44</v>
+        <v>494</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
@@ -20071,14 +20083,12 @@
         <v>53</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="M155" t="s" s="2">
-        <v>499</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="M155" s="2"/>
       <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
         <v>44</v>
@@ -20091,7 +20101,7 @@
         <v>44</v>
       </c>
       <c r="S155" t="s" s="2">
-        <v>44</v>
+        <v>497</v>
       </c>
       <c r="T155" t="s" s="2">
         <v>44</v>
@@ -20127,7 +20137,7 @@
         <v>44</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>42</v>
@@ -20142,7 +20152,7 @@
         <v>63</v>
       </c>
       <c r="AJ155" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AK155" t="s" s="2">
         <v>44</v>
@@ -20151,7 +20161,7 @@
         <v>44</v>
       </c>
       <c r="AM155" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="AN155" t="s" s="2">
         <v>44</v>
@@ -20159,7 +20169,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -20182,18 +20192,18 @@
         <v>52</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>235</v>
+        <v>53</v>
       </c>
       <c r="K156" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="L156" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M156" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="L156" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="M156" s="2"/>
-      <c r="N156" t="s" s="2">
-        <v>506</v>
-      </c>
+      <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
         <v>44</v>
       </c>
@@ -20205,7 +20215,7 @@
         <v>44</v>
       </c>
       <c r="S156" t="s" s="2">
-        <v>507</v>
+        <v>44</v>
       </c>
       <c r="T156" t="s" s="2">
         <v>44</v>
@@ -20241,7 +20251,7 @@
         <v>44</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>42</v>
@@ -20256,7 +20266,7 @@
         <v>63</v>
       </c>
       <c r="AJ156" t="s" s="2">
-        <v>330</v>
+        <v>506</v>
       </c>
       <c r="AK156" t="s" s="2">
         <v>44</v>
@@ -20265,7 +20275,7 @@
         <v>44</v>
       </c>
       <c r="AM156" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AN156" t="s" s="2">
         <v>44</v>
@@ -20273,11 +20283,9 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="B157" t="s" s="2">
-        <v>517</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
         <v>44</v>
       </c>
@@ -20298,19 +20306,17 @@
         <v>52</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>415</v>
+        <v>235</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>416</v>
+        <v>509</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="M157" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="M157" s="2"/>
       <c r="N157" t="s" s="2">
-        <v>419</v>
+        <v>511</v>
       </c>
       <c r="O157" t="s" s="2">
         <v>44</v>
@@ -20323,7 +20329,7 @@
         <v>44</v>
       </c>
       <c r="S157" t="s" s="2">
-        <v>44</v>
+        <v>512</v>
       </c>
       <c r="T157" t="s" s="2">
         <v>44</v>
@@ -20359,13 +20365,13 @@
         <v>44</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>414</v>
+        <v>513</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>44</v>
@@ -20374,16 +20380,16 @@
         <v>63</v>
       </c>
       <c r="AJ157" t="s" s="2">
-        <v>421</v>
+        <v>330</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>422</v>
+        <v>44</v>
       </c>
       <c r="AL157" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM157" t="s" s="2">
-        <v>423</v>
+        <v>514</v>
       </c>
       <c r="AN157" t="s" s="2">
         <v>44</v>
@@ -20391,9 +20397,11 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="B158" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="B158" t="s" s="2">
+        <v>520</v>
+      </c>
       <c r="C158" t="s" s="2">
         <v>44</v>
       </c>
@@ -20411,19 +20419,23 @@
         <v>44</v>
       </c>
       <c r="I158" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>53</v>
+        <v>415</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>127</v>
+        <v>416</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M158" s="2"/>
-      <c r="N158" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="M158" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="N158" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="O158" t="s" s="2">
         <v>44</v>
       </c>
@@ -20471,31 +20483,31 @@
         <v>44</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>129</v>
+        <v>414</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH158" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI158" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ158" t="s" s="2">
-        <v>130</v>
+        <v>421</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>44</v>
+        <v>422</v>
       </c>
       <c r="AL158" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>44</v>
+        <v>423</v>
       </c>
       <c r="AN158" t="s" s="2">
         <v>44</v>
@@ -20503,18 +20515,18 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F159" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G159" t="s" s="2">
         <v>44</v>
@@ -20526,17 +20538,15 @@
         <v>44</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M159" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="M159" s="2"/>
       <c r="N159" s="2"/>
       <c r="O159" t="s" s="2">
         <v>44</v>
@@ -20573,31 +20583,31 @@
         <v>44</v>
       </c>
       <c r="AA159" t="s" s="2">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="AB159" t="s" s="2">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="AC159" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD159" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI159" t="s" s="2">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="AJ159" t="s" s="2">
         <v>130</v>
@@ -20617,43 +20627,41 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F160" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G160" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H160" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I160" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>431</v>
+        <v>132</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>432</v>
+        <v>133</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N160" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="N160" s="2"/>
       <c r="O160" t="s" s="2">
         <v>44</v>
       </c>
@@ -20662,10 +20670,10 @@
         <v>44</v>
       </c>
       <c r="R160" t="s" s="2">
-        <v>518</v>
+        <v>44</v>
       </c>
       <c r="S160" t="s" s="2">
-        <v>435</v>
+        <v>44</v>
       </c>
       <c r="T160" t="s" s="2">
         <v>44</v>
@@ -20677,46 +20685,46 @@
         <v>44</v>
       </c>
       <c r="W160" t="s" s="2">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="X160" t="s" s="2">
-        <v>436</v>
+        <v>44</v>
       </c>
       <c r="Y160" t="s" s="2">
-        <v>437</v>
+        <v>44</v>
       </c>
       <c r="Z160" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA160" t="s" s="2">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="AB160" t="s" s="2">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="AC160" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD160" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>438</v>
+        <v>135</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH160" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI160" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ160" t="s" s="2">
-        <v>287</v>
+        <v>130</v>
       </c>
       <c r="AK160" t="s" s="2">
         <v>44</v>
@@ -20725,7 +20733,7 @@
         <v>44</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>439</v>
+        <v>44</v>
       </c>
       <c r="AN160" t="s" s="2">
         <v>44</v>
@@ -20733,7 +20741,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -20741,7 +20749,7 @@
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F161" t="s" s="2">
         <v>51</v>
@@ -20750,7 +20758,7 @@
         <v>44</v>
       </c>
       <c r="H161" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I161" t="s" s="2">
         <v>52</v>
@@ -20759,15 +20767,17 @@
         <v>71</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N161" s="2"/>
+        <v>438</v>
+      </c>
+      <c r="N161" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="O161" t="s" s="2">
         <v>44</v>
       </c>
@@ -20776,10 +20786,10 @@
         <v>44</v>
       </c>
       <c r="R161" t="s" s="2">
-        <v>44</v>
+        <v>521</v>
       </c>
       <c r="S161" t="s" s="2">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="T161" t="s" s="2">
         <v>44</v>
@@ -20794,10 +20804,10 @@
         <v>141</v>
       </c>
       <c r="X161" t="s" s="2">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="Y161" t="s" s="2">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="Z161" t="s" s="2">
         <v>44</v>
@@ -20815,7 +20825,7 @@
         <v>44</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>42</v>
@@ -20839,7 +20849,7 @@
         <v>44</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>44</v>
@@ -20847,7 +20857,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -20870,20 +20880,18 @@
         <v>52</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N162" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="N162" s="2"/>
       <c r="O162" t="s" s="2">
         <v>44</v>
       </c>
@@ -20895,7 +20903,7 @@
         <v>44</v>
       </c>
       <c r="S162" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="T162" t="s" s="2">
         <v>44</v>
@@ -20907,13 +20915,13 @@
         <v>44</v>
       </c>
       <c r="W162" t="s" s="2">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="X162" t="s" s="2">
-        <v>44</v>
+        <v>451</v>
       </c>
       <c r="Y162" t="s" s="2">
-        <v>44</v>
+        <v>452</v>
       </c>
       <c r="Z162" t="s" s="2">
         <v>44</v>
@@ -20931,7 +20939,7 @@
         <v>44</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>42</v>
@@ -20946,7 +20954,7 @@
         <v>63</v>
       </c>
       <c r="AJ162" t="s" s="2">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="AK162" t="s" s="2">
         <v>44</v>
@@ -20955,7 +20963,7 @@
         <v>44</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AN162" t="s" s="2">
         <v>44</v>
@@ -20963,7 +20971,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -20974,7 +20982,7 @@
         <v>42</v>
       </c>
       <c r="F163" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G163" t="s" s="2">
         <v>44</v>
@@ -20989,13 +20997,17 @@
         <v>53</v>
       </c>
       <c r="K163" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L163" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M163" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="L163" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="M163" s="2"/>
-      <c r="N163" s="2"/>
+      <c r="N163" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="O163" t="s" s="2">
         <v>44</v>
       </c>
@@ -21007,49 +21019,49 @@
         <v>44</v>
       </c>
       <c r="S163" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="T163" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U163" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V163" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W163" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X163" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y163" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z163" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA163" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB163" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC163" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD163" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE163" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="T163" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U163" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V163" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W163" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X163" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y163" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z163" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA163" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB163" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC163" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD163" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE163" t="s" s="2">
-        <v>461</v>
-      </c>
       <c r="AF163" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>44</v>
@@ -21058,7 +21070,7 @@
         <v>63</v>
       </c>
       <c r="AJ163" t="s" s="2">
-        <v>462</v>
+        <v>295</v>
       </c>
       <c r="AK163" t="s" s="2">
         <v>44</v>
@@ -21067,7 +21079,7 @@
         <v>44</v>
       </c>
       <c r="AM163" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="AN163" t="s" s="2">
         <v>44</v>
@@ -21075,18 +21087,18 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
-        <v>465</v>
+        <v>44</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F164" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G164" t="s" s="2">
         <v>44</v>
@@ -21101,10 +21113,10 @@
         <v>53</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>511</v>
+        <v>463</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>512</v>
+        <v>464</v>
       </c>
       <c r="M164" s="2"/>
       <c r="N164" s="2"/>
@@ -21119,7 +21131,7 @@
         <v>44</v>
       </c>
       <c r="S164" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="T164" t="s" s="2">
         <v>44</v>
@@ -21155,13 +21167,13 @@
         <v>44</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>44</v>
@@ -21170,7 +21182,7 @@
         <v>63</v>
       </c>
       <c r="AJ164" t="s" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="AK164" t="s" s="2">
         <v>44</v>
@@ -21179,7 +21191,7 @@
         <v>44</v>
       </c>
       <c r="AM164" t="s" s="2">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="AN164" t="s" s="2">
         <v>44</v>
@@ -21187,11 +21199,11 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
@@ -21213,14 +21225,12 @@
         <v>53</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="M165" t="s" s="2">
-        <v>476</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="M165" s="2"/>
       <c r="N165" s="2"/>
       <c r="O165" t="s" s="2">
         <v>44</v>
@@ -21233,7 +21243,7 @@
         <v>44</v>
       </c>
       <c r="S165" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="T165" t="s" s="2">
         <v>44</v>
@@ -21269,7 +21279,7 @@
         <v>44</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>42</v>
@@ -21284,7 +21294,7 @@
         <v>63</v>
       </c>
       <c r="AJ165" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="AK165" t="s" s="2">
         <v>44</v>
@@ -21293,7 +21303,7 @@
         <v>44</v>
       </c>
       <c r="AM165" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="AN165" t="s" s="2">
         <v>44</v>
@@ -21301,11 +21311,11 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
@@ -21327,12 +21337,14 @@
         <v>53</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>483</v>
+        <v>518</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="M166" s="2"/>
+        <v>519</v>
+      </c>
+      <c r="M166" t="s" s="2">
+        <v>481</v>
+      </c>
       <c r="N166" s="2"/>
       <c r="O166" t="s" s="2">
         <v>44</v>
@@ -21345,7 +21357,7 @@
         <v>44</v>
       </c>
       <c r="S166" t="s" s="2">
-        <v>44</v>
+        <v>482</v>
       </c>
       <c r="T166" t="s" s="2">
         <v>44</v>
@@ -21381,7 +21393,7 @@
         <v>44</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>42</v>
@@ -21396,7 +21408,7 @@
         <v>63</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AK166" t="s" s="2">
         <v>44</v>
@@ -21405,7 +21417,7 @@
         <v>44</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="AN166" t="s" s="2">
         <v>44</v>
@@ -21413,11 +21425,11 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
@@ -21439,10 +21451,10 @@
         <v>53</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>515</v>
+        <v>488</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>516</v>
+        <v>489</v>
       </c>
       <c r="M167" s="2"/>
       <c r="N167" s="2"/>
@@ -21457,7 +21469,7 @@
         <v>44</v>
       </c>
       <c r="S167" t="s" s="2">
-        <v>492</v>
+        <v>44</v>
       </c>
       <c r="T167" t="s" s="2">
         <v>44</v>
@@ -21493,7 +21505,7 @@
         <v>44</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>42</v>
@@ -21508,7 +21520,7 @@
         <v>63</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="AK167" t="s" s="2">
         <v>44</v>
@@ -21517,7 +21529,7 @@
         <v>44</v>
       </c>
       <c r="AM167" t="s" s="2">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="AN167" t="s" s="2">
         <v>44</v>
@@ -21525,11 +21537,11 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
-        <v>44</v>
+        <v>494</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
@@ -21551,14 +21563,12 @@
         <v>53</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="M168" t="s" s="2">
-        <v>499</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="M168" s="2"/>
       <c r="N168" s="2"/>
       <c r="O168" t="s" s="2">
         <v>44</v>
@@ -21571,7 +21581,7 @@
         <v>44</v>
       </c>
       <c r="S168" t="s" s="2">
-        <v>44</v>
+        <v>497</v>
       </c>
       <c r="T168" t="s" s="2">
         <v>44</v>
@@ -21607,7 +21617,7 @@
         <v>44</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>42</v>
@@ -21622,7 +21632,7 @@
         <v>63</v>
       </c>
       <c r="AJ168" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AK168" t="s" s="2">
         <v>44</v>
@@ -21631,7 +21641,7 @@
         <v>44</v>
       </c>
       <c r="AM168" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="AN168" t="s" s="2">
         <v>44</v>
@@ -21639,7 +21649,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -21662,18 +21672,18 @@
         <v>52</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>235</v>
+        <v>53</v>
       </c>
       <c r="K169" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="L169" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M169" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="L169" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="M169" s="2"/>
-      <c r="N169" t="s" s="2">
-        <v>506</v>
-      </c>
+      <c r="N169" s="2"/>
       <c r="O169" t="s" s="2">
         <v>44</v>
       </c>
@@ -21685,7 +21695,7 @@
         <v>44</v>
       </c>
       <c r="S169" t="s" s="2">
-        <v>507</v>
+        <v>44</v>
       </c>
       <c r="T169" t="s" s="2">
         <v>44</v>
@@ -21721,7 +21731,7 @@
         <v>44</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>42</v>
@@ -21736,7 +21746,7 @@
         <v>63</v>
       </c>
       <c r="AJ169" t="s" s="2">
-        <v>330</v>
+        <v>506</v>
       </c>
       <c r="AK169" t="s" s="2">
         <v>44</v>
@@ -21745,7 +21755,7 @@
         <v>44</v>
       </c>
       <c r="AM169" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AN169" t="s" s="2">
         <v>44</v>
@@ -21753,7 +21763,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -21773,20 +21783,20 @@
         <v>44</v>
       </c>
       <c r="I170" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>147</v>
+        <v>235</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" t="s" s="2">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>44</v>
@@ -21799,7 +21809,7 @@
         <v>44</v>
       </c>
       <c r="S170" t="s" s="2">
-        <v>44</v>
+        <v>512</v>
       </c>
       <c r="T170" t="s" s="2">
         <v>44</v>
@@ -21811,11 +21821,13 @@
         <v>44</v>
       </c>
       <c r="W170" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="X170" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X170" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y170" t="s" s="2">
-        <v>523</v>
+        <v>44</v>
       </c>
       <c r="Z170" t="s" s="2">
         <v>44</v>
@@ -21833,7 +21845,7 @@
         <v>44</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>42</v>
@@ -21848,16 +21860,16 @@
         <v>63</v>
       </c>
       <c r="AJ170" t="s" s="2">
-        <v>524</v>
+        <v>330</v>
       </c>
       <c r="AK170" t="s" s="2">
-        <v>525</v>
+        <v>44</v>
       </c>
       <c r="AL170" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM170" t="s" s="2">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="AN170" t="s" s="2">
         <v>44</v>
@@ -21865,7 +21877,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -21888,19 +21900,17 @@
         <v>44</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>528</v>
+        <v>147</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="M171" t="s" s="2">
-        <v>531</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="M171" s="2"/>
       <c r="N171" t="s" s="2">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>44</v>
@@ -21925,13 +21935,11 @@
         <v>44</v>
       </c>
       <c r="W171" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X171" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="X171" s="2"/>
       <c r="Y171" t="s" s="2">
-        <v>44</v>
+        <v>526</v>
       </c>
       <c r="Z171" t="s" s="2">
         <v>44</v>
@@ -21949,7 +21957,7 @@
         <v>44</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>42</v>
@@ -21964,16 +21972,16 @@
         <v>63</v>
       </c>
       <c r="AJ171" t="s" s="2">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="AK171" t="s" s="2">
-        <v>130</v>
+        <v>528</v>
       </c>
       <c r="AL171" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM171" t="s" s="2">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="AN171" t="s" s="2">
         <v>44</v>
@@ -21981,7 +21989,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -21995,7 +22003,7 @@
         <v>51</v>
       </c>
       <c r="G172" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H172" t="s" s="2">
         <v>44</v>
@@ -22004,19 +22012,19 @@
         <v>44</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>44</v>
@@ -22053,25 +22061,25 @@
         <v>44</v>
       </c>
       <c r="AA172" t="s" s="2">
-        <v>541</v>
+        <v>44</v>
       </c>
       <c r="AB172" t="s" s="2">
-        <v>542</v>
+        <v>44</v>
       </c>
       <c r="AC172" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD172" t="s" s="2">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG172" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH172" t="s" s="2">
         <v>44</v>
@@ -22080,7 +22088,7 @@
         <v>63</v>
       </c>
       <c r="AJ172" t="s" s="2">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="AK172" t="s" s="2">
         <v>130</v>
@@ -22089,7 +22097,7 @@
         <v>44</v>
       </c>
       <c r="AM172" t="s" s="2">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="AN172" t="s" s="2">
         <v>44</v>
@@ -22097,7 +22105,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -22111,7 +22119,7 @@
         <v>51</v>
       </c>
       <c r="G173" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H173" t="s" s="2">
         <v>44</v>
@@ -22120,16 +22128,20 @@
         <v>44</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>53</v>
+        <v>539</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>127</v>
+        <v>540</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M173" s="2"/>
-      <c r="N173" s="2"/>
+        <v>541</v>
+      </c>
+      <c r="M173" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="N173" t="s" s="2">
+        <v>543</v>
+      </c>
       <c r="O173" t="s" s="2">
         <v>44</v>
       </c>
@@ -22165,43 +22177,43 @@
         <v>44</v>
       </c>
       <c r="AA173" t="s" s="2">
-        <v>44</v>
+        <v>544</v>
       </c>
       <c r="AB173" t="s" s="2">
-        <v>44</v>
+        <v>545</v>
       </c>
       <c r="AC173" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD173" t="s" s="2">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>129</v>
+        <v>538</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG173" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH173" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI173" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ173" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AK173" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AK173" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AL173" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM173" t="s" s="2">
-        <v>44</v>
+        <v>547</v>
       </c>
       <c r="AN173" t="s" s="2">
         <v>44</v>
@@ -22209,18 +22221,18 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F174" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G174" t="s" s="2">
         <v>44</v>
@@ -22232,17 +22244,15 @@
         <v>44</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M174" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="M174" s="2"/>
       <c r="N174" s="2"/>
       <c r="O174" t="s" s="2">
         <v>44</v>
@@ -22279,31 +22289,31 @@
         <v>44</v>
       </c>
       <c r="AA174" t="s" s="2">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="AB174" t="s" s="2">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="AC174" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD174" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG174" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH174" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI174" t="s" s="2">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="AJ174" t="s" s="2">
         <v>130</v>
@@ -22321,43 +22331,43 @@
         <v>44</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F175" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G175" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H175" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I175" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J175" t="s" s="2">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>548</v>
+        <v>132</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="M175" s="2"/>
-      <c r="N175" t="s" s="2">
-        <v>550</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="M175" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N175" s="2"/>
       <c r="O175" t="s" s="2">
         <v>44</v>
       </c>
@@ -22369,7 +22379,7 @@
         <v>44</v>
       </c>
       <c r="S175" t="s" s="2">
-        <v>551</v>
+        <v>44</v>
       </c>
       <c r="T175" t="s" s="2">
         <v>44</v>
@@ -22381,46 +22391,46 @@
         <v>44</v>
       </c>
       <c r="W175" t="s" s="2">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="X175" t="s" s="2">
-        <v>552</v>
+        <v>44</v>
       </c>
       <c r="Y175" t="s" s="2">
-        <v>553</v>
+        <v>44</v>
       </c>
       <c r="Z175" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA175" t="s" s="2">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="AB175" t="s" s="2">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="AC175" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD175" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>554</v>
+        <v>135</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG175" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH175" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI175" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ175" t="s" s="2">
-        <v>555</v>
+        <v>130</v>
       </c>
       <c r="AK175" t="s" s="2">
         <v>44</v>
@@ -22429,15 +22439,15 @@
         <v>44</v>
       </c>
       <c r="AM175" t="s" s="2">
-        <v>556</v>
+        <v>44</v>
       </c>
       <c r="AN175" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="176" hidden="true">
+    <row r="176">
       <c r="A176" t="s" s="2">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -22445,13 +22455,13 @@
       </c>
       <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F176" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G176" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H176" t="s" s="2">
         <v>44</v>
@@ -22463,14 +22473,14 @@
         <v>71</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="M176" s="2"/>
       <c r="N176" t="s" s="2">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="O176" t="s" s="2">
         <v>44</v>
@@ -22483,7 +22493,7 @@
         <v>44</v>
       </c>
       <c r="S176" t="s" s="2">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="T176" t="s" s="2">
         <v>44</v>
@@ -22495,13 +22505,13 @@
         <v>44</v>
       </c>
       <c r="W176" t="s" s="2">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="X176" t="s" s="2">
-        <v>76</v>
+        <v>555</v>
       </c>
       <c r="Y176" t="s" s="2">
-        <v>77</v>
+        <v>556</v>
       </c>
       <c r="Z176" t="s" s="2">
         <v>44</v>
@@ -22519,7 +22529,7 @@
         <v>44</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>42</v>
@@ -22534,7 +22544,7 @@
         <v>63</v>
       </c>
       <c r="AJ176" t="s" s="2">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="AK176" t="s" s="2">
         <v>44</v>
@@ -22543,7 +22553,7 @@
         <v>44</v>
       </c>
       <c r="AM176" t="s" s="2">
-        <v>44</v>
+        <v>559</v>
       </c>
       <c r="AN176" t="s" s="2">
         <v>44</v>
@@ -22551,7 +22561,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -22571,22 +22581,20 @@
         <v>44</v>
       </c>
       <c r="I177" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J177" t="s" s="2">
-        <v>565</v>
+        <v>71</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="M177" t="s" s="2">
-        <v>568</v>
-      </c>
+        <v>562</v>
+      </c>
+      <c r="M177" s="2"/>
       <c r="N177" t="s" s="2">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>44</v>
@@ -22599,7 +22607,7 @@
         <v>44</v>
       </c>
       <c r="S177" t="s" s="2">
-        <v>44</v>
+        <v>564</v>
       </c>
       <c r="T177" t="s" s="2">
         <v>44</v>
@@ -22611,13 +22619,13 @@
         <v>44</v>
       </c>
       <c r="W177" t="s" s="2">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="X177" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="Y177" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="Z177" t="s" s="2">
         <v>44</v>
@@ -22635,7 +22643,7 @@
         <v>44</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>42</v>
@@ -22650,7 +22658,7 @@
         <v>63</v>
       </c>
       <c r="AJ177" t="s" s="2">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="AK177" t="s" s="2">
         <v>44</v>
@@ -22659,7 +22667,7 @@
         <v>44</v>
       </c>
       <c r="AM177" t="s" s="2">
-        <v>572</v>
+        <v>44</v>
       </c>
       <c r="AN177" t="s" s="2">
         <v>44</v>
@@ -22667,7 +22675,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -22687,22 +22695,22 @@
         <v>44</v>
       </c>
       <c r="I178" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J178" t="s" s="2">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>44</v>
@@ -22715,7 +22723,7 @@
         <v>44</v>
       </c>
       <c r="S178" t="s" s="2">
-        <v>579</v>
+        <v>44</v>
       </c>
       <c r="T178" t="s" s="2">
         <v>44</v>
@@ -22751,7 +22759,7 @@
         <v>44</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>42</v>
@@ -22766,7 +22774,7 @@
         <v>63</v>
       </c>
       <c r="AJ178" t="s" s="2">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="AK178" t="s" s="2">
         <v>44</v>
@@ -22775,7 +22783,7 @@
         <v>44</v>
       </c>
       <c r="AM178" t="s" s="2">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="AN178" t="s" s="2">
         <v>44</v>
@@ -22783,7 +22791,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -22806,19 +22814,19 @@
         <v>52</v>
       </c>
       <c r="J179" t="s" s="2">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="N179" t="s" s="2">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>44</v>
@@ -22831,7 +22839,7 @@
         <v>44</v>
       </c>
       <c r="S179" t="s" s="2">
-        <v>44</v>
+        <v>582</v>
       </c>
       <c r="T179" t="s" s="2">
         <v>44</v>
@@ -22867,7 +22875,7 @@
         <v>44</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>42</v>
@@ -22882,7 +22890,7 @@
         <v>63</v>
       </c>
       <c r="AJ179" t="s" s="2">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="AK179" t="s" s="2">
         <v>44</v>
@@ -22891,7 +22899,7 @@
         <v>44</v>
       </c>
       <c r="AM179" t="s" s="2">
-        <v>44</v>
+        <v>585</v>
       </c>
       <c r="AN179" t="s" s="2">
         <v>44</v>
@@ -22899,7 +22907,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -22907,7 +22915,7 @@
       </c>
       <c r="D180" s="2"/>
       <c r="E180" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F180" t="s" s="2">
         <v>51</v>
@@ -22922,19 +22930,19 @@
         <v>52</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>565</v>
+        <v>587</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="N180" t="s" s="2">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>44</v>
@@ -22983,7 +22991,7 @@
         <v>44</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>42</v>
@@ -22998,7 +23006,7 @@
         <v>63</v>
       </c>
       <c r="AJ180" t="s" s="2">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="AK180" t="s" s="2">
         <v>44</v>
@@ -23013,9 +23021,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -23029,7 +23037,7 @@
         <v>51</v>
       </c>
       <c r="G181" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H181" t="s" s="2">
         <v>44</v>
@@ -23038,17 +23046,19 @@
         <v>52</v>
       </c>
       <c r="J181" t="s" s="2">
-        <v>53</v>
+        <v>568</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="M181" s="2"/>
+        <v>596</v>
+      </c>
+      <c r="M181" t="s" s="2">
+        <v>597</v>
+      </c>
       <c r="N181" t="s" s="2">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="O181" t="s" s="2">
         <v>44</v>
@@ -23061,7 +23071,7 @@
         <v>44</v>
       </c>
       <c r="S181" t="s" s="2">
-        <v>602</v>
+        <v>44</v>
       </c>
       <c r="T181" t="s" s="2">
         <v>44</v>
@@ -23097,7 +23107,7 @@
         <v>44</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>42</v>
@@ -23112,7 +23122,7 @@
         <v>63</v>
       </c>
       <c r="AJ181" t="s" s="2">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="AK181" t="s" s="2">
         <v>44</v>
@@ -23129,7 +23139,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -23152,17 +23162,17 @@
         <v>52</v>
       </c>
       <c r="J182" t="s" s="2">
-        <v>606</v>
+        <v>53</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="M182" s="2"/>
       <c r="N182" t="s" s="2">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="O182" t="s" s="2">
         <v>44</v>
@@ -23175,7 +23185,7 @@
         <v>44</v>
       </c>
       <c r="S182" t="s" s="2">
-        <v>44</v>
+        <v>605</v>
       </c>
       <c r="T182" t="s" s="2">
         <v>44</v>
@@ -23211,7 +23221,7 @@
         <v>44</v>
       </c>
       <c r="AE182" t="s" s="2">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="AF182" t="s" s="2">
         <v>42</v>
@@ -23226,7 +23236,7 @@
         <v>63</v>
       </c>
       <c r="AJ182" t="s" s="2">
-        <v>590</v>
+        <v>607</v>
       </c>
       <c r="AK182" t="s" s="2">
         <v>44</v>
@@ -23241,46 +23251,42 @@
         <v>44</v>
       </c>
     </row>
-    <row r="183" hidden="true">
+    <row r="183">
       <c r="A183" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="B183" t="s" s="2">
-        <v>611</v>
-      </c>
+        <v>608</v>
+      </c>
+      <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F183" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G183" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H183" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I183" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J183" t="s" s="2">
-        <v>536</v>
+        <v>609</v>
       </c>
       <c r="K183" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="L183" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="M183" s="2"/>
+      <c r="N183" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="L183" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="M183" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="N183" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="O183" t="s" s="2">
         <v>44</v>
@@ -23329,13 +23335,13 @@
         <v>44</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>535</v>
+        <v>613</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG183" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH183" t="s" s="2">
         <v>44</v>
@@ -23344,16 +23350,16 @@
         <v>63</v>
       </c>
       <c r="AJ183" t="s" s="2">
-        <v>543</v>
+        <v>593</v>
       </c>
       <c r="AK183" t="s" s="2">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="AL183" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM183" t="s" s="2">
-        <v>544</v>
+        <v>44</v>
       </c>
       <c r="AN183" t="s" s="2">
         <v>44</v>
@@ -23361,9 +23367,11 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="B184" s="2"/>
+        <v>538</v>
+      </c>
+      <c r="B184" t="s" s="2">
+        <v>614</v>
+      </c>
       <c r="C184" t="s" s="2">
         <v>44</v>
       </c>
@@ -23384,16 +23392,20 @@
         <v>44</v>
       </c>
       <c r="J184" t="s" s="2">
-        <v>53</v>
+        <v>539</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>127</v>
+        <v>615</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M184" s="2"/>
-      <c r="N184" s="2"/>
+        <v>541</v>
+      </c>
+      <c r="M184" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="N184" t="s" s="2">
+        <v>543</v>
+      </c>
       <c r="O184" t="s" s="2">
         <v>44</v>
       </c>
@@ -23441,31 +23453,31 @@
         <v>44</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>129</v>
+        <v>538</v>
       </c>
       <c r="AF184" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG184" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH184" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI184" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ184" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AK184" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AK184" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AL184" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM184" t="s" s="2">
-        <v>44</v>
+        <v>547</v>
       </c>
       <c r="AN184" t="s" s="2">
         <v>44</v>
@@ -23473,18 +23485,18 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F185" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G185" t="s" s="2">
         <v>44</v>
@@ -23496,17 +23508,15 @@
         <v>44</v>
       </c>
       <c r="J185" t="s" s="2">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M185" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="M185" s="2"/>
       <c r="N185" s="2"/>
       <c r="O185" t="s" s="2">
         <v>44</v>
@@ -23543,31 +23553,31 @@
         <v>44</v>
       </c>
       <c r="AA185" t="s" s="2">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="AB185" t="s" s="2">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="AC185" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD185" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="AF185" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG185" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH185" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI185" t="s" s="2">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="AJ185" t="s" s="2">
         <v>130</v>
@@ -23587,18 +23597,18 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F186" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G186" t="s" s="2">
         <v>44</v>
@@ -23607,21 +23617,21 @@
         <v>44</v>
       </c>
       <c r="I186" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J186" t="s" s="2">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>548</v>
+        <v>132</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="M186" s="2"/>
-      <c r="N186" t="s" s="2">
-        <v>550</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="M186" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N186" s="2"/>
       <c r="O186" t="s" s="2">
         <v>44</v>
       </c>
@@ -23633,7 +23643,7 @@
         <v>44</v>
       </c>
       <c r="S186" t="s" s="2">
-        <v>551</v>
+        <v>44</v>
       </c>
       <c r="T186" t="s" s="2">
         <v>44</v>
@@ -23645,46 +23655,46 @@
         <v>44</v>
       </c>
       <c r="W186" t="s" s="2">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="X186" t="s" s="2">
-        <v>552</v>
+        <v>44</v>
       </c>
       <c r="Y186" t="s" s="2">
-        <v>553</v>
+        <v>44</v>
       </c>
       <c r="Z186" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA186" t="s" s="2">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="AB186" t="s" s="2">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="AC186" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD186" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>554</v>
+        <v>135</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG186" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH186" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI186" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ186" t="s" s="2">
-        <v>555</v>
+        <v>130</v>
       </c>
       <c r="AK186" t="s" s="2">
         <v>44</v>
@@ -23693,7 +23703,7 @@
         <v>44</v>
       </c>
       <c r="AM186" t="s" s="2">
-        <v>556</v>
+        <v>44</v>
       </c>
       <c r="AN186" t="s" s="2">
         <v>44</v>
@@ -23701,7 +23711,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -23727,14 +23737,14 @@
         <v>71</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="M187" s="2"/>
       <c r="N187" t="s" s="2">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>44</v>
@@ -23747,7 +23757,7 @@
         <v>44</v>
       </c>
       <c r="S187" t="s" s="2">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="T187" t="s" s="2">
         <v>44</v>
@@ -23759,13 +23769,13 @@
         <v>44</v>
       </c>
       <c r="W187" t="s" s="2">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="X187" t="s" s="2">
-        <v>76</v>
+        <v>555</v>
       </c>
       <c r="Y187" t="s" s="2">
-        <v>77</v>
+        <v>556</v>
       </c>
       <c r="Z187" t="s" s="2">
         <v>44</v>
@@ -23783,7 +23793,7 @@
         <v>44</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>42</v>
@@ -23798,7 +23808,7 @@
         <v>63</v>
       </c>
       <c r="AJ187" t="s" s="2">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="AK187" t="s" s="2">
         <v>44</v>
@@ -23807,7 +23817,7 @@
         <v>44</v>
       </c>
       <c r="AM187" t="s" s="2">
-        <v>44</v>
+        <v>559</v>
       </c>
       <c r="AN187" t="s" s="2">
         <v>44</v>
@@ -23815,7 +23825,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -23826,7 +23836,7 @@
         <v>42</v>
       </c>
       <c r="F188" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G188" t="s" s="2">
         <v>44</v>
@@ -23835,22 +23845,20 @@
         <v>44</v>
       </c>
       <c r="I188" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J188" t="s" s="2">
-        <v>565</v>
+        <v>71</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="M188" t="s" s="2">
-        <v>568</v>
-      </c>
+        <v>562</v>
+      </c>
+      <c r="M188" s="2"/>
       <c r="N188" t="s" s="2">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>44</v>
@@ -23863,7 +23871,7 @@
         <v>44</v>
       </c>
       <c r="S188" t="s" s="2">
-        <v>44</v>
+        <v>564</v>
       </c>
       <c r="T188" t="s" s="2">
         <v>44</v>
@@ -23875,13 +23883,13 @@
         <v>44</v>
       </c>
       <c r="W188" t="s" s="2">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="X188" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="Y188" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="Z188" t="s" s="2">
         <v>44</v>
@@ -23899,7 +23907,7 @@
         <v>44</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>42</v>
@@ -23914,7 +23922,7 @@
         <v>63</v>
       </c>
       <c r="AJ188" t="s" s="2">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="AK188" t="s" s="2">
         <v>44</v>
@@ -23923,7 +23931,7 @@
         <v>44</v>
       </c>
       <c r="AM188" t="s" s="2">
-        <v>572</v>
+        <v>44</v>
       </c>
       <c r="AN188" t="s" s="2">
         <v>44</v>
@@ -23931,7 +23939,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -23939,10 +23947,10 @@
       </c>
       <c r="D189" s="2"/>
       <c r="E189" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F189" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G189" t="s" s="2">
         <v>44</v>
@@ -23951,22 +23959,22 @@
         <v>44</v>
       </c>
       <c r="I189" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J189" t="s" s="2">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="N189" t="s" s="2">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="O189" t="s" s="2">
         <v>44</v>
@@ -23979,7 +23987,7 @@
         <v>44</v>
       </c>
       <c r="S189" t="s" s="2">
-        <v>579</v>
+        <v>44</v>
       </c>
       <c r="T189" t="s" s="2">
         <v>44</v>
@@ -24015,7 +24023,7 @@
         <v>44</v>
       </c>
       <c r="AE189" t="s" s="2">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="AF189" t="s" s="2">
         <v>42</v>
@@ -24030,7 +24038,7 @@
         <v>63</v>
       </c>
       <c r="AJ189" t="s" s="2">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="AK189" t="s" s="2">
         <v>44</v>
@@ -24039,7 +24047,7 @@
         <v>44</v>
       </c>
       <c r="AM189" t="s" s="2">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="AN189" t="s" s="2">
         <v>44</v>
@@ -24047,7 +24055,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -24070,19 +24078,19 @@
         <v>52</v>
       </c>
       <c r="J190" t="s" s="2">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="N190" t="s" s="2">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="O190" t="s" s="2">
         <v>44</v>
@@ -24095,7 +24103,7 @@
         <v>44</v>
       </c>
       <c r="S190" t="s" s="2">
-        <v>44</v>
+        <v>582</v>
       </c>
       <c r="T190" t="s" s="2">
         <v>44</v>
@@ -24131,7 +24139,7 @@
         <v>44</v>
       </c>
       <c r="AE190" t="s" s="2">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="AF190" t="s" s="2">
         <v>42</v>
@@ -24146,7 +24154,7 @@
         <v>63</v>
       </c>
       <c r="AJ190" t="s" s="2">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="AK190" t="s" s="2">
         <v>44</v>
@@ -24155,7 +24163,7 @@
         <v>44</v>
       </c>
       <c r="AM190" t="s" s="2">
-        <v>44</v>
+        <v>585</v>
       </c>
       <c r="AN190" t="s" s="2">
         <v>44</v>
@@ -24163,7 +24171,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -24171,7 +24179,7 @@
       </c>
       <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F191" t="s" s="2">
         <v>51</v>
@@ -24186,19 +24194,19 @@
         <v>52</v>
       </c>
       <c r="J191" t="s" s="2">
-        <v>565</v>
+        <v>587</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="N191" t="s" s="2">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="O191" t="s" s="2">
         <v>44</v>
@@ -24247,7 +24255,7 @@
         <v>44</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>42</v>
@@ -24262,7 +24270,7 @@
         <v>63</v>
       </c>
       <c r="AJ191" t="s" s="2">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="AK191" t="s" s="2">
         <v>44</v>
@@ -24279,7 +24287,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -24302,17 +24310,19 @@
         <v>52</v>
       </c>
       <c r="J192" t="s" s="2">
-        <v>53</v>
+        <v>568</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="M192" s="2"/>
+        <v>596</v>
+      </c>
+      <c r="M192" t="s" s="2">
+        <v>597</v>
+      </c>
       <c r="N192" t="s" s="2">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="O192" t="s" s="2">
         <v>44</v>
@@ -24325,7 +24335,7 @@
         <v>44</v>
       </c>
       <c r="S192" t="s" s="2">
-        <v>602</v>
+        <v>44</v>
       </c>
       <c r="T192" t="s" s="2">
         <v>44</v>
@@ -24361,7 +24371,7 @@
         <v>44</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>42</v>
@@ -24376,7 +24386,7 @@
         <v>63</v>
       </c>
       <c r="AJ192" t="s" s="2">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="AK192" t="s" s="2">
         <v>44</v>
@@ -24393,7 +24403,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -24416,17 +24426,17 @@
         <v>52</v>
       </c>
       <c r="J193" t="s" s="2">
-        <v>606</v>
+        <v>53</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="M193" s="2"/>
       <c r="N193" t="s" s="2">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="O193" t="s" s="2">
         <v>44</v>
@@ -24439,7 +24449,7 @@
         <v>44</v>
       </c>
       <c r="S193" t="s" s="2">
-        <v>44</v>
+        <v>605</v>
       </c>
       <c r="T193" t="s" s="2">
         <v>44</v>
@@ -24475,7 +24485,7 @@
         <v>44</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>42</v>
@@ -24490,7 +24500,7 @@
         <v>63</v>
       </c>
       <c r="AJ193" t="s" s="2">
-        <v>590</v>
+        <v>607</v>
       </c>
       <c r="AK193" t="s" s="2">
         <v>44</v>
@@ -24507,11 +24517,9 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="B194" t="s" s="2">
-        <v>613</v>
-      </c>
+        <v>608</v>
+      </c>
+      <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
         <v>44</v>
       </c>
@@ -24529,22 +24537,20 @@
         <v>44</v>
       </c>
       <c r="I194" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J194" t="s" s="2">
-        <v>536</v>
+        <v>609</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="M194" t="s" s="2">
-        <v>539</v>
-      </c>
+        <v>611</v>
+      </c>
+      <c r="M194" s="2"/>
       <c r="N194" t="s" s="2">
-        <v>540</v>
+        <v>612</v>
       </c>
       <c r="O194" t="s" s="2">
         <v>44</v>
@@ -24593,13 +24599,13 @@
         <v>44</v>
       </c>
       <c r="AE194" t="s" s="2">
-        <v>535</v>
+        <v>613</v>
       </c>
       <c r="AF194" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG194" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH194" t="s" s="2">
         <v>44</v>
@@ -24608,16 +24614,16 @@
         <v>63</v>
       </c>
       <c r="AJ194" t="s" s="2">
-        <v>543</v>
+        <v>593</v>
       </c>
       <c r="AK194" t="s" s="2">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="AL194" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM194" t="s" s="2">
-        <v>544</v>
+        <v>44</v>
       </c>
       <c r="AN194" t="s" s="2">
         <v>44</v>
@@ -24625,9 +24631,11 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="B195" s="2"/>
+        <v>538</v>
+      </c>
+      <c r="B195" t="s" s="2">
+        <v>616</v>
+      </c>
       <c r="C195" t="s" s="2">
         <v>44</v>
       </c>
@@ -24648,16 +24656,20 @@
         <v>44</v>
       </c>
       <c r="J195" t="s" s="2">
-        <v>53</v>
+        <v>539</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>127</v>
+        <v>617</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M195" s="2"/>
-      <c r="N195" s="2"/>
+        <v>541</v>
+      </c>
+      <c r="M195" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="N195" t="s" s="2">
+        <v>543</v>
+      </c>
       <c r="O195" t="s" s="2">
         <v>44</v>
       </c>
@@ -24705,31 +24717,31 @@
         <v>44</v>
       </c>
       <c r="AE195" t="s" s="2">
-        <v>129</v>
+        <v>538</v>
       </c>
       <c r="AF195" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG195" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH195" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI195" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ195" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AK195" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AK195" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AL195" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM195" t="s" s="2">
-        <v>44</v>
+        <v>547</v>
       </c>
       <c r="AN195" t="s" s="2">
         <v>44</v>
@@ -24737,18 +24749,18 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="D196" s="2"/>
       <c r="E196" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F196" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G196" t="s" s="2">
         <v>44</v>
@@ -24760,17 +24772,15 @@
         <v>44</v>
       </c>
       <c r="J196" t="s" s="2">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M196" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="M196" s="2"/>
       <c r="N196" s="2"/>
       <c r="O196" t="s" s="2">
         <v>44</v>
@@ -24807,31 +24817,31 @@
         <v>44</v>
       </c>
       <c r="AA196" t="s" s="2">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="AB196" t="s" s="2">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="AC196" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD196" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE196" t="s" s="2">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="AF196" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG196" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH196" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI196" t="s" s="2">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="AJ196" t="s" s="2">
         <v>130</v>
@@ -24851,18 +24861,18 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F197" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G197" t="s" s="2">
         <v>44</v>
@@ -24871,21 +24881,21 @@
         <v>44</v>
       </c>
       <c r="I197" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J197" t="s" s="2">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>548</v>
+        <v>132</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="M197" s="2"/>
-      <c r="N197" t="s" s="2">
-        <v>550</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="M197" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N197" s="2"/>
       <c r="O197" t="s" s="2">
         <v>44</v>
       </c>
@@ -24897,7 +24907,7 @@
         <v>44</v>
       </c>
       <c r="S197" t="s" s="2">
-        <v>551</v>
+        <v>44</v>
       </c>
       <c r="T197" t="s" s="2">
         <v>44</v>
@@ -24909,46 +24919,46 @@
         <v>44</v>
       </c>
       <c r="W197" t="s" s="2">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="X197" t="s" s="2">
-        <v>552</v>
+        <v>44</v>
       </c>
       <c r="Y197" t="s" s="2">
-        <v>553</v>
+        <v>44</v>
       </c>
       <c r="Z197" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA197" t="s" s="2">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="AB197" t="s" s="2">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="AC197" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD197" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE197" t="s" s="2">
-        <v>554</v>
+        <v>135</v>
       </c>
       <c r="AF197" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG197" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH197" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI197" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ197" t="s" s="2">
-        <v>555</v>
+        <v>130</v>
       </c>
       <c r="AK197" t="s" s="2">
         <v>44</v>
@@ -24957,7 +24967,7 @@
         <v>44</v>
       </c>
       <c r="AM197" t="s" s="2">
-        <v>556</v>
+        <v>44</v>
       </c>
       <c r="AN197" t="s" s="2">
         <v>44</v>
@@ -24965,7 +24975,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -24991,14 +25001,14 @@
         <v>71</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="M198" s="2"/>
       <c r="N198" t="s" s="2">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="O198" t="s" s="2">
         <v>44</v>
@@ -25011,7 +25021,7 @@
         <v>44</v>
       </c>
       <c r="S198" t="s" s="2">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="T198" t="s" s="2">
         <v>44</v>
@@ -25023,13 +25033,13 @@
         <v>44</v>
       </c>
       <c r="W198" t="s" s="2">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="X198" t="s" s="2">
-        <v>76</v>
+        <v>555</v>
       </c>
       <c r="Y198" t="s" s="2">
-        <v>77</v>
+        <v>556</v>
       </c>
       <c r="Z198" t="s" s="2">
         <v>44</v>
@@ -25047,7 +25057,7 @@
         <v>44</v>
       </c>
       <c r="AE198" t="s" s="2">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="AF198" t="s" s="2">
         <v>42</v>
@@ -25062,7 +25072,7 @@
         <v>63</v>
       </c>
       <c r="AJ198" t="s" s="2">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="AK198" t="s" s="2">
         <v>44</v>
@@ -25071,7 +25081,7 @@
         <v>44</v>
       </c>
       <c r="AM198" t="s" s="2">
-        <v>44</v>
+        <v>559</v>
       </c>
       <c r="AN198" t="s" s="2">
         <v>44</v>
@@ -25079,7 +25089,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -25087,7 +25097,7 @@
       </c>
       <c r="D199" s="2"/>
       <c r="E199" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F199" t="s" s="2">
         <v>51</v>
@@ -25099,22 +25109,20 @@
         <v>44</v>
       </c>
       <c r="I199" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J199" t="s" s="2">
-        <v>565</v>
+        <v>71</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="M199" t="s" s="2">
-        <v>568</v>
-      </c>
+        <v>562</v>
+      </c>
+      <c r="M199" s="2"/>
       <c r="N199" t="s" s="2">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="O199" t="s" s="2">
         <v>44</v>
@@ -25127,7 +25135,7 @@
         <v>44</v>
       </c>
       <c r="S199" t="s" s="2">
-        <v>44</v>
+        <v>564</v>
       </c>
       <c r="T199" t="s" s="2">
         <v>44</v>
@@ -25139,13 +25147,13 @@
         <v>44</v>
       </c>
       <c r="W199" t="s" s="2">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="X199" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="Y199" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="Z199" t="s" s="2">
         <v>44</v>
@@ -25163,7 +25171,7 @@
         <v>44</v>
       </c>
       <c r="AE199" t="s" s="2">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="AF199" t="s" s="2">
         <v>42</v>
@@ -25178,7 +25186,7 @@
         <v>63</v>
       </c>
       <c r="AJ199" t="s" s="2">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="AK199" t="s" s="2">
         <v>44</v>
@@ -25187,7 +25195,7 @@
         <v>44</v>
       </c>
       <c r="AM199" t="s" s="2">
-        <v>572</v>
+        <v>44</v>
       </c>
       <c r="AN199" t="s" s="2">
         <v>44</v>
@@ -25195,7 +25203,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -25203,10 +25211,10 @@
       </c>
       <c r="D200" s="2"/>
       <c r="E200" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F200" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G200" t="s" s="2">
         <v>44</v>
@@ -25215,22 +25223,22 @@
         <v>44</v>
       </c>
       <c r="I200" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J200" t="s" s="2">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="N200" t="s" s="2">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="O200" t="s" s="2">
         <v>44</v>
@@ -25243,7 +25251,7 @@
         <v>44</v>
       </c>
       <c r="S200" t="s" s="2">
-        <v>579</v>
+        <v>44</v>
       </c>
       <c r="T200" t="s" s="2">
         <v>44</v>
@@ -25279,7 +25287,7 @@
         <v>44</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>42</v>
@@ -25294,7 +25302,7 @@
         <v>63</v>
       </c>
       <c r="AJ200" t="s" s="2">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="AK200" t="s" s="2">
         <v>44</v>
@@ -25303,7 +25311,7 @@
         <v>44</v>
       </c>
       <c r="AM200" t="s" s="2">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="AN200" t="s" s="2">
         <v>44</v>
@@ -25311,7 +25319,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -25322,7 +25330,7 @@
         <v>42</v>
       </c>
       <c r="F201" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G201" t="s" s="2">
         <v>44</v>
@@ -25334,19 +25342,19 @@
         <v>52</v>
       </c>
       <c r="J201" t="s" s="2">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="N201" t="s" s="2">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="O201" t="s" s="2">
         <v>44</v>
@@ -25359,7 +25367,7 @@
         <v>44</v>
       </c>
       <c r="S201" t="s" s="2">
-        <v>44</v>
+        <v>582</v>
       </c>
       <c r="T201" t="s" s="2">
         <v>44</v>
@@ -25395,7 +25403,7 @@
         <v>44</v>
       </c>
       <c r="AE201" t="s" s="2">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="AF201" t="s" s="2">
         <v>42</v>
@@ -25410,7 +25418,7 @@
         <v>63</v>
       </c>
       <c r="AJ201" t="s" s="2">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="AK201" t="s" s="2">
         <v>44</v>
@@ -25419,7 +25427,7 @@
         <v>44</v>
       </c>
       <c r="AM201" t="s" s="2">
-        <v>44</v>
+        <v>585</v>
       </c>
       <c r="AN201" t="s" s="2">
         <v>44</v>
@@ -25427,7 +25435,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -25450,19 +25458,19 @@
         <v>52</v>
       </c>
       <c r="J202" t="s" s="2">
-        <v>565</v>
+        <v>587</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="N202" t="s" s="2">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="O202" t="s" s="2">
         <v>44</v>
@@ -25511,7 +25519,7 @@
         <v>44</v>
       </c>
       <c r="AE202" t="s" s="2">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="AF202" t="s" s="2">
         <v>42</v>
@@ -25526,7 +25534,7 @@
         <v>63</v>
       </c>
       <c r="AJ202" t="s" s="2">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="AK202" t="s" s="2">
         <v>44</v>
@@ -25543,7 +25551,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -25566,17 +25574,19 @@
         <v>52</v>
       </c>
       <c r="J203" t="s" s="2">
-        <v>53</v>
+        <v>568</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="M203" s="2"/>
+        <v>596</v>
+      </c>
+      <c r="M203" t="s" s="2">
+        <v>597</v>
+      </c>
       <c r="N203" t="s" s="2">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="O203" t="s" s="2">
         <v>44</v>
@@ -25589,7 +25599,7 @@
         <v>44</v>
       </c>
       <c r="S203" t="s" s="2">
-        <v>602</v>
+        <v>44</v>
       </c>
       <c r="T203" t="s" s="2">
         <v>44</v>
@@ -25625,7 +25635,7 @@
         <v>44</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>42</v>
@@ -25640,7 +25650,7 @@
         <v>63</v>
       </c>
       <c r="AJ203" t="s" s="2">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="AK203" t="s" s="2">
         <v>44</v>
@@ -25657,7 +25667,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -25680,17 +25690,17 @@
         <v>52</v>
       </c>
       <c r="J204" t="s" s="2">
-        <v>606</v>
+        <v>53</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="M204" s="2"/>
       <c r="N204" t="s" s="2">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="O204" t="s" s="2">
         <v>44</v>
@@ -25703,7 +25713,7 @@
         <v>44</v>
       </c>
       <c r="S204" t="s" s="2">
-        <v>44</v>
+        <v>605</v>
       </c>
       <c r="T204" t="s" s="2">
         <v>44</v>
@@ -25739,7 +25749,7 @@
         <v>44</v>
       </c>
       <c r="AE204" t="s" s="2">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="AF204" t="s" s="2">
         <v>42</v>
@@ -25754,7 +25764,7 @@
         <v>63</v>
       </c>
       <c r="AJ204" t="s" s="2">
-        <v>590</v>
+        <v>607</v>
       </c>
       <c r="AK204" t="s" s="2">
         <v>44</v>
@@ -25771,7 +25781,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -25791,22 +25801,20 @@
         <v>44</v>
       </c>
       <c r="I205" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J205" t="s" s="2">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="M205" t="s" s="2">
-        <v>619</v>
-      </c>
+        <v>611</v>
+      </c>
+      <c r="M205" s="2"/>
       <c r="N205" t="s" s="2">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="O205" t="s" s="2">
         <v>44</v>
@@ -25855,25 +25863,25 @@
         <v>44</v>
       </c>
       <c r="AE205" t="s" s="2">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="AF205" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG205" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH205" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI205" t="s" s="2">
-        <v>621</v>
+        <v>63</v>
       </c>
       <c r="AJ205" t="s" s="2">
-        <v>622</v>
+        <v>593</v>
       </c>
       <c r="AK205" t="s" s="2">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="AL205" t="s" s="2">
         <v>44</v>
@@ -25887,7 +25895,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -25910,16 +25918,20 @@
         <v>44</v>
       </c>
       <c r="J206" t="s" s="2">
-        <v>53</v>
+        <v>619</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>127</v>
+        <v>620</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M206" s="2"/>
-      <c r="N206" s="2"/>
+        <v>621</v>
+      </c>
+      <c r="M206" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="N206" t="s" s="2">
+        <v>623</v>
+      </c>
       <c r="O206" t="s" s="2">
         <v>44</v>
       </c>
@@ -25967,25 +25979,25 @@
         <v>44</v>
       </c>
       <c r="AE206" t="s" s="2">
-        <v>129</v>
+        <v>618</v>
       </c>
       <c r="AF206" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG206" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH206" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI206" t="s" s="2">
-        <v>44</v>
+        <v>624</v>
       </c>
       <c r="AJ206" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="AK206" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="AK206" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="AL206" t="s" s="2">
         <v>44</v>
@@ -25999,18 +26011,18 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F207" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G207" t="s" s="2">
         <v>44</v>
@@ -26022,17 +26034,15 @@
         <v>44</v>
       </c>
       <c r="J207" t="s" s="2">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M207" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="M207" s="2"/>
       <c r="N207" s="2"/>
       <c r="O207" t="s" s="2">
         <v>44</v>
@@ -26081,19 +26091,19 @@
         <v>44</v>
       </c>
       <c r="AE207" t="s" s="2">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="AF207" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG207" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH207" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI207" t="s" s="2">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="AJ207" t="s" s="2">
         <v>130</v>
@@ -26113,11 +26123,11 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
-        <v>626</v>
+        <v>109</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" t="s" s="2">
@@ -26130,26 +26140,24 @@
         <v>44</v>
       </c>
       <c r="H208" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I208" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J208" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>627</v>
+        <v>132</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>628</v>
+        <v>133</v>
       </c>
       <c r="M208" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="N208" t="s" s="2">
-        <v>113</v>
-      </c>
+      <c r="N208" s="2"/>
       <c r="O208" t="s" s="2">
         <v>44</v>
       </c>
@@ -26197,7 +26205,7 @@
         <v>44</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>629</v>
+        <v>135</v>
       </c>
       <c r="AF208" t="s" s="2">
         <v>42</v>
@@ -26212,7 +26220,7 @@
         <v>102</v>
       </c>
       <c r="AJ208" t="s" s="2">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="AK208" t="s" s="2">
         <v>44</v>
@@ -26229,40 +26237,42 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
-        <v>44</v>
+        <v>629</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F209" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G209" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H209" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I209" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J209" t="s" s="2">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="K209" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="L209" t="s" s="2">
         <v>631</v>
       </c>
-      <c r="L209" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="M209" s="2"/>
+      <c r="M209" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="N209" t="s" s="2">
-        <v>633</v>
+        <v>113</v>
       </c>
       <c r="O209" t="s" s="2">
         <v>44</v>
@@ -26287,11 +26297,13 @@
         <v>44</v>
       </c>
       <c r="W209" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="X209" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X209" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y209" t="s" s="2">
-        <v>634</v>
+        <v>44</v>
       </c>
       <c r="Z209" t="s" s="2">
         <v>44</v>
@@ -26309,7 +26321,7 @@
         <v>44</v>
       </c>
       <c r="AE209" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="AF209" t="s" s="2">
         <v>42</v>
@@ -26321,19 +26333,19 @@
         <v>44</v>
       </c>
       <c r="AI209" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ209" t="s" s="2">
-        <v>635</v>
+        <v>94</v>
       </c>
       <c r="AK209" t="s" s="2">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="AL209" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM209" t="s" s="2">
-        <v>636</v>
+        <v>44</v>
       </c>
       <c r="AN209" t="s" s="2">
         <v>44</v>
@@ -26341,7 +26353,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -26349,7 +26361,7 @@
       </c>
       <c r="D210" s="2"/>
       <c r="E210" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F210" t="s" s="2">
         <v>51</v>
@@ -26364,17 +26376,17 @@
         <v>44</v>
       </c>
       <c r="J210" t="s" s="2">
-        <v>268</v>
+        <v>147</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="M210" s="2"/>
       <c r="N210" t="s" s="2">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="O210" t="s" s="2">
         <v>44</v>
@@ -26399,13 +26411,11 @@
         <v>44</v>
       </c>
       <c r="W210" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X210" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="X210" s="2"/>
       <c r="Y210" t="s" s="2">
-        <v>44</v>
+        <v>637</v>
       </c>
       <c r="Z210" t="s" s="2">
         <v>44</v>
@@ -26423,13 +26433,13 @@
         <v>44</v>
       </c>
       <c r="AE210" t="s" s="2">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="AF210" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG210" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH210" t="s" s="2">
         <v>44</v>
@@ -26438,7 +26448,7 @@
         <v>63</v>
       </c>
       <c r="AJ210" t="s" s="2">
-        <v>273</v>
+        <v>638</v>
       </c>
       <c r="AK210" t="s" s="2">
         <v>130</v>
@@ -26447,7 +26457,7 @@
         <v>44</v>
       </c>
       <c r="AM210" t="s" s="2">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="AN210" t="s" s="2">
         <v>44</v>
@@ -26455,7 +26465,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -26463,7 +26473,7 @@
       </c>
       <c r="D211" s="2"/>
       <c r="E211" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F211" t="s" s="2">
         <v>51</v>
@@ -26478,19 +26488,17 @@
         <v>44</v>
       </c>
       <c r="J211" t="s" s="2">
-        <v>333</v>
+        <v>268</v>
       </c>
       <c r="K211" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="L211" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="M211" s="2"/>
+      <c r="N211" t="s" s="2">
         <v>643</v>
-      </c>
-      <c r="L211" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="M211" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="N211" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="O211" t="s" s="2">
         <v>44</v>
@@ -26539,13 +26547,13 @@
         <v>44</v>
       </c>
       <c r="AE211" t="s" s="2">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="AF211" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG211" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH211" t="s" s="2">
         <v>44</v>
@@ -26554,7 +26562,7 @@
         <v>63</v>
       </c>
       <c r="AJ211" t="s" s="2">
-        <v>339</v>
+        <v>273</v>
       </c>
       <c r="AK211" t="s" s="2">
         <v>130</v>
@@ -26563,7 +26571,7 @@
         <v>44</v>
       </c>
       <c r="AM211" t="s" s="2">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AN211" t="s" s="2">
         <v>44</v>
@@ -26571,7 +26579,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -26594,17 +26602,19 @@
         <v>44</v>
       </c>
       <c r="J212" t="s" s="2">
-        <v>415</v>
+        <v>333</v>
       </c>
       <c r="K212" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="L212" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="M212" t="s" s="2">
         <v>648</v>
       </c>
-      <c r="L212" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="M212" s="2"/>
       <c r="N212" t="s" s="2">
-        <v>650</v>
+        <v>337</v>
       </c>
       <c r="O212" t="s" s="2">
         <v>44</v>
@@ -26653,13 +26663,13 @@
         <v>44</v>
       </c>
       <c r="AE212" t="s" s="2">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="AF212" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG212" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH212" t="s" s="2">
         <v>44</v>
@@ -26668,7 +26678,7 @@
         <v>63</v>
       </c>
       <c r="AJ212" t="s" s="2">
-        <v>421</v>
+        <v>339</v>
       </c>
       <c r="AK212" t="s" s="2">
         <v>130</v>
@@ -26677,7 +26687,7 @@
         <v>44</v>
       </c>
       <c r="AM212" t="s" s="2">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="AN212" t="s" s="2">
         <v>44</v>
@@ -26685,7 +26695,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -26708,17 +26718,17 @@
         <v>44</v>
       </c>
       <c r="J213" t="s" s="2">
-        <v>71</v>
+        <v>415</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>387</v>
+        <v>651</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="M213" s="2"/>
       <c r="N213" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="O213" t="s" s="2">
         <v>44</v>
@@ -26743,13 +26753,13 @@
         <v>44</v>
       </c>
       <c r="W213" t="s" s="2">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="X213" t="s" s="2">
-        <v>391</v>
+        <v>44</v>
       </c>
       <c r="Y213" t="s" s="2">
-        <v>392</v>
+        <v>44</v>
       </c>
       <c r="Z213" t="s" s="2">
         <v>44</v>
@@ -26767,7 +26777,7 @@
         <v>44</v>
       </c>
       <c r="AE213" t="s" s="2">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="AF213" t="s" s="2">
         <v>42</v>
@@ -26782,7 +26792,7 @@
         <v>63</v>
       </c>
       <c r="AJ213" t="s" s="2">
-        <v>393</v>
+        <v>421</v>
       </c>
       <c r="AK213" t="s" s="2">
         <v>130</v>
@@ -26791,7 +26801,7 @@
         <v>44</v>
       </c>
       <c r="AM213" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AN213" t="s" s="2">
         <v>44</v>
@@ -26799,7 +26809,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -26822,17 +26832,17 @@
         <v>44</v>
       </c>
       <c r="J214" t="s" s="2">
-        <v>242</v>
+        <v>71</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>657</v>
+        <v>387</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="M214" s="2"/>
       <c r="N214" t="s" s="2">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="O214" t="s" s="2">
         <v>44</v>
@@ -26857,13 +26867,13 @@
         <v>44</v>
       </c>
       <c r="W214" t="s" s="2">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="X214" t="s" s="2">
-        <v>44</v>
+        <v>391</v>
       </c>
       <c r="Y214" t="s" s="2">
-        <v>44</v>
+        <v>392</v>
       </c>
       <c r="Z214" t="s" s="2">
         <v>44</v>
@@ -26881,7 +26891,7 @@
         <v>44</v>
       </c>
       <c r="AE214" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AF214" t="s" s="2">
         <v>42</v>
@@ -26890,13 +26900,13 @@
         <v>51</v>
       </c>
       <c r="AH214" t="s" s="2">
-        <v>660</v>
+        <v>44</v>
       </c>
       <c r="AI214" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ214" t="s" s="2">
-        <v>661</v>
+        <v>393</v>
       </c>
       <c r="AK214" t="s" s="2">
         <v>130</v>
@@ -26905,7 +26915,7 @@
         <v>44</v>
       </c>
       <c r="AM214" t="s" s="2">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="AN214" t="s" s="2">
         <v>44</v>
@@ -26913,7 +26923,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -26936,16 +26946,18 @@
         <v>44</v>
       </c>
       <c r="J215" t="s" s="2">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="M215" s="2"/>
-      <c r="N215" s="2"/>
+      <c r="N215" t="s" s="2">
+        <v>662</v>
+      </c>
       <c r="O215" t="s" s="2">
         <v>44</v>
       </c>
@@ -26993,22 +27005,22 @@
         <v>44</v>
       </c>
       <c r="AE215" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="AF215" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG215" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH215" t="s" s="2">
         <v>663</v>
-      </c>
-      <c r="AF215" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG215" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH215" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="AI215" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ215" t="s" s="2">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="AK215" t="s" s="2">
         <v>130</v>
@@ -27017,7 +27029,7 @@
         <v>44</v>
       </c>
       <c r="AM215" t="s" s="2">
-        <v>44</v>
+        <v>665</v>
       </c>
       <c r="AN215" t="s" s="2">
         <v>44</v>
@@ -27025,7 +27037,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -27036,7 +27048,7 @@
         <v>42</v>
       </c>
       <c r="F216" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G216" t="s" s="2">
         <v>44</v>
@@ -27048,20 +27060,16 @@
         <v>44</v>
       </c>
       <c r="J216" t="s" s="2">
-        <v>616</v>
+        <v>235</v>
       </c>
       <c r="K216" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="L216" t="s" s="2">
         <v>668</v>
       </c>
-      <c r="L216" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="M216" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="N216" t="s" s="2">
-        <v>671</v>
-      </c>
+      <c r="M216" s="2"/>
+      <c r="N216" s="2"/>
       <c r="O216" t="s" s="2">
         <v>44</v>
       </c>
@@ -27109,13 +27117,13 @@
         <v>44</v>
       </c>
       <c r="AE216" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="AF216" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG216" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH216" t="s" s="2">
         <v>44</v>
@@ -27124,10 +27132,10 @@
         <v>63</v>
       </c>
       <c r="AJ216" t="s" s="2">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="AK216" t="s" s="2">
-        <v>673</v>
+        <v>130</v>
       </c>
       <c r="AL216" t="s" s="2">
         <v>44</v>
@@ -27141,7 +27149,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -27152,7 +27160,7 @@
         <v>42</v>
       </c>
       <c r="F217" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G217" t="s" s="2">
         <v>44</v>
@@ -27164,16 +27172,20 @@
         <v>44</v>
       </c>
       <c r="J217" t="s" s="2">
-        <v>53</v>
+        <v>619</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>127</v>
+        <v>671</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M217" s="2"/>
-      <c r="N217" s="2"/>
+        <v>672</v>
+      </c>
+      <c r="M217" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="N217" t="s" s="2">
+        <v>674</v>
+      </c>
       <c r="O217" t="s" s="2">
         <v>44</v>
       </c>
@@ -27221,25 +27233,25 @@
         <v>44</v>
       </c>
       <c r="AE217" t="s" s="2">
-        <v>129</v>
+        <v>670</v>
       </c>
       <c r="AF217" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG217" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH217" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI217" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ217" t="s" s="2">
-        <v>130</v>
+        <v>675</v>
       </c>
       <c r="AK217" t="s" s="2">
-        <v>44</v>
+        <v>676</v>
       </c>
       <c r="AL217" t="s" s="2">
         <v>44</v>
@@ -27253,18 +27265,18 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F218" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G218" t="s" s="2">
         <v>44</v>
@@ -27276,17 +27288,15 @@
         <v>44</v>
       </c>
       <c r="J218" t="s" s="2">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M218" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="M218" s="2"/>
       <c r="N218" s="2"/>
       <c r="O218" t="s" s="2">
         <v>44</v>
@@ -27335,19 +27345,19 @@
         <v>44</v>
       </c>
       <c r="AE218" t="s" s="2">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="AF218" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG218" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH218" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI218" t="s" s="2">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="AJ218" t="s" s="2">
         <v>130</v>
@@ -27367,11 +27377,11 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
-        <v>626</v>
+        <v>109</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" t="s" s="2">
@@ -27384,26 +27394,24 @@
         <v>44</v>
       </c>
       <c r="H219" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I219" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J219" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>627</v>
+        <v>132</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>628</v>
+        <v>133</v>
       </c>
       <c r="M219" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="N219" t="s" s="2">
-        <v>113</v>
-      </c>
+      <c r="N219" s="2"/>
       <c r="O219" t="s" s="2">
         <v>44</v>
       </c>
@@ -27451,7 +27459,7 @@
         <v>44</v>
       </c>
       <c r="AE219" t="s" s="2">
-        <v>629</v>
+        <v>135</v>
       </c>
       <c r="AF219" t="s" s="2">
         <v>42</v>
@@ -27466,7 +27474,7 @@
         <v>102</v>
       </c>
       <c r="AJ219" t="s" s="2">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="AK219" t="s" s="2">
         <v>44</v>
@@ -27483,42 +27491,42 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
-        <v>44</v>
+        <v>629</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F220" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G220" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H220" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I220" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J220" t="s" s="2">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>678</v>
+        <v>630</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>679</v>
+        <v>631</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>680</v>
+        <v>112</v>
       </c>
       <c r="N220" t="s" s="2">
-        <v>681</v>
+        <v>113</v>
       </c>
       <c r="O220" t="s" s="2">
         <v>44</v>
@@ -27543,13 +27551,13 @@
         <v>44</v>
       </c>
       <c r="W220" t="s" s="2">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="X220" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="Y220" t="s" s="2">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="Z220" t="s" s="2">
         <v>44</v>
@@ -27567,31 +27575,31 @@
         <v>44</v>
       </c>
       <c r="AE220" t="s" s="2">
-        <v>677</v>
+        <v>632</v>
       </c>
       <c r="AF220" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG220" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH220" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI220" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ220" t="s" s="2">
-        <v>682</v>
+        <v>94</v>
       </c>
       <c r="AK220" t="s" s="2">
-        <v>683</v>
+        <v>44</v>
       </c>
       <c r="AL220" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM220" t="s" s="2">
-        <v>684</v>
+        <v>44</v>
       </c>
       <c r="AN220" t="s" s="2">
         <v>44</v>
@@ -27599,7 +27607,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -27607,7 +27615,7 @@
       </c>
       <c r="D221" s="2"/>
       <c r="E221" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F221" t="s" s="2">
         <v>51</v>
@@ -27622,19 +27630,19 @@
         <v>44</v>
       </c>
       <c r="J221" t="s" s="2">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="N221" t="s" s="2">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="O221" t="s" s="2">
         <v>44</v>
@@ -27659,13 +27667,13 @@
         <v>44</v>
       </c>
       <c r="W221" t="s" s="2">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="X221" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="Y221" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="Z221" t="s" s="2">
         <v>44</v>
@@ -27683,10 +27691,10 @@
         <v>44</v>
       </c>
       <c r="AE221" t="s" s="2">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="AF221" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG221" t="s" s="2">
         <v>51</v>
@@ -27698,16 +27706,16 @@
         <v>63</v>
       </c>
       <c r="AJ221" t="s" s="2">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="AK221" t="s" s="2">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="AL221" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM221" t="s" s="2">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="AN221" t="s" s="2">
         <v>44</v>
@@ -27715,18 +27723,18 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
-        <v>694</v>
+        <v>44</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F222" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G222" t="s" s="2">
         <v>44</v>
@@ -27738,18 +27746,20 @@
         <v>44</v>
       </c>
       <c r="J222" t="s" s="2">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>697</v>
-      </c>
-      <c r="N222" s="2"/>
+        <v>691</v>
+      </c>
+      <c r="N222" t="s" s="2">
+        <v>692</v>
+      </c>
       <c r="O222" t="s" s="2">
         <v>44</v>
       </c>
@@ -27797,13 +27807,13 @@
         <v>44</v>
       </c>
       <c r="AE222" t="s" s="2">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="AF222" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG222" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH222" t="s" s="2">
         <v>44</v>
@@ -27812,16 +27822,16 @@
         <v>63</v>
       </c>
       <c r="AJ222" t="s" s="2">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="AK222" t="s" s="2">
-        <v>130</v>
+        <v>694</v>
       </c>
       <c r="AL222" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM222" t="s" s="2">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="AN222" t="s" s="2">
         <v>44</v>
@@ -27829,18 +27839,18 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
-        <v>44</v>
+        <v>697</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F223" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G223" t="s" s="2">
         <v>44</v>
@@ -27849,23 +27859,21 @@
         <v>44</v>
       </c>
       <c r="I223" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J223" t="s" s="2">
         <v>242</v>
       </c>
       <c r="K223" t="s" s="2">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="N223" t="s" s="2">
-        <v>704</v>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="N223" s="2"/>
       <c r="O223" t="s" s="2">
         <v>44</v>
       </c>
@@ -27913,13 +27921,13 @@
         <v>44</v>
       </c>
       <c r="AE223" t="s" s="2">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="AF223" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG223" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH223" t="s" s="2">
         <v>44</v>
@@ -27928,16 +27936,16 @@
         <v>63</v>
       </c>
       <c r="AJ223" t="s" s="2">
-        <v>661</v>
+        <v>701</v>
       </c>
       <c r="AK223" t="s" s="2">
-        <v>705</v>
+        <v>130</v>
       </c>
       <c r="AL223" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM223" t="s" s="2">
-        <v>44</v>
+        <v>702</v>
       </c>
       <c r="AN223" t="s" s="2">
         <v>44</v>
@@ -27945,7 +27953,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -27962,25 +27970,25 @@
         <v>44</v>
       </c>
       <c r="H224" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I224" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J224" t="s" s="2">
-        <v>616</v>
+        <v>242</v>
       </c>
       <c r="K224" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="L224" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="M224" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="N224" t="s" s="2">
         <v>707</v>
-      </c>
-      <c r="L224" t="s" s="2">
-        <v>708</v>
-      </c>
-      <c r="M224" t="s" s="2">
-        <v>709</v>
-      </c>
-      <c r="N224" t="s" s="2">
-        <v>710</v>
       </c>
       <c r="O224" t="s" s="2">
         <v>44</v>
@@ -28029,13 +28037,13 @@
         <v>44</v>
       </c>
       <c r="AE224" t="s" s="2">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="AF224" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG224" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH224" t="s" s="2">
         <v>44</v>
@@ -28044,10 +28052,10 @@
         <v>63</v>
       </c>
       <c r="AJ224" t="s" s="2">
-        <v>711</v>
+        <v>664</v>
       </c>
       <c r="AK224" t="s" s="2">
-        <v>130</v>
+        <v>708</v>
       </c>
       <c r="AL224" t="s" s="2">
         <v>44</v>
@@ -28061,7 +28069,7 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -28072,28 +28080,32 @@
         <v>42</v>
       </c>
       <c r="F225" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G225" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H225" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I225" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J225" t="s" s="2">
-        <v>53</v>
+        <v>619</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>127</v>
+        <v>710</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M225" s="2"/>
-      <c r="N225" s="2"/>
+        <v>711</v>
+      </c>
+      <c r="M225" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="N225" t="s" s="2">
+        <v>713</v>
+      </c>
       <c r="O225" t="s" s="2">
         <v>44</v>
       </c>
@@ -28141,25 +28153,25 @@
         <v>44</v>
       </c>
       <c r="AE225" t="s" s="2">
-        <v>129</v>
+        <v>709</v>
       </c>
       <c r="AF225" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG225" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH225" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI225" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ225" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="AK225" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="AK225" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="AL225" t="s" s="2">
         <v>44</v>
@@ -28173,18 +28185,18 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F226" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G226" t="s" s="2">
         <v>44</v>
@@ -28196,17 +28208,15 @@
         <v>44</v>
       </c>
       <c r="J226" t="s" s="2">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M226" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="M226" s="2"/>
       <c r="N226" s="2"/>
       <c r="O226" t="s" s="2">
         <v>44</v>
@@ -28255,19 +28265,19 @@
         <v>44</v>
       </c>
       <c r="AE226" t="s" s="2">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="AF226" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG226" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH226" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI226" t="s" s="2">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="AJ226" t="s" s="2">
         <v>130</v>
@@ -28287,11 +28297,11 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
-        <v>626</v>
+        <v>109</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" t="s" s="2">
@@ -28304,26 +28314,24 @@
         <v>44</v>
       </c>
       <c r="H227" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I227" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J227" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>627</v>
+        <v>132</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>628</v>
+        <v>133</v>
       </c>
       <c r="M227" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="N227" t="s" s="2">
-        <v>113</v>
-      </c>
+      <c r="N227" s="2"/>
       <c r="O227" t="s" s="2">
         <v>44</v>
       </c>
@@ -28371,7 +28379,7 @@
         <v>44</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>629</v>
+        <v>135</v>
       </c>
       <c r="AF227" t="s" s="2">
         <v>42</v>
@@ -28386,7 +28394,7 @@
         <v>102</v>
       </c>
       <c r="AJ227" t="s" s="2">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="AK227" t="s" s="2">
         <v>44</v>
@@ -28403,41 +28411,43 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
-        <v>44</v>
+        <v>629</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F228" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G228" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H228" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I228" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J228" t="s" s="2">
-        <v>716</v>
+        <v>96</v>
       </c>
       <c r="K228" t="s" s="2">
-        <v>717</v>
+        <v>630</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>718</v>
+        <v>631</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>719</v>
-      </c>
-      <c r="N228" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="N228" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O228" t="s" s="2">
         <v>44</v>
       </c>
@@ -28485,31 +28495,31 @@
         <v>44</v>
       </c>
       <c r="AE228" t="s" s="2">
-        <v>715</v>
+        <v>632</v>
       </c>
       <c r="AF228" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG228" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH228" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI228" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ228" t="s" s="2">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="AK228" t="s" s="2">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="AL228" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM228" t="s" s="2">
-        <v>720</v>
+        <v>44</v>
       </c>
       <c r="AN228" t="s" s="2">
         <v>44</v>
@@ -28517,7 +28527,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
@@ -28540,15 +28550,17 @@
         <v>52</v>
       </c>
       <c r="J229" t="s" s="2">
-        <v>71</v>
+        <v>719</v>
       </c>
       <c r="K229" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="L229" t="s" s="2">
+        <v>721</v>
+      </c>
+      <c r="M229" t="s" s="2">
         <v>722</v>
       </c>
-      <c r="L229" t="s" s="2">
-        <v>723</v>
-      </c>
-      <c r="M229" s="2"/>
       <c r="N229" s="2"/>
       <c r="O229" t="s" s="2">
         <v>44</v>
@@ -28573,13 +28585,13 @@
         <v>44</v>
       </c>
       <c r="W229" t="s" s="2">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="X229" t="s" s="2">
-        <v>723</v>
+        <v>44</v>
       </c>
       <c r="Y229" t="s" s="2">
-        <v>724</v>
+        <v>44</v>
       </c>
       <c r="Z229" t="s" s="2">
         <v>44</v>
@@ -28597,7 +28609,7 @@
         <v>44</v>
       </c>
       <c r="AE229" t="s" s="2">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="AF229" t="s" s="2">
         <v>51</v>
@@ -28612,7 +28624,7 @@
         <v>63</v>
       </c>
       <c r="AJ229" t="s" s="2">
-        <v>725</v>
+        <v>122</v>
       </c>
       <c r="AK229" t="s" s="2">
         <v>130</v>
@@ -28621,14 +28633,126 @@
         <v>44</v>
       </c>
       <c r="AM229" t="s" s="2">
-        <v>44</v>
+        <v>723</v>
       </c>
       <c r="AN229" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="230" hidden="true">
+      <c r="A230" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="B230" s="2"/>
+      <c r="C230" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D230" s="2"/>
+      <c r="E230" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F230" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G230" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H230" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I230" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J230" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K230" t="s" s="2">
+        <v>725</v>
+      </c>
+      <c r="L230" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="M230" s="2"/>
+      <c r="N230" s="2"/>
+      <c r="O230" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P230" s="2"/>
+      <c r="Q230" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R230" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S230" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T230" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U230" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V230" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W230" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="X230" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="Y230" t="s" s="2">
+        <v>727</v>
+      </c>
+      <c r="Z230" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA230" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB230" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC230" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD230" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE230" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="AF230" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG230" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH230" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI230" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ230" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="AK230" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AL230" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM230" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN230" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN229">
+  <autoFilter ref="A1:AN230">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -28638,7 +28762,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI228">
+  <conditionalFormatting sqref="A2:AI229">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -343,7 +343,7 @@
     <t>isHead</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhi/ValueSet-patient-is-head}
+    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition-patient-is-head}
 </t>
   </si>
   <si>
@@ -360,7 +360,7 @@
     <t>educationLevel</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhi/ValueSet-patient-education-level}
+    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition-patient-education-level}
 </t>
   </si>
   <si>
@@ -373,7 +373,7 @@
     <t>profession</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhi/ValueSet-patient-profession}
+    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition-patient-profession}
 </t>
   </si>
   <si>
@@ -386,7 +386,7 @@
     <t>identification</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhi/ValueSet-patient-identification}
+    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition-patient-identification}
 </t>
   </si>
   <si>
@@ -399,7 +399,7 @@
     <t>cardIssued</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhi/ValueSet-patient-card-issued}
+    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition-patient-card-issued}
 </t>
   </si>
   <si>
@@ -658,7 +658,7 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
-    <t>https://openimis.github.io/openimis_fhi/StructureDefinition-patient-profession</t>
+    <t>https://openimis.github.io/openimis_fhir_r4_ig/ValueSet-openimis-identifiers</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -1389,11 +1389,11 @@
     <t>municipality</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition/address-municipality-ext}
+    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition-address-municipality}
 </t>
   </si>
   <si>
-    <t>Address Municipality Location</t>
+    <t>Municipality (Address)</t>
   </si>
   <si>
     <t>The location level between District and City/Village</t>
@@ -1402,11 +1402,11 @@
     <t>location</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition/address-location-reference-ext}
+    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition-address-location-reference}
 </t>
   </si>
   <si>
-    <t>Address Location Reference</t>
+    <t>Location Reference (Address)</t>
   </si>
   <si>
     <t>The reference to adress location for City/Village level</t>
@@ -1692,7 +1692,7 @@
     <t>Most, if not all systems capture it.</t>
   </si>
   <si>
-    <t>https://openimis.github.io/openimis_fhir_r4_ig/ValueSet/patient-marital-status</t>
+    <t>https://openimis.github.io/openimis_fhir_r4_ig/ValueSet-patient-marital-status</t>
   </si>
   <si>
     <t>player[classCode=PSN]/maritalStatusCode</t>
@@ -2039,7 +2039,7 @@
     <t>Used to determine which contact person is the most relevant to approach, depending on circumstances.</t>
   </si>
   <si>
-    <t>https://openimis.github.io/openimis_fhir_r4_ig/ValueSet/patient-contact-relationship</t>
+    <t>https://openimis.github.io/openimis_fhir_r4_ig/ValueSet-patient-contact-relationship</t>
   </si>
   <si>
     <t>code</t>
@@ -2501,7 +2501,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="77.9375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="77.98046875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="23.64453125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -6543,10 +6543,10 @@
         <v>132</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>266</v>
+        <v>133</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>267</v>
+        <v>134</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
@@ -7913,10 +7913,10 @@
         <v>71</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>202</v>
+        <v>266</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>203</v>
+        <v>267</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
@@ -8831,10 +8831,10 @@
         <v>132</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>269</v>
+        <v>133</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
@@ -10201,10 +10201,10 @@
         <v>71</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>202</v>
+        <v>269</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>203</v>
+        <v>55</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
@@ -11119,10 +11119,10 @@
         <v>132</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>272</v>
+        <v>133</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>273</v>
+        <v>134</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
@@ -12489,10 +12489,10 @@
         <v>71</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>202</v>
+        <v>272</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>203</v>
+        <v>273</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -343,7 +343,7 @@
     <t>isHead</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition-patient-is-head}
+    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition/patient-is-head}
 </t>
   </si>
   <si>
@@ -360,7 +360,7 @@
     <t>educationLevel</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition-patient-education-level}
+    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition/patient-education-level}
 </t>
   </si>
   <si>
@@ -373,7 +373,7 @@
     <t>profession</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition-patient-profession}
+    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition/patient-profession}
 </t>
   </si>
   <si>
@@ -386,7 +386,7 @@
     <t>identification</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition-patient-identification}
+    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition/patient-identification}
 </t>
   </si>
   <si>
@@ -399,7 +399,7 @@
     <t>cardIssued</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition-patient-card-issued}
+    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition/patient-card-issued}
 </t>
   </si>
   <si>
@@ -412,7 +412,7 @@
     <t>group</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition-patient-group-reference}
+    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition/patient-group-reference}
 </t>
   </si>
   <si>
@@ -425,7 +425,7 @@
     <t>vulnerability</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition-patient-vulnerability-status}
+    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition/patient-vulnerability-status}
 </t>
   </si>
   <si>
@@ -684,7 +684,7 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
-    <t>https://openimis.github.io/openimis_fhir_r4_ig/ValueSet-openimis-identifiers</t>
+    <t>https://openimis.github.io/openimis_fhir_r4_ig/ValueSet/openimis-identifiers</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -1421,27 +1421,27 @@
     <t>municipality</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition-address-municipality}
+    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition/address-municipality}
 </t>
   </si>
   <si>
     <t>Municipality (Address)</t>
   </si>
   <si>
-    <t>The location level between District and City/Village</t>
+    <t>The location level between District and City/Village.</t>
   </si>
   <si>
     <t>location</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition-address-location-reference}
+    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition/address-location-reference}
 </t>
   </si>
   <si>
     <t>Location Reference (Address)</t>
   </si>
   <si>
-    <t>The reference to adress location for City/Village level</t>
+    <t>The reference to address' location for City/Village level.</t>
   </si>
   <si>
     <t>Patient.address.use</t>
@@ -1730,7 +1730,7 @@
     <t>Most, if not all systems capture it.</t>
   </si>
   <si>
-    <t>https://openimis.github.io/openimis_fhir_r4_ig/ValueSet-patient-marital-status</t>
+    <t>https://openimis.github.io/openimis_fhir_r4_ig/ValueSet/patient-marital-status</t>
   </si>
   <si>
     <t>player[classCode=PSN]/maritalStatusCode</t>
@@ -2077,7 +2077,7 @@
     <t>Used to determine which contact person is the most relevant to approach, depending on circumstances.</t>
   </si>
   <si>
-    <t>https://openimis.github.io/openimis_fhir_r4_ig/ValueSet-patient-contact-relationship</t>
+    <t>https://openimis.github.io/openimis_fhir_r4_ig/ValueSet/patient-contact-relationship</t>
   </si>
   <si>
     <t>code</t>
@@ -2543,7 +2543,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="77.98046875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="77.9375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="23.64453125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8528" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8528" uniqueCount="755">
   <si>
     <t>Path</t>
   </si>
@@ -867,34 +867,25 @@
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
-    <t>InsureeCode</t>
-  </si>
-  <si>
     <t>Patient/Insuree openIMIS Code</t>
   </si>
   <si>
     <t>Insuree Code managed by openIMIS.</t>
   </si>
   <si>
-    <t>InsureeUUID</t>
+    <t>UUID</t>
   </si>
   <si>
     <t>Patient/Insuree openIMIS UUID</t>
   </si>
   <si>
-    <t>UUID</t>
-  </si>
-  <si>
-    <t>InsureeID</t>
+    <t>DBID</t>
   </si>
   <si>
     <t>Patient/Insuree openIMIS Database ID</t>
   </si>
   <si>
     <t>Insuree Database ID generated by openIMIS.</t>
-  </si>
-  <si>
-    <t>DBID</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -6788,7 +6779,7 @@
         <v>139</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>273</v>
+        <v>25</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>44</v>
@@ -8183,10 +8174,10 @@
         <v>71</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
@@ -9076,7 +9067,7 @@
         <v>139</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C58" t="s" s="2">
         <v>44</v>
@@ -10471,7 +10462,7 @@
         <v>71</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L70" t="s" s="2">
         <v>55</v>
@@ -10488,7 +10479,7 @@
         <v>44</v>
       </c>
       <c r="R70" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>44</v>
@@ -11364,7 +11355,7 @@
         <v>139</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C78" t="s" s="2">
         <v>44</v>
@@ -12759,10 +12750,10 @@
         <v>71</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" t="s" s="2">
@@ -12776,7 +12767,7 @@
         <v>44</v>
       </c>
       <c r="R90" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="S90" t="s" s="2">
         <v>44</v>
@@ -13649,7 +13640,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13675,23 +13666,23 @@
         <v>225</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="N98" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="L98" t="s" s="2">
+      <c r="O98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P98" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M98" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P98" t="s" s="2">
-        <v>288</v>
-      </c>
       <c r="Q98" t="s" s="2">
         <v>44</v>
       </c>
@@ -13735,7 +13726,7 @@
         <v>44</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>42</v>
@@ -13750,13 +13741,13 @@
         <v>63</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>154</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>44</v>
@@ -13767,7 +13758,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13790,19 +13781,19 @@
         <v>52</v>
       </c>
       <c r="J99" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M99" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="K99" t="s" s="2">
+      <c r="N99" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>44</v>
@@ -13851,7 +13842,7 @@
         <v>44</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>42</v>
@@ -13866,16 +13857,16 @@
         <v>63</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>44</v>
@@ -13883,7 +13874,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13995,7 +13986,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14109,7 +14100,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14135,16 +14126,16 @@
         <v>71</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N102" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>44</v>
@@ -14154,7 +14145,7 @@
         <v>44</v>
       </c>
       <c r="R102" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="S102" t="s" s="2">
         <v>44</v>
@@ -14172,10 +14163,10 @@
         <v>165</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>44</v>
@@ -14193,7 +14184,7 @@
         <v>44</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>42</v>
@@ -14208,7 +14199,7 @@
         <v>63</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>44</v>
@@ -14217,7 +14208,7 @@
         <v>44</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>44</v>
@@ -14225,7 +14216,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14251,16 +14242,16 @@
         <v>53</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N103" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>44</v>
@@ -14309,7 +14300,7 @@
         <v>44</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>42</v>
@@ -14324,7 +14315,7 @@
         <v>63</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>44</v>
@@ -14333,7 +14324,7 @@
         <v>44</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>44</v>
@@ -14341,15 +14332,15 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F104" t="s" s="2">
         <v>51</v>
@@ -14367,13 +14358,13 @@
         <v>53</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
@@ -14423,7 +14414,7 @@
         <v>44</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>42</v>
@@ -14438,7 +14429,7 @@
         <v>63</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>44</v>
@@ -14447,7 +14438,7 @@
         <v>44</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>44</v>
@@ -14455,18 +14446,18 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>52</v>
@@ -14481,13 +14472,13 @@
         <v>53</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
@@ -14537,7 +14528,7 @@
         <v>44</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>42</v>
@@ -14552,7 +14543,7 @@
         <v>63</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>44</v>
@@ -14561,7 +14552,7 @@
         <v>44</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>44</v>
@@ -14569,7 +14560,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14595,10 +14586,10 @@
         <v>53</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -14649,7 +14640,7 @@
         <v>44</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>42</v>
@@ -14664,7 +14655,7 @@
         <v>63</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>44</v>
@@ -14673,7 +14664,7 @@
         <v>44</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>44</v>
@@ -14681,7 +14672,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14707,10 +14698,10 @@
         <v>53</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -14761,7 +14752,7 @@
         <v>44</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>42</v>
@@ -14776,7 +14767,7 @@
         <v>63</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>44</v>
@@ -14785,7 +14776,7 @@
         <v>44</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>44</v>
@@ -14793,7 +14784,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14819,14 +14810,14 @@
         <v>259</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>44</v>
@@ -14875,7 +14866,7 @@
         <v>44</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>42</v>
@@ -14890,7 +14881,7 @@
         <v>63</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>44</v>
@@ -14899,7 +14890,7 @@
         <v>44</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>44</v>
@@ -14907,7 +14898,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14918,7 +14909,7 @@
         <v>42</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>44</v>
@@ -14930,19 +14921,19 @@
         <v>52</v>
       </c>
       <c r="J109" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M109" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="K109" t="s" s="2">
+      <c r="N109" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>44</v>
@@ -14979,7 +14970,7 @@
         <v>44</v>
       </c>
       <c r="AA109" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="AB109" s="2"/>
       <c r="AC109" t="s" s="2">
@@ -14989,7 +14980,7 @@
         <v>145</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>42</v>
@@ -15004,16 +14995,16 @@
         <v>63</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>44</v>
@@ -15021,7 +15012,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15133,7 +15124,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15247,7 +15238,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15273,10 +15264,10 @@
         <v>71</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -15306,43 +15297,43 @@
         <v>165</v>
       </c>
       <c r="X112" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH112" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="Y112" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="Z112" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA112" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB112" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD112" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE112" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AF112" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG112" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH112" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>44</v>
@@ -15351,7 +15342,7 @@
         <v>44</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>44</v>
@@ -15359,7 +15350,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15385,16 +15376,16 @@
         <v>53</v>
       </c>
       <c r="K113" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="N113" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>44</v>
@@ -15443,7 +15434,7 @@
         <v>44</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>42</v>
@@ -15458,7 +15449,7 @@
         <v>63</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>44</v>
@@ -15467,7 +15458,7 @@
         <v>44</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>44</v>
@@ -15475,7 +15466,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15501,16 +15492,16 @@
         <v>71</v>
       </c>
       <c r="K114" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="N114" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>44</v>
@@ -15538,10 +15529,10 @@
         <v>165</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="Z114" t="s" s="2">
         <v>44</v>
@@ -15559,7 +15550,7 @@
         <v>44</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>42</v>
@@ -15574,7 +15565,7 @@
         <v>63</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>44</v>
@@ -15583,7 +15574,7 @@
         <v>44</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>44</v>
@@ -15591,7 +15582,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15614,16 +15605,16 @@
         <v>52</v>
       </c>
       <c r="J115" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="M115" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="K115" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
@@ -15673,7 +15664,7 @@
         <v>44</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>42</v>
@@ -15705,7 +15696,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15731,10 +15722,10 @@
         <v>259</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
@@ -15785,7 +15776,7 @@
         <v>44</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>42</v>
@@ -15800,7 +15791,7 @@
         <v>63</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>44</v>
@@ -15817,10 +15808,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C117" t="s" s="2">
         <v>44</v>
@@ -15842,19 +15833,19 @@
         <v>52</v>
       </c>
       <c r="J117" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M117" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="K117" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="L117" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>361</v>
-      </c>
       <c r="N117" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>44</v>
@@ -15903,7 +15894,7 @@
         <v>44</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>42</v>
@@ -15918,16 +15909,16 @@
         <v>63</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>44</v>
@@ -15935,7 +15926,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16047,7 +16038,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16161,7 +16152,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16187,10 +16178,10 @@
         <v>71</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -16202,7 +16193,7 @@
         <v>44</v>
       </c>
       <c r="R120" t="s" s="2">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="S120" t="s" s="2">
         <v>44</v>
@@ -16220,43 +16211,43 @@
         <v>165</v>
       </c>
       <c r="X120" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="Y120" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="Z120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE120" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AF120" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG120" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH120" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="Y120" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="Z120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE120" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AF120" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG120" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH120" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="AI120" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>44</v>
@@ -16265,7 +16256,7 @@
         <v>44</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>44</v>
@@ -16273,7 +16264,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16299,16 +16290,16 @@
         <v>53</v>
       </c>
       <c r="K121" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="N121" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>44</v>
@@ -16357,7 +16348,7 @@
         <v>44</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>42</v>
@@ -16372,7 +16363,7 @@
         <v>63</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>44</v>
@@ -16381,7 +16372,7 @@
         <v>44</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>44</v>
@@ -16389,7 +16380,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16415,16 +16406,16 @@
         <v>71</v>
       </c>
       <c r="K122" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L122" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="N122" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>44</v>
@@ -16452,10 +16443,10 @@
         <v>165</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="Z122" t="s" s="2">
         <v>44</v>
@@ -16473,7 +16464,7 @@
         <v>44</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>42</v>
@@ -16488,7 +16479,7 @@
         <v>63</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>44</v>
@@ -16497,7 +16488,7 @@
         <v>44</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>44</v>
@@ -16505,7 +16496,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16528,16 +16519,16 @@
         <v>52</v>
       </c>
       <c r="J123" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="K123" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L123" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="M123" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="K123" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="L123" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
@@ -16587,7 +16578,7 @@
         <v>44</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>42</v>
@@ -16619,7 +16610,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16645,10 +16636,10 @@
         <v>259</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
@@ -16699,7 +16690,7 @@
         <v>44</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>42</v>
@@ -16714,7 +16705,7 @@
         <v>63</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AK124" t="s" s="2">
         <v>44</v>
@@ -16731,10 +16722,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C125" t="s" s="2">
         <v>44</v>
@@ -16756,19 +16747,19 @@
         <v>52</v>
       </c>
       <c r="J125" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="K125" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="M125" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="K125" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>361</v>
-      </c>
       <c r="N125" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="O125" t="s" s="2">
         <v>44</v>
@@ -16817,7 +16808,7 @@
         <v>44</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>42</v>
@@ -16832,16 +16823,16 @@
         <v>63</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>44</v>
@@ -16849,7 +16840,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -16961,7 +16952,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -17075,7 +17066,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17101,10 +17092,10 @@
         <v>71</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
@@ -17116,7 +17107,7 @@
         <v>44</v>
       </c>
       <c r="R128" t="s" s="2">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="S128" t="s" s="2">
         <v>44</v>
@@ -17134,43 +17125,43 @@
         <v>165</v>
       </c>
       <c r="X128" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="Y128" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="Z128" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA128" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB128" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC128" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD128" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE128" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AF128" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG128" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH128" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="Y128" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="Z128" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA128" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB128" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC128" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD128" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE128" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AF128" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG128" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH128" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="AI128" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="AK128" t="s" s="2">
         <v>44</v>
@@ -17179,7 +17170,7 @@
         <v>44</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="AN128" t="s" s="2">
         <v>44</v>
@@ -17187,7 +17178,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -17213,16 +17204,16 @@
         <v>53</v>
       </c>
       <c r="K129" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L129" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M129" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="N129" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="L129" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M129" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>44</v>
@@ -17271,7 +17262,7 @@
         <v>44</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>42</v>
@@ -17286,7 +17277,7 @@
         <v>63</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="AK129" t="s" s="2">
         <v>44</v>
@@ -17295,7 +17286,7 @@
         <v>44</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>44</v>
@@ -17303,7 +17294,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17329,16 +17320,16 @@
         <v>71</v>
       </c>
       <c r="K130" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L130" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M130" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="N130" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="L130" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N130" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>44</v>
@@ -17366,10 +17357,10 @@
         <v>165</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="Z130" t="s" s="2">
         <v>44</v>
@@ -17387,7 +17378,7 @@
         <v>44</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>42</v>
@@ -17402,7 +17393,7 @@
         <v>63</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AK130" t="s" s="2">
         <v>44</v>
@@ -17411,7 +17402,7 @@
         <v>44</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="AN130" t="s" s="2">
         <v>44</v>
@@ -17419,7 +17410,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17442,16 +17433,16 @@
         <v>52</v>
       </c>
       <c r="J131" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="K131" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L131" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="M131" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="K131" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="L131" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M131" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
@@ -17501,7 +17492,7 @@
         <v>44</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>42</v>
@@ -17533,7 +17524,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17559,10 +17550,10 @@
         <v>259</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" s="2"/>
@@ -17613,7 +17604,7 @@
         <v>44</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>42</v>
@@ -17628,7 +17619,7 @@
         <v>63</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AK132" t="s" s="2">
         <v>44</v>
@@ -17645,7 +17636,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17671,16 +17662,16 @@
         <v>71</v>
       </c>
       <c r="K133" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L133" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M133" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="N133" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="L133" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M133" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N133" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="O133" t="s" s="2">
         <v>44</v>
@@ -17708,10 +17699,10 @@
         <v>165</v>
       </c>
       <c r="X133" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="Y133" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="Z133" t="s" s="2">
         <v>44</v>
@@ -17729,7 +17720,7 @@
         <v>44</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>42</v>
@@ -17744,16 +17735,16 @@
         <v>63</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="AN133" t="s" s="2">
         <v>44</v>
@@ -17761,7 +17752,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17784,19 +17775,19 @@
         <v>52</v>
       </c>
       <c r="J134" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="K134" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L134" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M134" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="K134" t="s" s="2">
+      <c r="N134" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="L134" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M134" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>44</v>
@@ -17845,7 +17836,7 @@
         <v>44</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>42</v>
@@ -17860,24 +17851,24 @@
         <v>63</v>
       </c>
       <c r="AJ134" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AK134" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AL134" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM134" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AN134" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="AK134" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AL134" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM134" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AN134" t="s" s="2">
-        <v>430</v>
       </c>
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17900,19 +17891,19 @@
         <v>52</v>
       </c>
       <c r="J135" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="K135" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L135" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M135" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="K135" t="s" s="2">
+      <c r="N135" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="L135" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>44</v>
@@ -17961,7 +17952,7 @@
         <v>44</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>42</v>
@@ -17976,7 +17967,7 @@
         <v>63</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="AK135" t="s" s="2">
         <v>154</v>
@@ -17985,7 +17976,7 @@
         <v>44</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="AN135" t="s" s="2">
         <v>44</v>
@@ -17993,7 +17984,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -18016,19 +18007,19 @@
         <v>52</v>
       </c>
       <c r="J136" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="K136" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="L136" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M136" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="K136" t="s" s="2">
+      <c r="N136" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="L136" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>44</v>
@@ -18065,7 +18056,7 @@
         <v>44</v>
       </c>
       <c r="AA136" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="AB136" s="2"/>
       <c r="AC136" t="s" s="2">
@@ -18075,7 +18066,7 @@
         <v>145</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>42</v>
@@ -18090,16 +18081,16 @@
         <v>63</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="AL136" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="AN136" t="s" s="2">
         <v>44</v>
@@ -18107,7 +18098,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -18219,7 +18210,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -18227,7 +18218,7 @@
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F138" t="s" s="2">
         <v>43</v>
@@ -18245,10 +18236,10 @@
         <v>96</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="M138" s="2"/>
       <c r="N138" s="2"/>
@@ -18331,10 +18322,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B139" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="B139" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="C139" t="s" s="2">
         <v>44</v>
@@ -18356,13 +18347,13 @@
         <v>44</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
@@ -18445,10 +18436,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C140" t="s" s="2">
         <v>44</v>
@@ -18470,13 +18461,13 @@
         <v>44</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
@@ -18559,7 +18550,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18585,16 +18576,16 @@
         <v>71</v>
       </c>
       <c r="K141" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L141" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M141" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N141" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="L141" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="M141" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N141" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>44</v>
@@ -18607,7 +18598,7 @@
         <v>44</v>
       </c>
       <c r="S141" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="T141" t="s" s="2">
         <v>44</v>
@@ -18622,10 +18613,10 @@
         <v>165</v>
       </c>
       <c r="X141" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="Z141" t="s" s="2">
         <v>44</v>
@@ -18643,7 +18634,7 @@
         <v>44</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>42</v>
@@ -18658,7 +18649,7 @@
         <v>63</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AK141" t="s" s="2">
         <v>44</v>
@@ -18667,7 +18658,7 @@
         <v>44</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="AN141" t="s" s="2">
         <v>44</v>
@@ -18675,7 +18666,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -18701,13 +18692,13 @@
         <v>71</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" t="s" s="2">
@@ -18718,10 +18709,10 @@
         <v>44</v>
       </c>
       <c r="R142" t="s" s="2">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="S142" t="s" s="2">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="T142" t="s" s="2">
         <v>44</v>
@@ -18736,10 +18727,10 @@
         <v>165</v>
       </c>
       <c r="X142" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="Z142" t="s" s="2">
         <v>44</v>
@@ -18757,7 +18748,7 @@
         <v>44</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>42</v>
@@ -18772,7 +18763,7 @@
         <v>63</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>44</v>
@@ -18781,7 +18772,7 @@
         <v>44</v>
       </c>
       <c r="AM142" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="AN142" t="s" s="2">
         <v>44</v>
@@ -18789,7 +18780,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -18815,16 +18806,16 @@
         <v>53</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>44</v>
@@ -18837,7 +18828,7 @@
         <v>44</v>
       </c>
       <c r="S143" t="s" s="2">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="T143" t="s" s="2">
         <v>44</v>
@@ -18873,7 +18864,7 @@
         <v>44</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>42</v>
@@ -18888,7 +18879,7 @@
         <v>63</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AK143" t="s" s="2">
         <v>44</v>
@@ -18897,7 +18888,7 @@
         <v>44</v>
       </c>
       <c r="AM143" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="AN143" t="s" s="2">
         <v>44</v>
@@ -18905,7 +18896,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -18931,10 +18922,10 @@
         <v>53</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
@@ -18949,7 +18940,7 @@
         <v>44</v>
       </c>
       <c r="S144" t="s" s="2">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="T144" t="s" s="2">
         <v>44</v>
@@ -18985,7 +18976,7 @@
         <v>44</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>42</v>
@@ -19000,7 +18991,7 @@
         <v>63</v>
       </c>
       <c r="AJ144" t="s" s="2">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="AK144" t="s" s="2">
         <v>44</v>
@@ -19009,7 +19000,7 @@
         <v>44</v>
       </c>
       <c r="AM144" t="s" s="2">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="AN144" t="s" s="2">
         <v>44</v>
@@ -19017,11 +19008,11 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
@@ -19043,10 +19034,10 @@
         <v>53</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
@@ -19061,7 +19052,7 @@
         <v>44</v>
       </c>
       <c r="S145" t="s" s="2">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="T145" t="s" s="2">
         <v>44</v>
@@ -19097,7 +19088,7 @@
         <v>44</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>42</v>
@@ -19112,7 +19103,7 @@
         <v>63</v>
       </c>
       <c r="AJ145" t="s" s="2">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="AK145" t="s" s="2">
         <v>44</v>
@@ -19121,7 +19112,7 @@
         <v>44</v>
       </c>
       <c r="AM145" t="s" s="2">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="AN145" t="s" s="2">
         <v>44</v>
@@ -19129,11 +19120,11 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
@@ -19155,13 +19146,13 @@
         <v>53</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" t="s" s="2">
@@ -19175,7 +19166,7 @@
         <v>44</v>
       </c>
       <c r="S146" t="s" s="2">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="T146" t="s" s="2">
         <v>44</v>
@@ -19211,7 +19202,7 @@
         <v>44</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>42</v>
@@ -19226,7 +19217,7 @@
         <v>63</v>
       </c>
       <c r="AJ146" t="s" s="2">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="AK146" t="s" s="2">
         <v>44</v>
@@ -19235,7 +19226,7 @@
         <v>44</v>
       </c>
       <c r="AM146" t="s" s="2">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="AN146" t="s" s="2">
         <v>44</v>
@@ -19243,11 +19234,11 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
@@ -19269,10 +19260,10 @@
         <v>53</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
@@ -19323,7 +19314,7 @@
         <v>44</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>42</v>
@@ -19338,7 +19329,7 @@
         <v>63</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="AK147" t="s" s="2">
         <v>44</v>
@@ -19347,7 +19338,7 @@
         <v>44</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="AN147" t="s" s="2">
         <v>44</v>
@@ -19355,11 +19346,11 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
@@ -19381,10 +19372,10 @@
         <v>53</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
@@ -19399,7 +19390,7 @@
         <v>44</v>
       </c>
       <c r="S148" t="s" s="2">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="T148" t="s" s="2">
         <v>44</v>
@@ -19435,7 +19426,7 @@
         <v>44</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>42</v>
@@ -19450,7 +19441,7 @@
         <v>63</v>
       </c>
       <c r="AJ148" t="s" s="2">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="AK148" t="s" s="2">
         <v>44</v>
@@ -19459,7 +19450,7 @@
         <v>44</v>
       </c>
       <c r="AM148" t="s" s="2">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AN148" t="s" s="2">
         <v>44</v>
@@ -19467,7 +19458,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -19493,13 +19484,13 @@
         <v>53</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="N149" s="2"/>
       <c r="O149" t="s" s="2">
@@ -19549,7 +19540,7 @@
         <v>44</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>42</v>
@@ -19564,7 +19555,7 @@
         <v>63</v>
       </c>
       <c r="AJ149" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="AK149" t="s" s="2">
         <v>44</v>
@@ -19573,7 +19564,7 @@
         <v>44</v>
       </c>
       <c r="AM149" t="s" s="2">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="AN149" t="s" s="2">
         <v>44</v>
@@ -19581,7 +19572,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -19607,14 +19598,14 @@
         <v>259</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="M150" s="2"/>
       <c r="N150" t="s" s="2">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>44</v>
@@ -19627,7 +19618,7 @@
         <v>44</v>
       </c>
       <c r="S150" t="s" s="2">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="T150" t="s" s="2">
         <v>44</v>
@@ -19663,7 +19654,7 @@
         <v>44</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>42</v>
@@ -19678,7 +19669,7 @@
         <v>63</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AK150" t="s" s="2">
         <v>44</v>
@@ -19687,7 +19678,7 @@
         <v>44</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="AN150" t="s" s="2">
         <v>44</v>
@@ -19695,10 +19686,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C151" t="s" s="2">
         <v>44</v>
@@ -19720,19 +19711,19 @@
         <v>52</v>
       </c>
       <c r="J151" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="K151" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="L151" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M151" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="K151" t="s" s="2">
+      <c r="N151" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="L151" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="M151" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N151" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="O151" t="s" s="2">
         <v>44</v>
@@ -19781,7 +19772,7 @@
         <v>44</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>42</v>
@@ -19796,16 +19787,16 @@
         <v>63</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="AL151" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>44</v>
@@ -19813,7 +19804,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -19925,7 +19916,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -20039,7 +20030,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -20065,16 +20056,16 @@
         <v>71</v>
       </c>
       <c r="K154" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L154" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M154" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N154" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="L154" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="M154" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N154" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="O154" t="s" s="2">
         <v>44</v>
@@ -20084,10 +20075,10 @@
         <v>44</v>
       </c>
       <c r="R154" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="S154" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="T154" t="s" s="2">
         <v>44</v>
@@ -20102,10 +20093,10 @@
         <v>165</v>
       </c>
       <c r="X154" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="Y154" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="Z154" t="s" s="2">
         <v>44</v>
@@ -20123,7 +20114,7 @@
         <v>44</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>42</v>
@@ -20138,7 +20129,7 @@
         <v>63</v>
       </c>
       <c r="AJ154" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AK154" t="s" s="2">
         <v>44</v>
@@ -20147,7 +20138,7 @@
         <v>44</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="AN154" t="s" s="2">
         <v>44</v>
@@ -20155,7 +20146,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -20181,13 +20172,13 @@
         <v>71</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
@@ -20201,7 +20192,7 @@
         <v>44</v>
       </c>
       <c r="S155" t="s" s="2">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="T155" t="s" s="2">
         <v>44</v>
@@ -20216,10 +20207,10 @@
         <v>165</v>
       </c>
       <c r="X155" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="Y155" t="s" s="2">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="Z155" t="s" s="2">
         <v>44</v>
@@ -20237,7 +20228,7 @@
         <v>44</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>42</v>
@@ -20252,7 +20243,7 @@
         <v>63</v>
       </c>
       <c r="AJ155" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AK155" t="s" s="2">
         <v>44</v>
@@ -20261,7 +20252,7 @@
         <v>44</v>
       </c>
       <c r="AM155" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="AN155" t="s" s="2">
         <v>44</v>
@@ -20269,7 +20260,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -20295,16 +20286,16 @@
         <v>53</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="O156" t="s" s="2">
         <v>44</v>
@@ -20317,7 +20308,7 @@
         <v>44</v>
       </c>
       <c r="S156" t="s" s="2">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="T156" t="s" s="2">
         <v>44</v>
@@ -20353,7 +20344,7 @@
         <v>44</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>42</v>
@@ -20368,7 +20359,7 @@
         <v>63</v>
       </c>
       <c r="AJ156" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AK156" t="s" s="2">
         <v>44</v>
@@ -20377,7 +20368,7 @@
         <v>44</v>
       </c>
       <c r="AM156" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="AN156" t="s" s="2">
         <v>44</v>
@@ -20385,7 +20376,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -20411,10 +20402,10 @@
         <v>53</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="M157" s="2"/>
       <c r="N157" s="2"/>
@@ -20429,7 +20420,7 @@
         <v>44</v>
       </c>
       <c r="S157" t="s" s="2">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="T157" t="s" s="2">
         <v>44</v>
@@ -20465,7 +20456,7 @@
         <v>44</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>42</v>
@@ -20480,7 +20471,7 @@
         <v>63</v>
       </c>
       <c r="AJ157" t="s" s="2">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="AK157" t="s" s="2">
         <v>44</v>
@@ -20489,7 +20480,7 @@
         <v>44</v>
       </c>
       <c r="AM157" t="s" s="2">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="AN157" t="s" s="2">
         <v>44</v>
@@ -20497,11 +20488,11 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
@@ -20523,10 +20514,10 @@
         <v>53</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="M158" s="2"/>
       <c r="N158" s="2"/>
@@ -20541,7 +20532,7 @@
         <v>44</v>
       </c>
       <c r="S158" t="s" s="2">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="T158" t="s" s="2">
         <v>44</v>
@@ -20577,7 +20568,7 @@
         <v>44</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>42</v>
@@ -20592,7 +20583,7 @@
         <v>63</v>
       </c>
       <c r="AJ158" t="s" s="2">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="AK158" t="s" s="2">
         <v>44</v>
@@ -20601,7 +20592,7 @@
         <v>44</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="AN158" t="s" s="2">
         <v>44</v>
@@ -20609,11 +20600,11 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
@@ -20635,13 +20626,13 @@
         <v>53</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" t="s" s="2">
@@ -20655,7 +20646,7 @@
         <v>44</v>
       </c>
       <c r="S159" t="s" s="2">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="T159" t="s" s="2">
         <v>44</v>
@@ -20691,7 +20682,7 @@
         <v>44</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>42</v>
@@ -20706,7 +20697,7 @@
         <v>63</v>
       </c>
       <c r="AJ159" t="s" s="2">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="AK159" t="s" s="2">
         <v>44</v>
@@ -20715,7 +20706,7 @@
         <v>44</v>
       </c>
       <c r="AM159" t="s" s="2">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="AN159" t="s" s="2">
         <v>44</v>
@@ -20723,11 +20714,11 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
@@ -20749,10 +20740,10 @@
         <v>53</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M160" s="2"/>
       <c r="N160" s="2"/>
@@ -20803,7 +20794,7 @@
         <v>44</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>42</v>
@@ -20818,7 +20809,7 @@
         <v>63</v>
       </c>
       <c r="AJ160" t="s" s="2">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="AK160" t="s" s="2">
         <v>44</v>
@@ -20827,7 +20818,7 @@
         <v>44</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="AN160" t="s" s="2">
         <v>44</v>
@@ -20835,11 +20826,11 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
@@ -20861,10 +20852,10 @@
         <v>53</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="M161" s="2"/>
       <c r="N161" s="2"/>
@@ -20879,7 +20870,7 @@
         <v>44</v>
       </c>
       <c r="S161" t="s" s="2">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="T161" t="s" s="2">
         <v>44</v>
@@ -20915,7 +20906,7 @@
         <v>44</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>42</v>
@@ -20930,7 +20921,7 @@
         <v>63</v>
       </c>
       <c r="AJ161" t="s" s="2">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="AK161" t="s" s="2">
         <v>44</v>
@@ -20939,7 +20930,7 @@
         <v>44</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>44</v>
@@ -20947,7 +20938,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -20973,13 +20964,13 @@
         <v>53</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" t="s" s="2">
@@ -21029,7 +21020,7 @@
         <v>44</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>42</v>
@@ -21044,7 +21035,7 @@
         <v>63</v>
       </c>
       <c r="AJ162" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="AK162" t="s" s="2">
         <v>44</v>
@@ -21053,7 +21044,7 @@
         <v>44</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="AN162" t="s" s="2">
         <v>44</v>
@@ -21061,7 +21052,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -21087,14 +21078,14 @@
         <v>259</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="M163" s="2"/>
       <c r="N163" t="s" s="2">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>44</v>
@@ -21107,7 +21098,7 @@
         <v>44</v>
       </c>
       <c r="S163" t="s" s="2">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="T163" t="s" s="2">
         <v>44</v>
@@ -21143,7 +21134,7 @@
         <v>44</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>42</v>
@@ -21158,7 +21149,7 @@
         <v>63</v>
       </c>
       <c r="AJ163" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AK163" t="s" s="2">
         <v>44</v>
@@ -21167,7 +21158,7 @@
         <v>44</v>
       </c>
       <c r="AM163" t="s" s="2">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="AN163" t="s" s="2">
         <v>44</v>
@@ -21175,10 +21166,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C164" t="s" s="2">
         <v>44</v>
@@ -21200,19 +21191,19 @@
         <v>52</v>
       </c>
       <c r="J164" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="K164" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="L164" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M164" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="K164" t="s" s="2">
+      <c r="N164" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="L164" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="M164" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N164" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>44</v>
@@ -21261,7 +21252,7 @@
         <v>44</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>42</v>
@@ -21276,16 +21267,16 @@
         <v>63</v>
       </c>
       <c r="AJ164" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AK164" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="AL164" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM164" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="AN164" t="s" s="2">
         <v>44</v>
@@ -21293,7 +21284,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -21405,7 +21396,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -21519,7 +21510,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21545,16 +21536,16 @@
         <v>71</v>
       </c>
       <c r="K167" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L167" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M167" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N167" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="L167" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="M167" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N167" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>44</v>
@@ -21564,10 +21555,10 @@
         <v>44</v>
       </c>
       <c r="R167" t="s" s="2">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="S167" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="T167" t="s" s="2">
         <v>44</v>
@@ -21582,10 +21573,10 @@
         <v>165</v>
       </c>
       <c r="X167" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="Y167" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="Z167" t="s" s="2">
         <v>44</v>
@@ -21603,7 +21594,7 @@
         <v>44</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>42</v>
@@ -21618,7 +21609,7 @@
         <v>63</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AK167" t="s" s="2">
         <v>44</v>
@@ -21627,7 +21618,7 @@
         <v>44</v>
       </c>
       <c r="AM167" t="s" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="AN167" t="s" s="2">
         <v>44</v>
@@ -21635,7 +21626,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -21661,13 +21652,13 @@
         <v>71</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" t="s" s="2">
@@ -21681,7 +21672,7 @@
         <v>44</v>
       </c>
       <c r="S168" t="s" s="2">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="T168" t="s" s="2">
         <v>44</v>
@@ -21696,10 +21687,10 @@
         <v>165</v>
       </c>
       <c r="X168" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="Y168" t="s" s="2">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="Z168" t="s" s="2">
         <v>44</v>
@@ -21717,7 +21708,7 @@
         <v>44</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>42</v>
@@ -21732,7 +21723,7 @@
         <v>63</v>
       </c>
       <c r="AJ168" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AK168" t="s" s="2">
         <v>44</v>
@@ -21741,7 +21732,7 @@
         <v>44</v>
       </c>
       <c r="AM168" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="AN168" t="s" s="2">
         <v>44</v>
@@ -21749,7 +21740,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -21775,16 +21766,16 @@
         <v>53</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>44</v>
@@ -21797,7 +21788,7 @@
         <v>44</v>
       </c>
       <c r="S169" t="s" s="2">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="T169" t="s" s="2">
         <v>44</v>
@@ -21833,7 +21824,7 @@
         <v>44</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>42</v>
@@ -21848,7 +21839,7 @@
         <v>63</v>
       </c>
       <c r="AJ169" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AK169" t="s" s="2">
         <v>44</v>
@@ -21857,7 +21848,7 @@
         <v>44</v>
       </c>
       <c r="AM169" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="AN169" t="s" s="2">
         <v>44</v>
@@ -21865,7 +21856,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -21891,10 +21882,10 @@
         <v>53</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" s="2"/>
@@ -21909,7 +21900,7 @@
         <v>44</v>
       </c>
       <c r="S170" t="s" s="2">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="T170" t="s" s="2">
         <v>44</v>
@@ -21945,7 +21936,7 @@
         <v>44</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>42</v>
@@ -21960,7 +21951,7 @@
         <v>63</v>
       </c>
       <c r="AJ170" t="s" s="2">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="AK170" t="s" s="2">
         <v>44</v>
@@ -21969,7 +21960,7 @@
         <v>44</v>
       </c>
       <c r="AM170" t="s" s="2">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="AN170" t="s" s="2">
         <v>44</v>
@@ -21977,11 +21968,11 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" t="s" s="2">
@@ -22003,10 +21994,10 @@
         <v>53</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="M171" s="2"/>
       <c r="N171" s="2"/>
@@ -22021,7 +22012,7 @@
         <v>44</v>
       </c>
       <c r="S171" t="s" s="2">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="T171" t="s" s="2">
         <v>44</v>
@@ -22057,7 +22048,7 @@
         <v>44</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>42</v>
@@ -22072,7 +22063,7 @@
         <v>63</v>
       </c>
       <c r="AJ171" t="s" s="2">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="AK171" t="s" s="2">
         <v>44</v>
@@ -22081,7 +22072,7 @@
         <v>44</v>
       </c>
       <c r="AM171" t="s" s="2">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="AN171" t="s" s="2">
         <v>44</v>
@@ -22089,11 +22080,11 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
@@ -22115,13 +22106,13 @@
         <v>53</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="N172" s="2"/>
       <c r="O172" t="s" s="2">
@@ -22135,7 +22126,7 @@
         <v>44</v>
       </c>
       <c r="S172" t="s" s="2">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="T172" t="s" s="2">
         <v>44</v>
@@ -22171,7 +22162,7 @@
         <v>44</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>42</v>
@@ -22186,7 +22177,7 @@
         <v>63</v>
       </c>
       <c r="AJ172" t="s" s="2">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="AK172" t="s" s="2">
         <v>44</v>
@@ -22195,7 +22186,7 @@
         <v>44</v>
       </c>
       <c r="AM172" t="s" s="2">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="AN172" t="s" s="2">
         <v>44</v>
@@ -22203,11 +22194,11 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" t="s" s="2">
@@ -22229,10 +22220,10 @@
         <v>53</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M173" s="2"/>
       <c r="N173" s="2"/>
@@ -22283,7 +22274,7 @@
         <v>44</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>42</v>
@@ -22298,7 +22289,7 @@
         <v>63</v>
       </c>
       <c r="AJ173" t="s" s="2">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="AK173" t="s" s="2">
         <v>44</v>
@@ -22307,7 +22298,7 @@
         <v>44</v>
       </c>
       <c r="AM173" t="s" s="2">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="AN173" t="s" s="2">
         <v>44</v>
@@ -22315,11 +22306,11 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" t="s" s="2">
@@ -22341,10 +22332,10 @@
         <v>53</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="M174" s="2"/>
       <c r="N174" s="2"/>
@@ -22359,7 +22350,7 @@
         <v>44</v>
       </c>
       <c r="S174" t="s" s="2">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="T174" t="s" s="2">
         <v>44</v>
@@ -22395,7 +22386,7 @@
         <v>44</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>42</v>
@@ -22410,7 +22401,7 @@
         <v>63</v>
       </c>
       <c r="AJ174" t="s" s="2">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="AK174" t="s" s="2">
         <v>44</v>
@@ -22419,7 +22410,7 @@
         <v>44</v>
       </c>
       <c r="AM174" t="s" s="2">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AN174" t="s" s="2">
         <v>44</v>
@@ -22427,7 +22418,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -22453,13 +22444,13 @@
         <v>53</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="N175" s="2"/>
       <c r="O175" t="s" s="2">
@@ -22509,7 +22500,7 @@
         <v>44</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>42</v>
@@ -22524,7 +22515,7 @@
         <v>63</v>
       </c>
       <c r="AJ175" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="AK175" t="s" s="2">
         <v>44</v>
@@ -22533,7 +22524,7 @@
         <v>44</v>
       </c>
       <c r="AM175" t="s" s="2">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="AN175" t="s" s="2">
         <v>44</v>
@@ -22541,7 +22532,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -22567,14 +22558,14 @@
         <v>259</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="M176" s="2"/>
       <c r="N176" t="s" s="2">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="O176" t="s" s="2">
         <v>44</v>
@@ -22587,7 +22578,7 @@
         <v>44</v>
       </c>
       <c r="S176" t="s" s="2">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="T176" t="s" s="2">
         <v>44</v>
@@ -22623,7 +22614,7 @@
         <v>44</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>42</v>
@@ -22638,7 +22629,7 @@
         <v>63</v>
       </c>
       <c r="AJ176" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AK176" t="s" s="2">
         <v>44</v>
@@ -22647,7 +22638,7 @@
         <v>44</v>
       </c>
       <c r="AM176" t="s" s="2">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="AN176" t="s" s="2">
         <v>44</v>
@@ -22655,7 +22646,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -22681,14 +22672,14 @@
         <v>171</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="M177" s="2"/>
       <c r="N177" t="s" s="2">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>44</v>
@@ -22717,7 +22708,7 @@
       </c>
       <c r="X177" s="2"/>
       <c r="Y177" t="s" s="2">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="Z177" t="s" s="2">
         <v>44</v>
@@ -22735,7 +22726,7 @@
         <v>44</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>42</v>
@@ -22750,16 +22741,16 @@
         <v>63</v>
       </c>
       <c r="AJ177" t="s" s="2">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="AK177" t="s" s="2">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="AL177" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM177" t="s" s="2">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="AN177" t="s" s="2">
         <v>44</v>
@@ -22767,7 +22758,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -22790,19 +22781,19 @@
         <v>44</v>
       </c>
       <c r="J178" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="K178" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="L178" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="M178" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="K178" t="s" s="2">
+      <c r="N178" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="L178" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="M178" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="N178" t="s" s="2">
-        <v>563</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>44</v>
@@ -22851,7 +22842,7 @@
         <v>44</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>42</v>
@@ -22866,7 +22857,7 @@
         <v>63</v>
       </c>
       <c r="AJ178" t="s" s="2">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="AK178" t="s" s="2">
         <v>154</v>
@@ -22875,7 +22866,7 @@
         <v>44</v>
       </c>
       <c r="AM178" t="s" s="2">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="AN178" t="s" s="2">
         <v>44</v>
@@ -22883,7 +22874,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -22906,19 +22897,19 @@
         <v>44</v>
       </c>
       <c r="J179" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="K179" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="L179" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="M179" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="K179" t="s" s="2">
+      <c r="N179" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="L179" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="M179" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="N179" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>44</v>
@@ -22955,10 +22946,10 @@
         <v>44</v>
       </c>
       <c r="AA179" t="s" s="2">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="AB179" t="s" s="2">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="AC179" t="s" s="2">
         <v>44</v>
@@ -22967,7 +22958,7 @@
         <v>145</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>42</v>
@@ -22982,7 +22973,7 @@
         <v>63</v>
       </c>
       <c r="AJ179" t="s" s="2">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="AK179" t="s" s="2">
         <v>154</v>
@@ -22991,7 +22982,7 @@
         <v>44</v>
       </c>
       <c r="AM179" t="s" s="2">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="AN179" t="s" s="2">
         <v>44</v>
@@ -22999,7 +22990,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -23111,7 +23102,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -23225,7 +23216,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -23251,14 +23242,14 @@
         <v>71</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="M182" s="2"/>
       <c r="N182" t="s" s="2">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="O182" t="s" s="2">
         <v>44</v>
@@ -23271,7 +23262,7 @@
         <v>44</v>
       </c>
       <c r="S182" t="s" s="2">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="T182" t="s" s="2">
         <v>44</v>
@@ -23286,10 +23277,10 @@
         <v>165</v>
       </c>
       <c r="X182" t="s" s="2">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="Y182" t="s" s="2">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="Z182" t="s" s="2">
         <v>44</v>
@@ -23307,7 +23298,7 @@
         <v>44</v>
       </c>
       <c r="AE182" t="s" s="2">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="AF182" t="s" s="2">
         <v>42</v>
@@ -23322,7 +23313,7 @@
         <v>63</v>
       </c>
       <c r="AJ182" t="s" s="2">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="AK182" t="s" s="2">
         <v>44</v>
@@ -23331,7 +23322,7 @@
         <v>44</v>
       </c>
       <c r="AM182" t="s" s="2">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="AN182" t="s" s="2">
         <v>44</v>
@@ -23339,7 +23330,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -23365,14 +23356,14 @@
         <v>71</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="M183" s="2"/>
       <c r="N183" t="s" s="2">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="O183" t="s" s="2">
         <v>44</v>
@@ -23385,7 +23376,7 @@
         <v>44</v>
       </c>
       <c r="S183" t="s" s="2">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="T183" t="s" s="2">
         <v>44</v>
@@ -23421,7 +23412,7 @@
         <v>44</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>42</v>
@@ -23436,7 +23427,7 @@
         <v>63</v>
       </c>
       <c r="AJ183" t="s" s="2">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="AK183" t="s" s="2">
         <v>44</v>
@@ -23453,7 +23444,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -23476,19 +23467,19 @@
         <v>44</v>
       </c>
       <c r="J184" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="K184" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="L184" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="M184" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="K184" t="s" s="2">
+      <c r="N184" t="s" s="2">
         <v>597</v>
-      </c>
-      <c r="L184" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="M184" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="N184" t="s" s="2">
-        <v>600</v>
       </c>
       <c r="O184" t="s" s="2">
         <v>44</v>
@@ -23537,7 +23528,7 @@
         <v>44</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="AF184" t="s" s="2">
         <v>42</v>
@@ -23552,7 +23543,7 @@
         <v>63</v>
       </c>
       <c r="AJ184" t="s" s="2">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="AK184" t="s" s="2">
         <v>44</v>
@@ -23561,7 +23552,7 @@
         <v>44</v>
       </c>
       <c r="AM184" t="s" s="2">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="AN184" t="s" s="2">
         <v>44</v>
@@ -23569,7 +23560,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -23592,19 +23583,19 @@
         <v>52</v>
       </c>
       <c r="J185" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="K185" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="L185" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="M185" t="s" s="2">
         <v>605</v>
       </c>
-      <c r="K185" t="s" s="2">
+      <c r="N185" t="s" s="2">
         <v>606</v>
-      </c>
-      <c r="L185" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="M185" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="N185" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="O185" t="s" s="2">
         <v>44</v>
@@ -23617,7 +23608,7 @@
         <v>44</v>
       </c>
       <c r="S185" t="s" s="2">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="T185" t="s" s="2">
         <v>44</v>
@@ -23653,7 +23644,7 @@
         <v>44</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="AF185" t="s" s="2">
         <v>42</v>
@@ -23668,7 +23659,7 @@
         <v>63</v>
       </c>
       <c r="AJ185" t="s" s="2">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="AK185" t="s" s="2">
         <v>44</v>
@@ -23677,7 +23668,7 @@
         <v>44</v>
       </c>
       <c r="AM185" t="s" s="2">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="AN185" t="s" s="2">
         <v>44</v>
@@ -23685,7 +23676,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -23708,19 +23699,19 @@
         <v>52</v>
       </c>
       <c r="J186" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="K186" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="L186" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="M186" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="K186" t="s" s="2">
+      <c r="N186" t="s" s="2">
         <v>616</v>
-      </c>
-      <c r="L186" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="M186" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="N186" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="O186" t="s" s="2">
         <v>44</v>
@@ -23769,7 +23760,7 @@
         <v>44</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>42</v>
@@ -23784,7 +23775,7 @@
         <v>63</v>
       </c>
       <c r="AJ186" t="s" s="2">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="AK186" t="s" s="2">
         <v>44</v>
@@ -23801,7 +23792,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -23824,19 +23815,19 @@
         <v>52</v>
       </c>
       <c r="J187" t="s" s="2">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="K187" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="L187" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="M187" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="N187" t="s" s="2">
         <v>623</v>
-      </c>
-      <c r="L187" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="M187" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="N187" t="s" s="2">
-        <v>626</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>44</v>
@@ -23885,7 +23876,7 @@
         <v>44</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>42</v>
@@ -23900,7 +23891,7 @@
         <v>63</v>
       </c>
       <c r="AJ187" t="s" s="2">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AK187" t="s" s="2">
         <v>44</v>
@@ -23917,7 +23908,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -23943,14 +23934,14 @@
         <v>53</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="M188" s="2"/>
       <c r="N188" t="s" s="2">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>44</v>
@@ -23963,7 +23954,7 @@
         <v>44</v>
       </c>
       <c r="S188" t="s" s="2">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="T188" t="s" s="2">
         <v>44</v>
@@ -23999,7 +23990,7 @@
         <v>44</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>42</v>
@@ -24014,7 +24005,7 @@
         <v>63</v>
       </c>
       <c r="AJ188" t="s" s="2">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="AK188" t="s" s="2">
         <v>44</v>
@@ -24031,7 +24022,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -24054,17 +24045,17 @@
         <v>52</v>
       </c>
       <c r="J189" t="s" s="2">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="M189" s="2"/>
       <c r="N189" t="s" s="2">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="O189" t="s" s="2">
         <v>44</v>
@@ -24113,7 +24104,7 @@
         <v>44</v>
       </c>
       <c r="AE189" t="s" s="2">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="AF189" t="s" s="2">
         <v>42</v>
@@ -24128,7 +24119,7 @@
         <v>63</v>
       </c>
       <c r="AJ189" t="s" s="2">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="AK189" t="s" s="2">
         <v>44</v>
@@ -24145,10 +24136,10 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C190" t="s" s="2">
         <v>44</v>
@@ -24170,19 +24161,19 @@
         <v>44</v>
       </c>
       <c r="J190" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="K190" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="L190" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="M190" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="K190" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="L190" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="M190" t="s" s="2">
-        <v>570</v>
-      </c>
       <c r="N190" t="s" s="2">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="O190" t="s" s="2">
         <v>44</v>
@@ -24231,7 +24222,7 @@
         <v>44</v>
       </c>
       <c r="AE190" t="s" s="2">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="AF190" t="s" s="2">
         <v>42</v>
@@ -24246,7 +24237,7 @@
         <v>63</v>
       </c>
       <c r="AJ190" t="s" s="2">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="AK190" t="s" s="2">
         <v>154</v>
@@ -24255,7 +24246,7 @@
         <v>44</v>
       </c>
       <c r="AM190" t="s" s="2">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="AN190" t="s" s="2">
         <v>44</v>
@@ -24263,7 +24254,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -24375,7 +24366,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -24489,7 +24480,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -24515,14 +24506,14 @@
         <v>71</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="M193" s="2"/>
       <c r="N193" t="s" s="2">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="O193" t="s" s="2">
         <v>44</v>
@@ -24535,7 +24526,7 @@
         <v>44</v>
       </c>
       <c r="S193" t="s" s="2">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="T193" t="s" s="2">
         <v>44</v>
@@ -24550,10 +24541,10 @@
         <v>165</v>
       </c>
       <c r="X193" t="s" s="2">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="Y193" t="s" s="2">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="Z193" t="s" s="2">
         <v>44</v>
@@ -24571,7 +24562,7 @@
         <v>44</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>42</v>
@@ -24586,7 +24577,7 @@
         <v>63</v>
       </c>
       <c r="AJ193" t="s" s="2">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="AK193" t="s" s="2">
         <v>44</v>
@@ -24595,7 +24586,7 @@
         <v>44</v>
       </c>
       <c r="AM193" t="s" s="2">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="AN193" t="s" s="2">
         <v>44</v>
@@ -24603,7 +24594,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -24629,14 +24620,14 @@
         <v>71</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="M194" s="2"/>
       <c r="N194" t="s" s="2">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="O194" t="s" s="2">
         <v>44</v>
@@ -24649,7 +24640,7 @@
         <v>44</v>
       </c>
       <c r="S194" t="s" s="2">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="T194" t="s" s="2">
         <v>44</v>
@@ -24685,7 +24676,7 @@
         <v>44</v>
       </c>
       <c r="AE194" t="s" s="2">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="AF194" t="s" s="2">
         <v>42</v>
@@ -24700,7 +24691,7 @@
         <v>63</v>
       </c>
       <c r="AJ194" t="s" s="2">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="AK194" t="s" s="2">
         <v>44</v>
@@ -24717,7 +24708,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -24740,19 +24731,19 @@
         <v>44</v>
       </c>
       <c r="J195" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="K195" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="L195" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="M195" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="K195" t="s" s="2">
+      <c r="N195" t="s" s="2">
         <v>597</v>
-      </c>
-      <c r="L195" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="M195" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="N195" t="s" s="2">
-        <v>600</v>
       </c>
       <c r="O195" t="s" s="2">
         <v>44</v>
@@ -24801,7 +24792,7 @@
         <v>44</v>
       </c>
       <c r="AE195" t="s" s="2">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="AF195" t="s" s="2">
         <v>42</v>
@@ -24816,7 +24807,7 @@
         <v>63</v>
       </c>
       <c r="AJ195" t="s" s="2">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="AK195" t="s" s="2">
         <v>44</v>
@@ -24825,7 +24816,7 @@
         <v>44</v>
       </c>
       <c r="AM195" t="s" s="2">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="AN195" t="s" s="2">
         <v>44</v>
@@ -24833,7 +24824,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -24856,19 +24847,19 @@
         <v>52</v>
       </c>
       <c r="J196" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="K196" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="L196" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="M196" t="s" s="2">
         <v>605</v>
       </c>
-      <c r="K196" t="s" s="2">
+      <c r="N196" t="s" s="2">
         <v>606</v>
-      </c>
-      <c r="L196" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="M196" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="N196" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="O196" t="s" s="2">
         <v>44</v>
@@ -24881,7 +24872,7 @@
         <v>44</v>
       </c>
       <c r="S196" t="s" s="2">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="T196" t="s" s="2">
         <v>44</v>
@@ -24917,7 +24908,7 @@
         <v>44</v>
       </c>
       <c r="AE196" t="s" s="2">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="AF196" t="s" s="2">
         <v>42</v>
@@ -24932,7 +24923,7 @@
         <v>63</v>
       </c>
       <c r="AJ196" t="s" s="2">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="AK196" t="s" s="2">
         <v>44</v>
@@ -24941,7 +24932,7 @@
         <v>44</v>
       </c>
       <c r="AM196" t="s" s="2">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="AN196" t="s" s="2">
         <v>44</v>
@@ -24949,7 +24940,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -24972,19 +24963,19 @@
         <v>52</v>
       </c>
       <c r="J197" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="K197" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="L197" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="M197" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="K197" t="s" s="2">
+      <c r="N197" t="s" s="2">
         <v>616</v>
-      </c>
-      <c r="L197" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="M197" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="N197" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="O197" t="s" s="2">
         <v>44</v>
@@ -25033,7 +25024,7 @@
         <v>44</v>
       </c>
       <c r="AE197" t="s" s="2">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="AF197" t="s" s="2">
         <v>42</v>
@@ -25048,7 +25039,7 @@
         <v>63</v>
       </c>
       <c r="AJ197" t="s" s="2">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="AK197" t="s" s="2">
         <v>44</v>
@@ -25065,7 +25056,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -25088,19 +25079,19 @@
         <v>52</v>
       </c>
       <c r="J198" t="s" s="2">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="K198" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="L198" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="M198" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="N198" t="s" s="2">
         <v>623</v>
-      </c>
-      <c r="L198" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="M198" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="N198" t="s" s="2">
-        <v>626</v>
       </c>
       <c r="O198" t="s" s="2">
         <v>44</v>
@@ -25149,7 +25140,7 @@
         <v>44</v>
       </c>
       <c r="AE198" t="s" s="2">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="AF198" t="s" s="2">
         <v>42</v>
@@ -25164,7 +25155,7 @@
         <v>63</v>
       </c>
       <c r="AJ198" t="s" s="2">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AK198" t="s" s="2">
         <v>44</v>
@@ -25181,7 +25172,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -25207,14 +25198,14 @@
         <v>53</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="M199" s="2"/>
       <c r="N199" t="s" s="2">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="O199" t="s" s="2">
         <v>44</v>
@@ -25227,7 +25218,7 @@
         <v>44</v>
       </c>
       <c r="S199" t="s" s="2">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="T199" t="s" s="2">
         <v>44</v>
@@ -25263,7 +25254,7 @@
         <v>44</v>
       </c>
       <c r="AE199" t="s" s="2">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="AF199" t="s" s="2">
         <v>42</v>
@@ -25278,7 +25269,7 @@
         <v>63</v>
       </c>
       <c r="AJ199" t="s" s="2">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="AK199" t="s" s="2">
         <v>44</v>
@@ -25295,7 +25286,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -25318,17 +25309,17 @@
         <v>52</v>
       </c>
       <c r="J200" t="s" s="2">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="M200" s="2"/>
       <c r="N200" t="s" s="2">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="O200" t="s" s="2">
         <v>44</v>
@@ -25377,7 +25368,7 @@
         <v>44</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>42</v>
@@ -25392,7 +25383,7 @@
         <v>63</v>
       </c>
       <c r="AJ200" t="s" s="2">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="AK200" t="s" s="2">
         <v>44</v>
@@ -25409,10 +25400,10 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C201" t="s" s="2">
         <v>44</v>
@@ -25434,19 +25425,19 @@
         <v>44</v>
       </c>
       <c r="J201" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="K201" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="L201" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="M201" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="K201" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="L201" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="M201" t="s" s="2">
-        <v>570</v>
-      </c>
       <c r="N201" t="s" s="2">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="O201" t="s" s="2">
         <v>44</v>
@@ -25495,7 +25486,7 @@
         <v>44</v>
       </c>
       <c r="AE201" t="s" s="2">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="AF201" t="s" s="2">
         <v>42</v>
@@ -25510,7 +25501,7 @@
         <v>63</v>
       </c>
       <c r="AJ201" t="s" s="2">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="AK201" t="s" s="2">
         <v>154</v>
@@ -25519,7 +25510,7 @@
         <v>44</v>
       </c>
       <c r="AM201" t="s" s="2">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="AN201" t="s" s="2">
         <v>44</v>
@@ -25527,7 +25518,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -25639,7 +25630,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -25753,7 +25744,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -25779,14 +25770,14 @@
         <v>71</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="M204" s="2"/>
       <c r="N204" t="s" s="2">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="O204" t="s" s="2">
         <v>44</v>
@@ -25799,7 +25790,7 @@
         <v>44</v>
       </c>
       <c r="S204" t="s" s="2">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="T204" t="s" s="2">
         <v>44</v>
@@ -25814,10 +25805,10 @@
         <v>165</v>
       </c>
       <c r="X204" t="s" s="2">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="Y204" t="s" s="2">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="Z204" t="s" s="2">
         <v>44</v>
@@ -25835,7 +25826,7 @@
         <v>44</v>
       </c>
       <c r="AE204" t="s" s="2">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="AF204" t="s" s="2">
         <v>42</v>
@@ -25850,7 +25841,7 @@
         <v>63</v>
       </c>
       <c r="AJ204" t="s" s="2">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="AK204" t="s" s="2">
         <v>44</v>
@@ -25859,7 +25850,7 @@
         <v>44</v>
       </c>
       <c r="AM204" t="s" s="2">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="AN204" t="s" s="2">
         <v>44</v>
@@ -25867,7 +25858,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -25893,14 +25884,14 @@
         <v>71</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="M205" s="2"/>
       <c r="N205" t="s" s="2">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="O205" t="s" s="2">
         <v>44</v>
@@ -25913,7 +25904,7 @@
         <v>44</v>
       </c>
       <c r="S205" t="s" s="2">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="T205" t="s" s="2">
         <v>44</v>
@@ -25949,7 +25940,7 @@
         <v>44</v>
       </c>
       <c r="AE205" t="s" s="2">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="AF205" t="s" s="2">
         <v>42</v>
@@ -25964,7 +25955,7 @@
         <v>63</v>
       </c>
       <c r="AJ205" t="s" s="2">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="AK205" t="s" s="2">
         <v>44</v>
@@ -25981,7 +25972,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -26004,19 +25995,19 @@
         <v>44</v>
       </c>
       <c r="J206" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="K206" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="L206" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="M206" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="K206" t="s" s="2">
+      <c r="N206" t="s" s="2">
         <v>597</v>
-      </c>
-      <c r="L206" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="M206" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="N206" t="s" s="2">
-        <v>600</v>
       </c>
       <c r="O206" t="s" s="2">
         <v>44</v>
@@ -26065,7 +26056,7 @@
         <v>44</v>
       </c>
       <c r="AE206" t="s" s="2">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="AF206" t="s" s="2">
         <v>42</v>
@@ -26080,7 +26071,7 @@
         <v>63</v>
       </c>
       <c r="AJ206" t="s" s="2">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="AK206" t="s" s="2">
         <v>44</v>
@@ -26089,7 +26080,7 @@
         <v>44</v>
       </c>
       <c r="AM206" t="s" s="2">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="AN206" t="s" s="2">
         <v>44</v>
@@ -26097,7 +26088,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -26120,19 +26111,19 @@
         <v>52</v>
       </c>
       <c r="J207" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="K207" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="L207" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="M207" t="s" s="2">
         <v>605</v>
       </c>
-      <c r="K207" t="s" s="2">
+      <c r="N207" t="s" s="2">
         <v>606</v>
-      </c>
-      <c r="L207" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="M207" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="N207" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="O207" t="s" s="2">
         <v>44</v>
@@ -26145,7 +26136,7 @@
         <v>44</v>
       </c>
       <c r="S207" t="s" s="2">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="T207" t="s" s="2">
         <v>44</v>
@@ -26181,7 +26172,7 @@
         <v>44</v>
       </c>
       <c r="AE207" t="s" s="2">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="AF207" t="s" s="2">
         <v>42</v>
@@ -26196,7 +26187,7 @@
         <v>63</v>
       </c>
       <c r="AJ207" t="s" s="2">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="AK207" t="s" s="2">
         <v>44</v>
@@ -26205,7 +26196,7 @@
         <v>44</v>
       </c>
       <c r="AM207" t="s" s="2">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="AN207" t="s" s="2">
         <v>44</v>
@@ -26213,7 +26204,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
@@ -26236,19 +26227,19 @@
         <v>52</v>
       </c>
       <c r="J208" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="K208" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="L208" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="M208" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="K208" t="s" s="2">
+      <c r="N208" t="s" s="2">
         <v>616</v>
-      </c>
-      <c r="L208" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="M208" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="N208" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="O208" t="s" s="2">
         <v>44</v>
@@ -26297,7 +26288,7 @@
         <v>44</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="AF208" t="s" s="2">
         <v>42</v>
@@ -26312,7 +26303,7 @@
         <v>63</v>
       </c>
       <c r="AJ208" t="s" s="2">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="AK208" t="s" s="2">
         <v>44</v>
@@ -26329,7 +26320,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -26352,19 +26343,19 @@
         <v>52</v>
       </c>
       <c r="J209" t="s" s="2">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="K209" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="L209" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="M209" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="N209" t="s" s="2">
         <v>623</v>
-      </c>
-      <c r="L209" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="M209" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="N209" t="s" s="2">
-        <v>626</v>
       </c>
       <c r="O209" t="s" s="2">
         <v>44</v>
@@ -26413,7 +26404,7 @@
         <v>44</v>
       </c>
       <c r="AE209" t="s" s="2">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="AF209" t="s" s="2">
         <v>42</v>
@@ -26428,7 +26419,7 @@
         <v>63</v>
       </c>
       <c r="AJ209" t="s" s="2">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AK209" t="s" s="2">
         <v>44</v>
@@ -26445,7 +26436,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -26471,14 +26462,14 @@
         <v>53</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="M210" s="2"/>
       <c r="N210" t="s" s="2">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="O210" t="s" s="2">
         <v>44</v>
@@ -26491,7 +26482,7 @@
         <v>44</v>
       </c>
       <c r="S210" t="s" s="2">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="T210" t="s" s="2">
         <v>44</v>
@@ -26527,7 +26518,7 @@
         <v>44</v>
       </c>
       <c r="AE210" t="s" s="2">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="AF210" t="s" s="2">
         <v>42</v>
@@ -26542,7 +26533,7 @@
         <v>63</v>
       </c>
       <c r="AJ210" t="s" s="2">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="AK210" t="s" s="2">
         <v>44</v>
@@ -26559,7 +26550,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -26582,17 +26573,17 @@
         <v>52</v>
       </c>
       <c r="J211" t="s" s="2">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="M211" s="2"/>
       <c r="N211" t="s" s="2">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="O211" t="s" s="2">
         <v>44</v>
@@ -26641,7 +26632,7 @@
         <v>44</v>
       </c>
       <c r="AE211" t="s" s="2">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="AF211" t="s" s="2">
         <v>42</v>
@@ -26656,7 +26647,7 @@
         <v>63</v>
       </c>
       <c r="AJ211" t="s" s="2">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="AK211" t="s" s="2">
         <v>44</v>
@@ -26673,7 +26664,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -26696,19 +26687,19 @@
         <v>44</v>
       </c>
       <c r="J212" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="K212" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="L212" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="M212" t="s" s="2">
         <v>647</v>
       </c>
-      <c r="K212" t="s" s="2">
+      <c r="N212" t="s" s="2">
         <v>648</v>
-      </c>
-      <c r="L212" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="M212" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="N212" t="s" s="2">
-        <v>651</v>
       </c>
       <c r="O212" t="s" s="2">
         <v>44</v>
@@ -26757,7 +26748,7 @@
         <v>44</v>
       </c>
       <c r="AE212" t="s" s="2">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="AF212" t="s" s="2">
         <v>42</v>
@@ -26769,10 +26760,10 @@
         <v>44</v>
       </c>
       <c r="AI212" t="s" s="2">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="AJ212" t="s" s="2">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="AK212" t="s" s="2">
         <v>154</v>
@@ -26789,7 +26780,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -26901,7 +26892,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -27015,11 +27006,11 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" t="s" s="2">
@@ -27041,10 +27032,10 @@
         <v>96</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="M215" t="s" s="2">
         <v>136</v>
@@ -27099,7 +27090,7 @@
         <v>44</v>
       </c>
       <c r="AE215" t="s" s="2">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="AF215" t="s" s="2">
         <v>42</v>
@@ -27131,7 +27122,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -27157,14 +27148,14 @@
         <v>171</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="M216" s="2"/>
       <c r="N216" t="s" s="2">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="O216" t="s" s="2">
         <v>44</v>
@@ -27193,7 +27184,7 @@
       </c>
       <c r="X216" s="2"/>
       <c r="Y216" t="s" s="2">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="Z216" t="s" s="2">
         <v>44</v>
@@ -27211,7 +27202,7 @@
         <v>44</v>
       </c>
       <c r="AE216" t="s" s="2">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="AF216" t="s" s="2">
         <v>42</v>
@@ -27226,7 +27217,7 @@
         <v>63</v>
       </c>
       <c r="AJ216" t="s" s="2">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="AK216" t="s" s="2">
         <v>154</v>
@@ -27235,7 +27226,7 @@
         <v>44</v>
       </c>
       <c r="AM216" t="s" s="2">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="AN216" t="s" s="2">
         <v>44</v>
@@ -27243,7 +27234,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -27266,17 +27257,17 @@
         <v>44</v>
       </c>
       <c r="J217" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M217" s="2"/>
       <c r="N217" t="s" s="2">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="O217" t="s" s="2">
         <v>44</v>
@@ -27325,7 +27316,7 @@
         <v>44</v>
       </c>
       <c r="AE217" t="s" s="2">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="AF217" t="s" s="2">
         <v>42</v>
@@ -27340,7 +27331,7 @@
         <v>63</v>
       </c>
       <c r="AJ217" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AK217" t="s" s="2">
         <v>154</v>
@@ -27349,7 +27340,7 @@
         <v>44</v>
       </c>
       <c r="AM217" t="s" s="2">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="AN217" t="s" s="2">
         <v>44</v>
@@ -27357,7 +27348,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -27380,19 +27371,19 @@
         <v>44</v>
       </c>
       <c r="J218" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="O218" t="s" s="2">
         <v>44</v>
@@ -27441,7 +27432,7 @@
         <v>44</v>
       </c>
       <c r="AE218" t="s" s="2">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="AF218" t="s" s="2">
         <v>42</v>
@@ -27456,7 +27447,7 @@
         <v>63</v>
       </c>
       <c r="AJ218" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="AK218" t="s" s="2">
         <v>154</v>
@@ -27465,7 +27456,7 @@
         <v>44</v>
       </c>
       <c r="AM218" t="s" s="2">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="AN218" t="s" s="2">
         <v>44</v>
@@ -27473,7 +27464,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -27496,17 +27487,17 @@
         <v>44</v>
       </c>
       <c r="J219" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="M219" s="2"/>
       <c r="N219" t="s" s="2">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="O219" t="s" s="2">
         <v>44</v>
@@ -27555,7 +27546,7 @@
         <v>44</v>
       </c>
       <c r="AE219" t="s" s="2">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AF219" t="s" s="2">
         <v>42</v>
@@ -27570,7 +27561,7 @@
         <v>63</v>
       </c>
       <c r="AJ219" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AK219" t="s" s="2">
         <v>154</v>
@@ -27579,7 +27570,7 @@
         <v>44</v>
       </c>
       <c r="AM219" t="s" s="2">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="AN219" t="s" s="2">
         <v>44</v>
@@ -27587,7 +27578,7 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
@@ -27613,14 +27604,14 @@
         <v>71</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="M220" s="2"/>
       <c r="N220" t="s" s="2">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="O220" t="s" s="2">
         <v>44</v>
@@ -27648,10 +27639,10 @@
         <v>165</v>
       </c>
       <c r="X220" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="Y220" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="Z220" t="s" s="2">
         <v>44</v>
@@ -27669,7 +27660,7 @@
         <v>44</v>
       </c>
       <c r="AE220" t="s" s="2">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="AF220" t="s" s="2">
         <v>42</v>
@@ -27684,7 +27675,7 @@
         <v>63</v>
       </c>
       <c r="AJ220" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="AK220" t="s" s="2">
         <v>154</v>
@@ -27693,7 +27684,7 @@
         <v>44</v>
       </c>
       <c r="AM220" t="s" s="2">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="AN220" t="s" s="2">
         <v>44</v>
@@ -27701,7 +27692,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -27727,14 +27718,14 @@
         <v>266</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="M221" s="2"/>
       <c r="N221" t="s" s="2">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="O221" t="s" s="2">
         <v>44</v>
@@ -27783,7 +27774,7 @@
         <v>44</v>
       </c>
       <c r="AE221" t="s" s="2">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="AF221" t="s" s="2">
         <v>42</v>
@@ -27792,13 +27783,13 @@
         <v>51</v>
       </c>
       <c r="AH221" t="s" s="2">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="AI221" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ221" t="s" s="2">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="AK221" t="s" s="2">
         <v>154</v>
@@ -27807,7 +27798,7 @@
         <v>44</v>
       </c>
       <c r="AM221" t="s" s="2">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="AN221" t="s" s="2">
         <v>44</v>
@@ -27815,7 +27806,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
@@ -27841,10 +27832,10 @@
         <v>259</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="M222" s="2"/>
       <c r="N222" s="2"/>
@@ -27895,7 +27886,7 @@
         <v>44</v>
       </c>
       <c r="AE222" t="s" s="2">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="AF222" t="s" s="2">
         <v>42</v>
@@ -27910,7 +27901,7 @@
         <v>63</v>
       </c>
       <c r="AJ222" t="s" s="2">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="AK222" t="s" s="2">
         <v>154</v>
@@ -27927,7 +27918,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -27950,19 +27941,19 @@
         <v>44</v>
       </c>
       <c r="J223" t="s" s="2">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="K223" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="L223" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="M223" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="N223" t="s" s="2">
         <v>699</v>
-      </c>
-      <c r="L223" t="s" s="2">
-        <v>700</v>
-      </c>
-      <c r="M223" t="s" s="2">
-        <v>701</v>
-      </c>
-      <c r="N223" t="s" s="2">
-        <v>702</v>
       </c>
       <c r="O223" t="s" s="2">
         <v>44</v>
@@ -28011,7 +28002,7 @@
         <v>44</v>
       </c>
       <c r="AE223" t="s" s="2">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="AF223" t="s" s="2">
         <v>42</v>
@@ -28026,10 +28017,10 @@
         <v>63</v>
       </c>
       <c r="AJ223" t="s" s="2">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="AK223" t="s" s="2">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="AL223" t="s" s="2">
         <v>44</v>
@@ -28043,7 +28034,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -28155,7 +28146,7 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -28269,11 +28260,11 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" t="s" s="2">
@@ -28295,10 +28286,10 @@
         <v>96</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="M226" t="s" s="2">
         <v>136</v>
@@ -28353,7 +28344,7 @@
         <v>44</v>
       </c>
       <c r="AE226" t="s" s="2">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="AF226" t="s" s="2">
         <v>42</v>
@@ -28385,7 +28376,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -28411,16 +28402,16 @@
         <v>171</v>
       </c>
       <c r="K227" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="L227" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="M227" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="N227" t="s" s="2">
         <v>709</v>
-      </c>
-      <c r="L227" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="M227" t="s" s="2">
-        <v>711</v>
-      </c>
-      <c r="N227" t="s" s="2">
-        <v>712</v>
       </c>
       <c r="O227" t="s" s="2">
         <v>44</v>
@@ -28469,7 +28460,7 @@
         <v>44</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="AF227" t="s" s="2">
         <v>51</v>
@@ -28484,16 +28475,16 @@
         <v>63</v>
       </c>
       <c r="AJ227" t="s" s="2">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="AK227" t="s" s="2">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="AL227" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM227" t="s" s="2">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="AN227" t="s" s="2">
         <v>44</v>
@@ -28501,7 +28492,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -28527,16 +28518,16 @@
         <v>225</v>
       </c>
       <c r="K228" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="L228" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="M228" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="N228" t="s" s="2">
         <v>717</v>
-      </c>
-      <c r="L228" t="s" s="2">
-        <v>718</v>
-      </c>
-      <c r="M228" t="s" s="2">
-        <v>719</v>
-      </c>
-      <c r="N228" t="s" s="2">
-        <v>720</v>
       </c>
       <c r="O228" t="s" s="2">
         <v>44</v>
@@ -28585,7 +28576,7 @@
         <v>44</v>
       </c>
       <c r="AE228" t="s" s="2">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="AF228" t="s" s="2">
         <v>42</v>
@@ -28600,16 +28591,16 @@
         <v>63</v>
       </c>
       <c r="AJ228" t="s" s="2">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="AK228" t="s" s="2">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="AL228" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM228" t="s" s="2">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="AN228" t="s" s="2">
         <v>44</v>
@@ -28617,11 +28608,11 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" t="s" s="2">
@@ -28640,16 +28631,16 @@
         <v>44</v>
       </c>
       <c r="J229" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="K229" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="L229" t="s" s="2">
+        <v>725</v>
+      </c>
+      <c r="M229" t="s" s="2">
         <v>726</v>
-      </c>
-      <c r="K229" t="s" s="2">
-        <v>727</v>
-      </c>
-      <c r="L229" t="s" s="2">
-        <v>728</v>
-      </c>
-      <c r="M229" t="s" s="2">
-        <v>729</v>
       </c>
       <c r="N229" s="2"/>
       <c r="O229" t="s" s="2">
@@ -28699,7 +28690,7 @@
         <v>44</v>
       </c>
       <c r="AE229" t="s" s="2">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="AF229" t="s" s="2">
         <v>42</v>
@@ -28714,7 +28705,7 @@
         <v>63</v>
       </c>
       <c r="AJ229" t="s" s="2">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="AK229" t="s" s="2">
         <v>154</v>
@@ -28723,7 +28714,7 @@
         <v>44</v>
       </c>
       <c r="AM229" t="s" s="2">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="AN229" t="s" s="2">
         <v>44</v>
@@ -28731,7 +28722,7 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" t="s" s="2">
@@ -28757,16 +28748,16 @@
         <v>266</v>
       </c>
       <c r="K230" t="s" s="2">
+        <v>730</v>
+      </c>
+      <c r="L230" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="M230" t="s" s="2">
+        <v>732</v>
+      </c>
+      <c r="N230" t="s" s="2">
         <v>733</v>
-      </c>
-      <c r="L230" t="s" s="2">
-        <v>734</v>
-      </c>
-      <c r="M230" t="s" s="2">
-        <v>735</v>
-      </c>
-      <c r="N230" t="s" s="2">
-        <v>736</v>
       </c>
       <c r="O230" t="s" s="2">
         <v>44</v>
@@ -28815,7 +28806,7 @@
         <v>44</v>
       </c>
       <c r="AE230" t="s" s="2">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="AF230" t="s" s="2">
         <v>42</v>
@@ -28830,10 +28821,10 @@
         <v>63</v>
       </c>
       <c r="AJ230" t="s" s="2">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="AK230" t="s" s="2">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="AL230" t="s" s="2">
         <v>44</v>
@@ -28847,7 +28838,7 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
@@ -28870,19 +28861,19 @@
         <v>52</v>
       </c>
       <c r="J231" t="s" s="2">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="K231" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="L231" t="s" s="2">
+        <v>737</v>
+      </c>
+      <c r="M231" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="N231" t="s" s="2">
         <v>739</v>
-      </c>
-      <c r="L231" t="s" s="2">
-        <v>740</v>
-      </c>
-      <c r="M231" t="s" s="2">
-        <v>741</v>
-      </c>
-      <c r="N231" t="s" s="2">
-        <v>742</v>
       </c>
       <c r="O231" t="s" s="2">
         <v>44</v>
@@ -28931,7 +28922,7 @@
         <v>44</v>
       </c>
       <c r="AE231" t="s" s="2">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="AF231" t="s" s="2">
         <v>42</v>
@@ -28946,7 +28937,7 @@
         <v>63</v>
       </c>
       <c r="AJ231" t="s" s="2">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="AK231" t="s" s="2">
         <v>154</v>
@@ -28963,7 +28954,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
@@ -29075,7 +29066,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -29189,11 +29180,11 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D234" s="2"/>
       <c r="E234" t="s" s="2">
@@ -29215,10 +29206,10 @@
         <v>96</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="M234" t="s" s="2">
         <v>136</v>
@@ -29273,7 +29264,7 @@
         <v>44</v>
       </c>
       <c r="AE234" t="s" s="2">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="AF234" t="s" s="2">
         <v>42</v>
@@ -29305,7 +29296,7 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
@@ -29328,16 +29319,16 @@
         <v>52</v>
       </c>
       <c r="J235" t="s" s="2">
+        <v>745</v>
+      </c>
+      <c r="K235" t="s" s="2">
+        <v>746</v>
+      </c>
+      <c r="L235" t="s" s="2">
+        <v>747</v>
+      </c>
+      <c r="M235" t="s" s="2">
         <v>748</v>
-      </c>
-      <c r="K235" t="s" s="2">
-        <v>749</v>
-      </c>
-      <c r="L235" t="s" s="2">
-        <v>750</v>
-      </c>
-      <c r="M235" t="s" s="2">
-        <v>751</v>
       </c>
       <c r="N235" s="2"/>
       <c r="O235" t="s" s="2">
@@ -29387,7 +29378,7 @@
         <v>44</v>
       </c>
       <c r="AE235" t="s" s="2">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="AF235" t="s" s="2">
         <v>51</v>
@@ -29411,7 +29402,7 @@
         <v>44</v>
       </c>
       <c r="AM235" t="s" s="2">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="AN235" t="s" s="2">
         <v>44</v>
@@ -29419,7 +29410,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -29445,10 +29436,10 @@
         <v>71</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="M236" s="2"/>
       <c r="N236" s="2"/>
@@ -29478,10 +29469,10 @@
         <v>165</v>
       </c>
       <c r="X236" t="s" s="2">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="Y236" t="s" s="2">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="Z236" t="s" s="2">
         <v>44</v>
@@ -29499,7 +29490,7 @@
         <v>44</v>
       </c>
       <c r="AE236" t="s" s="2">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="AF236" t="s" s="2">
         <v>51</v>
@@ -29514,7 +29505,7 @@
         <v>63</v>
       </c>
       <c r="AJ236" t="s" s="2">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="AK236" t="s" s="2">
         <v>154</v>

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7804" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7804" uniqueCount="753">
   <si>
     <t>Path</t>
   </si>
@@ -871,6 +871,10 @@
   </si>
   <si>
     <t>Insuree Code managed by openIMIS.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+insureeCodeMustBeUnder13Chars:Length MUST be &lt;= 12. {$this.length() &lt;= 12}</t>
   </si>
   <si>
     <t>UUID</t>
@@ -8809,7 +8813,7 @@
         <v>44</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>63</v>
+        <v>275</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>256</v>
@@ -9058,7 +9062,7 @@
         <v>139</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C58" t="s" s="2">
         <v>44</v>
@@ -10453,7 +10457,7 @@
         <v>71</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L70" t="s" s="2">
         <v>55</v>
@@ -10470,7 +10474,7 @@
         <v>44</v>
       </c>
       <c r="R70" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>44</v>
@@ -11343,7 +11347,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11369,67 +11373,67 @@
         <v>225</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P78" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="Q78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE78" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P78" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="Q78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>42</v>
@@ -11444,13 +11448,13 @@
         <v>63</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>154</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>44</v>
@@ -11461,7 +11465,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11484,19 +11488,19 @@
         <v>52</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>44</v>
@@ -11545,7 +11549,7 @@
         <v>44</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>42</v>
@@ -11560,16 +11564,16 @@
         <v>63</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>44</v>
@@ -11577,7 +11581,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11689,7 +11693,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11803,7 +11807,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11829,16 +11833,16 @@
         <v>71</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>44</v>
@@ -11848,7 +11852,7 @@
         <v>44</v>
       </c>
       <c r="R82" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>44</v>
@@ -11866,10 +11870,10 @@
         <v>165</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>44</v>
@@ -11887,7 +11891,7 @@
         <v>44</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>42</v>
@@ -11902,7 +11906,7 @@
         <v>63</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>44</v>
@@ -11911,7 +11915,7 @@
         <v>44</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>44</v>
@@ -11919,7 +11923,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11945,16 +11949,16 @@
         <v>53</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>44</v>
@@ -12003,7 +12007,7 @@
         <v>44</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>42</v>
@@ -12018,7 +12022,7 @@
         <v>63</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>44</v>
@@ -12027,7 +12031,7 @@
         <v>44</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>44</v>
@@ -12035,11 +12039,11 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -12061,13 +12065,13 @@
         <v>53</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -12117,7 +12121,7 @@
         <v>44</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>42</v>
@@ -12132,7 +12136,7 @@
         <v>63</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>44</v>
@@ -12141,7 +12145,7 @@
         <v>44</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>44</v>
@@ -12149,11 +12153,11 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -12175,13 +12179,13 @@
         <v>53</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -12231,7 +12235,7 @@
         <v>44</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>42</v>
@@ -12246,7 +12250,7 @@
         <v>63</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>44</v>
@@ -12255,7 +12259,7 @@
         <v>44</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>44</v>
@@ -12263,7 +12267,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12289,10 +12293,10 @@
         <v>53</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12343,7 +12347,7 @@
         <v>44</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>42</v>
@@ -12358,7 +12362,7 @@
         <v>63</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>44</v>
@@ -12367,7 +12371,7 @@
         <v>44</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>44</v>
@@ -12375,7 +12379,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12401,10 +12405,10 @@
         <v>53</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12455,7 +12459,7 @@
         <v>44</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>42</v>
@@ -12470,7 +12474,7 @@
         <v>63</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>44</v>
@@ -12479,7 +12483,7 @@
         <v>44</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>44</v>
@@ -12487,7 +12491,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12513,14 +12517,14 @@
         <v>259</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>44</v>
@@ -12569,7 +12573,7 @@
         <v>44</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>42</v>
@@ -12584,7 +12588,7 @@
         <v>63</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>44</v>
@@ -12593,7 +12597,7 @@
         <v>44</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>44</v>
@@ -12601,7 +12605,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12612,7 +12616,7 @@
         <v>42</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>44</v>
@@ -12624,19 +12628,19 @@
         <v>52</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>44</v>
@@ -12673,7 +12677,7 @@
         <v>44</v>
       </c>
       <c r="AA89" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AB89" s="2"/>
       <c r="AC89" t="s" s="2">
@@ -12683,7 +12687,7 @@
         <v>145</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>42</v>
@@ -12698,16 +12702,16 @@
         <v>63</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>44</v>
@@ -12715,7 +12719,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12827,7 +12831,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12941,7 +12945,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12967,10 +12971,10 @@
         <v>71</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -13000,10 +13004,10 @@
         <v>165</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>44</v>
@@ -13021,7 +13025,7 @@
         <v>44</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>42</v>
@@ -13030,13 +13034,13 @@
         <v>51</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>44</v>
@@ -13045,7 +13049,7 @@
         <v>44</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>44</v>
@@ -13053,7 +13057,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13079,16 +13083,16 @@
         <v>53</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>44</v>
@@ -13137,7 +13141,7 @@
         <v>44</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>42</v>
@@ -13152,7 +13156,7 @@
         <v>63</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>44</v>
@@ -13161,7 +13165,7 @@
         <v>44</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>44</v>
@@ -13169,7 +13173,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13195,16 +13199,16 @@
         <v>71</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>44</v>
@@ -13232,10 +13236,10 @@
         <v>165</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>44</v>
@@ -13253,7 +13257,7 @@
         <v>44</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>42</v>
@@ -13268,7 +13272,7 @@
         <v>63</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>44</v>
@@ -13277,7 +13281,7 @@
         <v>44</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>44</v>
@@ -13285,7 +13289,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13308,16 +13312,16 @@
         <v>52</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -13367,7 +13371,7 @@
         <v>44</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>42</v>
@@ -13399,7 +13403,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13425,10 +13429,10 @@
         <v>259</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -13479,7 +13483,7 @@
         <v>44</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>42</v>
@@ -13494,7 +13498,7 @@
         <v>63</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>44</v>
@@ -13511,10 +13515,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C97" t="s" s="2">
         <v>44</v>
@@ -13536,19 +13540,19 @@
         <v>52</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>44</v>
@@ -13597,7 +13601,7 @@
         <v>44</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>42</v>
@@ -13612,16 +13616,16 @@
         <v>63</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>44</v>
@@ -13629,7 +13633,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13741,7 +13745,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13855,7 +13859,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13881,10 +13885,10 @@
         <v>71</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -13896,7 +13900,7 @@
         <v>44</v>
       </c>
       <c r="R100" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="S100" t="s" s="2">
         <v>44</v>
@@ -13914,10 +13918,10 @@
         <v>165</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Z100" t="s" s="2">
         <v>44</v>
@@ -13935,7 +13939,7 @@
         <v>44</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>42</v>
@@ -13944,13 +13948,13 @@
         <v>51</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>44</v>
@@ -13959,7 +13963,7 @@
         <v>44</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>44</v>
@@ -13967,7 +13971,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13993,16 +13997,16 @@
         <v>53</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O101" t="s" s="2">
         <v>44</v>
@@ -14051,7 +14055,7 @@
         <v>44</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>42</v>
@@ -14066,7 +14070,7 @@
         <v>63</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>44</v>
@@ -14075,7 +14079,7 @@
         <v>44</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>44</v>
@@ -14083,7 +14087,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14109,16 +14113,16 @@
         <v>71</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>44</v>
@@ -14146,10 +14150,10 @@
         <v>165</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>44</v>
@@ -14167,7 +14171,7 @@
         <v>44</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>42</v>
@@ -14182,7 +14186,7 @@
         <v>63</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>44</v>
@@ -14191,7 +14195,7 @@
         <v>44</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>44</v>
@@ -14199,7 +14203,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14222,16 +14226,16 @@
         <v>52</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
@@ -14281,7 +14285,7 @@
         <v>44</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>42</v>
@@ -14313,7 +14317,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14339,10 +14343,10 @@
         <v>259</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -14393,7 +14397,7 @@
         <v>44</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>42</v>
@@ -14408,7 +14412,7 @@
         <v>63</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>44</v>
@@ -14425,10 +14429,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C105" t="s" s="2">
         <v>44</v>
@@ -14450,19 +14454,19 @@
         <v>52</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>44</v>
@@ -14511,7 +14515,7 @@
         <v>44</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>42</v>
@@ -14526,16 +14530,16 @@
         <v>63</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>44</v>
@@ -14543,7 +14547,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14655,7 +14659,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14769,7 +14773,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14795,10 +14799,10 @@
         <v>71</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -14810,7 +14814,7 @@
         <v>44</v>
       </c>
       <c r="R108" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>44</v>
@@ -14828,10 +14832,10 @@
         <v>165</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Z108" t="s" s="2">
         <v>44</v>
@@ -14849,7 +14853,7 @@
         <v>44</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>42</v>
@@ -14858,13 +14862,13 @@
         <v>51</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>44</v>
@@ -14873,7 +14877,7 @@
         <v>44</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>44</v>
@@ -14881,7 +14885,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14907,16 +14911,16 @@
         <v>53</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>44</v>
@@ -14965,7 +14969,7 @@
         <v>44</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>42</v>
@@ -14980,7 +14984,7 @@
         <v>63</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>44</v>
@@ -14989,7 +14993,7 @@
         <v>44</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>44</v>
@@ -14997,7 +15001,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15023,16 +15027,16 @@
         <v>71</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>44</v>
@@ -15060,10 +15064,10 @@
         <v>165</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Z110" t="s" s="2">
         <v>44</v>
@@ -15081,7 +15085,7 @@
         <v>44</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>42</v>
@@ -15096,7 +15100,7 @@
         <v>63</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>44</v>
@@ -15105,7 +15109,7 @@
         <v>44</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>44</v>
@@ -15113,7 +15117,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15136,16 +15140,16 @@
         <v>52</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
@@ -15195,7 +15199,7 @@
         <v>44</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>42</v>
@@ -15227,7 +15231,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15253,10 +15257,10 @@
         <v>259</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -15307,7 +15311,7 @@
         <v>44</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>42</v>
@@ -15322,7 +15326,7 @@
         <v>63</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>44</v>
@@ -15339,7 +15343,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15365,16 +15369,16 @@
         <v>71</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>44</v>
@@ -15402,10 +15406,10 @@
         <v>165</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>44</v>
@@ -15423,7 +15427,7 @@
         <v>44</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>42</v>
@@ -15438,16 +15442,16 @@
         <v>63</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>44</v>
@@ -15455,7 +15459,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15478,19 +15482,19 @@
         <v>52</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>44</v>
@@ -15539,7 +15543,7 @@
         <v>44</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>42</v>
@@ -15554,24 +15558,24 @@
         <v>63</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15594,19 +15598,19 @@
         <v>52</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>44</v>
@@ -15655,7 +15659,7 @@
         <v>44</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>42</v>
@@ -15670,7 +15674,7 @@
         <v>63</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>154</v>
@@ -15679,7 +15683,7 @@
         <v>44</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AN115" t="s" s="2">
         <v>44</v>
@@ -15687,7 +15691,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15710,19 +15714,19 @@
         <v>52</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>44</v>
@@ -15759,7 +15763,7 @@
         <v>44</v>
       </c>
       <c r="AA116" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AB116" s="2"/>
       <c r="AC116" t="s" s="2">
@@ -15769,7 +15773,7 @@
         <v>145</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>42</v>
@@ -15784,16 +15788,16 @@
         <v>63</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AN116" t="s" s="2">
         <v>44</v>
@@ -15801,7 +15805,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15913,7 +15917,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15921,7 +15925,7 @@
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F118" t="s" s="2">
         <v>43</v>
@@ -15939,10 +15943,10 @@
         <v>96</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
@@ -16025,10 +16029,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C119" t="s" s="2">
         <v>44</v>
@@ -16050,13 +16054,13 @@
         <v>44</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -16139,10 +16143,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C120" t="s" s="2">
         <v>44</v>
@@ -16164,13 +16168,13 @@
         <v>44</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -16253,7 +16257,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16279,16 +16283,16 @@
         <v>71</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>44</v>
@@ -16301,7 +16305,7 @@
         <v>44</v>
       </c>
       <c r="S121" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="T121" t="s" s="2">
         <v>44</v>
@@ -16316,10 +16320,10 @@
         <v>165</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Z121" t="s" s="2">
         <v>44</v>
@@ -16337,7 +16341,7 @@
         <v>44</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>42</v>
@@ -16352,7 +16356,7 @@
         <v>63</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>44</v>
@@ -16361,7 +16365,7 @@
         <v>44</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>44</v>
@@ -16369,7 +16373,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16395,13 +16399,13 @@
         <v>71</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
@@ -16412,10 +16416,10 @@
         <v>44</v>
       </c>
       <c r="R122" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="S122" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="T122" t="s" s="2">
         <v>44</v>
@@ -16430,10 +16434,10 @@
         <v>165</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Z122" t="s" s="2">
         <v>44</v>
@@ -16451,7 +16455,7 @@
         <v>44</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>42</v>
@@ -16466,7 +16470,7 @@
         <v>63</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>44</v>
@@ -16475,7 +16479,7 @@
         <v>44</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>44</v>
@@ -16483,7 +16487,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16509,16 +16513,16 @@
         <v>53</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>44</v>
@@ -16531,7 +16535,7 @@
         <v>44</v>
       </c>
       <c r="S123" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="T123" t="s" s="2">
         <v>44</v>
@@ -16567,7 +16571,7 @@
         <v>44</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>42</v>
@@ -16582,7 +16586,7 @@
         <v>63</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>44</v>
@@ -16591,7 +16595,7 @@
         <v>44</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>44</v>
@@ -16599,7 +16603,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16625,10 +16629,10 @@
         <v>53</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
@@ -16643,7 +16647,7 @@
         <v>44</v>
       </c>
       <c r="S124" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="T124" t="s" s="2">
         <v>44</v>
@@ -16679,7 +16683,7 @@
         <v>44</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>42</v>
@@ -16694,7 +16698,7 @@
         <v>63</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AK124" t="s" s="2">
         <v>44</v>
@@ -16703,7 +16707,7 @@
         <v>44</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>44</v>
@@ -16711,11 +16715,11 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
@@ -16737,10 +16741,10 @@
         <v>53</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
@@ -16755,7 +16759,7 @@
         <v>44</v>
       </c>
       <c r="S125" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="T125" t="s" s="2">
         <v>44</v>
@@ -16791,7 +16795,7 @@
         <v>44</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>42</v>
@@ -16806,7 +16810,7 @@
         <v>63</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AK125" t="s" s="2">
         <v>44</v>
@@ -16815,7 +16819,7 @@
         <v>44</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>44</v>
@@ -16823,11 +16827,11 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
@@ -16849,13 +16853,13 @@
         <v>53</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
@@ -16869,7 +16873,7 @@
         <v>44</v>
       </c>
       <c r="S126" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="T126" t="s" s="2">
         <v>44</v>
@@ -16905,7 +16909,7 @@
         <v>44</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>42</v>
@@ -16920,7 +16924,7 @@
         <v>63</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AK126" t="s" s="2">
         <v>44</v>
@@ -16929,7 +16933,7 @@
         <v>44</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>44</v>
@@ -16937,11 +16941,11 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -16963,10 +16967,10 @@
         <v>53</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
@@ -17017,7 +17021,7 @@
         <v>44</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>42</v>
@@ -17032,7 +17036,7 @@
         <v>63</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AK127" t="s" s="2">
         <v>44</v>
@@ -17041,7 +17045,7 @@
         <v>44</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AN127" t="s" s="2">
         <v>44</v>
@@ -17049,11 +17053,11 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
@@ -17075,10 +17079,10 @@
         <v>53</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
@@ -17093,7 +17097,7 @@
         <v>44</v>
       </c>
       <c r="S128" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="T128" t="s" s="2">
         <v>44</v>
@@ -17129,7 +17133,7 @@
         <v>44</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>42</v>
@@ -17144,7 +17148,7 @@
         <v>63</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AK128" t="s" s="2">
         <v>44</v>
@@ -17153,7 +17157,7 @@
         <v>44</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AN128" t="s" s="2">
         <v>44</v>
@@ -17161,7 +17165,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -17187,13 +17191,13 @@
         <v>53</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
@@ -17243,7 +17247,7 @@
         <v>44</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>42</v>
@@ -17258,7 +17262,7 @@
         <v>63</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AK129" t="s" s="2">
         <v>44</v>
@@ -17267,7 +17271,7 @@
         <v>44</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>44</v>
@@ -17275,7 +17279,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17301,14 +17305,14 @@
         <v>259</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>44</v>
@@ -17321,7 +17325,7 @@
         <v>44</v>
       </c>
       <c r="S130" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="T130" t="s" s="2">
         <v>44</v>
@@ -17357,7 +17361,7 @@
         <v>44</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>42</v>
@@ -17372,7 +17376,7 @@
         <v>63</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AK130" t="s" s="2">
         <v>44</v>
@@ -17381,7 +17385,7 @@
         <v>44</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AN130" t="s" s="2">
         <v>44</v>
@@ -17389,10 +17393,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C131" t="s" s="2">
         <v>44</v>
@@ -17414,19 +17418,19 @@
         <v>52</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>44</v>
@@ -17475,7 +17479,7 @@
         <v>44</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>42</v>
@@ -17490,16 +17494,16 @@
         <v>63</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AL131" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AN131" t="s" s="2">
         <v>44</v>
@@ -17507,7 +17511,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17619,7 +17623,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17733,7 +17737,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17759,16 +17763,16 @@
         <v>71</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>44</v>
@@ -17778,10 +17782,10 @@
         <v>44</v>
       </c>
       <c r="R134" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="S134" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="T134" t="s" s="2">
         <v>44</v>
@@ -17796,10 +17800,10 @@
         <v>165</v>
       </c>
       <c r="X134" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Y134" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Z134" t="s" s="2">
         <v>44</v>
@@ -17817,7 +17821,7 @@
         <v>44</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>42</v>
@@ -17832,7 +17836,7 @@
         <v>63</v>
       </c>
       <c r="AJ134" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AK134" t="s" s="2">
         <v>44</v>
@@ -17841,7 +17845,7 @@
         <v>44</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AN134" t="s" s="2">
         <v>44</v>
@@ -17849,7 +17853,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17875,13 +17879,13 @@
         <v>71</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" t="s" s="2">
@@ -17895,7 +17899,7 @@
         <v>44</v>
       </c>
       <c r="S135" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="T135" t="s" s="2">
         <v>44</v>
@@ -17910,10 +17914,10 @@
         <v>165</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Z135" t="s" s="2">
         <v>44</v>
@@ -17931,7 +17935,7 @@
         <v>44</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>42</v>
@@ -17946,7 +17950,7 @@
         <v>63</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AK135" t="s" s="2">
         <v>44</v>
@@ -17955,7 +17959,7 @@
         <v>44</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AN135" t="s" s="2">
         <v>44</v>
@@ -17963,7 +17967,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -17989,16 +17993,16 @@
         <v>53</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>44</v>
@@ -18011,7 +18015,7 @@
         <v>44</v>
       </c>
       <c r="S136" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="T136" t="s" s="2">
         <v>44</v>
@@ -18047,7 +18051,7 @@
         <v>44</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>42</v>
@@ -18062,7 +18066,7 @@
         <v>63</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AK136" t="s" s="2">
         <v>44</v>
@@ -18071,7 +18075,7 @@
         <v>44</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AN136" t="s" s="2">
         <v>44</v>
@@ -18079,7 +18083,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -18105,10 +18109,10 @@
         <v>53</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M137" s="2"/>
       <c r="N137" s="2"/>
@@ -18123,7 +18127,7 @@
         <v>44</v>
       </c>
       <c r="S137" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="T137" t="s" s="2">
         <v>44</v>
@@ -18159,7 +18163,7 @@
         <v>44</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>42</v>
@@ -18174,7 +18178,7 @@
         <v>63</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AK137" t="s" s="2">
         <v>44</v>
@@ -18183,7 +18187,7 @@
         <v>44</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN137" t="s" s="2">
         <v>44</v>
@@ -18191,11 +18195,11 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -18217,10 +18221,10 @@
         <v>53</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M138" s="2"/>
       <c r="N138" s="2"/>
@@ -18235,7 +18239,7 @@
         <v>44</v>
       </c>
       <c r="S138" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="T138" t="s" s="2">
         <v>44</v>
@@ -18271,7 +18275,7 @@
         <v>44</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>42</v>
@@ -18286,7 +18290,7 @@
         <v>63</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AK138" t="s" s="2">
         <v>44</v>
@@ -18295,7 +18299,7 @@
         <v>44</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AN138" t="s" s="2">
         <v>44</v>
@@ -18303,11 +18307,11 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -18329,13 +18333,13 @@
         <v>53</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
@@ -18349,7 +18353,7 @@
         <v>44</v>
       </c>
       <c r="S139" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="T139" t="s" s="2">
         <v>44</v>
@@ -18385,7 +18389,7 @@
         <v>44</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>42</v>
@@ -18400,7 +18404,7 @@
         <v>63</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AK139" t="s" s="2">
         <v>44</v>
@@ -18409,7 +18413,7 @@
         <v>44</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AN139" t="s" s="2">
         <v>44</v>
@@ -18417,11 +18421,11 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -18443,10 +18447,10 @@
         <v>53</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
@@ -18497,7 +18501,7 @@
         <v>44</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>42</v>
@@ -18512,7 +18516,7 @@
         <v>63</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>44</v>
@@ -18521,7 +18525,7 @@
         <v>44</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AN140" t="s" s="2">
         <v>44</v>
@@ -18529,11 +18533,11 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
@@ -18555,10 +18559,10 @@
         <v>53</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
@@ -18573,7 +18577,7 @@
         <v>44</v>
       </c>
       <c r="S141" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="T141" t="s" s="2">
         <v>44</v>
@@ -18609,7 +18613,7 @@
         <v>44</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>42</v>
@@ -18624,7 +18628,7 @@
         <v>63</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AK141" t="s" s="2">
         <v>44</v>
@@ -18633,7 +18637,7 @@
         <v>44</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AN141" t="s" s="2">
         <v>44</v>
@@ -18641,7 +18645,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -18667,13 +18671,13 @@
         <v>53</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" t="s" s="2">
@@ -18723,7 +18727,7 @@
         <v>44</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>42</v>
@@ -18738,7 +18742,7 @@
         <v>63</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>44</v>
@@ -18747,7 +18751,7 @@
         <v>44</v>
       </c>
       <c r="AM142" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AN142" t="s" s="2">
         <v>44</v>
@@ -18755,7 +18759,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -18781,14 +18785,14 @@
         <v>259</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>44</v>
@@ -18801,7 +18805,7 @@
         <v>44</v>
       </c>
       <c r="S143" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="T143" t="s" s="2">
         <v>44</v>
@@ -18837,7 +18841,7 @@
         <v>44</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>42</v>
@@ -18852,7 +18856,7 @@
         <v>63</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AK143" t="s" s="2">
         <v>44</v>
@@ -18861,7 +18865,7 @@
         <v>44</v>
       </c>
       <c r="AM143" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AN143" t="s" s="2">
         <v>44</v>
@@ -18869,10 +18873,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C144" t="s" s="2">
         <v>44</v>
@@ -18894,19 +18898,19 @@
         <v>52</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>44</v>
@@ -18955,7 +18959,7 @@
         <v>44</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>42</v>
@@ -18970,16 +18974,16 @@
         <v>63</v>
       </c>
       <c r="AJ144" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AL144" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM144" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AN144" t="s" s="2">
         <v>44</v>
@@ -18987,7 +18991,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -19099,7 +19103,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -19213,7 +19217,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -19239,16 +19243,16 @@
         <v>71</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O147" t="s" s="2">
         <v>44</v>
@@ -19258,10 +19262,10 @@
         <v>44</v>
       </c>
       <c r="R147" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="S147" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="T147" t="s" s="2">
         <v>44</v>
@@ -19276,10 +19280,10 @@
         <v>165</v>
       </c>
       <c r="X147" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Y147" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Z147" t="s" s="2">
         <v>44</v>
@@ -19297,7 +19301,7 @@
         <v>44</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>42</v>
@@ -19312,7 +19316,7 @@
         <v>63</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AK147" t="s" s="2">
         <v>44</v>
@@ -19321,7 +19325,7 @@
         <v>44</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AN147" t="s" s="2">
         <v>44</v>
@@ -19329,7 +19333,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -19355,13 +19359,13 @@
         <v>71</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
@@ -19375,7 +19379,7 @@
         <v>44</v>
       </c>
       <c r="S148" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="T148" t="s" s="2">
         <v>44</v>
@@ -19390,10 +19394,10 @@
         <v>165</v>
       </c>
       <c r="X148" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Y148" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Z148" t="s" s="2">
         <v>44</v>
@@ -19411,7 +19415,7 @@
         <v>44</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>42</v>
@@ -19426,7 +19430,7 @@
         <v>63</v>
       </c>
       <c r="AJ148" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AK148" t="s" s="2">
         <v>44</v>
@@ -19435,7 +19439,7 @@
         <v>44</v>
       </c>
       <c r="AM148" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AN148" t="s" s="2">
         <v>44</v>
@@ -19443,7 +19447,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -19469,16 +19473,16 @@
         <v>53</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>44</v>
@@ -19491,7 +19495,7 @@
         <v>44</v>
       </c>
       <c r="S149" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="T149" t="s" s="2">
         <v>44</v>
@@ -19527,7 +19531,7 @@
         <v>44</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>42</v>
@@ -19542,7 +19546,7 @@
         <v>63</v>
       </c>
       <c r="AJ149" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AK149" t="s" s="2">
         <v>44</v>
@@ -19551,7 +19555,7 @@
         <v>44</v>
       </c>
       <c r="AM149" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AN149" t="s" s="2">
         <v>44</v>
@@ -19559,7 +19563,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -19585,10 +19589,10 @@
         <v>53</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M150" s="2"/>
       <c r="N150" s="2"/>
@@ -19603,7 +19607,7 @@
         <v>44</v>
       </c>
       <c r="S150" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="T150" t="s" s="2">
         <v>44</v>
@@ -19639,7 +19643,7 @@
         <v>44</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>42</v>
@@ -19654,7 +19658,7 @@
         <v>63</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AK150" t="s" s="2">
         <v>44</v>
@@ -19663,7 +19667,7 @@
         <v>44</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN150" t="s" s="2">
         <v>44</v>
@@ -19671,11 +19675,11 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
@@ -19697,10 +19701,10 @@
         <v>53</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
@@ -19715,7 +19719,7 @@
         <v>44</v>
       </c>
       <c r="S151" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="T151" t="s" s="2">
         <v>44</v>
@@ -19751,7 +19755,7 @@
         <v>44</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>42</v>
@@ -19766,7 +19770,7 @@
         <v>63</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AK151" t="s" s="2">
         <v>44</v>
@@ -19775,7 +19779,7 @@
         <v>44</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>44</v>
@@ -19783,11 +19787,11 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
@@ -19809,13 +19813,13 @@
         <v>53</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" t="s" s="2">
@@ -19829,7 +19833,7 @@
         <v>44</v>
       </c>
       <c r="S152" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="T152" t="s" s="2">
         <v>44</v>
@@ -19865,7 +19869,7 @@
         <v>44</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>42</v>
@@ -19880,7 +19884,7 @@
         <v>63</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AK152" t="s" s="2">
         <v>44</v>
@@ -19889,7 +19893,7 @@
         <v>44</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>44</v>
@@ -19897,11 +19901,11 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
@@ -19923,10 +19927,10 @@
         <v>53</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
@@ -19977,7 +19981,7 @@
         <v>44</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>42</v>
@@ -19992,7 +19996,7 @@
         <v>63</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AK153" t="s" s="2">
         <v>44</v>
@@ -20001,7 +20005,7 @@
         <v>44</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AN153" t="s" s="2">
         <v>44</v>
@@ -20009,11 +20013,11 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
@@ -20035,10 +20039,10 @@
         <v>53</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
@@ -20053,7 +20057,7 @@
         <v>44</v>
       </c>
       <c r="S154" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="T154" t="s" s="2">
         <v>44</v>
@@ -20089,7 +20093,7 @@
         <v>44</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>42</v>
@@ -20104,7 +20108,7 @@
         <v>63</v>
       </c>
       <c r="AJ154" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AK154" t="s" s="2">
         <v>44</v>
@@ -20113,7 +20117,7 @@
         <v>44</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AN154" t="s" s="2">
         <v>44</v>
@@ -20121,7 +20125,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -20147,13 +20151,13 @@
         <v>53</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
@@ -20203,7 +20207,7 @@
         <v>44</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>42</v>
@@ -20218,7 +20222,7 @@
         <v>63</v>
       </c>
       <c r="AJ155" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AK155" t="s" s="2">
         <v>44</v>
@@ -20227,7 +20231,7 @@
         <v>44</v>
       </c>
       <c r="AM155" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AN155" t="s" s="2">
         <v>44</v>
@@ -20235,7 +20239,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -20261,14 +20265,14 @@
         <v>259</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M156" s="2"/>
       <c r="N156" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="O156" t="s" s="2">
         <v>44</v>
@@ -20281,7 +20285,7 @@
         <v>44</v>
       </c>
       <c r="S156" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="T156" t="s" s="2">
         <v>44</v>
@@ -20317,7 +20321,7 @@
         <v>44</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>42</v>
@@ -20332,7 +20336,7 @@
         <v>63</v>
       </c>
       <c r="AJ156" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AK156" t="s" s="2">
         <v>44</v>
@@ -20341,7 +20345,7 @@
         <v>44</v>
       </c>
       <c r="AM156" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AN156" t="s" s="2">
         <v>44</v>
@@ -20349,7 +20353,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -20375,14 +20379,14 @@
         <v>171</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M157" s="2"/>
       <c r="N157" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="O157" t="s" s="2">
         <v>44</v>
@@ -20411,7 +20415,7 @@
       </c>
       <c r="X157" s="2"/>
       <c r="Y157" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="Z157" t="s" s="2">
         <v>44</v>
@@ -20429,7 +20433,7 @@
         <v>44</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>42</v>
@@ -20444,16 +20448,16 @@
         <v>63</v>
       </c>
       <c r="AJ157" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AL157" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM157" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AN157" t="s" s="2">
         <v>44</v>
@@ -20461,7 +20465,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20484,19 +20488,19 @@
         <v>44</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>44</v>
@@ -20545,7 +20549,7 @@
         <v>44</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>42</v>
@@ -20560,7 +20564,7 @@
         <v>63</v>
       </c>
       <c r="AJ158" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AK158" t="s" s="2">
         <v>154</v>
@@ -20569,7 +20573,7 @@
         <v>44</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AN158" t="s" s="2">
         <v>44</v>
@@ -20577,7 +20581,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20600,19 +20604,19 @@
         <v>44</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>44</v>
@@ -20649,10 +20653,10 @@
         <v>44</v>
       </c>
       <c r="AA159" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AB159" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AC159" t="s" s="2">
         <v>44</v>
@@ -20661,7 +20665,7 @@
         <v>145</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>42</v>
@@ -20676,7 +20680,7 @@
         <v>63</v>
       </c>
       <c r="AJ159" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AK159" t="s" s="2">
         <v>154</v>
@@ -20685,7 +20689,7 @@
         <v>44</v>
       </c>
       <c r="AM159" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AN159" t="s" s="2">
         <v>44</v>
@@ -20693,7 +20697,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -20805,7 +20809,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -20919,7 +20923,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -20945,14 +20949,14 @@
         <v>71</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M162" s="2"/>
       <c r="N162" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>44</v>
@@ -20965,7 +20969,7 @@
         <v>44</v>
       </c>
       <c r="S162" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="T162" t="s" s="2">
         <v>44</v>
@@ -20980,10 +20984,10 @@
         <v>165</v>
       </c>
       <c r="X162" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="Y162" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="Z162" t="s" s="2">
         <v>44</v>
@@ -21001,7 +21005,7 @@
         <v>44</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>42</v>
@@ -21016,7 +21020,7 @@
         <v>63</v>
       </c>
       <c r="AJ162" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AK162" t="s" s="2">
         <v>44</v>
@@ -21025,7 +21029,7 @@
         <v>44</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AN162" t="s" s="2">
         <v>44</v>
@@ -21033,7 +21037,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -21059,14 +21063,14 @@
         <v>71</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="M163" s="2"/>
       <c r="N163" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>44</v>
@@ -21079,7 +21083,7 @@
         <v>44</v>
       </c>
       <c r="S163" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="T163" t="s" s="2">
         <v>44</v>
@@ -21115,7 +21119,7 @@
         <v>44</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>42</v>
@@ -21130,7 +21134,7 @@
         <v>63</v>
       </c>
       <c r="AJ163" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AK163" t="s" s="2">
         <v>44</v>
@@ -21147,7 +21151,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -21170,19 +21174,19 @@
         <v>44</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>44</v>
@@ -21231,7 +21235,7 @@
         <v>44</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>42</v>
@@ -21246,7 +21250,7 @@
         <v>63</v>
       </c>
       <c r="AJ164" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AK164" t="s" s="2">
         <v>44</v>
@@ -21255,7 +21259,7 @@
         <v>44</v>
       </c>
       <c r="AM164" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AN164" t="s" s="2">
         <v>44</v>
@@ -21263,7 +21267,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -21286,19 +21290,19 @@
         <v>52</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="O165" t="s" s="2">
         <v>44</v>
@@ -21311,7 +21315,7 @@
         <v>44</v>
       </c>
       <c r="S165" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="T165" t="s" s="2">
         <v>44</v>
@@ -21347,7 +21351,7 @@
         <v>44</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>42</v>
@@ -21362,7 +21366,7 @@
         <v>63</v>
       </c>
       <c r="AJ165" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AK165" t="s" s="2">
         <v>44</v>
@@ -21371,7 +21375,7 @@
         <v>44</v>
       </c>
       <c r="AM165" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AN165" t="s" s="2">
         <v>44</v>
@@ -21379,7 +21383,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -21402,19 +21406,19 @@
         <v>52</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>44</v>
@@ -21463,7 +21467,7 @@
         <v>44</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>42</v>
@@ -21478,7 +21482,7 @@
         <v>63</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AK166" t="s" s="2">
         <v>44</v>
@@ -21495,7 +21499,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21518,19 +21522,19 @@
         <v>52</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>44</v>
@@ -21579,7 +21583,7 @@
         <v>44</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>42</v>
@@ -21594,7 +21598,7 @@
         <v>63</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AK167" t="s" s="2">
         <v>44</v>
@@ -21611,7 +21615,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -21637,14 +21641,14 @@
         <v>53</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="M168" s="2"/>
       <c r="N168" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="O168" t="s" s="2">
         <v>44</v>
@@ -21657,7 +21661,7 @@
         <v>44</v>
       </c>
       <c r="S168" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="T168" t="s" s="2">
         <v>44</v>
@@ -21693,7 +21697,7 @@
         <v>44</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>42</v>
@@ -21708,7 +21712,7 @@
         <v>63</v>
       </c>
       <c r="AJ168" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AK168" t="s" s="2">
         <v>44</v>
@@ -21725,7 +21729,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -21748,17 +21752,17 @@
         <v>52</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="M169" s="2"/>
       <c r="N169" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>44</v>
@@ -21807,7 +21811,7 @@
         <v>44</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>42</v>
@@ -21822,7 +21826,7 @@
         <v>63</v>
       </c>
       <c r="AJ169" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AK169" t="s" s="2">
         <v>44</v>
@@ -21839,10 +21843,10 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C170" t="s" s="2">
         <v>44</v>
@@ -21864,19 +21868,19 @@
         <v>44</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>44</v>
@@ -21925,7 +21929,7 @@
         <v>44</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>42</v>
@@ -21940,7 +21944,7 @@
         <v>63</v>
       </c>
       <c r="AJ170" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AK170" t="s" s="2">
         <v>154</v>
@@ -21949,7 +21953,7 @@
         <v>44</v>
       </c>
       <c r="AM170" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AN170" t="s" s="2">
         <v>44</v>
@@ -21957,7 +21961,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -22069,7 +22073,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -22183,7 +22187,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -22209,14 +22213,14 @@
         <v>71</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M173" s="2"/>
       <c r="N173" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>44</v>
@@ -22229,7 +22233,7 @@
         <v>44</v>
       </c>
       <c r="S173" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="T173" t="s" s="2">
         <v>44</v>
@@ -22244,10 +22248,10 @@
         <v>165</v>
       </c>
       <c r="X173" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="Y173" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="Z173" t="s" s="2">
         <v>44</v>
@@ -22265,7 +22269,7 @@
         <v>44</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>42</v>
@@ -22280,7 +22284,7 @@
         <v>63</v>
       </c>
       <c r="AJ173" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AK173" t="s" s="2">
         <v>44</v>
@@ -22289,7 +22293,7 @@
         <v>44</v>
       </c>
       <c r="AM173" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AN173" t="s" s="2">
         <v>44</v>
@@ -22297,7 +22301,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -22323,14 +22327,14 @@
         <v>71</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="M174" s="2"/>
       <c r="N174" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>44</v>
@@ -22343,7 +22347,7 @@
         <v>44</v>
       </c>
       <c r="S174" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="T174" t="s" s="2">
         <v>44</v>
@@ -22379,7 +22383,7 @@
         <v>44</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>42</v>
@@ -22394,7 +22398,7 @@
         <v>63</v>
       </c>
       <c r="AJ174" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AK174" t="s" s="2">
         <v>44</v>
@@ -22411,7 +22415,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -22434,19 +22438,19 @@
         <v>44</v>
       </c>
       <c r="J175" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="O175" t="s" s="2">
         <v>44</v>
@@ -22495,7 +22499,7 @@
         <v>44</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>42</v>
@@ -22510,7 +22514,7 @@
         <v>63</v>
       </c>
       <c r="AJ175" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AK175" t="s" s="2">
         <v>44</v>
@@ -22519,7 +22523,7 @@
         <v>44</v>
       </c>
       <c r="AM175" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AN175" t="s" s="2">
         <v>44</v>
@@ -22527,7 +22531,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -22550,19 +22554,19 @@
         <v>52</v>
       </c>
       <c r="J176" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="N176" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="O176" t="s" s="2">
         <v>44</v>
@@ -22575,7 +22579,7 @@
         <v>44</v>
       </c>
       <c r="S176" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="T176" t="s" s="2">
         <v>44</v>
@@ -22611,7 +22615,7 @@
         <v>44</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>42</v>
@@ -22626,7 +22630,7 @@
         <v>63</v>
       </c>
       <c r="AJ176" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AK176" t="s" s="2">
         <v>44</v>
@@ -22635,7 +22639,7 @@
         <v>44</v>
       </c>
       <c r="AM176" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AN176" t="s" s="2">
         <v>44</v>
@@ -22643,7 +22647,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -22666,19 +22670,19 @@
         <v>52</v>
       </c>
       <c r="J177" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>44</v>
@@ -22727,7 +22731,7 @@
         <v>44</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>42</v>
@@ -22742,7 +22746,7 @@
         <v>63</v>
       </c>
       <c r="AJ177" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AK177" t="s" s="2">
         <v>44</v>
@@ -22759,7 +22763,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -22782,19 +22786,19 @@
         <v>52</v>
       </c>
       <c r="J178" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>44</v>
@@ -22843,7 +22847,7 @@
         <v>44</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>42</v>
@@ -22858,7 +22862,7 @@
         <v>63</v>
       </c>
       <c r="AJ178" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AK178" t="s" s="2">
         <v>44</v>
@@ -22875,7 +22879,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -22901,14 +22905,14 @@
         <v>53</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="M179" s="2"/>
       <c r="N179" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>44</v>
@@ -22921,7 +22925,7 @@
         <v>44</v>
       </c>
       <c r="S179" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="T179" t="s" s="2">
         <v>44</v>
@@ -22957,7 +22961,7 @@
         <v>44</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>42</v>
@@ -22972,7 +22976,7 @@
         <v>63</v>
       </c>
       <c r="AJ179" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AK179" t="s" s="2">
         <v>44</v>
@@ -22989,7 +22993,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -23012,17 +23016,17 @@
         <v>52</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="M180" s="2"/>
       <c r="N180" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>44</v>
@@ -23071,7 +23075,7 @@
         <v>44</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>42</v>
@@ -23086,7 +23090,7 @@
         <v>63</v>
       </c>
       <c r="AJ180" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AK180" t="s" s="2">
         <v>44</v>
@@ -23103,10 +23107,10 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C181" t="s" s="2">
         <v>44</v>
@@ -23128,19 +23132,19 @@
         <v>44</v>
       </c>
       <c r="J181" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="N181" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="O181" t="s" s="2">
         <v>44</v>
@@ -23189,7 +23193,7 @@
         <v>44</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>42</v>
@@ -23204,7 +23208,7 @@
         <v>63</v>
       </c>
       <c r="AJ181" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AK181" t="s" s="2">
         <v>154</v>
@@ -23213,7 +23217,7 @@
         <v>44</v>
       </c>
       <c r="AM181" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AN181" t="s" s="2">
         <v>44</v>
@@ -23221,7 +23225,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -23333,7 +23337,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -23447,7 +23451,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -23473,14 +23477,14 @@
         <v>71</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M184" s="2"/>
       <c r="N184" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="O184" t="s" s="2">
         <v>44</v>
@@ -23493,7 +23497,7 @@
         <v>44</v>
       </c>
       <c r="S184" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="T184" t="s" s="2">
         <v>44</v>
@@ -23508,10 +23512,10 @@
         <v>165</v>
       </c>
       <c r="X184" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="Y184" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="Z184" t="s" s="2">
         <v>44</v>
@@ -23529,7 +23533,7 @@
         <v>44</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AF184" t="s" s="2">
         <v>42</v>
@@ -23544,7 +23548,7 @@
         <v>63</v>
       </c>
       <c r="AJ184" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AK184" t="s" s="2">
         <v>44</v>
@@ -23553,7 +23557,7 @@
         <v>44</v>
       </c>
       <c r="AM184" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AN184" t="s" s="2">
         <v>44</v>
@@ -23561,7 +23565,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -23587,14 +23591,14 @@
         <v>71</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="M185" s="2"/>
       <c r="N185" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="O185" t="s" s="2">
         <v>44</v>
@@ -23607,7 +23611,7 @@
         <v>44</v>
       </c>
       <c r="S185" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="T185" t="s" s="2">
         <v>44</v>
@@ -23643,7 +23647,7 @@
         <v>44</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AF185" t="s" s="2">
         <v>42</v>
@@ -23658,7 +23662,7 @@
         <v>63</v>
       </c>
       <c r="AJ185" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AK185" t="s" s="2">
         <v>44</v>
@@ -23675,7 +23679,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -23698,19 +23702,19 @@
         <v>44</v>
       </c>
       <c r="J186" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="N186" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="O186" t="s" s="2">
         <v>44</v>
@@ -23759,7 +23763,7 @@
         <v>44</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>42</v>
@@ -23774,7 +23778,7 @@
         <v>63</v>
       </c>
       <c r="AJ186" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AK186" t="s" s="2">
         <v>44</v>
@@ -23783,7 +23787,7 @@
         <v>44</v>
       </c>
       <c r="AM186" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AN186" t="s" s="2">
         <v>44</v>
@@ -23791,7 +23795,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -23814,19 +23818,19 @@
         <v>52</v>
       </c>
       <c r="J187" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>44</v>
@@ -23839,7 +23843,7 @@
         <v>44</v>
       </c>
       <c r="S187" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="T187" t="s" s="2">
         <v>44</v>
@@ -23875,7 +23879,7 @@
         <v>44</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>42</v>
@@ -23890,7 +23894,7 @@
         <v>63</v>
       </c>
       <c r="AJ187" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AK187" t="s" s="2">
         <v>44</v>
@@ -23899,7 +23903,7 @@
         <v>44</v>
       </c>
       <c r="AM187" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AN187" t="s" s="2">
         <v>44</v>
@@ -23907,7 +23911,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -23930,19 +23934,19 @@
         <v>52</v>
       </c>
       <c r="J188" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>44</v>
@@ -23991,7 +23995,7 @@
         <v>44</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>42</v>
@@ -24006,7 +24010,7 @@
         <v>63</v>
       </c>
       <c r="AJ188" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AK188" t="s" s="2">
         <v>44</v>
@@ -24023,7 +24027,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -24046,19 +24050,19 @@
         <v>52</v>
       </c>
       <c r="J189" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="N189" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="O189" t="s" s="2">
         <v>44</v>
@@ -24107,7 +24111,7 @@
         <v>44</v>
       </c>
       <c r="AE189" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AF189" t="s" s="2">
         <v>42</v>
@@ -24122,7 +24126,7 @@
         <v>63</v>
       </c>
       <c r="AJ189" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AK189" t="s" s="2">
         <v>44</v>
@@ -24139,7 +24143,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -24165,14 +24169,14 @@
         <v>53</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="M190" s="2"/>
       <c r="N190" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="O190" t="s" s="2">
         <v>44</v>
@@ -24185,7 +24189,7 @@
         <v>44</v>
       </c>
       <c r="S190" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="T190" t="s" s="2">
         <v>44</v>
@@ -24221,7 +24225,7 @@
         <v>44</v>
       </c>
       <c r="AE190" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AF190" t="s" s="2">
         <v>42</v>
@@ -24236,7 +24240,7 @@
         <v>63</v>
       </c>
       <c r="AJ190" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AK190" t="s" s="2">
         <v>44</v>
@@ -24253,7 +24257,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -24276,17 +24280,17 @@
         <v>52</v>
       </c>
       <c r="J191" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="M191" s="2"/>
       <c r="N191" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="O191" t="s" s="2">
         <v>44</v>
@@ -24335,7 +24339,7 @@
         <v>44</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>42</v>
@@ -24350,7 +24354,7 @@
         <v>63</v>
       </c>
       <c r="AJ191" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AK191" t="s" s="2">
         <v>44</v>
@@ -24367,7 +24371,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -24390,19 +24394,19 @@
         <v>44</v>
       </c>
       <c r="J192" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="O192" t="s" s="2">
         <v>44</v>
@@ -24451,7 +24455,7 @@
         <v>44</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>42</v>
@@ -24463,10 +24467,10 @@
         <v>44</v>
       </c>
       <c r="AI192" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AJ192" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AK192" t="s" s="2">
         <v>154</v>
@@ -24483,7 +24487,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -24595,7 +24599,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -24709,11 +24713,11 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" t="s" s="2">
@@ -24735,10 +24739,10 @@
         <v>96</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="M195" t="s" s="2">
         <v>136</v>
@@ -24793,7 +24797,7 @@
         <v>44</v>
       </c>
       <c r="AE195" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AF195" t="s" s="2">
         <v>42</v>
@@ -24825,7 +24829,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -24851,14 +24855,14 @@
         <v>171</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="M196" s="2"/>
       <c r="N196" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="O196" t="s" s="2">
         <v>44</v>
@@ -24887,7 +24891,7 @@
       </c>
       <c r="X196" s="2"/>
       <c r="Y196" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="Z196" t="s" s="2">
         <v>44</v>
@@ -24905,7 +24909,7 @@
         <v>44</v>
       </c>
       <c r="AE196" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AF196" t="s" s="2">
         <v>42</v>
@@ -24920,7 +24924,7 @@
         <v>63</v>
       </c>
       <c r="AJ196" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AK196" t="s" s="2">
         <v>154</v>
@@ -24929,7 +24933,7 @@
         <v>44</v>
       </c>
       <c r="AM196" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AN196" t="s" s="2">
         <v>44</v>
@@ -24937,7 +24941,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -24960,17 +24964,17 @@
         <v>44</v>
       </c>
       <c r="J197" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="M197" s="2"/>
       <c r="N197" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="O197" t="s" s="2">
         <v>44</v>
@@ -25019,7 +25023,7 @@
         <v>44</v>
       </c>
       <c r="AE197" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AF197" t="s" s="2">
         <v>42</v>
@@ -25034,7 +25038,7 @@
         <v>63</v>
       </c>
       <c r="AJ197" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AK197" t="s" s="2">
         <v>154</v>
@@ -25043,7 +25047,7 @@
         <v>44</v>
       </c>
       <c r="AM197" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AN197" t="s" s="2">
         <v>44</v>
@@ -25051,7 +25055,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -25074,19 +25078,19 @@
         <v>44</v>
       </c>
       <c r="J198" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="N198" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O198" t="s" s="2">
         <v>44</v>
@@ -25135,7 +25139,7 @@
         <v>44</v>
       </c>
       <c r="AE198" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AF198" t="s" s="2">
         <v>42</v>
@@ -25150,7 +25154,7 @@
         <v>63</v>
       </c>
       <c r="AJ198" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AK198" t="s" s="2">
         <v>154</v>
@@ -25159,7 +25163,7 @@
         <v>44</v>
       </c>
       <c r="AM198" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AN198" t="s" s="2">
         <v>44</v>
@@ -25167,7 +25171,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -25190,17 +25194,17 @@
         <v>44</v>
       </c>
       <c r="J199" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="M199" s="2"/>
       <c r="N199" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="O199" t="s" s="2">
         <v>44</v>
@@ -25249,7 +25253,7 @@
         <v>44</v>
       </c>
       <c r="AE199" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AF199" t="s" s="2">
         <v>42</v>
@@ -25264,7 +25268,7 @@
         <v>63</v>
       </c>
       <c r="AJ199" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AK199" t="s" s="2">
         <v>154</v>
@@ -25273,7 +25277,7 @@
         <v>44</v>
       </c>
       <c r="AM199" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AN199" t="s" s="2">
         <v>44</v>
@@ -25281,7 +25285,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -25307,14 +25311,14 @@
         <v>71</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="M200" s="2"/>
       <c r="N200" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="O200" t="s" s="2">
         <v>44</v>
@@ -25342,10 +25346,10 @@
         <v>165</v>
       </c>
       <c r="X200" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Y200" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Z200" t="s" s="2">
         <v>44</v>
@@ -25363,7 +25367,7 @@
         <v>44</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>42</v>
@@ -25378,7 +25382,7 @@
         <v>63</v>
       </c>
       <c r="AJ200" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AK200" t="s" s="2">
         <v>154</v>
@@ -25387,7 +25391,7 @@
         <v>44</v>
       </c>
       <c r="AM200" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AN200" t="s" s="2">
         <v>44</v>
@@ -25395,7 +25399,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -25421,14 +25425,14 @@
         <v>266</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="M201" s="2"/>
       <c r="N201" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="O201" t="s" s="2">
         <v>44</v>
@@ -25477,7 +25481,7 @@
         <v>44</v>
       </c>
       <c r="AE201" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AF201" t="s" s="2">
         <v>42</v>
@@ -25486,13 +25490,13 @@
         <v>51</v>
       </c>
       <c r="AH201" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AI201" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ201" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AK201" t="s" s="2">
         <v>154</v>
@@ -25501,7 +25505,7 @@
         <v>44</v>
       </c>
       <c r="AM201" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AN201" t="s" s="2">
         <v>44</v>
@@ -25509,7 +25513,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -25535,10 +25539,10 @@
         <v>259</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="M202" s="2"/>
       <c r="N202" s="2"/>
@@ -25589,7 +25593,7 @@
         <v>44</v>
       </c>
       <c r="AE202" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AF202" t="s" s="2">
         <v>42</v>
@@ -25604,7 +25608,7 @@
         <v>63</v>
       </c>
       <c r="AJ202" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AK202" t="s" s="2">
         <v>154</v>
@@ -25621,7 +25625,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -25644,19 +25648,19 @@
         <v>44</v>
       </c>
       <c r="J203" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="N203" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="O203" t="s" s="2">
         <v>44</v>
@@ -25705,7 +25709,7 @@
         <v>44</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>42</v>
@@ -25720,10 +25724,10 @@
         <v>63</v>
       </c>
       <c r="AJ203" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AK203" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AL203" t="s" s="2">
         <v>44</v>
@@ -25737,7 +25741,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -25849,7 +25853,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -25963,11 +25967,11 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" t="s" s="2">
@@ -25989,10 +25993,10 @@
         <v>96</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="M206" t="s" s="2">
         <v>136</v>
@@ -26047,7 +26051,7 @@
         <v>44</v>
       </c>
       <c r="AE206" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AF206" t="s" s="2">
         <v>42</v>
@@ -26079,7 +26083,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -26105,16 +26109,16 @@
         <v>171</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="N207" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="O207" t="s" s="2">
         <v>44</v>
@@ -26163,7 +26167,7 @@
         <v>44</v>
       </c>
       <c r="AE207" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AF207" t="s" s="2">
         <v>51</v>
@@ -26178,16 +26182,16 @@
         <v>63</v>
       </c>
       <c r="AJ207" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AK207" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="AL207" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM207" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AN207" t="s" s="2">
         <v>44</v>
@@ -26195,7 +26199,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
@@ -26221,16 +26225,16 @@
         <v>225</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="O208" t="s" s="2">
         <v>44</v>
@@ -26279,7 +26283,7 @@
         <v>44</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AF208" t="s" s="2">
         <v>42</v>
@@ -26294,16 +26298,16 @@
         <v>63</v>
       </c>
       <c r="AJ208" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="AK208" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AL208" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM208" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AN208" t="s" s="2">
         <v>44</v>
@@ -26311,11 +26315,11 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" t="s" s="2">
@@ -26334,16 +26338,16 @@
         <v>44</v>
       </c>
       <c r="J209" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="N209" s="2"/>
       <c r="O209" t="s" s="2">
@@ -26393,7 +26397,7 @@
         <v>44</v>
       </c>
       <c r="AE209" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="AF209" t="s" s="2">
         <v>42</v>
@@ -26408,7 +26412,7 @@
         <v>63</v>
       </c>
       <c r="AJ209" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="AK209" t="s" s="2">
         <v>154</v>
@@ -26417,7 +26421,7 @@
         <v>44</v>
       </c>
       <c r="AM209" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="AN209" t="s" s="2">
         <v>44</v>
@@ -26425,7 +26429,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -26451,16 +26455,16 @@
         <v>266</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="O210" t="s" s="2">
         <v>44</v>
@@ -26509,7 +26513,7 @@
         <v>44</v>
       </c>
       <c r="AE210" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="AF210" t="s" s="2">
         <v>42</v>
@@ -26524,10 +26528,10 @@
         <v>63</v>
       </c>
       <c r="AJ210" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AK210" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="AL210" t="s" s="2">
         <v>44</v>
@@ -26541,7 +26545,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -26564,19 +26568,19 @@
         <v>52</v>
       </c>
       <c r="J211" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="N211" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="O211" t="s" s="2">
         <v>44</v>
@@ -26625,7 +26629,7 @@
         <v>44</v>
       </c>
       <c r="AE211" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AF211" t="s" s="2">
         <v>42</v>
@@ -26640,7 +26644,7 @@
         <v>63</v>
       </c>
       <c r="AJ211" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="AK211" t="s" s="2">
         <v>154</v>
@@ -26657,7 +26661,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -26769,7 +26773,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -26883,11 +26887,11 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" t="s" s="2">
@@ -26909,10 +26913,10 @@
         <v>96</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="M214" t="s" s="2">
         <v>136</v>
@@ -26967,7 +26971,7 @@
         <v>44</v>
       </c>
       <c r="AE214" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AF214" t="s" s="2">
         <v>42</v>
@@ -26999,7 +27003,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -27022,16 +27026,16 @@
         <v>52</v>
       </c>
       <c r="J215" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="N215" s="2"/>
       <c r="O215" t="s" s="2">
@@ -27081,7 +27085,7 @@
         <v>44</v>
       </c>
       <c r="AE215" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="AF215" t="s" s="2">
         <v>51</v>
@@ -27105,7 +27109,7 @@
         <v>44</v>
       </c>
       <c r="AM215" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="AN215" t="s" s="2">
         <v>44</v>
@@ -27113,7 +27117,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -27139,10 +27143,10 @@
         <v>71</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="M216" s="2"/>
       <c r="N216" s="2"/>
@@ -27172,10 +27176,10 @@
         <v>165</v>
       </c>
       <c r="X216" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="Y216" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="Z216" t="s" s="2">
         <v>44</v>
@@ -27193,7 +27197,7 @@
         <v>44</v>
       </c>
       <c r="AE216" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="AF216" t="s" s="2">
         <v>51</v>
@@ -27208,7 +27212,7 @@
         <v>63</v>
       </c>
       <c r="AJ216" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="AK216" t="s" s="2">
         <v>154</v>

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-01T13:19:28+00:00</t>
+    <t>2021-09-01T13:21:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-01T13:21:06+00:00</t>
+    <t>2021-09-14T14:32:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T14:32:44+00:00</t>
+    <t>2021-09-14T14:33:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T14:33:18+00:00</t>
+    <t>2021-09-15T10:06:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-15T10:06:59+00:00</t>
+    <t>2021-09-15T10:19:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-15T10:19:11+00:00</t>
+    <t>2021-09-17T09:55:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T09:55:36+00:00</t>
+    <t>2021-09-17T09:56:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T09:56:14+00:00</t>
+    <t>2021-09-17T10:31:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T10:31:02+00:00</t>
+    <t>2021-09-17T10:31:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T10:31:57+00:00</t>
+    <t>2021-09-17T16:55:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T16:55:55+00:00</t>
+    <t>2021-09-17T16:56:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T16:56:25+00:00</t>
+    <t>2021-09-22T12:13:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-22T12:13:02+00:00</t>
+    <t>2021-09-22T12:13:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-22T12:13:26+00:00</t>
+    <t>2021-09-28T15:53:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T15:53:34+00:00</t>
+    <t>2021-09-28T15:56:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T15:56:03+00:00</t>
+    <t>2021-09-29T08:15:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-29T08:15:04+00:00</t>
+    <t>2021-09-29T08:31:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-29T08:31:05+00:00</t>
+    <t>2021-10-04T14:35:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T14:35:02+00:00</t>
+    <t>2021-10-04T15:11:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T15:11:02+00:00</t>
+    <t>2021-10-04T15:40:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T15:40:49+00:00</t>
+    <t>2021-10-04T15:42:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T15:42:19+00:00</t>
+    <t>2021-10-05T10:19:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-05T10:19:44+00:00</t>
+    <t>2021-10-12T16:14:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T16:14:04+00:00</t>
+    <t>2021-10-12T16:15:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T16:15:17+00:00</t>
+    <t>2021-10-13T13:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$216</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$225</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7841" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8164" uniqueCount="795">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-13T13:46:56+00:00</t>
+    <t>2021-10-14T17:10:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2185,6 +2185,33 @@
   </si>
   <si>
     <t>NK1-2</t>
+  </si>
+  <si>
+    <t>Patient.contact.name.id</t>
+  </si>
+  <si>
+    <t>Patient.contact.name.extension</t>
+  </si>
+  <si>
+    <t>Patient.contact.name.use</t>
+  </si>
+  <si>
+    <t>Patient.contact.name.text</t>
+  </si>
+  <si>
+    <t>Patient.contact.name.family</t>
+  </si>
+  <si>
+    <t>Patient.contact.name.given</t>
+  </si>
+  <si>
+    <t>Patient.contact.name.prefix</t>
+  </si>
+  <si>
+    <t>Patient.contact.name.suffix</t>
+  </si>
+  <si>
+    <t>Patient.contact.name.period</t>
   </si>
   <si>
     <t>Patient.contact.telecom</t>
@@ -2767,7 +2794,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN216"/>
+  <dimension ref="A1:AN225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -25337,7 +25364,7 @@
         <v>76</v>
       </c>
       <c r="F198" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G198" t="s" s="2">
         <v>78</v>
@@ -25349,20 +25376,16 @@
         <v>78</v>
       </c>
       <c r="J198" t="s" s="2">
-        <v>387</v>
+        <v>87</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>702</v>
+        <v>185</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="M198" t="s" s="2">
-        <v>704</v>
-      </c>
-      <c r="N198" t="s" s="2">
-        <v>391</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="M198" s="2"/>
+      <c r="N198" s="2"/>
       <c r="O198" t="s" s="2">
         <v>78</v>
       </c>
@@ -25410,31 +25433,31 @@
         <v>78</v>
       </c>
       <c r="AE198" t="s" s="2">
-        <v>701</v>
+        <v>187</v>
       </c>
       <c r="AF198" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG198" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH198" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI198" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ198" t="s" s="2">
-        <v>393</v>
+        <v>188</v>
       </c>
       <c r="AK198" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="AL198" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM198" t="s" s="2">
-        <v>705</v>
+        <v>78</v>
       </c>
       <c r="AN198" t="s" s="2">
         <v>78</v>
@@ -25442,18 +25465,18 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
-        <v>78</v>
+        <v>167</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F199" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G199" t="s" s="2">
         <v>78</v>
@@ -25465,18 +25488,18 @@
         <v>78</v>
       </c>
       <c r="J199" t="s" s="2">
-        <v>469</v>
+        <v>130</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>707</v>
+        <v>190</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>708</v>
-      </c>
-      <c r="M199" s="2"/>
-      <c r="N199" t="s" s="2">
-        <v>709</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="M199" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="N199" s="2"/>
       <c r="O199" t="s" s="2">
         <v>78</v>
       </c>
@@ -25512,43 +25535,43 @@
         <v>78</v>
       </c>
       <c r="AA199" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="AB199" t="s" s="2">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="AC199" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD199" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AE199" t="s" s="2">
-        <v>706</v>
+        <v>193</v>
       </c>
       <c r="AF199" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG199" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH199" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI199" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ199" t="s" s="2">
-        <v>475</v>
+        <v>188</v>
       </c>
       <c r="AK199" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="AL199" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM199" t="s" s="2">
-        <v>710</v>
+        <v>78</v>
       </c>
       <c r="AN199" t="s" s="2">
         <v>78</v>
@@ -25556,7 +25579,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -25567,29 +25590,31 @@
         <v>76</v>
       </c>
       <c r="F200" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G200" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H200" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I200" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J200" t="s" s="2">
         <v>105</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>441</v>
+        <v>332</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>712</v>
-      </c>
-      <c r="M200" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="M200" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="N200" t="s" s="2">
-        <v>713</v>
+        <v>335</v>
       </c>
       <c r="O200" t="s" s="2">
         <v>78</v>
@@ -25617,10 +25642,10 @@
         <v>199</v>
       </c>
       <c r="X200" t="s" s="2">
-        <v>445</v>
+        <v>337</v>
       </c>
       <c r="Y200" t="s" s="2">
-        <v>446</v>
+        <v>338</v>
       </c>
       <c r="Z200" t="s" s="2">
         <v>78</v>
@@ -25638,7 +25663,7 @@
         <v>78</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>711</v>
+        <v>339</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>76</v>
@@ -25653,16 +25678,16 @@
         <v>97</v>
       </c>
       <c r="AJ200" t="s" s="2">
-        <v>447</v>
+        <v>340</v>
       </c>
       <c r="AK200" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="AL200" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM200" t="s" s="2">
-        <v>714</v>
+        <v>341</v>
       </c>
       <c r="AN200" t="s" s="2">
         <v>78</v>
@@ -25670,7 +25695,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -25681,7 +25706,7 @@
         <v>76</v>
       </c>
       <c r="F201" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G201" t="s" s="2">
         <v>78</v>
@@ -25690,20 +25715,22 @@
         <v>78</v>
       </c>
       <c r="I201" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J201" t="s" s="2">
-        <v>300</v>
+        <v>87</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>716</v>
+        <v>343</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>717</v>
-      </c>
-      <c r="M201" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="M201" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="N201" t="s" s="2">
-        <v>718</v>
+        <v>346</v>
       </c>
       <c r="O201" t="s" s="2">
         <v>78</v>
@@ -25752,7 +25779,7 @@
         <v>78</v>
       </c>
       <c r="AE201" t="s" s="2">
-        <v>715</v>
+        <v>347</v>
       </c>
       <c r="AF201" t="s" s="2">
         <v>76</v>
@@ -25761,22 +25788,22 @@
         <v>85</v>
       </c>
       <c r="AH201" t="s" s="2">
-        <v>719</v>
+        <v>78</v>
       </c>
       <c r="AI201" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ201" t="s" s="2">
-        <v>720</v>
+        <v>348</v>
       </c>
       <c r="AK201" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="AL201" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM201" t="s" s="2">
-        <v>721</v>
+        <v>349</v>
       </c>
       <c r="AN201" t="s" s="2">
         <v>78</v>
@@ -25784,15 +25811,15 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>722</v>
+        <v>705</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
-        <v>78</v>
+        <v>351</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F202" t="s" s="2">
         <v>85</v>
@@ -25804,18 +25831,20 @@
         <v>78</v>
       </c>
       <c r="I202" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J202" t="s" s="2">
-        <v>293</v>
+        <v>87</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>723</v>
+        <v>352</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>724</v>
-      </c>
-      <c r="M202" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="M202" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="N202" s="2"/>
       <c r="O202" t="s" s="2">
         <v>78</v>
@@ -25864,7 +25893,7 @@
         <v>78</v>
       </c>
       <c r="AE202" t="s" s="2">
-        <v>722</v>
+        <v>355</v>
       </c>
       <c r="AF202" t="s" s="2">
         <v>76</v>
@@ -25879,16 +25908,16 @@
         <v>97</v>
       </c>
       <c r="AJ202" t="s" s="2">
-        <v>725</v>
+        <v>356</v>
       </c>
       <c r="AK202" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="AL202" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM202" t="s" s="2">
-        <v>78</v>
+        <v>357</v>
       </c>
       <c r="AN202" t="s" s="2">
         <v>78</v>
@@ -25896,18 +25925,18 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>726</v>
+        <v>706</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
-        <v>78</v>
+        <v>359</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F203" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G203" t="s" s="2">
         <v>78</v>
@@ -25916,23 +25945,21 @@
         <v>78</v>
       </c>
       <c r="I203" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J203" t="s" s="2">
-        <v>675</v>
+        <v>87</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>727</v>
+        <v>360</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>728</v>
+        <v>361</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>729</v>
-      </c>
-      <c r="N203" t="s" s="2">
-        <v>730</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="N203" s="2"/>
       <c r="O203" t="s" s="2">
         <v>78</v>
       </c>
@@ -25980,7 +26007,7 @@
         <v>78</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>726</v>
+        <v>363</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>76</v>
@@ -25995,16 +26022,16 @@
         <v>97</v>
       </c>
       <c r="AJ203" t="s" s="2">
-        <v>731</v>
+        <v>364</v>
       </c>
       <c r="AK203" t="s" s="2">
-        <v>732</v>
+        <v>78</v>
       </c>
       <c r="AL203" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM203" t="s" s="2">
-        <v>78</v>
+        <v>365</v>
       </c>
       <c r="AN203" t="s" s="2">
         <v>78</v>
@@ -26012,7 +26039,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>733</v>
+        <v>707</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -26023,7 +26050,7 @@
         <v>76</v>
       </c>
       <c r="F204" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G204" t="s" s="2">
         <v>78</v>
@@ -26032,16 +26059,16 @@
         <v>78</v>
       </c>
       <c r="I204" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J204" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>185</v>
+        <v>367</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>186</v>
+        <v>368</v>
       </c>
       <c r="M204" s="2"/>
       <c r="N204" s="2"/>
@@ -26092,22 +26119,22 @@
         <v>78</v>
       </c>
       <c r="AE204" t="s" s="2">
-        <v>187</v>
+        <v>369</v>
       </c>
       <c r="AF204" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG204" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH204" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI204" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AJ204" t="s" s="2">
-        <v>188</v>
+        <v>370</v>
       </c>
       <c r="AK204" t="s" s="2">
         <v>78</v>
@@ -26116,7 +26143,7 @@
         <v>78</v>
       </c>
       <c r="AM204" t="s" s="2">
-        <v>78</v>
+        <v>371</v>
       </c>
       <c r="AN204" t="s" s="2">
         <v>78</v>
@@ -26124,18 +26151,18 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>734</v>
+        <v>708</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F205" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G205" t="s" s="2">
         <v>78</v>
@@ -26144,20 +26171,18 @@
         <v>78</v>
       </c>
       <c r="I205" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J205" t="s" s="2">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>190</v>
+        <v>373</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M205" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="M205" s="2"/>
       <c r="N205" s="2"/>
       <c r="O205" t="s" s="2">
         <v>78</v>
@@ -26206,7 +26231,7 @@
         <v>78</v>
       </c>
       <c r="AE205" t="s" s="2">
-        <v>193</v>
+        <v>375</v>
       </c>
       <c r="AF205" t="s" s="2">
         <v>76</v>
@@ -26218,10 +26243,10 @@
         <v>78</v>
       </c>
       <c r="AI205" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ205" t="s" s="2">
-        <v>188</v>
+        <v>376</v>
       </c>
       <c r="AK205" t="s" s="2">
         <v>78</v>
@@ -26230,7 +26255,7 @@
         <v>78</v>
       </c>
       <c r="AM205" t="s" s="2">
-        <v>78</v>
+        <v>377</v>
       </c>
       <c r="AN205" t="s" s="2">
         <v>78</v>
@@ -26238,42 +26263,40 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>735</v>
+        <v>709</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
-        <v>685</v>
+        <v>78</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F206" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G206" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H206" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I206" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J206" t="s" s="2">
-        <v>130</v>
+        <v>293</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>686</v>
+        <v>379</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>687</v>
-      </c>
-      <c r="M206" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="M206" s="2"/>
       <c r="N206" t="s" s="2">
-        <v>171</v>
+        <v>381</v>
       </c>
       <c r="O206" t="s" s="2">
         <v>78</v>
@@ -26322,22 +26345,22 @@
         <v>78</v>
       </c>
       <c r="AE206" t="s" s="2">
-        <v>688</v>
+        <v>382</v>
       </c>
       <c r="AF206" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG206" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH206" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI206" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ206" t="s" s="2">
-        <v>128</v>
+        <v>383</v>
       </c>
       <c r="AK206" t="s" s="2">
         <v>78</v>
@@ -26346,7 +26369,7 @@
         <v>78</v>
       </c>
       <c r="AM206" t="s" s="2">
-        <v>78</v>
+        <v>384</v>
       </c>
       <c r="AN206" t="s" s="2">
         <v>78</v>
@@ -26354,7 +26377,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>736</v>
+        <v>710</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -26362,10 +26385,10 @@
       </c>
       <c r="D207" s="2"/>
       <c r="E207" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F207" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G207" t="s" s="2">
         <v>78</v>
@@ -26377,19 +26400,19 @@
         <v>78</v>
       </c>
       <c r="J207" t="s" s="2">
-        <v>205</v>
+        <v>387</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>737</v>
+        <v>711</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>738</v>
+        <v>712</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>739</v>
+        <v>713</v>
       </c>
       <c r="N207" t="s" s="2">
-        <v>740</v>
+        <v>391</v>
       </c>
       <c r="O207" t="s" s="2">
         <v>78</v>
@@ -26414,13 +26437,13 @@
         <v>78</v>
       </c>
       <c r="W207" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="X207" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="Y207" t="s" s="2">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="Z207" t="s" s="2">
         <v>78</v>
@@ -26438,13 +26461,13 @@
         <v>78</v>
       </c>
       <c r="AE207" t="s" s="2">
-        <v>736</v>
+        <v>710</v>
       </c>
       <c r="AF207" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG207" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH207" t="s" s="2">
         <v>78</v>
@@ -26453,16 +26476,16 @@
         <v>97</v>
       </c>
       <c r="AJ207" t="s" s="2">
-        <v>741</v>
+        <v>393</v>
       </c>
       <c r="AK207" t="s" s="2">
-        <v>742</v>
+        <v>188</v>
       </c>
       <c r="AL207" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM207" t="s" s="2">
-        <v>743</v>
+        <v>714</v>
       </c>
       <c r="AN207" t="s" s="2">
         <v>78</v>
@@ -26470,7 +26493,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>744</v>
+        <v>715</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
@@ -26493,19 +26516,17 @@
         <v>78</v>
       </c>
       <c r="J208" t="s" s="2">
-        <v>259</v>
+        <v>469</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>745</v>
+        <v>716</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>746</v>
-      </c>
-      <c r="M208" t="s" s="2">
-        <v>747</v>
-      </c>
+        <v>717</v>
+      </c>
+      <c r="M208" s="2"/>
       <c r="N208" t="s" s="2">
-        <v>748</v>
+        <v>718</v>
       </c>
       <c r="O208" t="s" s="2">
         <v>78</v>
@@ -26554,7 +26575,7 @@
         <v>78</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>744</v>
+        <v>715</v>
       </c>
       <c r="AF208" t="s" s="2">
         <v>76</v>
@@ -26569,16 +26590,16 @@
         <v>97</v>
       </c>
       <c r="AJ208" t="s" s="2">
-        <v>749</v>
+        <v>475</v>
       </c>
       <c r="AK208" t="s" s="2">
-        <v>750</v>
+        <v>188</v>
       </c>
       <c r="AL208" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM208" t="s" s="2">
-        <v>751</v>
+        <v>719</v>
       </c>
       <c r="AN208" t="s" s="2">
         <v>78</v>
@@ -26586,18 +26607,18 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>752</v>
+        <v>720</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
-        <v>753</v>
+        <v>78</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F209" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G209" t="s" s="2">
         <v>78</v>
@@ -26609,18 +26630,18 @@
         <v>78</v>
       </c>
       <c r="J209" t="s" s="2">
-        <v>754</v>
+        <v>105</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>755</v>
+        <v>441</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>756</v>
-      </c>
-      <c r="M209" t="s" s="2">
-        <v>757</v>
-      </c>
-      <c r="N209" s="2"/>
+        <v>721</v>
+      </c>
+      <c r="M209" s="2"/>
+      <c r="N209" t="s" s="2">
+        <v>722</v>
+      </c>
       <c r="O209" t="s" s="2">
         <v>78</v>
       </c>
@@ -26644,13 +26665,13 @@
         <v>78</v>
       </c>
       <c r="W209" t="s" s="2">
-        <v>78</v>
+        <v>199</v>
       </c>
       <c r="X209" t="s" s="2">
-        <v>78</v>
+        <v>445</v>
       </c>
       <c r="Y209" t="s" s="2">
-        <v>78</v>
+        <v>446</v>
       </c>
       <c r="Z209" t="s" s="2">
         <v>78</v>
@@ -26668,13 +26689,13 @@
         <v>78</v>
       </c>
       <c r="AE209" t="s" s="2">
-        <v>752</v>
+        <v>720</v>
       </c>
       <c r="AF209" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG209" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH209" t="s" s="2">
         <v>78</v>
@@ -26683,7 +26704,7 @@
         <v>97</v>
       </c>
       <c r="AJ209" t="s" s="2">
-        <v>758</v>
+        <v>447</v>
       </c>
       <c r="AK209" t="s" s="2">
         <v>188</v>
@@ -26692,7 +26713,7 @@
         <v>78</v>
       </c>
       <c r="AM209" t="s" s="2">
-        <v>759</v>
+        <v>723</v>
       </c>
       <c r="AN209" t="s" s="2">
         <v>78</v>
@@ -26700,7 +26721,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>760</v>
+        <v>724</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -26711,7 +26732,7 @@
         <v>76</v>
       </c>
       <c r="F210" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G210" t="s" s="2">
         <v>78</v>
@@ -26720,22 +26741,20 @@
         <v>78</v>
       </c>
       <c r="I210" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J210" t="s" s="2">
         <v>300</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>761</v>
+        <v>725</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>762</v>
-      </c>
-      <c r="M210" t="s" s="2">
-        <v>763</v>
-      </c>
+        <v>726</v>
+      </c>
+      <c r="M210" s="2"/>
       <c r="N210" t="s" s="2">
-        <v>764</v>
+        <v>727</v>
       </c>
       <c r="O210" t="s" s="2">
         <v>78</v>
@@ -26784,7 +26803,7 @@
         <v>78</v>
       </c>
       <c r="AE210" t="s" s="2">
-        <v>760</v>
+        <v>724</v>
       </c>
       <c r="AF210" t="s" s="2">
         <v>76</v>
@@ -26793,22 +26812,22 @@
         <v>85</v>
       </c>
       <c r="AH210" t="s" s="2">
-        <v>78</v>
+        <v>728</v>
       </c>
       <c r="AI210" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ210" t="s" s="2">
-        <v>720</v>
+        <v>729</v>
       </c>
       <c r="AK210" t="s" s="2">
-        <v>765</v>
+        <v>188</v>
       </c>
       <c r="AL210" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM210" t="s" s="2">
-        <v>78</v>
+        <v>730</v>
       </c>
       <c r="AN210" t="s" s="2">
         <v>78</v>
@@ -26816,7 +26835,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>766</v>
+        <v>731</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -26827,32 +26846,28 @@
         <v>76</v>
       </c>
       <c r="F211" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G211" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H211" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I211" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J211" t="s" s="2">
-        <v>675</v>
+        <v>293</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>767</v>
+        <v>732</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>768</v>
-      </c>
-      <c r="M211" t="s" s="2">
-        <v>769</v>
-      </c>
-      <c r="N211" t="s" s="2">
-        <v>770</v>
-      </c>
+        <v>733</v>
+      </c>
+      <c r="M211" s="2"/>
+      <c r="N211" s="2"/>
       <c r="O211" t="s" s="2">
         <v>78</v>
       </c>
@@ -26900,13 +26915,13 @@
         <v>78</v>
       </c>
       <c r="AE211" t="s" s="2">
-        <v>766</v>
+        <v>731</v>
       </c>
       <c r="AF211" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG211" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH211" t="s" s="2">
         <v>78</v>
@@ -26915,7 +26930,7 @@
         <v>97</v>
       </c>
       <c r="AJ211" t="s" s="2">
-        <v>771</v>
+        <v>734</v>
       </c>
       <c r="AK211" t="s" s="2">
         <v>188</v>
@@ -26932,7 +26947,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>772</v>
+        <v>735</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -26943,7 +26958,7 @@
         <v>76</v>
       </c>
       <c r="F212" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G212" t="s" s="2">
         <v>78</v>
@@ -26955,16 +26970,20 @@
         <v>78</v>
       </c>
       <c r="J212" t="s" s="2">
-        <v>87</v>
+        <v>675</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>185</v>
+        <v>736</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M212" s="2"/>
-      <c r="N212" s="2"/>
+        <v>737</v>
+      </c>
+      <c r="M212" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="N212" t="s" s="2">
+        <v>739</v>
+      </c>
       <c r="O212" t="s" s="2">
         <v>78</v>
       </c>
@@ -27012,25 +27031,25 @@
         <v>78</v>
       </c>
       <c r="AE212" t="s" s="2">
-        <v>187</v>
+        <v>735</v>
       </c>
       <c r="AF212" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG212" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH212" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI212" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AJ212" t="s" s="2">
-        <v>188</v>
+        <v>740</v>
       </c>
       <c r="AK212" t="s" s="2">
-        <v>78</v>
+        <v>741</v>
       </c>
       <c r="AL212" t="s" s="2">
         <v>78</v>
@@ -27044,18 +27063,18 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>773</v>
+        <v>742</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F213" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G213" t="s" s="2">
         <v>78</v>
@@ -27067,17 +27086,15 @@
         <v>78</v>
       </c>
       <c r="J213" t="s" s="2">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M213" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="M213" s="2"/>
       <c r="N213" s="2"/>
       <c r="O213" t="s" s="2">
         <v>78</v>
@@ -27126,19 +27143,19 @@
         <v>78</v>
       </c>
       <c r="AE213" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AF213" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG213" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH213" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI213" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AJ213" t="s" s="2">
         <v>188</v>
@@ -27158,11 +27175,11 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>774</v>
+        <v>743</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
-        <v>685</v>
+        <v>167</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" t="s" s="2">
@@ -27175,26 +27192,24 @@
         <v>78</v>
       </c>
       <c r="H214" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I214" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J214" t="s" s="2">
         <v>130</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>686</v>
+        <v>190</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>687</v>
+        <v>191</v>
       </c>
       <c r="M214" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="N214" t="s" s="2">
-        <v>171</v>
-      </c>
+      <c r="N214" s="2"/>
       <c r="O214" t="s" s="2">
         <v>78</v>
       </c>
@@ -27242,7 +27257,7 @@
         <v>78</v>
       </c>
       <c r="AE214" t="s" s="2">
-        <v>688</v>
+        <v>193</v>
       </c>
       <c r="AF214" t="s" s="2">
         <v>76</v>
@@ -27257,7 +27272,7 @@
         <v>136</v>
       </c>
       <c r="AJ214" t="s" s="2">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="AK214" t="s" s="2">
         <v>78</v>
@@ -27274,41 +27289,43 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>775</v>
+        <v>744</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
-        <v>78</v>
+        <v>685</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F215" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G215" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H215" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I215" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J215" t="s" s="2">
-        <v>776</v>
+        <v>130</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>777</v>
+        <v>686</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>778</v>
+        <v>687</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>779</v>
-      </c>
-      <c r="N215" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="N215" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="O215" t="s" s="2">
         <v>78</v>
       </c>
@@ -27356,31 +27373,31 @@
         <v>78</v>
       </c>
       <c r="AE215" t="s" s="2">
-        <v>775</v>
+        <v>688</v>
       </c>
       <c r="AF215" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG215" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH215" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI215" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ215" t="s" s="2">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="AK215" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="AL215" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM215" t="s" s="2">
-        <v>780</v>
+        <v>78</v>
       </c>
       <c r="AN215" t="s" s="2">
         <v>78</v>
@@ -27388,7 +27405,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>781</v>
+        <v>745</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -27408,19 +27425,23 @@
         <v>78</v>
       </c>
       <c r="I216" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J216" t="s" s="2">
-        <v>105</v>
+        <v>205</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>782</v>
+        <v>746</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>783</v>
-      </c>
-      <c r="M216" s="2"/>
-      <c r="N216" s="2"/>
+        <v>747</v>
+      </c>
+      <c r="M216" t="s" s="2">
+        <v>748</v>
+      </c>
+      <c r="N216" t="s" s="2">
+        <v>749</v>
+      </c>
       <c r="O216" t="s" s="2">
         <v>78</v>
       </c>
@@ -27444,13 +27465,13 @@
         <v>78</v>
       </c>
       <c r="W216" t="s" s="2">
-        <v>199</v>
+        <v>109</v>
       </c>
       <c r="X216" t="s" s="2">
-        <v>783</v>
+        <v>110</v>
       </c>
       <c r="Y216" t="s" s="2">
-        <v>784</v>
+        <v>111</v>
       </c>
       <c r="Z216" t="s" s="2">
         <v>78</v>
@@ -27468,7 +27489,7 @@
         <v>78</v>
       </c>
       <c r="AE216" t="s" s="2">
-        <v>781</v>
+        <v>745</v>
       </c>
       <c r="AF216" t="s" s="2">
         <v>85</v>
@@ -27483,23 +27504,1053 @@
         <v>97</v>
       </c>
       <c r="AJ216" t="s" s="2">
+        <v>750</v>
+      </c>
+      <c r="AK216" t="s" s="2">
+        <v>751</v>
+      </c>
+      <c r="AL216" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM216" t="s" s="2">
+        <v>752</v>
+      </c>
+      <c r="AN216" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="217" hidden="true">
+      <c r="A217" t="s" s="2">
+        <v>753</v>
+      </c>
+      <c r="B217" s="2"/>
+      <c r="C217" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D217" s="2"/>
+      <c r="E217" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F217" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G217" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H217" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I217" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J217" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="K217" t="s" s="2">
+        <v>754</v>
+      </c>
+      <c r="L217" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="M217" t="s" s="2">
+        <v>756</v>
+      </c>
+      <c r="N217" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="O217" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P217" s="2"/>
+      <c r="Q217" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R217" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S217" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T217" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U217" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V217" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W217" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X217" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y217" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z217" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA217" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB217" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC217" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD217" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE217" t="s" s="2">
+        <v>753</v>
+      </c>
+      <c r="AF217" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG217" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH217" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI217" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ217" t="s" s="2">
+        <v>758</v>
+      </c>
+      <c r="AK217" t="s" s="2">
+        <v>759</v>
+      </c>
+      <c r="AL217" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM217" t="s" s="2">
+        <v>760</v>
+      </c>
+      <c r="AN217" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="218" hidden="true">
+      <c r="A218" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="B218" s="2"/>
+      <c r="C218" t="s" s="2">
+        <v>762</v>
+      </c>
+      <c r="D218" s="2"/>
+      <c r="E218" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F218" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G218" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H218" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I218" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J218" t="s" s="2">
+        <v>763</v>
+      </c>
+      <c r="K218" t="s" s="2">
+        <v>764</v>
+      </c>
+      <c r="L218" t="s" s="2">
+        <v>765</v>
+      </c>
+      <c r="M218" t="s" s="2">
+        <v>766</v>
+      </c>
+      <c r="N218" s="2"/>
+      <c r="O218" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P218" s="2"/>
+      <c r="Q218" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R218" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S218" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T218" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U218" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V218" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W218" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X218" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y218" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z218" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA218" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB218" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC218" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD218" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE218" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="AF218" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG218" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH218" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI218" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ218" t="s" s="2">
+        <v>767</v>
+      </c>
+      <c r="AK218" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AL218" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM218" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="AN218" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="219" hidden="true">
+      <c r="A219" t="s" s="2">
+        <v>769</v>
+      </c>
+      <c r="B219" s="2"/>
+      <c r="C219" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D219" s="2"/>
+      <c r="E219" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F219" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G219" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H219" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I219" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J219" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="K219" t="s" s="2">
+        <v>770</v>
+      </c>
+      <c r="L219" t="s" s="2">
+        <v>771</v>
+      </c>
+      <c r="M219" t="s" s="2">
+        <v>772</v>
+      </c>
+      <c r="N219" t="s" s="2">
+        <v>773</v>
+      </c>
+      <c r="O219" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P219" s="2"/>
+      <c r="Q219" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R219" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S219" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T219" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U219" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V219" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W219" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X219" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y219" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z219" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA219" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB219" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC219" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD219" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE219" t="s" s="2">
+        <v>769</v>
+      </c>
+      <c r="AF219" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG219" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH219" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI219" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ219" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="AK219" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="AL219" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM219" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN219" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="220" hidden="true">
+      <c r="A220" t="s" s="2">
+        <v>775</v>
+      </c>
+      <c r="B220" s="2"/>
+      <c r="C220" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D220" s="2"/>
+      <c r="E220" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F220" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G220" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H220" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I220" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J220" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="K220" t="s" s="2">
+        <v>776</v>
+      </c>
+      <c r="L220" t="s" s="2">
+        <v>777</v>
+      </c>
+      <c r="M220" t="s" s="2">
+        <v>778</v>
+      </c>
+      <c r="N220" t="s" s="2">
+        <v>779</v>
+      </c>
+      <c r="O220" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P220" s="2"/>
+      <c r="Q220" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R220" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S220" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T220" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U220" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V220" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W220" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X220" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y220" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z220" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA220" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB220" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC220" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD220" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE220" t="s" s="2">
+        <v>775</v>
+      </c>
+      <c r="AF220" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG220" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH220" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI220" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ220" t="s" s="2">
+        <v>780</v>
+      </c>
+      <c r="AK220" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AL220" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM220" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN220" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="221" hidden="true">
+      <c r="A221" t="s" s="2">
+        <v>781</v>
+      </c>
+      <c r="B221" s="2"/>
+      <c r="C221" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D221" s="2"/>
+      <c r="E221" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F221" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G221" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H221" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I221" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J221" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K221" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L221" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M221" s="2"/>
+      <c r="N221" s="2"/>
+      <c r="O221" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P221" s="2"/>
+      <c r="Q221" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R221" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S221" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T221" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U221" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V221" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W221" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X221" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y221" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z221" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA221" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB221" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC221" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD221" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE221" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AF221" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG221" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH221" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI221" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ221" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AK221" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL221" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM221" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN221" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="222" hidden="true">
+      <c r="A222" t="s" s="2">
+        <v>782</v>
+      </c>
+      <c r="B222" s="2"/>
+      <c r="C222" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="D222" s="2"/>
+      <c r="E222" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F222" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G222" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H222" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I222" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J222" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K222" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L222" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M222" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="N222" s="2"/>
+      <c r="O222" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P222" s="2"/>
+      <c r="Q222" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R222" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S222" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T222" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U222" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V222" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W222" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X222" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y222" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z222" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA222" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB222" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC222" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD222" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE222" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AF222" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG222" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH222" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI222" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ222" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AK222" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL222" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM222" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN222" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="223" hidden="true">
+      <c r="A223" t="s" s="2">
+        <v>783</v>
+      </c>
+      <c r="B223" s="2"/>
+      <c r="C223" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="D223" s="2"/>
+      <c r="E223" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F223" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G223" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H223" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I223" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J223" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K223" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="L223" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="M223" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="N223" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="O223" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P223" s="2"/>
+      <c r="Q223" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R223" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S223" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T223" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U223" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V223" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W223" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X223" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y223" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z223" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA223" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB223" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC223" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD223" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE223" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="AF223" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG223" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH223" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI223" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ223" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AK223" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL223" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM223" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN223" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="224" hidden="true">
+      <c r="A224" t="s" s="2">
+        <v>784</v>
+      </c>
+      <c r="B224" s="2"/>
+      <c r="C224" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D224" s="2"/>
+      <c r="E224" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F224" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G224" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H224" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I224" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J224" t="s" s="2">
         <v>785</v>
       </c>
-      <c r="AK216" t="s" s="2">
+      <c r="K224" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="L224" t="s" s="2">
+        <v>787</v>
+      </c>
+      <c r="M224" t="s" s="2">
+        <v>788</v>
+      </c>
+      <c r="N224" s="2"/>
+      <c r="O224" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P224" s="2"/>
+      <c r="Q224" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R224" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S224" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T224" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U224" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V224" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W224" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X224" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y224" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z224" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA224" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB224" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC224" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD224" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE224" t="s" s="2">
+        <v>784</v>
+      </c>
+      <c r="AF224" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG224" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH224" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI224" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ224" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AK224" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AL216" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM216" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN216" t="s" s="2">
+      <c r="AL224" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM224" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="AN224" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="225" hidden="true">
+      <c r="A225" t="s" s="2">
+        <v>790</v>
+      </c>
+      <c r="B225" s="2"/>
+      <c r="C225" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D225" s="2"/>
+      <c r="E225" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F225" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G225" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H225" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I225" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J225" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K225" t="s" s="2">
+        <v>791</v>
+      </c>
+      <c r="L225" t="s" s="2">
+        <v>792</v>
+      </c>
+      <c r="M225" s="2"/>
+      <c r="N225" s="2"/>
+      <c r="O225" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P225" s="2"/>
+      <c r="Q225" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R225" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S225" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T225" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U225" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V225" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W225" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="X225" t="s" s="2">
+        <v>792</v>
+      </c>
+      <c r="Y225" t="s" s="2">
+        <v>793</v>
+      </c>
+      <c r="Z225" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA225" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB225" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC225" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD225" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE225" t="s" s="2">
+        <v>790</v>
+      </c>
+      <c r="AF225" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG225" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH225" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI225" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ225" t="s" s="2">
+        <v>794</v>
+      </c>
+      <c r="AK225" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AL225" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM225" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN225" t="s" s="2">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN216">
+  <autoFilter ref="A1:AN225">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -27509,7 +28560,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI215">
+  <conditionalFormatting sqref="A2:AI224">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-14T17:10:41+00:00</t>
+    <t>2021-10-14T17:11:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-14T17:11:38+00:00</t>
+    <t>2021-10-18T09:02:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-18T09:02:35+00:00</t>
+    <t>2021-10-18T10:54:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-18T10:54:05+00:00</t>
+    <t>2021-11-12T15:53:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T15:53:21+00:00</t>
+    <t>2021-11-12T16:19:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T16:19:51+00:00</t>
+    <t>2021-11-12T16:20:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T16:20:31+00:00</t>
+    <t>2021-11-15T18:47:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T18:47:56+00:00</t>
+    <t>2021-11-15T18:48:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T18:48:44+00:00</t>
+    <t>2021-11-16T09:50:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-16T09:50:19+00:00</t>
+    <t>2021-11-22T10:47:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T10:47:57+00:00</t>
+    <t>2021-12-04T14:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:00:22+00:00</t>
+    <t>2021-12-04T14:25:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:25:43+00:00</t>
+    <t>2021-12-04T14:41:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:41:27+00:00</t>
+    <t>2021-12-08T10:28:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$225</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$229</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8164" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8308" uniqueCount="795">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-08T10:28:46+00:00</t>
+    <t>2021-12-16T15:29:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2794,7 +2794,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN225"/>
+  <dimension ref="A1:AN229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -18033,11 +18033,13 @@
         <v>78</v>
       </c>
     </row>
-    <row r="134" hidden="true">
+    <row r="134">
       <c r="A134" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="B134" s="2"/>
+        <v>479</v>
+      </c>
+      <c r="B134" t="s" s="2">
+        <v>482</v>
+      </c>
       <c r="C134" t="s" s="2">
         <v>78</v>
       </c>
@@ -18049,29 +18051,25 @@
         <v>85</v>
       </c>
       <c r="G134" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H134" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I134" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>105</v>
+        <v>483</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="M134" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>494</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="M134" s="2"/>
+      <c r="N134" s="2"/>
       <c r="O134" t="s" s="2">
         <v>78</v>
       </c>
@@ -18080,10 +18078,10 @@
         <v>78</v>
       </c>
       <c r="R134" t="s" s="2">
-        <v>495</v>
+        <v>78</v>
       </c>
       <c r="S134" t="s" s="2">
-        <v>495</v>
+        <v>78</v>
       </c>
       <c r="T134" t="s" s="2">
         <v>78</v>
@@ -18095,13 +18093,13 @@
         <v>78</v>
       </c>
       <c r="W134" t="s" s="2">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="X134" t="s" s="2">
-        <v>496</v>
+        <v>78</v>
       </c>
       <c r="Y134" t="s" s="2">
-        <v>497</v>
+        <v>78</v>
       </c>
       <c r="Z134" t="s" s="2">
         <v>78</v>
@@ -18119,22 +18117,22 @@
         <v>78</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>498</v>
+        <v>193</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ134" t="s" s="2">
-        <v>340</v>
+        <v>78</v>
       </c>
       <c r="AK134" t="s" s="2">
         <v>78</v>
@@ -18143,48 +18141,48 @@
         <v>78</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>499</v>
+        <v>78</v>
       </c>
       <c r="AN134" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="135" hidden="true">
+    <row r="135">
       <c r="A135" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="B135" s="2"/>
+        <v>479</v>
+      </c>
+      <c r="B135" t="s" s="2">
+        <v>486</v>
+      </c>
       <c r="C135" t="s" s="2">
         <v>78</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F135" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G135" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H135" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I135" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>105</v>
+        <v>487</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="M135" s="2"/>
       <c r="N135" s="2"/>
       <c r="O135" t="s" s="2">
         <v>78</v>
@@ -18197,7 +18195,7 @@
         <v>78</v>
       </c>
       <c r="S135" t="s" s="2">
-        <v>505</v>
+        <v>78</v>
       </c>
       <c r="T135" t="s" s="2">
         <v>78</v>
@@ -18209,13 +18207,13 @@
         <v>78</v>
       </c>
       <c r="W135" t="s" s="2">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>506</v>
+        <v>78</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>507</v>
+        <v>78</v>
       </c>
       <c r="Z135" t="s" s="2">
         <v>78</v>
@@ -18233,22 +18231,22 @@
         <v>78</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>508</v>
+        <v>193</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>340</v>
+        <v>78</v>
       </c>
       <c r="AK135" t="s" s="2">
         <v>78</v>
@@ -18257,7 +18255,7 @@
         <v>78</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>509</v>
+        <v>78</v>
       </c>
       <c r="AN135" t="s" s="2">
         <v>78</v>
@@ -18265,7 +18263,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>510</v>
+        <v>490</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -18273,7 +18271,7 @@
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F136" t="s" s="2">
         <v>85</v>
@@ -18282,25 +18280,25 @@
         <v>78</v>
       </c>
       <c r="H136" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I136" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>511</v>
+        <v>491</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>512</v>
+        <v>492</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>513</v>
+        <v>493</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>346</v>
+        <v>494</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>78</v>
@@ -18310,10 +18308,10 @@
         <v>78</v>
       </c>
       <c r="R136" t="s" s="2">
-        <v>78</v>
+        <v>495</v>
       </c>
       <c r="S136" t="s" s="2">
-        <v>514</v>
+        <v>495</v>
       </c>
       <c r="T136" t="s" s="2">
         <v>78</v>
@@ -18325,13 +18323,13 @@
         <v>78</v>
       </c>
       <c r="W136" t="s" s="2">
-        <v>78</v>
+        <v>199</v>
       </c>
       <c r="X136" t="s" s="2">
-        <v>78</v>
+        <v>496</v>
       </c>
       <c r="Y136" t="s" s="2">
-        <v>78</v>
+        <v>497</v>
       </c>
       <c r="Z136" t="s" s="2">
         <v>78</v>
@@ -18349,7 +18347,7 @@
         <v>78</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>515</v>
+        <v>498</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>76</v>
@@ -18364,7 +18362,7 @@
         <v>97</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="AK136" t="s" s="2">
         <v>78</v>
@@ -18373,7 +18371,7 @@
         <v>78</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>516</v>
+        <v>499</v>
       </c>
       <c r="AN136" t="s" s="2">
         <v>78</v>
@@ -18381,7 +18379,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -18392,7 +18390,7 @@
         <v>76</v>
       </c>
       <c r="F137" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G137" t="s" s="2">
         <v>78</v>
@@ -18404,15 +18402,17 @@
         <v>86</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="M137" s="2"/>
+        <v>502</v>
+      </c>
+      <c r="M137" t="s" s="2">
+        <v>503</v>
+      </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
         <v>78</v>
@@ -18425,7 +18425,7 @@
         <v>78</v>
       </c>
       <c r="S137" t="s" s="2">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="T137" t="s" s="2">
         <v>78</v>
@@ -18437,13 +18437,13 @@
         <v>78</v>
       </c>
       <c r="W137" t="s" s="2">
-        <v>78</v>
+        <v>199</v>
       </c>
       <c r="X137" t="s" s="2">
-        <v>78</v>
+        <v>506</v>
       </c>
       <c r="Y137" t="s" s="2">
-        <v>78</v>
+        <v>507</v>
       </c>
       <c r="Z137" t="s" s="2">
         <v>78</v>
@@ -18461,13 +18461,13 @@
         <v>78</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>78</v>
@@ -18476,7 +18476,7 @@
         <v>97</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>522</v>
+        <v>340</v>
       </c>
       <c r="AK137" t="s" s="2">
         <v>78</v>
@@ -18485,7 +18485,7 @@
         <v>78</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="AN137" t="s" s="2">
         <v>78</v>
@@ -18493,11 +18493,11 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
-        <v>525</v>
+        <v>78</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -18519,13 +18519,17 @@
         <v>87</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>571</v>
+        <v>511</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="M138" s="2"/>
-      <c r="N138" s="2"/>
+        <v>512</v>
+      </c>
+      <c r="M138" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="N138" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="O138" t="s" s="2">
         <v>78</v>
       </c>
@@ -18537,7 +18541,7 @@
         <v>78</v>
       </c>
       <c r="S138" t="s" s="2">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="T138" t="s" s="2">
         <v>78</v>
@@ -18573,7 +18577,7 @@
         <v>78</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>76</v>
@@ -18588,7 +18592,7 @@
         <v>97</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>530</v>
+        <v>348</v>
       </c>
       <c r="AK138" t="s" s="2">
         <v>78</v>
@@ -18597,7 +18601,7 @@
         <v>78</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="AN138" t="s" s="2">
         <v>78</v>
@@ -18605,18 +18609,18 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
-        <v>533</v>
+        <v>78</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F139" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G139" t="s" s="2">
         <v>78</v>
@@ -18631,14 +18635,12 @@
         <v>87</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>573</v>
+        <v>518</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>536</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="M139" s="2"/>
       <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
         <v>78</v>
@@ -18651,7 +18653,7 @@
         <v>78</v>
       </c>
       <c r="S139" t="s" s="2">
-        <v>537</v>
+        <v>520</v>
       </c>
       <c r="T139" t="s" s="2">
         <v>78</v>
@@ -18687,13 +18689,13 @@
         <v>78</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>538</v>
+        <v>521</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>78</v>
@@ -18702,7 +18704,7 @@
         <v>97</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>539</v>
+        <v>522</v>
       </c>
       <c r="AK139" t="s" s="2">
         <v>78</v>
@@ -18711,7 +18713,7 @@
         <v>78</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>540</v>
+        <v>523</v>
       </c>
       <c r="AN139" t="s" s="2">
         <v>78</v>
@@ -18719,11 +18721,11 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>541</v>
+        <v>524</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
-        <v>542</v>
+        <v>525</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -18745,10 +18747,10 @@
         <v>87</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
@@ -18763,7 +18765,7 @@
         <v>78</v>
       </c>
       <c r="S140" t="s" s="2">
-        <v>78</v>
+        <v>528</v>
       </c>
       <c r="T140" t="s" s="2">
         <v>78</v>
@@ -18799,7 +18801,7 @@
         <v>78</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>76</v>
@@ -18814,7 +18816,7 @@
         <v>97</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>78</v>
@@ -18823,7 +18825,7 @@
         <v>78</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="AN140" t="s" s="2">
         <v>78</v>
@@ -18831,11 +18833,11 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
@@ -18857,12 +18859,14 @@
         <v>87</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>550</v>
+        <v>573</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="M141" s="2"/>
+        <v>574</v>
+      </c>
+      <c r="M141" t="s" s="2">
+        <v>536</v>
+      </c>
       <c r="N141" s="2"/>
       <c r="O141" t="s" s="2">
         <v>78</v>
@@ -18875,7 +18879,7 @@
         <v>78</v>
       </c>
       <c r="S141" t="s" s="2">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="T141" t="s" s="2">
         <v>78</v>
@@ -18911,7 +18915,7 @@
         <v>78</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>76</v>
@@ -18926,7 +18930,7 @@
         <v>97</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="AK141" t="s" s="2">
         <v>78</v>
@@ -18935,7 +18939,7 @@
         <v>78</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="AN141" t="s" s="2">
         <v>78</v>
@@ -18943,11 +18947,11 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
-        <v>78</v>
+        <v>542</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
@@ -18969,14 +18973,12 @@
         <v>87</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>557</v>
+        <v>575</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="M142" t="s" s="2">
-        <v>559</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="M142" s="2"/>
       <c r="N142" s="2"/>
       <c r="O142" t="s" s="2">
         <v>78</v>
@@ -19025,7 +19027,7 @@
         <v>78</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>76</v>
@@ -19040,7 +19042,7 @@
         <v>97</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>78</v>
@@ -19049,7 +19051,7 @@
         <v>78</v>
       </c>
       <c r="AM142" t="s" s="2">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="AN142" t="s" s="2">
         <v>78</v>
@@ -19057,11 +19059,11 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
-        <v>78</v>
+        <v>549</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
@@ -19080,18 +19082,16 @@
         <v>86</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>293</v>
+        <v>87</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="M143" s="2"/>
-      <c r="N143" t="s" s="2">
-        <v>566</v>
-      </c>
+      <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
         <v>78</v>
       </c>
@@ -19103,7 +19103,7 @@
         <v>78</v>
       </c>
       <c r="S143" t="s" s="2">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="T143" t="s" s="2">
         <v>78</v>
@@ -19139,7 +19139,7 @@
         <v>78</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>76</v>
@@ -19154,7 +19154,7 @@
         <v>97</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>383</v>
+        <v>554</v>
       </c>
       <c r="AK143" t="s" s="2">
         <v>78</v>
@@ -19163,7 +19163,7 @@
         <v>78</v>
       </c>
       <c r="AM143" t="s" s="2">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="AN143" t="s" s="2">
         <v>78</v>
@@ -19171,11 +19171,9 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B144" t="s" s="2">
-        <v>577</v>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
         <v>78</v>
       </c>
@@ -19196,20 +19194,18 @@
         <v>86</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>469</v>
+        <v>87</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>470</v>
+        <v>557</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>471</v>
+        <v>558</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N144" t="s" s="2">
-        <v>473</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
         <v>78</v>
       </c>
@@ -19257,13 +19253,13 @@
         <v>78</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>468</v>
+        <v>560</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>78</v>
@@ -19272,16 +19268,16 @@
         <v>97</v>
       </c>
       <c r="AJ144" t="s" s="2">
-        <v>475</v>
+        <v>561</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>476</v>
+        <v>78</v>
       </c>
       <c r="AL144" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM144" t="s" s="2">
-        <v>477</v>
+        <v>562</v>
       </c>
       <c r="AN144" t="s" s="2">
         <v>78</v>
@@ -19289,7 +19285,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>478</v>
+        <v>563</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -19309,19 +19305,21 @@
         <v>78</v>
       </c>
       <c r="I145" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>87</v>
+        <v>293</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>185</v>
+        <v>564</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>186</v>
+        <v>565</v>
       </c>
       <c r="M145" s="2"/>
-      <c r="N145" s="2"/>
+      <c r="N145" t="s" s="2">
+        <v>566</v>
+      </c>
       <c r="O145" t="s" s="2">
         <v>78</v>
       </c>
@@ -19333,7 +19331,7 @@
         <v>78</v>
       </c>
       <c r="S145" t="s" s="2">
-        <v>78</v>
+        <v>567</v>
       </c>
       <c r="T145" t="s" s="2">
         <v>78</v>
@@ -19369,7 +19367,7 @@
         <v>78</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>187</v>
+        <v>568</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>76</v>
@@ -19381,10 +19379,10 @@
         <v>78</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AJ145" t="s" s="2">
-        <v>188</v>
+        <v>383</v>
       </c>
       <c r="AK145" t="s" s="2">
         <v>78</v>
@@ -19393,7 +19391,7 @@
         <v>78</v>
       </c>
       <c r="AM145" t="s" s="2">
-        <v>78</v>
+        <v>569</v>
       </c>
       <c r="AN145" t="s" s="2">
         <v>78</v>
@@ -19401,18 +19399,20 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="B146" s="2"/>
+        <v>468</v>
+      </c>
+      <c r="B146" t="s" s="2">
+        <v>577</v>
+      </c>
       <c r="C146" t="s" s="2">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F146" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G146" t="s" s="2">
         <v>78</v>
@@ -19421,21 +19421,23 @@
         <v>78</v>
       </c>
       <c r="I146" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>130</v>
+        <v>469</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>190</v>
+        <v>470</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>191</v>
+        <v>471</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N146" s="2"/>
+        <v>472</v>
+      </c>
+      <c r="N146" t="s" s="2">
+        <v>473</v>
+      </c>
       <c r="O146" t="s" s="2">
         <v>78</v>
       </c>
@@ -19471,19 +19473,19 @@
         <v>78</v>
       </c>
       <c r="AA146" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="AB146" t="s" s="2">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="AC146" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD146" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>193</v>
+        <v>468</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>76</v>
@@ -19495,19 +19497,19 @@
         <v>78</v>
       </c>
       <c r="AI146" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ146" t="s" s="2">
-        <v>188</v>
+        <v>475</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>78</v>
+        <v>476</v>
       </c>
       <c r="AL146" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM146" t="s" s="2">
-        <v>78</v>
+        <v>477</v>
       </c>
       <c r="AN146" t="s" s="2">
         <v>78</v>
@@ -19515,7 +19517,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -19523,7 +19525,7 @@
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F147" t="s" s="2">
         <v>85</v>
@@ -19532,26 +19534,22 @@
         <v>78</v>
       </c>
       <c r="H147" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I147" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>491</v>
+        <v>185</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="M147" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>494</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="M147" s="2"/>
+      <c r="N147" s="2"/>
       <c r="O147" t="s" s="2">
         <v>78</v>
       </c>
@@ -19560,10 +19558,10 @@
         <v>78</v>
       </c>
       <c r="R147" t="s" s="2">
-        <v>578</v>
+        <v>78</v>
       </c>
       <c r="S147" t="s" s="2">
-        <v>495</v>
+        <v>78</v>
       </c>
       <c r="T147" t="s" s="2">
         <v>78</v>
@@ -19575,13 +19573,13 @@
         <v>78</v>
       </c>
       <c r="W147" t="s" s="2">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="X147" t="s" s="2">
-        <v>496</v>
+        <v>78</v>
       </c>
       <c r="Y147" t="s" s="2">
-        <v>497</v>
+        <v>78</v>
       </c>
       <c r="Z147" t="s" s="2">
         <v>78</v>
@@ -19599,7 +19597,7 @@
         <v>78</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>498</v>
+        <v>187</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>76</v>
@@ -19611,10 +19609,10 @@
         <v>78</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>340</v>
+        <v>188</v>
       </c>
       <c r="AK147" t="s" s="2">
         <v>78</v>
@@ -19623,7 +19621,7 @@
         <v>78</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>499</v>
+        <v>78</v>
       </c>
       <c r="AN147" t="s" s="2">
         <v>78</v>
@@ -19631,18 +19629,18 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>500</v>
+        <v>479</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
-        <v>78</v>
+        <v>167</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F148" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G148" t="s" s="2">
         <v>78</v>
@@ -19651,19 +19649,19 @@
         <v>78</v>
       </c>
       <c r="I148" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>501</v>
+        <v>190</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>502</v>
+        <v>191</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>503</v>
+        <v>170</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
@@ -19677,7 +19675,7 @@
         <v>78</v>
       </c>
       <c r="S148" t="s" s="2">
-        <v>505</v>
+        <v>78</v>
       </c>
       <c r="T148" t="s" s="2">
         <v>78</v>
@@ -19689,46 +19687,46 @@
         <v>78</v>
       </c>
       <c r="W148" t="s" s="2">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="X148" t="s" s="2">
-        <v>506</v>
+        <v>78</v>
       </c>
       <c r="Y148" t="s" s="2">
-        <v>507</v>
+        <v>78</v>
       </c>
       <c r="Z148" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AA148" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="AB148" t="s" s="2">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="AC148" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD148" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>508</v>
+        <v>193</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ148" t="s" s="2">
-        <v>340</v>
+        <v>188</v>
       </c>
       <c r="AK148" t="s" s="2">
         <v>78</v>
@@ -19737,51 +19735,49 @@
         <v>78</v>
       </c>
       <c r="AM148" t="s" s="2">
-        <v>509</v>
+        <v>78</v>
       </c>
       <c r="AN148" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="149" hidden="true">
+    <row r="149">
       <c r="A149" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="B149" s="2"/>
+        <v>479</v>
+      </c>
+      <c r="B149" t="s" s="2">
+        <v>482</v>
+      </c>
       <c r="C149" t="s" s="2">
         <v>78</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F149" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G149" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H149" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I149" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>87</v>
+        <v>483</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>511</v>
+        <v>484</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="M149" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="N149" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="M149" s="2"/>
+      <c r="N149" s="2"/>
       <c r="O149" t="s" s="2">
         <v>78</v>
       </c>
@@ -19793,7 +19789,7 @@
         <v>78</v>
       </c>
       <c r="S149" t="s" s="2">
-        <v>514</v>
+        <v>78</v>
       </c>
       <c r="T149" t="s" s="2">
         <v>78</v>
@@ -19829,22 +19825,22 @@
         <v>78</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>515</v>
+        <v>193</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ149" t="s" s="2">
-        <v>348</v>
+        <v>78</v>
       </c>
       <c r="AK149" t="s" s="2">
         <v>78</v>
@@ -19853,44 +19849,46 @@
         <v>78</v>
       </c>
       <c r="AM149" t="s" s="2">
-        <v>516</v>
+        <v>78</v>
       </c>
       <c r="AN149" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="150" hidden="true">
+    <row r="150">
       <c r="A150" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="B150" s="2"/>
+        <v>479</v>
+      </c>
+      <c r="B150" t="s" s="2">
+        <v>486</v>
+      </c>
       <c r="C150" t="s" s="2">
         <v>78</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F150" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G150" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H150" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I150" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>87</v>
+        <v>487</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>518</v>
+        <v>488</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>519</v>
+        <v>489</v>
       </c>
       <c r="M150" s="2"/>
       <c r="N150" s="2"/>
@@ -19905,7 +19903,7 @@
         <v>78</v>
       </c>
       <c r="S150" t="s" s="2">
-        <v>520</v>
+        <v>78</v>
       </c>
       <c r="T150" t="s" s="2">
         <v>78</v>
@@ -19941,7 +19939,7 @@
         <v>78</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>521</v>
+        <v>193</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>76</v>
@@ -19953,10 +19951,10 @@
         <v>78</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>522</v>
+        <v>78</v>
       </c>
       <c r="AK150" t="s" s="2">
         <v>78</v>
@@ -19965,7 +19963,7 @@
         <v>78</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>523</v>
+        <v>78</v>
       </c>
       <c r="AN150" t="s" s="2">
         <v>78</v>
@@ -19973,15 +19971,15 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>524</v>
+        <v>490</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
-        <v>525</v>
+        <v>78</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F151" t="s" s="2">
         <v>85</v>
@@ -19990,22 +19988,26 @@
         <v>78</v>
       </c>
       <c r="H151" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I151" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>571</v>
+        <v>491</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="M151" s="2"/>
-      <c r="N151" s="2"/>
+        <v>492</v>
+      </c>
+      <c r="M151" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="N151" t="s" s="2">
+        <v>494</v>
+      </c>
       <c r="O151" t="s" s="2">
         <v>78</v>
       </c>
@@ -20014,10 +20016,10 @@
         <v>78</v>
       </c>
       <c r="R151" t="s" s="2">
-        <v>78</v>
+        <v>578</v>
       </c>
       <c r="S151" t="s" s="2">
-        <v>528</v>
+        <v>495</v>
       </c>
       <c r="T151" t="s" s="2">
         <v>78</v>
@@ -20029,13 +20031,13 @@
         <v>78</v>
       </c>
       <c r="W151" t="s" s="2">
-        <v>78</v>
+        <v>199</v>
       </c>
       <c r="X151" t="s" s="2">
-        <v>78</v>
+        <v>496</v>
       </c>
       <c r="Y151" t="s" s="2">
-        <v>78</v>
+        <v>497</v>
       </c>
       <c r="Z151" t="s" s="2">
         <v>78</v>
@@ -20053,7 +20055,7 @@
         <v>78</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>529</v>
+        <v>498</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>76</v>
@@ -20068,7 +20070,7 @@
         <v>97</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>530</v>
+        <v>340</v>
       </c>
       <c r="AK151" t="s" s="2">
         <v>78</v>
@@ -20077,7 +20079,7 @@
         <v>78</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>531</v>
+        <v>499</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>78</v>
@@ -20085,11 +20087,11 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>532</v>
+        <v>500</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
-        <v>533</v>
+        <v>78</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
@@ -20108,16 +20110,16 @@
         <v>86</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>573</v>
+        <v>501</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>574</v>
+        <v>502</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>536</v>
+        <v>503</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" t="s" s="2">
@@ -20131,7 +20133,7 @@
         <v>78</v>
       </c>
       <c r="S152" t="s" s="2">
-        <v>537</v>
+        <v>505</v>
       </c>
       <c r="T152" t="s" s="2">
         <v>78</v>
@@ -20143,13 +20145,13 @@
         <v>78</v>
       </c>
       <c r="W152" t="s" s="2">
-        <v>78</v>
+        <v>199</v>
       </c>
       <c r="X152" t="s" s="2">
-        <v>78</v>
+        <v>506</v>
       </c>
       <c r="Y152" t="s" s="2">
-        <v>78</v>
+        <v>507</v>
       </c>
       <c r="Z152" t="s" s="2">
         <v>78</v>
@@ -20167,7 +20169,7 @@
         <v>78</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>538</v>
+        <v>508</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>76</v>
@@ -20182,7 +20184,7 @@
         <v>97</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>539</v>
+        <v>340</v>
       </c>
       <c r="AK152" t="s" s="2">
         <v>78</v>
@@ -20191,7 +20193,7 @@
         <v>78</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>540</v>
+        <v>509</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>78</v>
@@ -20199,11 +20201,11 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>541</v>
+        <v>510</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
-        <v>542</v>
+        <v>78</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
@@ -20225,13 +20227,17 @@
         <v>87</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>575</v>
+        <v>511</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="M153" s="2"/>
-      <c r="N153" s="2"/>
+        <v>512</v>
+      </c>
+      <c r="M153" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="N153" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="O153" t="s" s="2">
         <v>78</v>
       </c>
@@ -20243,7 +20249,7 @@
         <v>78</v>
       </c>
       <c r="S153" t="s" s="2">
-        <v>78</v>
+        <v>514</v>
       </c>
       <c r="T153" t="s" s="2">
         <v>78</v>
@@ -20279,7 +20285,7 @@
         <v>78</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>545</v>
+        <v>515</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>76</v>
@@ -20294,7 +20300,7 @@
         <v>97</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>546</v>
+        <v>348</v>
       </c>
       <c r="AK153" t="s" s="2">
         <v>78</v>
@@ -20303,7 +20309,7 @@
         <v>78</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>547</v>
+        <v>516</v>
       </c>
       <c r="AN153" t="s" s="2">
         <v>78</v>
@@ -20311,18 +20317,18 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>548</v>
+        <v>517</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
-        <v>549</v>
+        <v>78</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F154" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G154" t="s" s="2">
         <v>78</v>
@@ -20337,10 +20343,10 @@
         <v>87</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>550</v>
+        <v>518</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>551</v>
+        <v>519</v>
       </c>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
@@ -20355,7 +20361,7 @@
         <v>78</v>
       </c>
       <c r="S154" t="s" s="2">
-        <v>552</v>
+        <v>520</v>
       </c>
       <c r="T154" t="s" s="2">
         <v>78</v>
@@ -20391,13 +20397,13 @@
         <v>78</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>553</v>
+        <v>521</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>78</v>
@@ -20406,7 +20412,7 @@
         <v>97</v>
       </c>
       <c r="AJ154" t="s" s="2">
-        <v>554</v>
+        <v>522</v>
       </c>
       <c r="AK154" t="s" s="2">
         <v>78</v>
@@ -20415,7 +20421,7 @@
         <v>78</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>555</v>
+        <v>523</v>
       </c>
       <c r="AN154" t="s" s="2">
         <v>78</v>
@@ -20423,11 +20429,11 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>556</v>
+        <v>524</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
-        <v>78</v>
+        <v>525</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
@@ -20449,14 +20455,12 @@
         <v>87</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>557</v>
+        <v>571</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="M155" t="s" s="2">
-        <v>559</v>
-      </c>
+        <v>572</v>
+      </c>
+      <c r="M155" s="2"/>
       <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
         <v>78</v>
@@ -20469,7 +20473,7 @@
         <v>78</v>
       </c>
       <c r="S155" t="s" s="2">
-        <v>78</v>
+        <v>528</v>
       </c>
       <c r="T155" t="s" s="2">
         <v>78</v>
@@ -20505,7 +20509,7 @@
         <v>78</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>560</v>
+        <v>529</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>76</v>
@@ -20520,7 +20524,7 @@
         <v>97</v>
       </c>
       <c r="AJ155" t="s" s="2">
-        <v>561</v>
+        <v>530</v>
       </c>
       <c r="AK155" t="s" s="2">
         <v>78</v>
@@ -20529,7 +20533,7 @@
         <v>78</v>
       </c>
       <c r="AM155" t="s" s="2">
-        <v>562</v>
+        <v>531</v>
       </c>
       <c r="AN155" t="s" s="2">
         <v>78</v>
@@ -20537,11 +20541,11 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>563</v>
+        <v>532</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
-        <v>78</v>
+        <v>533</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
@@ -20560,18 +20564,18 @@
         <v>86</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>293</v>
+        <v>87</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="M156" s="2"/>
-      <c r="N156" t="s" s="2">
-        <v>566</v>
-      </c>
+        <v>574</v>
+      </c>
+      <c r="M156" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
         <v>78</v>
       </c>
@@ -20583,7 +20587,7 @@
         <v>78</v>
       </c>
       <c r="S156" t="s" s="2">
-        <v>567</v>
+        <v>537</v>
       </c>
       <c r="T156" t="s" s="2">
         <v>78</v>
@@ -20619,7 +20623,7 @@
         <v>78</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>568</v>
+        <v>538</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>76</v>
@@ -20634,7 +20638,7 @@
         <v>97</v>
       </c>
       <c r="AJ156" t="s" s="2">
-        <v>383</v>
+        <v>539</v>
       </c>
       <c r="AK156" t="s" s="2">
         <v>78</v>
@@ -20643,7 +20647,7 @@
         <v>78</v>
       </c>
       <c r="AM156" t="s" s="2">
-        <v>569</v>
+        <v>540</v>
       </c>
       <c r="AN156" t="s" s="2">
         <v>78</v>
@@ -20651,11 +20655,11 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>579</v>
+        <v>541</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
-        <v>78</v>
+        <v>542</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
@@ -20671,21 +20675,19 @@
         <v>78</v>
       </c>
       <c r="I157" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>205</v>
+        <v>87</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M157" s="2"/>
-      <c r="N157" t="s" s="2">
-        <v>582</v>
-      </c>
+      <c r="N157" s="2"/>
       <c r="O157" t="s" s="2">
         <v>78</v>
       </c>
@@ -20709,11 +20711,13 @@
         <v>78</v>
       </c>
       <c r="W157" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="X157" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="X157" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Y157" t="s" s="2">
-        <v>583</v>
+        <v>78</v>
       </c>
       <c r="Z157" t="s" s="2">
         <v>78</v>
@@ -20731,7 +20735,7 @@
         <v>78</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>579</v>
+        <v>545</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>76</v>
@@ -20746,16 +20750,16 @@
         <v>97</v>
       </c>
       <c r="AJ157" t="s" s="2">
-        <v>584</v>
+        <v>546</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>585</v>
+        <v>78</v>
       </c>
       <c r="AL157" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM157" t="s" s="2">
-        <v>586</v>
+        <v>547</v>
       </c>
       <c r="AN157" t="s" s="2">
         <v>78</v>
@@ -20763,18 +20767,18 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>587</v>
+        <v>548</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
-        <v>78</v>
+        <v>549</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F158" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G158" t="s" s="2">
         <v>78</v>
@@ -20783,23 +20787,19 @@
         <v>78</v>
       </c>
       <c r="I158" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>588</v>
+        <v>87</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>589</v>
+        <v>550</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="M158" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="N158" t="s" s="2">
-        <v>592</v>
-      </c>
+        <v>551</v>
+      </c>
+      <c r="M158" s="2"/>
+      <c r="N158" s="2"/>
       <c r="O158" t="s" s="2">
         <v>78</v>
       </c>
@@ -20811,7 +20811,7 @@
         <v>78</v>
       </c>
       <c r="S158" t="s" s="2">
-        <v>78</v>
+        <v>552</v>
       </c>
       <c r="T158" t="s" s="2">
         <v>78</v>
@@ -20847,7 +20847,7 @@
         <v>78</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>587</v>
+        <v>553</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>76</v>
@@ -20862,16 +20862,16 @@
         <v>97</v>
       </c>
       <c r="AJ158" t="s" s="2">
-        <v>593</v>
+        <v>554</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="AL158" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>594</v>
+        <v>555</v>
       </c>
       <c r="AN158" t="s" s="2">
         <v>78</v>
@@ -20879,7 +20879,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>595</v>
+        <v>556</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20893,29 +20893,27 @@
         <v>85</v>
       </c>
       <c r="G159" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H159" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I159" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="H159" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I159" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="J159" t="s" s="2">
-        <v>596</v>
+        <v>87</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>597</v>
+        <v>557</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>598</v>
+        <v>558</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="N159" t="s" s="2">
-        <v>600</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="N159" s="2"/>
       <c r="O159" t="s" s="2">
         <v>78</v>
       </c>
@@ -20951,25 +20949,25 @@
         <v>78</v>
       </c>
       <c r="AA159" t="s" s="2">
-        <v>601</v>
+        <v>78</v>
       </c>
       <c r="AB159" t="s" s="2">
-        <v>602</v>
+        <v>78</v>
       </c>
       <c r="AC159" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD159" t="s" s="2">
-        <v>179</v>
+        <v>78</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>595</v>
+        <v>560</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>78</v>
@@ -20978,16 +20976,16 @@
         <v>97</v>
       </c>
       <c r="AJ159" t="s" s="2">
-        <v>603</v>
+        <v>561</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="AL159" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM159" t="s" s="2">
-        <v>604</v>
+        <v>562</v>
       </c>
       <c r="AN159" t="s" s="2">
         <v>78</v>
@@ -20995,7 +20993,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>605</v>
+        <v>563</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -21015,19 +21013,21 @@
         <v>78</v>
       </c>
       <c r="I160" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>87</v>
+        <v>293</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>185</v>
+        <v>564</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>186</v>
+        <v>565</v>
       </c>
       <c r="M160" s="2"/>
-      <c r="N160" s="2"/>
+      <c r="N160" t="s" s="2">
+        <v>566</v>
+      </c>
       <c r="O160" t="s" s="2">
         <v>78</v>
       </c>
@@ -21039,7 +21039,7 @@
         <v>78</v>
       </c>
       <c r="S160" t="s" s="2">
-        <v>78</v>
+        <v>567</v>
       </c>
       <c r="T160" t="s" s="2">
         <v>78</v>
@@ -21075,7 +21075,7 @@
         <v>78</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>187</v>
+        <v>568</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>76</v>
@@ -21087,10 +21087,10 @@
         <v>78</v>
       </c>
       <c r="AI160" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AJ160" t="s" s="2">
-        <v>188</v>
+        <v>383</v>
       </c>
       <c r="AK160" t="s" s="2">
         <v>78</v>
@@ -21099,7 +21099,7 @@
         <v>78</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>78</v>
+        <v>569</v>
       </c>
       <c r="AN160" t="s" s="2">
         <v>78</v>
@@ -21107,18 +21107,18 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>606</v>
+        <v>579</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F161" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G161" t="s" s="2">
         <v>78</v>
@@ -21130,18 +21130,18 @@
         <v>78</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>130</v>
+        <v>205</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>190</v>
+        <v>580</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M161" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N161" s="2"/>
+        <v>581</v>
+      </c>
+      <c r="M161" s="2"/>
+      <c r="N161" t="s" s="2">
+        <v>582</v>
+      </c>
       <c r="O161" t="s" s="2">
         <v>78</v>
       </c>
@@ -21165,63 +21165,61 @@
         <v>78</v>
       </c>
       <c r="W161" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X161" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="X161" s="2"/>
       <c r="Y161" t="s" s="2">
-        <v>78</v>
+        <v>583</v>
       </c>
       <c r="Z161" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AA161" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="AB161" t="s" s="2">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="AC161" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD161" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>193</v>
+        <v>579</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ161" t="s" s="2">
-        <v>188</v>
+        <v>584</v>
       </c>
       <c r="AK161" t="s" s="2">
-        <v>78</v>
+        <v>585</v>
       </c>
       <c r="AL161" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>78</v>
+        <v>586</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>607</v>
+        <v>587</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -21229,32 +21227,34 @@
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F162" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G162" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H162" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I162" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>105</v>
+        <v>588</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>608</v>
+        <v>589</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="M162" s="2"/>
+        <v>590</v>
+      </c>
+      <c r="M162" t="s" s="2">
+        <v>591</v>
+      </c>
       <c r="N162" t="s" s="2">
-        <v>610</v>
+        <v>592</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>78</v>
@@ -21267,7 +21267,7 @@
         <v>78</v>
       </c>
       <c r="S162" t="s" s="2">
-        <v>611</v>
+        <v>78</v>
       </c>
       <c r="T162" t="s" s="2">
         <v>78</v>
@@ -21279,13 +21279,13 @@
         <v>78</v>
       </c>
       <c r="W162" t="s" s="2">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="X162" t="s" s="2">
-        <v>612</v>
+        <v>78</v>
       </c>
       <c r="Y162" t="s" s="2">
-        <v>613</v>
+        <v>78</v>
       </c>
       <c r="Z162" t="s" s="2">
         <v>78</v>
@@ -21303,7 +21303,7 @@
         <v>78</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>614</v>
+        <v>587</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>76</v>
@@ -21318,16 +21318,16 @@
         <v>97</v>
       </c>
       <c r="AJ162" t="s" s="2">
-        <v>615</v>
+        <v>593</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="AL162" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>616</v>
+        <v>594</v>
       </c>
       <c r="AN162" t="s" s="2">
         <v>78</v>
@@ -21335,7 +21335,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>617</v>
+        <v>595</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -21349,26 +21349,28 @@
         <v>85</v>
       </c>
       <c r="G163" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H163" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I163" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>105</v>
+        <v>596</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>618</v>
+        <v>597</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="M163" s="2"/>
+        <v>598</v>
+      </c>
+      <c r="M163" t="s" s="2">
+        <v>599</v>
+      </c>
       <c r="N163" t="s" s="2">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>78</v>
@@ -21381,7 +21383,7 @@
         <v>78</v>
       </c>
       <c r="S163" t="s" s="2">
-        <v>621</v>
+        <v>78</v>
       </c>
       <c r="T163" t="s" s="2">
         <v>78</v>
@@ -21393,37 +21395,37 @@
         <v>78</v>
       </c>
       <c r="W163" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="X163" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="Y163" t="s" s="2">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="Z163" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AA163" t="s" s="2">
-        <v>78</v>
+        <v>601</v>
       </c>
       <c r="AB163" t="s" s="2">
-        <v>78</v>
+        <v>602</v>
       </c>
       <c r="AC163" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD163" t="s" s="2">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>622</v>
+        <v>595</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>78</v>
@@ -21432,16 +21434,16 @@
         <v>97</v>
       </c>
       <c r="AJ163" t="s" s="2">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="AK163" t="s" s="2">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="AL163" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM163" t="s" s="2">
-        <v>78</v>
+        <v>604</v>
       </c>
       <c r="AN163" t="s" s="2">
         <v>78</v>
@@ -21449,7 +21451,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>624</v>
+        <v>605</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -21472,20 +21474,16 @@
         <v>78</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>625</v>
+        <v>87</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>626</v>
+        <v>185</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="M164" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="N164" t="s" s="2">
-        <v>629</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="M164" s="2"/>
+      <c r="N164" s="2"/>
       <c r="O164" t="s" s="2">
         <v>78</v>
       </c>
@@ -21533,7 +21531,7 @@
         <v>78</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>630</v>
+        <v>187</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>76</v>
@@ -21545,10 +21543,10 @@
         <v>78</v>
       </c>
       <c r="AI164" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ164" t="s" s="2">
-        <v>631</v>
+        <v>188</v>
       </c>
       <c r="AK164" t="s" s="2">
         <v>78</v>
@@ -21557,7 +21555,7 @@
         <v>78</v>
       </c>
       <c r="AM164" t="s" s="2">
-        <v>632</v>
+        <v>78</v>
       </c>
       <c r="AN164" t="s" s="2">
         <v>78</v>
@@ -21565,18 +21563,18 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>633</v>
+        <v>606</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
-        <v>78</v>
+        <v>167</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F165" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G165" t="s" s="2">
         <v>78</v>
@@ -21585,23 +21583,21 @@
         <v>78</v>
       </c>
       <c r="I165" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>634</v>
+        <v>130</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>635</v>
+        <v>190</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>636</v>
+        <v>191</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="N165" t="s" s="2">
-        <v>638</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="N165" s="2"/>
       <c r="O165" t="s" s="2">
         <v>78</v>
       </c>
@@ -21613,7 +21609,7 @@
         <v>78</v>
       </c>
       <c r="S165" t="s" s="2">
-        <v>639</v>
+        <v>78</v>
       </c>
       <c r="T165" t="s" s="2">
         <v>78</v>
@@ -21637,34 +21633,34 @@
         <v>78</v>
       </c>
       <c r="AA165" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="AB165" t="s" s="2">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="AC165" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD165" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>640</v>
+        <v>193</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH165" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI165" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ165" t="s" s="2">
-        <v>641</v>
+        <v>188</v>
       </c>
       <c r="AK165" t="s" s="2">
         <v>78</v>
@@ -21673,15 +21669,15 @@
         <v>78</v>
       </c>
       <c r="AM165" t="s" s="2">
-        <v>642</v>
+        <v>78</v>
       </c>
       <c r="AN165" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="166" hidden="true">
+    <row r="166">
       <c r="A166" t="s" s="2">
-        <v>643</v>
+        <v>607</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -21689,13 +21685,13 @@
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F166" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G166" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H166" t="s" s="2">
         <v>78</v>
@@ -21704,19 +21700,17 @@
         <v>86</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>644</v>
+        <v>105</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>645</v>
+        <v>608</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="M166" t="s" s="2">
-        <v>647</v>
-      </c>
+        <v>609</v>
+      </c>
+      <c r="M166" s="2"/>
       <c r="N166" t="s" s="2">
-        <v>648</v>
+        <v>610</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>78</v>
@@ -21729,7 +21723,7 @@
         <v>78</v>
       </c>
       <c r="S166" t="s" s="2">
-        <v>78</v>
+        <v>611</v>
       </c>
       <c r="T166" t="s" s="2">
         <v>78</v>
@@ -21741,13 +21735,13 @@
         <v>78</v>
       </c>
       <c r="W166" t="s" s="2">
-        <v>78</v>
+        <v>199</v>
       </c>
       <c r="X166" t="s" s="2">
-        <v>78</v>
+        <v>612</v>
       </c>
       <c r="Y166" t="s" s="2">
-        <v>78</v>
+        <v>613</v>
       </c>
       <c r="Z166" t="s" s="2">
         <v>78</v>
@@ -21765,7 +21759,7 @@
         <v>78</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>649</v>
+        <v>614</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>76</v>
@@ -21780,7 +21774,7 @@
         <v>97</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>650</v>
+        <v>615</v>
       </c>
       <c r="AK166" t="s" s="2">
         <v>78</v>
@@ -21789,7 +21783,7 @@
         <v>78</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>78</v>
+        <v>616</v>
       </c>
       <c r="AN166" t="s" s="2">
         <v>78</v>
@@ -21797,7 +21791,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>651</v>
+        <v>617</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21805,7 +21799,7 @@
       </c>
       <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F167" t="s" s="2">
         <v>85</v>
@@ -21820,19 +21814,17 @@
         <v>86</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>625</v>
+        <v>105</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>652</v>
+        <v>618</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="M167" t="s" s="2">
-        <v>654</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="M167" s="2"/>
       <c r="N167" t="s" s="2">
-        <v>655</v>
+        <v>620</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>78</v>
@@ -21845,7 +21837,7 @@
         <v>78</v>
       </c>
       <c r="S167" t="s" s="2">
-        <v>78</v>
+        <v>621</v>
       </c>
       <c r="T167" t="s" s="2">
         <v>78</v>
@@ -21857,13 +21849,13 @@
         <v>78</v>
       </c>
       <c r="W167" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="X167" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="Y167" t="s" s="2">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="Z167" t="s" s="2">
         <v>78</v>
@@ -21881,7 +21873,7 @@
         <v>78</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>656</v>
+        <v>622</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>76</v>
@@ -21896,7 +21888,7 @@
         <v>97</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>657</v>
+        <v>623</v>
       </c>
       <c r="AK167" t="s" s="2">
         <v>78</v>
@@ -21911,9 +21903,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>658</v>
+        <v>624</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -21921,32 +21913,34 @@
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F168" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G168" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H168" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I168" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>87</v>
+        <v>625</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>659</v>
+        <v>626</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="M168" s="2"/>
+        <v>627</v>
+      </c>
+      <c r="M168" t="s" s="2">
+        <v>628</v>
+      </c>
       <c r="N168" t="s" s="2">
-        <v>661</v>
+        <v>629</v>
       </c>
       <c r="O168" t="s" s="2">
         <v>78</v>
@@ -21959,7 +21953,7 @@
         <v>78</v>
       </c>
       <c r="S168" t="s" s="2">
-        <v>662</v>
+        <v>78</v>
       </c>
       <c r="T168" t="s" s="2">
         <v>78</v>
@@ -21995,7 +21989,7 @@
         <v>78</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>663</v>
+        <v>630</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>76</v>
@@ -22010,7 +22004,7 @@
         <v>97</v>
       </c>
       <c r="AJ168" t="s" s="2">
-        <v>664</v>
+        <v>631</v>
       </c>
       <c r="AK168" t="s" s="2">
         <v>78</v>
@@ -22019,15 +22013,15 @@
         <v>78</v>
       </c>
       <c r="AM168" t="s" s="2">
-        <v>78</v>
+        <v>632</v>
       </c>
       <c r="AN168" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>665</v>
+        <v>633</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -22035,13 +22029,13 @@
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F169" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G169" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H169" t="s" s="2">
         <v>78</v>
@@ -22050,17 +22044,19 @@
         <v>86</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>666</v>
+        <v>634</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>667</v>
+        <v>635</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="M169" s="2"/>
+        <v>636</v>
+      </c>
+      <c r="M169" t="s" s="2">
+        <v>637</v>
+      </c>
       <c r="N169" t="s" s="2">
-        <v>669</v>
+        <v>638</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>78</v>
@@ -22073,7 +22069,7 @@
         <v>78</v>
       </c>
       <c r="S169" t="s" s="2">
-        <v>78</v>
+        <v>639</v>
       </c>
       <c r="T169" t="s" s="2">
         <v>78</v>
@@ -22109,7 +22105,7 @@
         <v>78</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>670</v>
+        <v>640</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>76</v>
@@ -22124,7 +22120,7 @@
         <v>97</v>
       </c>
       <c r="AJ169" t="s" s="2">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="AK169" t="s" s="2">
         <v>78</v>
@@ -22133,7 +22129,7 @@
         <v>78</v>
       </c>
       <c r="AM169" t="s" s="2">
-        <v>78</v>
+        <v>642</v>
       </c>
       <c r="AN169" t="s" s="2">
         <v>78</v>
@@ -22141,11 +22137,9 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="B170" t="s" s="2">
-        <v>2</v>
-      </c>
+        <v>643</v>
+      </c>
+      <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
         <v>78</v>
       </c>
@@ -22163,22 +22157,22 @@
         <v>78</v>
       </c>
       <c r="I170" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>596</v>
+        <v>644</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>671</v>
+        <v>645</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>598</v>
+        <v>646</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>599</v>
+        <v>647</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>600</v>
+        <v>648</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>78</v>
@@ -22227,13 +22221,13 @@
         <v>78</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>595</v>
+        <v>649</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG170" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH170" t="s" s="2">
         <v>78</v>
@@ -22242,16 +22236,16 @@
         <v>97</v>
       </c>
       <c r="AJ170" t="s" s="2">
-        <v>603</v>
+        <v>650</v>
       </c>
       <c r="AK170" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="AL170" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM170" t="s" s="2">
-        <v>604</v>
+        <v>78</v>
       </c>
       <c r="AN170" t="s" s="2">
         <v>78</v>
@@ -22259,7 +22253,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>605</v>
+        <v>651</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -22267,7 +22261,7 @@
       </c>
       <c r="D171" s="2"/>
       <c r="E171" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F171" t="s" s="2">
         <v>85</v>
@@ -22279,19 +22273,23 @@
         <v>78</v>
       </c>
       <c r="I171" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>87</v>
+        <v>625</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>185</v>
+        <v>652</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M171" s="2"/>
-      <c r="N171" s="2"/>
+        <v>653</v>
+      </c>
+      <c r="M171" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="N171" t="s" s="2">
+        <v>655</v>
+      </c>
       <c r="O171" t="s" s="2">
         <v>78</v>
       </c>
@@ -22339,7 +22337,7 @@
         <v>78</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>187</v>
+        <v>656</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>76</v>
@@ -22351,10 +22349,10 @@
         <v>78</v>
       </c>
       <c r="AI171" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AJ171" t="s" s="2">
-        <v>188</v>
+        <v>657</v>
       </c>
       <c r="AK171" t="s" s="2">
         <v>78</v>
@@ -22369,43 +22367,43 @@
         <v>78</v>
       </c>
     </row>
-    <row r="172" hidden="true">
+    <row r="172">
       <c r="A172" t="s" s="2">
-        <v>606</v>
+        <v>658</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F172" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G172" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H172" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I172" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>190</v>
+        <v>659</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M172" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N172" s="2"/>
+        <v>660</v>
+      </c>
+      <c r="M172" s="2"/>
+      <c r="N172" t="s" s="2">
+        <v>661</v>
+      </c>
       <c r="O172" t="s" s="2">
         <v>78</v>
       </c>
@@ -22417,7 +22415,7 @@
         <v>78</v>
       </c>
       <c r="S172" t="s" s="2">
-        <v>78</v>
+        <v>662</v>
       </c>
       <c r="T172" t="s" s="2">
         <v>78</v>
@@ -22441,34 +22439,34 @@
         <v>78</v>
       </c>
       <c r="AA172" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="AB172" t="s" s="2">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="AC172" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD172" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>193</v>
+        <v>663</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG172" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH172" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI172" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ172" t="s" s="2">
-        <v>188</v>
+        <v>664</v>
       </c>
       <c r="AK172" t="s" s="2">
         <v>78</v>
@@ -22483,9 +22481,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="173" hidden="true">
+    <row r="173">
       <c r="A173" t="s" s="2">
-        <v>607</v>
+        <v>665</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -22493,13 +22491,13 @@
       </c>
       <c r="D173" s="2"/>
       <c r="E173" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F173" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G173" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H173" t="s" s="2">
         <v>78</v>
@@ -22508,17 +22506,17 @@
         <v>86</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>105</v>
+        <v>666</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>608</v>
+        <v>667</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>609</v>
+        <v>668</v>
       </c>
       <c r="M173" s="2"/>
       <c r="N173" t="s" s="2">
-        <v>610</v>
+        <v>669</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>78</v>
@@ -22531,7 +22529,7 @@
         <v>78</v>
       </c>
       <c r="S173" t="s" s="2">
-        <v>611</v>
+        <v>78</v>
       </c>
       <c r="T173" t="s" s="2">
         <v>78</v>
@@ -22543,13 +22541,13 @@
         <v>78</v>
       </c>
       <c r="W173" t="s" s="2">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="X173" t="s" s="2">
-        <v>612</v>
+        <v>78</v>
       </c>
       <c r="Y173" t="s" s="2">
-        <v>613</v>
+        <v>78</v>
       </c>
       <c r="Z173" t="s" s="2">
         <v>78</v>
@@ -22567,7 +22565,7 @@
         <v>78</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>614</v>
+        <v>670</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>76</v>
@@ -22582,7 +22580,7 @@
         <v>97</v>
       </c>
       <c r="AJ173" t="s" s="2">
-        <v>615</v>
+        <v>650</v>
       </c>
       <c r="AK173" t="s" s="2">
         <v>78</v>
@@ -22591,7 +22589,7 @@
         <v>78</v>
       </c>
       <c r="AM173" t="s" s="2">
-        <v>616</v>
+        <v>78</v>
       </c>
       <c r="AN173" t="s" s="2">
         <v>78</v>
@@ -22599,9 +22597,11 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="B174" s="2"/>
+        <v>595</v>
+      </c>
+      <c r="B174" t="s" s="2">
+        <v>2</v>
+      </c>
       <c r="C174" t="s" s="2">
         <v>78</v>
       </c>
@@ -22619,20 +22619,22 @@
         <v>78</v>
       </c>
       <c r="I174" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>105</v>
+        <v>596</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>618</v>
+        <v>671</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="M174" s="2"/>
+        <v>598</v>
+      </c>
+      <c r="M174" t="s" s="2">
+        <v>599</v>
+      </c>
       <c r="N174" t="s" s="2">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>78</v>
@@ -22645,7 +22647,7 @@
         <v>78</v>
       </c>
       <c r="S174" t="s" s="2">
-        <v>621</v>
+        <v>78</v>
       </c>
       <c r="T174" t="s" s="2">
         <v>78</v>
@@ -22657,13 +22659,13 @@
         <v>78</v>
       </c>
       <c r="W174" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="X174" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="Y174" t="s" s="2">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="Z174" t="s" s="2">
         <v>78</v>
@@ -22681,13 +22683,13 @@
         <v>78</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>622</v>
+        <v>595</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG174" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH174" t="s" s="2">
         <v>78</v>
@@ -22696,16 +22698,16 @@
         <v>97</v>
       </c>
       <c r="AJ174" t="s" s="2">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="AK174" t="s" s="2">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="AL174" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM174" t="s" s="2">
-        <v>78</v>
+        <v>604</v>
       </c>
       <c r="AN174" t="s" s="2">
         <v>78</v>
@@ -22713,7 +22715,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>624</v>
+        <v>605</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -22724,7 +22726,7 @@
         <v>76</v>
       </c>
       <c r="F175" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G175" t="s" s="2">
         <v>78</v>
@@ -22736,20 +22738,16 @@
         <v>78</v>
       </c>
       <c r="J175" t="s" s="2">
-        <v>625</v>
+        <v>87</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>626</v>
+        <v>185</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="M175" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="N175" t="s" s="2">
-        <v>629</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="M175" s="2"/>
+      <c r="N175" s="2"/>
       <c r="O175" t="s" s="2">
         <v>78</v>
       </c>
@@ -22797,7 +22795,7 @@
         <v>78</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>630</v>
+        <v>187</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>76</v>
@@ -22809,10 +22807,10 @@
         <v>78</v>
       </c>
       <c r="AI175" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ175" t="s" s="2">
-        <v>631</v>
+        <v>188</v>
       </c>
       <c r="AK175" t="s" s="2">
         <v>78</v>
@@ -22821,7 +22819,7 @@
         <v>78</v>
       </c>
       <c r="AM175" t="s" s="2">
-        <v>632</v>
+        <v>78</v>
       </c>
       <c r="AN175" t="s" s="2">
         <v>78</v>
@@ -22829,18 +22827,18 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>633</v>
+        <v>606</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
-        <v>78</v>
+        <v>167</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F176" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G176" t="s" s="2">
         <v>78</v>
@@ -22849,23 +22847,21 @@
         <v>78</v>
       </c>
       <c r="I176" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J176" t="s" s="2">
-        <v>634</v>
+        <v>130</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>635</v>
+        <v>190</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>636</v>
+        <v>191</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="N176" t="s" s="2">
-        <v>638</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="N176" s="2"/>
       <c r="O176" t="s" s="2">
         <v>78</v>
       </c>
@@ -22877,7 +22873,7 @@
         <v>78</v>
       </c>
       <c r="S176" t="s" s="2">
-        <v>639</v>
+        <v>78</v>
       </c>
       <c r="T176" t="s" s="2">
         <v>78</v>
@@ -22901,34 +22897,34 @@
         <v>78</v>
       </c>
       <c r="AA176" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="AB176" t="s" s="2">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="AC176" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD176" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>640</v>
+        <v>193</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG176" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH176" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI176" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ176" t="s" s="2">
-        <v>641</v>
+        <v>188</v>
       </c>
       <c r="AK176" t="s" s="2">
         <v>78</v>
@@ -22937,7 +22933,7 @@
         <v>78</v>
       </c>
       <c r="AM176" t="s" s="2">
-        <v>642</v>
+        <v>78</v>
       </c>
       <c r="AN176" t="s" s="2">
         <v>78</v>
@@ -22945,7 +22941,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>643</v>
+        <v>607</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -22953,7 +22949,7 @@
       </c>
       <c r="D177" s="2"/>
       <c r="E177" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F177" t="s" s="2">
         <v>85</v>
@@ -22968,19 +22964,17 @@
         <v>86</v>
       </c>
       <c r="J177" t="s" s="2">
-        <v>644</v>
+        <v>105</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>645</v>
+        <v>608</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="M177" t="s" s="2">
-        <v>647</v>
-      </c>
+        <v>609</v>
+      </c>
+      <c r="M177" s="2"/>
       <c r="N177" t="s" s="2">
-        <v>648</v>
+        <v>610</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>78</v>
@@ -22993,7 +22987,7 @@
         <v>78</v>
       </c>
       <c r="S177" t="s" s="2">
-        <v>78</v>
+        <v>611</v>
       </c>
       <c r="T177" t="s" s="2">
         <v>78</v>
@@ -23005,13 +22999,13 @@
         <v>78</v>
       </c>
       <c r="W177" t="s" s="2">
-        <v>78</v>
+        <v>199</v>
       </c>
       <c r="X177" t="s" s="2">
-        <v>78</v>
+        <v>612</v>
       </c>
       <c r="Y177" t="s" s="2">
-        <v>78</v>
+        <v>613</v>
       </c>
       <c r="Z177" t="s" s="2">
         <v>78</v>
@@ -23029,7 +23023,7 @@
         <v>78</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>649</v>
+        <v>614</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>76</v>
@@ -23044,7 +23038,7 @@
         <v>97</v>
       </c>
       <c r="AJ177" t="s" s="2">
-        <v>650</v>
+        <v>615</v>
       </c>
       <c r="AK177" t="s" s="2">
         <v>78</v>
@@ -23053,7 +23047,7 @@
         <v>78</v>
       </c>
       <c r="AM177" t="s" s="2">
-        <v>78</v>
+        <v>616</v>
       </c>
       <c r="AN177" t="s" s="2">
         <v>78</v>
@@ -23061,7 +23055,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>651</v>
+        <v>617</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -23084,19 +23078,17 @@
         <v>86</v>
       </c>
       <c r="J178" t="s" s="2">
-        <v>625</v>
+        <v>105</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>652</v>
+        <v>618</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="M178" t="s" s="2">
-        <v>654</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="M178" s="2"/>
       <c r="N178" t="s" s="2">
-        <v>655</v>
+        <v>620</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>78</v>
@@ -23109,7 +23101,7 @@
         <v>78</v>
       </c>
       <c r="S178" t="s" s="2">
-        <v>78</v>
+        <v>621</v>
       </c>
       <c r="T178" t="s" s="2">
         <v>78</v>
@@ -23121,13 +23113,13 @@
         <v>78</v>
       </c>
       <c r="W178" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="X178" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="Y178" t="s" s="2">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="Z178" t="s" s="2">
         <v>78</v>
@@ -23145,7 +23137,7 @@
         <v>78</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>656</v>
+        <v>622</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>76</v>
@@ -23160,7 +23152,7 @@
         <v>97</v>
       </c>
       <c r="AJ178" t="s" s="2">
-        <v>657</v>
+        <v>623</v>
       </c>
       <c r="AK178" t="s" s="2">
         <v>78</v>
@@ -23177,7 +23169,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>658</v>
+        <v>624</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -23188,7 +23180,7 @@
         <v>76</v>
       </c>
       <c r="F179" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G179" t="s" s="2">
         <v>78</v>
@@ -23197,20 +23189,22 @@
         <v>78</v>
       </c>
       <c r="I179" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J179" t="s" s="2">
-        <v>87</v>
+        <v>625</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>659</v>
+        <v>626</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="M179" s="2"/>
+        <v>627</v>
+      </c>
+      <c r="M179" t="s" s="2">
+        <v>628</v>
+      </c>
       <c r="N179" t="s" s="2">
-        <v>661</v>
+        <v>629</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>78</v>
@@ -23223,7 +23217,7 @@
         <v>78</v>
       </c>
       <c r="S179" t="s" s="2">
-        <v>662</v>
+        <v>78</v>
       </c>
       <c r="T179" t="s" s="2">
         <v>78</v>
@@ -23259,7 +23253,7 @@
         <v>78</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>663</v>
+        <v>630</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>76</v>
@@ -23274,7 +23268,7 @@
         <v>97</v>
       </c>
       <c r="AJ179" t="s" s="2">
-        <v>664</v>
+        <v>631</v>
       </c>
       <c r="AK179" t="s" s="2">
         <v>78</v>
@@ -23283,7 +23277,7 @@
         <v>78</v>
       </c>
       <c r="AM179" t="s" s="2">
-        <v>78</v>
+        <v>632</v>
       </c>
       <c r="AN179" t="s" s="2">
         <v>78</v>
@@ -23291,7 +23285,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>665</v>
+        <v>633</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -23299,7 +23293,7 @@
       </c>
       <c r="D180" s="2"/>
       <c r="E180" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F180" t="s" s="2">
         <v>85</v>
@@ -23314,17 +23308,19 @@
         <v>86</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>666</v>
+        <v>634</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>667</v>
+        <v>635</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="M180" s="2"/>
+        <v>636</v>
+      </c>
+      <c r="M180" t="s" s="2">
+        <v>637</v>
+      </c>
       <c r="N180" t="s" s="2">
-        <v>669</v>
+        <v>638</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>78</v>
@@ -23337,7 +23333,7 @@
         <v>78</v>
       </c>
       <c r="S180" t="s" s="2">
-        <v>78</v>
+        <v>639</v>
       </c>
       <c r="T180" t="s" s="2">
         <v>78</v>
@@ -23373,7 +23369,7 @@
         <v>78</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>670</v>
+        <v>640</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>76</v>
@@ -23388,7 +23384,7 @@
         <v>97</v>
       </c>
       <c r="AJ180" t="s" s="2">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="AK180" t="s" s="2">
         <v>78</v>
@@ -23397,7 +23393,7 @@
         <v>78</v>
       </c>
       <c r="AM180" t="s" s="2">
-        <v>78</v>
+        <v>642</v>
       </c>
       <c r="AN180" t="s" s="2">
         <v>78</v>
@@ -23405,17 +23401,15 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="B181" t="s" s="2">
-        <v>672</v>
-      </c>
+        <v>643</v>
+      </c>
+      <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
         <v>78</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F181" t="s" s="2">
         <v>85</v>
@@ -23427,22 +23421,22 @@
         <v>78</v>
       </c>
       <c r="I181" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J181" t="s" s="2">
-        <v>596</v>
+        <v>644</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>673</v>
+        <v>645</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>598</v>
+        <v>646</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>599</v>
+        <v>647</v>
       </c>
       <c r="N181" t="s" s="2">
-        <v>600</v>
+        <v>648</v>
       </c>
       <c r="O181" t="s" s="2">
         <v>78</v>
@@ -23491,13 +23485,13 @@
         <v>78</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>595</v>
+        <v>649</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG181" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH181" t="s" s="2">
         <v>78</v>
@@ -23506,16 +23500,16 @@
         <v>97</v>
       </c>
       <c r="AJ181" t="s" s="2">
-        <v>603</v>
+        <v>650</v>
       </c>
       <c r="AK181" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="AL181" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM181" t="s" s="2">
-        <v>604</v>
+        <v>78</v>
       </c>
       <c r="AN181" t="s" s="2">
         <v>78</v>
@@ -23523,7 +23517,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>605</v>
+        <v>651</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -23543,19 +23537,23 @@
         <v>78</v>
       </c>
       <c r="I182" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J182" t="s" s="2">
-        <v>87</v>
+        <v>625</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>185</v>
+        <v>652</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M182" s="2"/>
-      <c r="N182" s="2"/>
+        <v>653</v>
+      </c>
+      <c r="M182" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="N182" t="s" s="2">
+        <v>655</v>
+      </c>
       <c r="O182" t="s" s="2">
         <v>78</v>
       </c>
@@ -23603,7 +23601,7 @@
         <v>78</v>
       </c>
       <c r="AE182" t="s" s="2">
-        <v>187</v>
+        <v>656</v>
       </c>
       <c r="AF182" t="s" s="2">
         <v>76</v>
@@ -23615,10 +23613,10 @@
         <v>78</v>
       </c>
       <c r="AI182" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AJ182" t="s" s="2">
-        <v>188</v>
+        <v>657</v>
       </c>
       <c r="AK182" t="s" s="2">
         <v>78</v>
@@ -23635,18 +23633,18 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>606</v>
+        <v>658</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F183" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G183" t="s" s="2">
         <v>78</v>
@@ -23655,21 +23653,21 @@
         <v>78</v>
       </c>
       <c r="I183" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J183" t="s" s="2">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>190</v>
+        <v>659</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M183" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N183" s="2"/>
+        <v>660</v>
+      </c>
+      <c r="M183" s="2"/>
+      <c r="N183" t="s" s="2">
+        <v>661</v>
+      </c>
       <c r="O183" t="s" s="2">
         <v>78</v>
       </c>
@@ -23681,7 +23679,7 @@
         <v>78</v>
       </c>
       <c r="S183" t="s" s="2">
-        <v>78</v>
+        <v>662</v>
       </c>
       <c r="T183" t="s" s="2">
         <v>78</v>
@@ -23705,34 +23703,34 @@
         <v>78</v>
       </c>
       <c r="AA183" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="AB183" t="s" s="2">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="AC183" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD183" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>193</v>
+        <v>663</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG183" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH183" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI183" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ183" t="s" s="2">
-        <v>188</v>
+        <v>664</v>
       </c>
       <c r="AK183" t="s" s="2">
         <v>78</v>
@@ -23749,7 +23747,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>607</v>
+        <v>665</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -23772,17 +23770,17 @@
         <v>86</v>
       </c>
       <c r="J184" t="s" s="2">
-        <v>105</v>
+        <v>666</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>608</v>
+        <v>667</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>609</v>
+        <v>668</v>
       </c>
       <c r="M184" s="2"/>
       <c r="N184" t="s" s="2">
-        <v>610</v>
+        <v>669</v>
       </c>
       <c r="O184" t="s" s="2">
         <v>78</v>
@@ -23795,7 +23793,7 @@
         <v>78</v>
       </c>
       <c r="S184" t="s" s="2">
-        <v>611</v>
+        <v>78</v>
       </c>
       <c r="T184" t="s" s="2">
         <v>78</v>
@@ -23807,13 +23805,13 @@
         <v>78</v>
       </c>
       <c r="W184" t="s" s="2">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="X184" t="s" s="2">
-        <v>612</v>
+        <v>78</v>
       </c>
       <c r="Y184" t="s" s="2">
-        <v>613</v>
+        <v>78</v>
       </c>
       <c r="Z184" t="s" s="2">
         <v>78</v>
@@ -23831,7 +23829,7 @@
         <v>78</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>614</v>
+        <v>670</v>
       </c>
       <c r="AF184" t="s" s="2">
         <v>76</v>
@@ -23846,7 +23844,7 @@
         <v>97</v>
       </c>
       <c r="AJ184" t="s" s="2">
-        <v>615</v>
+        <v>650</v>
       </c>
       <c r="AK184" t="s" s="2">
         <v>78</v>
@@ -23855,7 +23853,7 @@
         <v>78</v>
       </c>
       <c r="AM184" t="s" s="2">
-        <v>616</v>
+        <v>78</v>
       </c>
       <c r="AN184" t="s" s="2">
         <v>78</v>
@@ -23863,9 +23861,11 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="B185" s="2"/>
+        <v>595</v>
+      </c>
+      <c r="B185" t="s" s="2">
+        <v>672</v>
+      </c>
       <c r="C185" t="s" s="2">
         <v>78</v>
       </c>
@@ -23883,20 +23883,22 @@
         <v>78</v>
       </c>
       <c r="I185" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J185" t="s" s="2">
-        <v>105</v>
+        <v>596</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>618</v>
+        <v>673</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="M185" s="2"/>
+        <v>598</v>
+      </c>
+      <c r="M185" t="s" s="2">
+        <v>599</v>
+      </c>
       <c r="N185" t="s" s="2">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="O185" t="s" s="2">
         <v>78</v>
@@ -23909,7 +23911,7 @@
         <v>78</v>
       </c>
       <c r="S185" t="s" s="2">
-        <v>621</v>
+        <v>78</v>
       </c>
       <c r="T185" t="s" s="2">
         <v>78</v>
@@ -23921,13 +23923,13 @@
         <v>78</v>
       </c>
       <c r="W185" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="X185" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="Y185" t="s" s="2">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="Z185" t="s" s="2">
         <v>78</v>
@@ -23945,13 +23947,13 @@
         <v>78</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>622</v>
+        <v>595</v>
       </c>
       <c r="AF185" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG185" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH185" t="s" s="2">
         <v>78</v>
@@ -23960,16 +23962,16 @@
         <v>97</v>
       </c>
       <c r="AJ185" t="s" s="2">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="AK185" t="s" s="2">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="AL185" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM185" t="s" s="2">
-        <v>78</v>
+        <v>604</v>
       </c>
       <c r="AN185" t="s" s="2">
         <v>78</v>
@@ -23977,7 +23979,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>624</v>
+        <v>605</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -23985,7 +23987,7 @@
       </c>
       <c r="D186" s="2"/>
       <c r="E186" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F186" t="s" s="2">
         <v>85</v>
@@ -24000,20 +24002,16 @@
         <v>78</v>
       </c>
       <c r="J186" t="s" s="2">
-        <v>625</v>
+        <v>87</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>626</v>
+        <v>185</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="M186" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="N186" t="s" s="2">
-        <v>629</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="M186" s="2"/>
+      <c r="N186" s="2"/>
       <c r="O186" t="s" s="2">
         <v>78</v>
       </c>
@@ -24061,7 +24059,7 @@
         <v>78</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>630</v>
+        <v>187</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>76</v>
@@ -24073,10 +24071,10 @@
         <v>78</v>
       </c>
       <c r="AI186" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ186" t="s" s="2">
-        <v>631</v>
+        <v>188</v>
       </c>
       <c r="AK186" t="s" s="2">
         <v>78</v>
@@ -24085,7 +24083,7 @@
         <v>78</v>
       </c>
       <c r="AM186" t="s" s="2">
-        <v>632</v>
+        <v>78</v>
       </c>
       <c r="AN186" t="s" s="2">
         <v>78</v>
@@ -24093,18 +24091,18 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>633</v>
+        <v>606</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
-        <v>78</v>
+        <v>167</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F187" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G187" t="s" s="2">
         <v>78</v>
@@ -24113,23 +24111,21 @@
         <v>78</v>
       </c>
       <c r="I187" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J187" t="s" s="2">
-        <v>634</v>
+        <v>130</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>635</v>
+        <v>190</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>636</v>
+        <v>191</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="N187" t="s" s="2">
-        <v>638</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="N187" s="2"/>
       <c r="O187" t="s" s="2">
         <v>78</v>
       </c>
@@ -24141,7 +24137,7 @@
         <v>78</v>
       </c>
       <c r="S187" t="s" s="2">
-        <v>639</v>
+        <v>78</v>
       </c>
       <c r="T187" t="s" s="2">
         <v>78</v>
@@ -24165,34 +24161,34 @@
         <v>78</v>
       </c>
       <c r="AA187" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="AB187" t="s" s="2">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="AC187" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD187" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>640</v>
+        <v>193</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG187" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH187" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI187" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ187" t="s" s="2">
-        <v>641</v>
+        <v>188</v>
       </c>
       <c r="AK187" t="s" s="2">
         <v>78</v>
@@ -24201,7 +24197,7 @@
         <v>78</v>
       </c>
       <c r="AM187" t="s" s="2">
-        <v>642</v>
+        <v>78</v>
       </c>
       <c r="AN187" t="s" s="2">
         <v>78</v>
@@ -24209,7 +24205,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>643</v>
+        <v>607</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -24232,19 +24228,17 @@
         <v>86</v>
       </c>
       <c r="J188" t="s" s="2">
-        <v>644</v>
+        <v>105</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>645</v>
+        <v>608</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="M188" t="s" s="2">
-        <v>647</v>
-      </c>
+        <v>609</v>
+      </c>
+      <c r="M188" s="2"/>
       <c r="N188" t="s" s="2">
-        <v>648</v>
+        <v>610</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>78</v>
@@ -24257,7 +24251,7 @@
         <v>78</v>
       </c>
       <c r="S188" t="s" s="2">
-        <v>78</v>
+        <v>611</v>
       </c>
       <c r="T188" t="s" s="2">
         <v>78</v>
@@ -24269,13 +24263,13 @@
         <v>78</v>
       </c>
       <c r="W188" t="s" s="2">
-        <v>78</v>
+        <v>199</v>
       </c>
       <c r="X188" t="s" s="2">
-        <v>78</v>
+        <v>612</v>
       </c>
       <c r="Y188" t="s" s="2">
-        <v>78</v>
+        <v>613</v>
       </c>
       <c r="Z188" t="s" s="2">
         <v>78</v>
@@ -24293,7 +24287,7 @@
         <v>78</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>649</v>
+        <v>614</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>76</v>
@@ -24308,7 +24302,7 @@
         <v>97</v>
       </c>
       <c r="AJ188" t="s" s="2">
-        <v>650</v>
+        <v>615</v>
       </c>
       <c r="AK188" t="s" s="2">
         <v>78</v>
@@ -24317,7 +24311,7 @@
         <v>78</v>
       </c>
       <c r="AM188" t="s" s="2">
-        <v>78</v>
+        <v>616</v>
       </c>
       <c r="AN188" t="s" s="2">
         <v>78</v>
@@ -24325,7 +24319,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>651</v>
+        <v>617</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -24348,19 +24342,17 @@
         <v>86</v>
       </c>
       <c r="J189" t="s" s="2">
-        <v>625</v>
+        <v>105</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>652</v>
+        <v>618</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="M189" t="s" s="2">
-        <v>654</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="M189" s="2"/>
       <c r="N189" t="s" s="2">
-        <v>655</v>
+        <v>620</v>
       </c>
       <c r="O189" t="s" s="2">
         <v>78</v>
@@ -24373,7 +24365,7 @@
         <v>78</v>
       </c>
       <c r="S189" t="s" s="2">
-        <v>78</v>
+        <v>621</v>
       </c>
       <c r="T189" t="s" s="2">
         <v>78</v>
@@ -24385,13 +24377,13 @@
         <v>78</v>
       </c>
       <c r="W189" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="X189" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="Y189" t="s" s="2">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="Z189" t="s" s="2">
         <v>78</v>
@@ -24409,7 +24401,7 @@
         <v>78</v>
       </c>
       <c r="AE189" t="s" s="2">
-        <v>656</v>
+        <v>622</v>
       </c>
       <c r="AF189" t="s" s="2">
         <v>76</v>
@@ -24424,7 +24416,7 @@
         <v>97</v>
       </c>
       <c r="AJ189" t="s" s="2">
-        <v>657</v>
+        <v>623</v>
       </c>
       <c r="AK189" t="s" s="2">
         <v>78</v>
@@ -24441,7 +24433,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>658</v>
+        <v>624</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -24449,7 +24441,7 @@
       </c>
       <c r="D190" s="2"/>
       <c r="E190" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F190" t="s" s="2">
         <v>85</v>
@@ -24461,20 +24453,22 @@
         <v>78</v>
       </c>
       <c r="I190" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J190" t="s" s="2">
-        <v>87</v>
+        <v>625</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>659</v>
+        <v>626</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="M190" s="2"/>
+        <v>627</v>
+      </c>
+      <c r="M190" t="s" s="2">
+        <v>628</v>
+      </c>
       <c r="N190" t="s" s="2">
-        <v>661</v>
+        <v>629</v>
       </c>
       <c r="O190" t="s" s="2">
         <v>78</v>
@@ -24487,7 +24481,7 @@
         <v>78</v>
       </c>
       <c r="S190" t="s" s="2">
-        <v>662</v>
+        <v>78</v>
       </c>
       <c r="T190" t="s" s="2">
         <v>78</v>
@@ -24523,7 +24517,7 @@
         <v>78</v>
       </c>
       <c r="AE190" t="s" s="2">
-        <v>663</v>
+        <v>630</v>
       </c>
       <c r="AF190" t="s" s="2">
         <v>76</v>
@@ -24538,7 +24532,7 @@
         <v>97</v>
       </c>
       <c r="AJ190" t="s" s="2">
-        <v>664</v>
+        <v>631</v>
       </c>
       <c r="AK190" t="s" s="2">
         <v>78</v>
@@ -24547,7 +24541,7 @@
         <v>78</v>
       </c>
       <c r="AM190" t="s" s="2">
-        <v>78</v>
+        <v>632</v>
       </c>
       <c r="AN190" t="s" s="2">
         <v>78</v>
@@ -24555,7 +24549,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>665</v>
+        <v>633</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -24566,7 +24560,7 @@
         <v>76</v>
       </c>
       <c r="F191" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G191" t="s" s="2">
         <v>78</v>
@@ -24578,17 +24572,19 @@
         <v>86</v>
       </c>
       <c r="J191" t="s" s="2">
-        <v>666</v>
+        <v>634</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>667</v>
+        <v>635</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="M191" s="2"/>
+        <v>636</v>
+      </c>
+      <c r="M191" t="s" s="2">
+        <v>637</v>
+      </c>
       <c r="N191" t="s" s="2">
-        <v>669</v>
+        <v>638</v>
       </c>
       <c r="O191" t="s" s="2">
         <v>78</v>
@@ -24601,7 +24597,7 @@
         <v>78</v>
       </c>
       <c r="S191" t="s" s="2">
-        <v>78</v>
+        <v>639</v>
       </c>
       <c r="T191" t="s" s="2">
         <v>78</v>
@@ -24637,7 +24633,7 @@
         <v>78</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>670</v>
+        <v>640</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>76</v>
@@ -24652,7 +24648,7 @@
         <v>97</v>
       </c>
       <c r="AJ191" t="s" s="2">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="AK191" t="s" s="2">
         <v>78</v>
@@ -24661,7 +24657,7 @@
         <v>78</v>
       </c>
       <c r="AM191" t="s" s="2">
-        <v>78</v>
+        <v>642</v>
       </c>
       <c r="AN191" t="s" s="2">
         <v>78</v>
@@ -24669,7 +24665,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>674</v>
+        <v>643</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -24689,22 +24685,22 @@
         <v>78</v>
       </c>
       <c r="I192" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J192" t="s" s="2">
-        <v>675</v>
+        <v>644</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>676</v>
+        <v>645</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>677</v>
+        <v>646</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>678</v>
+        <v>647</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>679</v>
+        <v>648</v>
       </c>
       <c r="O192" t="s" s="2">
         <v>78</v>
@@ -24753,25 +24749,25 @@
         <v>78</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>674</v>
+        <v>649</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG192" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH192" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI192" t="s" s="2">
-        <v>680</v>
+        <v>97</v>
       </c>
       <c r="AJ192" t="s" s="2">
-        <v>681</v>
+        <v>650</v>
       </c>
       <c r="AK192" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="AL192" t="s" s="2">
         <v>78</v>
@@ -24785,7 +24781,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>682</v>
+        <v>651</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -24805,19 +24801,23 @@
         <v>78</v>
       </c>
       <c r="I193" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J193" t="s" s="2">
-        <v>87</v>
+        <v>625</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>185</v>
+        <v>652</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M193" s="2"/>
-      <c r="N193" s="2"/>
+        <v>653</v>
+      </c>
+      <c r="M193" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="N193" t="s" s="2">
+        <v>655</v>
+      </c>
       <c r="O193" t="s" s="2">
         <v>78</v>
       </c>
@@ -24865,7 +24865,7 @@
         <v>78</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>187</v>
+        <v>656</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>76</v>
@@ -24877,10 +24877,10 @@
         <v>78</v>
       </c>
       <c r="AI193" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AJ193" t="s" s="2">
-        <v>188</v>
+        <v>657</v>
       </c>
       <c r="AK193" t="s" s="2">
         <v>78</v>
@@ -24897,18 +24897,18 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>683</v>
+        <v>658</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F194" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G194" t="s" s="2">
         <v>78</v>
@@ -24917,21 +24917,21 @@
         <v>78</v>
       </c>
       <c r="I194" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J194" t="s" s="2">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>190</v>
+        <v>659</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M194" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N194" s="2"/>
+        <v>660</v>
+      </c>
+      <c r="M194" s="2"/>
+      <c r="N194" t="s" s="2">
+        <v>661</v>
+      </c>
       <c r="O194" t="s" s="2">
         <v>78</v>
       </c>
@@ -24943,7 +24943,7 @@
         <v>78</v>
       </c>
       <c r="S194" t="s" s="2">
-        <v>78</v>
+        <v>662</v>
       </c>
       <c r="T194" t="s" s="2">
         <v>78</v>
@@ -24979,22 +24979,22 @@
         <v>78</v>
       </c>
       <c r="AE194" t="s" s="2">
-        <v>193</v>
+        <v>663</v>
       </c>
       <c r="AF194" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG194" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH194" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI194" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ194" t="s" s="2">
-        <v>188</v>
+        <v>664</v>
       </c>
       <c r="AK194" t="s" s="2">
         <v>78</v>
@@ -25011,42 +25011,40 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>684</v>
+        <v>665</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
-        <v>685</v>
+        <v>78</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F195" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G195" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H195" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I195" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J195" t="s" s="2">
-        <v>130</v>
+        <v>666</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>686</v>
+        <v>667</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>687</v>
-      </c>
-      <c r="M195" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>668</v>
+      </c>
+      <c r="M195" s="2"/>
       <c r="N195" t="s" s="2">
-        <v>171</v>
+        <v>669</v>
       </c>
       <c r="O195" t="s" s="2">
         <v>78</v>
@@ -25095,22 +25093,22 @@
         <v>78</v>
       </c>
       <c r="AE195" t="s" s="2">
-        <v>688</v>
+        <v>670</v>
       </c>
       <c r="AF195" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG195" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH195" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI195" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ195" t="s" s="2">
-        <v>128</v>
+        <v>650</v>
       </c>
       <c r="AK195" t="s" s="2">
         <v>78</v>
@@ -25127,7 +25125,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>689</v>
+        <v>674</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -25150,17 +25148,19 @@
         <v>78</v>
       </c>
       <c r="J196" t="s" s="2">
-        <v>205</v>
+        <v>675</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>690</v>
+        <v>676</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>691</v>
-      </c>
-      <c r="M196" s="2"/>
+        <v>677</v>
+      </c>
+      <c r="M196" t="s" s="2">
+        <v>678</v>
+      </c>
       <c r="N196" t="s" s="2">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="O196" t="s" s="2">
         <v>78</v>
@@ -25185,11 +25185,13 @@
         <v>78</v>
       </c>
       <c r="W196" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="X196" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="X196" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Y196" t="s" s="2">
-        <v>693</v>
+        <v>78</v>
       </c>
       <c r="Z196" t="s" s="2">
         <v>78</v>
@@ -25207,7 +25209,7 @@
         <v>78</v>
       </c>
       <c r="AE196" t="s" s="2">
-        <v>689</v>
+        <v>674</v>
       </c>
       <c r="AF196" t="s" s="2">
         <v>76</v>
@@ -25219,10 +25221,10 @@
         <v>78</v>
       </c>
       <c r="AI196" t="s" s="2">
-        <v>97</v>
+        <v>680</v>
       </c>
       <c r="AJ196" t="s" s="2">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="AK196" t="s" s="2">
         <v>188</v>
@@ -25231,7 +25233,7 @@
         <v>78</v>
       </c>
       <c r="AM196" t="s" s="2">
-        <v>695</v>
+        <v>78</v>
       </c>
       <c r="AN196" t="s" s="2">
         <v>78</v>
@@ -25239,7 +25241,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>696</v>
+        <v>682</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -25247,7 +25249,7 @@
       </c>
       <c r="D197" s="2"/>
       <c r="E197" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F197" t="s" s="2">
         <v>85</v>
@@ -25262,18 +25264,16 @@
         <v>78</v>
       </c>
       <c r="J197" t="s" s="2">
-        <v>321</v>
+        <v>87</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>697</v>
+        <v>185</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>698</v>
+        <v>186</v>
       </c>
       <c r="M197" s="2"/>
-      <c r="N197" t="s" s="2">
-        <v>699</v>
-      </c>
+      <c r="N197" s="2"/>
       <c r="O197" t="s" s="2">
         <v>78</v>
       </c>
@@ -25321,7 +25321,7 @@
         <v>78</v>
       </c>
       <c r="AE197" t="s" s="2">
-        <v>696</v>
+        <v>187</v>
       </c>
       <c r="AF197" t="s" s="2">
         <v>76</v>
@@ -25333,19 +25333,19 @@
         <v>78</v>
       </c>
       <c r="AI197" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ197" t="s" s="2">
-        <v>326</v>
+        <v>188</v>
       </c>
       <c r="AK197" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="AL197" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM197" t="s" s="2">
-        <v>700</v>
+        <v>78</v>
       </c>
       <c r="AN197" t="s" s="2">
         <v>78</v>
@@ -25353,18 +25353,18 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>701</v>
+        <v>683</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
-        <v>78</v>
+        <v>167</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F198" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G198" t="s" s="2">
         <v>78</v>
@@ -25376,15 +25376,17 @@
         <v>78</v>
       </c>
       <c r="J198" t="s" s="2">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M198" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="M198" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="N198" s="2"/>
       <c r="O198" t="s" s="2">
         <v>78</v>
@@ -25433,19 +25435,19 @@
         <v>78</v>
       </c>
       <c r="AE198" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AF198" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG198" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH198" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI198" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AJ198" t="s" s="2">
         <v>188</v>
@@ -25465,11 +25467,11 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>702</v>
+        <v>684</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
-        <v>167</v>
+        <v>685</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" t="s" s="2">
@@ -25482,24 +25484,26 @@
         <v>78</v>
       </c>
       <c r="H199" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I199" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J199" t="s" s="2">
         <v>130</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>190</v>
+        <v>686</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>191</v>
+        <v>687</v>
       </c>
       <c r="M199" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="N199" s="2"/>
+      <c r="N199" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="O199" t="s" s="2">
         <v>78</v>
       </c>
@@ -25535,19 +25539,19 @@
         <v>78</v>
       </c>
       <c r="AA199" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="AB199" t="s" s="2">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="AC199" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD199" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AE199" t="s" s="2">
-        <v>193</v>
+        <v>688</v>
       </c>
       <c r="AF199" t="s" s="2">
         <v>76</v>
@@ -25562,7 +25566,7 @@
         <v>136</v>
       </c>
       <c r="AJ199" t="s" s="2">
-        <v>188</v>
+        <v>128</v>
       </c>
       <c r="AK199" t="s" s="2">
         <v>78</v>
@@ -25579,7 +25583,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>703</v>
+        <v>689</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -25590,31 +25594,29 @@
         <v>76</v>
       </c>
       <c r="F200" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G200" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H200" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I200" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J200" t="s" s="2">
-        <v>105</v>
+        <v>205</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>332</v>
+        <v>690</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="M200" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>691</v>
+      </c>
+      <c r="M200" s="2"/>
       <c r="N200" t="s" s="2">
-        <v>335</v>
+        <v>692</v>
       </c>
       <c r="O200" t="s" s="2">
         <v>78</v>
@@ -25639,13 +25641,11 @@
         <v>78</v>
       </c>
       <c r="W200" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="X200" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="X200" s="2"/>
       <c r="Y200" t="s" s="2">
-        <v>338</v>
+        <v>693</v>
       </c>
       <c r="Z200" t="s" s="2">
         <v>78</v>
@@ -25663,13 +25663,13 @@
         <v>78</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>339</v>
+        <v>689</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG200" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH200" t="s" s="2">
         <v>78</v>
@@ -25678,16 +25678,16 @@
         <v>97</v>
       </c>
       <c r="AJ200" t="s" s="2">
-        <v>340</v>
+        <v>694</v>
       </c>
       <c r="AK200" t="s" s="2">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="AL200" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM200" t="s" s="2">
-        <v>341</v>
+        <v>695</v>
       </c>
       <c r="AN200" t="s" s="2">
         <v>78</v>
@@ -25695,7 +25695,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -25703,10 +25703,10 @@
       </c>
       <c r="D201" s="2"/>
       <c r="E201" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F201" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G201" t="s" s="2">
         <v>78</v>
@@ -25715,22 +25715,20 @@
         <v>78</v>
       </c>
       <c r="I201" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J201" t="s" s="2">
-        <v>87</v>
+        <v>321</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>343</v>
+        <v>697</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M201" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>698</v>
+      </c>
+      <c r="M201" s="2"/>
       <c r="N201" t="s" s="2">
-        <v>346</v>
+        <v>699</v>
       </c>
       <c r="O201" t="s" s="2">
         <v>78</v>
@@ -25779,7 +25777,7 @@
         <v>78</v>
       </c>
       <c r="AE201" t="s" s="2">
-        <v>347</v>
+        <v>696</v>
       </c>
       <c r="AF201" t="s" s="2">
         <v>76</v>
@@ -25794,16 +25792,16 @@
         <v>97</v>
       </c>
       <c r="AJ201" t="s" s="2">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="AK201" t="s" s="2">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="AL201" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM201" t="s" s="2">
-        <v>349</v>
+        <v>700</v>
       </c>
       <c r="AN201" t="s" s="2">
         <v>78</v>
@@ -25811,15 +25809,15 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
-        <v>351</v>
+        <v>78</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F202" t="s" s="2">
         <v>85</v>
@@ -25831,20 +25829,18 @@
         <v>78</v>
       </c>
       <c r="I202" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J202" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>352</v>
+        <v>185</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M202" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="M202" s="2"/>
       <c r="N202" s="2"/>
       <c r="O202" t="s" s="2">
         <v>78</v>
@@ -25893,7 +25889,7 @@
         <v>78</v>
       </c>
       <c r="AE202" t="s" s="2">
-        <v>355</v>
+        <v>187</v>
       </c>
       <c r="AF202" t="s" s="2">
         <v>76</v>
@@ -25905,10 +25901,10 @@
         <v>78</v>
       </c>
       <c r="AI202" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ202" t="s" s="2">
-        <v>356</v>
+        <v>188</v>
       </c>
       <c r="AK202" t="s" s="2">
         <v>78</v>
@@ -25917,7 +25913,7 @@
         <v>78</v>
       </c>
       <c r="AM202" t="s" s="2">
-        <v>357</v>
+        <v>78</v>
       </c>
       <c r="AN202" t="s" s="2">
         <v>78</v>
@@ -25925,18 +25921,18 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
-        <v>359</v>
+        <v>167</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F203" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G203" t="s" s="2">
         <v>78</v>
@@ -25945,19 +25941,19 @@
         <v>78</v>
       </c>
       <c r="I203" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J203" t="s" s="2">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>360</v>
+        <v>190</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>361</v>
+        <v>191</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>362</v>
+        <v>170</v>
       </c>
       <c r="N203" s="2"/>
       <c r="O203" t="s" s="2">
@@ -25995,19 +25991,19 @@
         <v>78</v>
       </c>
       <c r="AA203" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="AB203" t="s" s="2">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="AC203" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD203" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>363</v>
+        <v>193</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>76</v>
@@ -26019,10 +26015,10 @@
         <v>78</v>
       </c>
       <c r="AI203" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ203" t="s" s="2">
-        <v>364</v>
+        <v>188</v>
       </c>
       <c r="AK203" t="s" s="2">
         <v>78</v>
@@ -26031,7 +26027,7 @@
         <v>78</v>
       </c>
       <c r="AM203" t="s" s="2">
-        <v>365</v>
+        <v>78</v>
       </c>
       <c r="AN203" t="s" s="2">
         <v>78</v>
@@ -26039,7 +26035,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -26056,22 +26052,26 @@
         <v>78</v>
       </c>
       <c r="H204" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I204" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J204" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>367</v>
+        <v>332</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M204" s="2"/>
-      <c r="N204" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="M204" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="N204" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="O204" t="s" s="2">
         <v>78</v>
       </c>
@@ -26095,13 +26095,13 @@
         <v>78</v>
       </c>
       <c r="W204" t="s" s="2">
-        <v>78</v>
+        <v>199</v>
       </c>
       <c r="X204" t="s" s="2">
-        <v>78</v>
+        <v>337</v>
       </c>
       <c r="Y204" t="s" s="2">
-        <v>78</v>
+        <v>338</v>
       </c>
       <c r="Z204" t="s" s="2">
         <v>78</v>
@@ -26119,13 +26119,13 @@
         <v>78</v>
       </c>
       <c r="AE204" t="s" s="2">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="AF204" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG204" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH204" t="s" s="2">
         <v>78</v>
@@ -26134,7 +26134,7 @@
         <v>97</v>
       </c>
       <c r="AJ204" t="s" s="2">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="AK204" t="s" s="2">
         <v>78</v>
@@ -26143,7 +26143,7 @@
         <v>78</v>
       </c>
       <c r="AM204" t="s" s="2">
-        <v>371</v>
+        <v>341</v>
       </c>
       <c r="AN204" t="s" s="2">
         <v>78</v>
@@ -26151,7 +26151,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -26177,13 +26177,17 @@
         <v>87</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>373</v>
+        <v>343</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="M205" s="2"/>
-      <c r="N205" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="M205" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N205" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="O205" t="s" s="2">
         <v>78</v>
       </c>
@@ -26231,13 +26235,13 @@
         <v>78</v>
       </c>
       <c r="AE205" t="s" s="2">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="AF205" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG205" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH205" t="s" s="2">
         <v>78</v>
@@ -26246,7 +26250,7 @@
         <v>97</v>
       </c>
       <c r="AJ205" t="s" s="2">
-        <v>376</v>
+        <v>348</v>
       </c>
       <c r="AK205" t="s" s="2">
         <v>78</v>
@@ -26255,7 +26259,7 @@
         <v>78</v>
       </c>
       <c r="AM205" t="s" s="2">
-        <v>377</v>
+        <v>349</v>
       </c>
       <c r="AN205" t="s" s="2">
         <v>78</v>
@@ -26263,18 +26267,18 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
-        <v>78</v>
+        <v>351</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F206" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G206" t="s" s="2">
         <v>78</v>
@@ -26286,18 +26290,18 @@
         <v>86</v>
       </c>
       <c r="J206" t="s" s="2">
-        <v>293</v>
+        <v>87</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M206" s="2"/>
-      <c r="N206" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="M206" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="N206" s="2"/>
       <c r="O206" t="s" s="2">
         <v>78</v>
       </c>
@@ -26345,7 +26349,7 @@
         <v>78</v>
       </c>
       <c r="AE206" t="s" s="2">
-        <v>382</v>
+        <v>355</v>
       </c>
       <c r="AF206" t="s" s="2">
         <v>76</v>
@@ -26360,7 +26364,7 @@
         <v>97</v>
       </c>
       <c r="AJ206" t="s" s="2">
-        <v>383</v>
+        <v>356</v>
       </c>
       <c r="AK206" t="s" s="2">
         <v>78</v>
@@ -26369,7 +26373,7 @@
         <v>78</v>
       </c>
       <c r="AM206" t="s" s="2">
-        <v>384</v>
+        <v>357</v>
       </c>
       <c r="AN206" t="s" s="2">
         <v>78</v>
@@ -26377,18 +26381,18 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
-        <v>78</v>
+        <v>359</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F207" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G207" t="s" s="2">
         <v>78</v>
@@ -26397,23 +26401,21 @@
         <v>78</v>
       </c>
       <c r="I207" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J207" t="s" s="2">
-        <v>387</v>
+        <v>87</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>711</v>
+        <v>360</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>712</v>
+        <v>361</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>713</v>
-      </c>
-      <c r="N207" t="s" s="2">
-        <v>391</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="N207" s="2"/>
       <c r="O207" t="s" s="2">
         <v>78</v>
       </c>
@@ -26461,7 +26463,7 @@
         <v>78</v>
       </c>
       <c r="AE207" t="s" s="2">
-        <v>710</v>
+        <v>363</v>
       </c>
       <c r="AF207" t="s" s="2">
         <v>76</v>
@@ -26476,16 +26478,16 @@
         <v>97</v>
       </c>
       <c r="AJ207" t="s" s="2">
-        <v>393</v>
+        <v>364</v>
       </c>
       <c r="AK207" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="AL207" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM207" t="s" s="2">
-        <v>714</v>
+        <v>365</v>
       </c>
       <c r="AN207" t="s" s="2">
         <v>78</v>
@@ -26493,7 +26495,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
@@ -26504,7 +26506,7 @@
         <v>76</v>
       </c>
       <c r="F208" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G208" t="s" s="2">
         <v>78</v>
@@ -26513,21 +26515,19 @@
         <v>78</v>
       </c>
       <c r="I208" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J208" t="s" s="2">
-        <v>469</v>
+        <v>87</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>716</v>
+        <v>367</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>717</v>
+        <v>368</v>
       </c>
       <c r="M208" s="2"/>
-      <c r="N208" t="s" s="2">
-        <v>718</v>
-      </c>
+      <c r="N208" s="2"/>
       <c r="O208" t="s" s="2">
         <v>78</v>
       </c>
@@ -26575,13 +26575,13 @@
         <v>78</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>715</v>
+        <v>369</v>
       </c>
       <c r="AF208" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG208" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH208" t="s" s="2">
         <v>78</v>
@@ -26590,16 +26590,16 @@
         <v>97</v>
       </c>
       <c r="AJ208" t="s" s="2">
-        <v>475</v>
+        <v>370</v>
       </c>
       <c r="AK208" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="AL208" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM208" t="s" s="2">
-        <v>719</v>
+        <v>371</v>
       </c>
       <c r="AN208" t="s" s="2">
         <v>78</v>
@@ -26607,7 +26607,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -26618,7 +26618,7 @@
         <v>76</v>
       </c>
       <c r="F209" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G209" t="s" s="2">
         <v>78</v>
@@ -26627,21 +26627,19 @@
         <v>78</v>
       </c>
       <c r="I209" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J209" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>441</v>
+        <v>373</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>721</v>
+        <v>374</v>
       </c>
       <c r="M209" s="2"/>
-      <c r="N209" t="s" s="2">
-        <v>722</v>
-      </c>
+      <c r="N209" s="2"/>
       <c r="O209" t="s" s="2">
         <v>78</v>
       </c>
@@ -26665,13 +26663,13 @@
         <v>78</v>
       </c>
       <c r="W209" t="s" s="2">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="X209" t="s" s="2">
-        <v>445</v>
+        <v>78</v>
       </c>
       <c r="Y209" t="s" s="2">
-        <v>446</v>
+        <v>78</v>
       </c>
       <c r="Z209" t="s" s="2">
         <v>78</v>
@@ -26689,13 +26687,13 @@
         <v>78</v>
       </c>
       <c r="AE209" t="s" s="2">
-        <v>720</v>
+        <v>375</v>
       </c>
       <c r="AF209" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG209" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH209" t="s" s="2">
         <v>78</v>
@@ -26704,16 +26702,16 @@
         <v>97</v>
       </c>
       <c r="AJ209" t="s" s="2">
-        <v>447</v>
+        <v>376</v>
       </c>
       <c r="AK209" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="AL209" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM209" t="s" s="2">
-        <v>723</v>
+        <v>377</v>
       </c>
       <c r="AN209" t="s" s="2">
         <v>78</v>
@@ -26721,7 +26719,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>724</v>
+        <v>709</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -26732,7 +26730,7 @@
         <v>76</v>
       </c>
       <c r="F210" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G210" t="s" s="2">
         <v>78</v>
@@ -26741,20 +26739,20 @@
         <v>78</v>
       </c>
       <c r="I210" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J210" t="s" s="2">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>725</v>
+        <v>379</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>726</v>
+        <v>380</v>
       </c>
       <c r="M210" s="2"/>
       <c r="N210" t="s" s="2">
-        <v>727</v>
+        <v>381</v>
       </c>
       <c r="O210" t="s" s="2">
         <v>78</v>
@@ -26803,7 +26801,7 @@
         <v>78</v>
       </c>
       <c r="AE210" t="s" s="2">
-        <v>724</v>
+        <v>382</v>
       </c>
       <c r="AF210" t="s" s="2">
         <v>76</v>
@@ -26812,22 +26810,22 @@
         <v>85</v>
       </c>
       <c r="AH210" t="s" s="2">
-        <v>728</v>
+        <v>78</v>
       </c>
       <c r="AI210" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ210" t="s" s="2">
-        <v>729</v>
+        <v>383</v>
       </c>
       <c r="AK210" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="AL210" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM210" t="s" s="2">
-        <v>730</v>
+        <v>384</v>
       </c>
       <c r="AN210" t="s" s="2">
         <v>78</v>
@@ -26835,7 +26833,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>731</v>
+        <v>710</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -26846,7 +26844,7 @@
         <v>76</v>
       </c>
       <c r="F211" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G211" t="s" s="2">
         <v>78</v>
@@ -26858,16 +26856,20 @@
         <v>78</v>
       </c>
       <c r="J211" t="s" s="2">
-        <v>293</v>
+        <v>387</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>732</v>
+        <v>711</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>733</v>
-      </c>
-      <c r="M211" s="2"/>
-      <c r="N211" s="2"/>
+        <v>712</v>
+      </c>
+      <c r="M211" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="N211" t="s" s="2">
+        <v>391</v>
+      </c>
       <c r="O211" t="s" s="2">
         <v>78</v>
       </c>
@@ -26915,13 +26917,13 @@
         <v>78</v>
       </c>
       <c r="AE211" t="s" s="2">
-        <v>731</v>
+        <v>710</v>
       </c>
       <c r="AF211" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG211" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH211" t="s" s="2">
         <v>78</v>
@@ -26930,7 +26932,7 @@
         <v>97</v>
       </c>
       <c r="AJ211" t="s" s="2">
-        <v>734</v>
+        <v>393</v>
       </c>
       <c r="AK211" t="s" s="2">
         <v>188</v>
@@ -26939,7 +26941,7 @@
         <v>78</v>
       </c>
       <c r="AM211" t="s" s="2">
-        <v>78</v>
+        <v>714</v>
       </c>
       <c r="AN211" t="s" s="2">
         <v>78</v>
@@ -26947,7 +26949,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>735</v>
+        <v>715</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -26958,7 +26960,7 @@
         <v>76</v>
       </c>
       <c r="F212" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G212" t="s" s="2">
         <v>78</v>
@@ -26970,19 +26972,17 @@
         <v>78</v>
       </c>
       <c r="J212" t="s" s="2">
-        <v>675</v>
+        <v>469</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>736</v>
+        <v>716</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>737</v>
-      </c>
-      <c r="M212" t="s" s="2">
-        <v>738</v>
-      </c>
+        <v>717</v>
+      </c>
+      <c r="M212" s="2"/>
       <c r="N212" t="s" s="2">
-        <v>739</v>
+        <v>718</v>
       </c>
       <c r="O212" t="s" s="2">
         <v>78</v>
@@ -27031,13 +27031,13 @@
         <v>78</v>
       </c>
       <c r="AE212" t="s" s="2">
-        <v>735</v>
+        <v>715</v>
       </c>
       <c r="AF212" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG212" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH212" t="s" s="2">
         <v>78</v>
@@ -27046,16 +27046,16 @@
         <v>97</v>
       </c>
       <c r="AJ212" t="s" s="2">
-        <v>740</v>
+        <v>475</v>
       </c>
       <c r="AK212" t="s" s="2">
-        <v>741</v>
+        <v>188</v>
       </c>
       <c r="AL212" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM212" t="s" s="2">
-        <v>78</v>
+        <v>719</v>
       </c>
       <c r="AN212" t="s" s="2">
         <v>78</v>
@@ -27063,7 +27063,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>742</v>
+        <v>720</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -27086,16 +27086,18 @@
         <v>78</v>
       </c>
       <c r="J213" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>185</v>
+        <v>441</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>186</v>
+        <v>721</v>
       </c>
       <c r="M213" s="2"/>
-      <c r="N213" s="2"/>
+      <c r="N213" t="s" s="2">
+        <v>722</v>
+      </c>
       <c r="O213" t="s" s="2">
         <v>78</v>
       </c>
@@ -27119,13 +27121,13 @@
         <v>78</v>
       </c>
       <c r="W213" t="s" s="2">
-        <v>78</v>
+        <v>199</v>
       </c>
       <c r="X213" t="s" s="2">
-        <v>78</v>
+        <v>445</v>
       </c>
       <c r="Y213" t="s" s="2">
-        <v>78</v>
+        <v>446</v>
       </c>
       <c r="Z213" t="s" s="2">
         <v>78</v>
@@ -27143,7 +27145,7 @@
         <v>78</v>
       </c>
       <c r="AE213" t="s" s="2">
-        <v>187</v>
+        <v>720</v>
       </c>
       <c r="AF213" t="s" s="2">
         <v>76</v>
@@ -27155,19 +27157,19 @@
         <v>78</v>
       </c>
       <c r="AI213" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AJ213" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AK213" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AK213" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AL213" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM213" t="s" s="2">
-        <v>78</v>
+        <v>723</v>
       </c>
       <c r="AN213" t="s" s="2">
         <v>78</v>
@@ -27175,18 +27177,18 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>743</v>
+        <v>724</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F214" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G214" t="s" s="2">
         <v>78</v>
@@ -27198,18 +27200,18 @@
         <v>78</v>
       </c>
       <c r="J214" t="s" s="2">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>190</v>
+        <v>725</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M214" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N214" s="2"/>
+        <v>726</v>
+      </c>
+      <c r="M214" s="2"/>
+      <c r="N214" t="s" s="2">
+        <v>727</v>
+      </c>
       <c r="O214" t="s" s="2">
         <v>78</v>
       </c>
@@ -27257,31 +27259,31 @@
         <v>78</v>
       </c>
       <c r="AE214" t="s" s="2">
-        <v>193</v>
+        <v>724</v>
       </c>
       <c r="AF214" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG214" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH214" t="s" s="2">
-        <v>78</v>
+        <v>728</v>
       </c>
       <c r="AI214" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ214" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="AK214" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AK214" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AL214" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM214" t="s" s="2">
-        <v>78</v>
+        <v>730</v>
       </c>
       <c r="AN214" t="s" s="2">
         <v>78</v>
@@ -27289,43 +27291,39 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
-        <v>685</v>
+        <v>78</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F215" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G215" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H215" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I215" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J215" t="s" s="2">
-        <v>130</v>
+        <v>293</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>686</v>
+        <v>732</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>687</v>
-      </c>
-      <c r="M215" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N215" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>733</v>
+      </c>
+      <c r="M215" s="2"/>
+      <c r="N215" s="2"/>
       <c r="O215" t="s" s="2">
         <v>78</v>
       </c>
@@ -27373,25 +27371,25 @@
         <v>78</v>
       </c>
       <c r="AE215" t="s" s="2">
-        <v>688</v>
+        <v>731</v>
       </c>
       <c r="AF215" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG215" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH215" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI215" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ215" t="s" s="2">
-        <v>128</v>
+        <v>734</v>
       </c>
       <c r="AK215" t="s" s="2">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="AL215" t="s" s="2">
         <v>78</v>
@@ -27405,7 +27403,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -27413,10 +27411,10 @@
       </c>
       <c r="D216" s="2"/>
       <c r="E216" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F216" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G216" t="s" s="2">
         <v>78</v>
@@ -27428,19 +27426,19 @@
         <v>78</v>
       </c>
       <c r="J216" t="s" s="2">
-        <v>205</v>
+        <v>675</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="N216" t="s" s="2">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="O216" t="s" s="2">
         <v>78</v>
@@ -27465,13 +27463,13 @@
         <v>78</v>
       </c>
       <c r="W216" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="X216" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="Y216" t="s" s="2">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="Z216" t="s" s="2">
         <v>78</v>
@@ -27489,13 +27487,13 @@
         <v>78</v>
       </c>
       <c r="AE216" t="s" s="2">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="AF216" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG216" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH216" t="s" s="2">
         <v>78</v>
@@ -27504,16 +27502,16 @@
         <v>97</v>
       </c>
       <c r="AJ216" t="s" s="2">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="AK216" t="s" s="2">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="AL216" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM216" t="s" s="2">
-        <v>752</v>
+        <v>78</v>
       </c>
       <c r="AN216" t="s" s="2">
         <v>78</v>
@@ -27521,7 +27519,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -27544,20 +27542,16 @@
         <v>78</v>
       </c>
       <c r="J217" t="s" s="2">
-        <v>259</v>
+        <v>87</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>754</v>
+        <v>185</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>755</v>
-      </c>
-      <c r="M217" t="s" s="2">
-        <v>756</v>
-      </c>
-      <c r="N217" t="s" s="2">
-        <v>757</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="M217" s="2"/>
+      <c r="N217" s="2"/>
       <c r="O217" t="s" s="2">
         <v>78</v>
       </c>
@@ -27605,7 +27599,7 @@
         <v>78</v>
       </c>
       <c r="AE217" t="s" s="2">
-        <v>753</v>
+        <v>187</v>
       </c>
       <c r="AF217" t="s" s="2">
         <v>76</v>
@@ -27617,19 +27611,19 @@
         <v>78</v>
       </c>
       <c r="AI217" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ217" t="s" s="2">
-        <v>758</v>
+        <v>188</v>
       </c>
       <c r="AK217" t="s" s="2">
-        <v>759</v>
+        <v>78</v>
       </c>
       <c r="AL217" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM217" t="s" s="2">
-        <v>760</v>
+        <v>78</v>
       </c>
       <c r="AN217" t="s" s="2">
         <v>78</v>
@@ -27637,11 +27631,11 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>761</v>
+        <v>743</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
-        <v>762</v>
+        <v>167</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" t="s" s="2">
@@ -27660,16 +27654,16 @@
         <v>78</v>
       </c>
       <c r="J218" t="s" s="2">
-        <v>763</v>
+        <v>130</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>764</v>
+        <v>190</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>765</v>
+        <v>191</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>766</v>
+        <v>170</v>
       </c>
       <c r="N218" s="2"/>
       <c r="O218" t="s" s="2">
@@ -27719,7 +27713,7 @@
         <v>78</v>
       </c>
       <c r="AE218" t="s" s="2">
-        <v>761</v>
+        <v>193</v>
       </c>
       <c r="AF218" t="s" s="2">
         <v>76</v>
@@ -27731,19 +27725,19 @@
         <v>78</v>
       </c>
       <c r="AI218" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ218" t="s" s="2">
-        <v>767</v>
+        <v>188</v>
       </c>
       <c r="AK218" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="AL218" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM218" t="s" s="2">
-        <v>768</v>
+        <v>78</v>
       </c>
       <c r="AN218" t="s" s="2">
         <v>78</v>
@@ -27751,42 +27745,42 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>769</v>
+        <v>744</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
-        <v>78</v>
+        <v>685</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F219" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G219" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H219" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I219" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J219" t="s" s="2">
-        <v>300</v>
+        <v>130</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>770</v>
+        <v>686</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>771</v>
+        <v>687</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>772</v>
+        <v>170</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>773</v>
+        <v>171</v>
       </c>
       <c r="O219" t="s" s="2">
         <v>78</v>
@@ -27835,25 +27829,25 @@
         <v>78</v>
       </c>
       <c r="AE219" t="s" s="2">
-        <v>769</v>
+        <v>688</v>
       </c>
       <c r="AF219" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG219" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH219" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI219" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ219" t="s" s="2">
-        <v>729</v>
+        <v>128</v>
       </c>
       <c r="AK219" t="s" s="2">
-        <v>774</v>
+        <v>78</v>
       </c>
       <c r="AL219" t="s" s="2">
         <v>78</v>
@@ -27867,7 +27861,7 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>775</v>
+        <v>745</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
@@ -27875,34 +27869,34 @@
       </c>
       <c r="D220" s="2"/>
       <c r="E220" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F220" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G220" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H220" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I220" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J220" t="s" s="2">
-        <v>675</v>
+        <v>205</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>776</v>
+        <v>746</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>777</v>
+        <v>747</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>778</v>
+        <v>748</v>
       </c>
       <c r="N220" t="s" s="2">
-        <v>779</v>
+        <v>749</v>
       </c>
       <c r="O220" t="s" s="2">
         <v>78</v>
@@ -27927,13 +27921,13 @@
         <v>78</v>
       </c>
       <c r="W220" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="X220" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="Y220" t="s" s="2">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="Z220" t="s" s="2">
         <v>78</v>
@@ -27951,13 +27945,13 @@
         <v>78</v>
       </c>
       <c r="AE220" t="s" s="2">
-        <v>775</v>
+        <v>745</v>
       </c>
       <c r="AF220" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AG220" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH220" t="s" s="2">
         <v>78</v>
@@ -27966,16 +27960,16 @@
         <v>97</v>
       </c>
       <c r="AJ220" t="s" s="2">
-        <v>780</v>
+        <v>750</v>
       </c>
       <c r="AK220" t="s" s="2">
-        <v>188</v>
+        <v>751</v>
       </c>
       <c r="AL220" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM220" t="s" s="2">
-        <v>78</v>
+        <v>752</v>
       </c>
       <c r="AN220" t="s" s="2">
         <v>78</v>
@@ -27983,7 +27977,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>781</v>
+        <v>753</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -28006,16 +28000,20 @@
         <v>78</v>
       </c>
       <c r="J221" t="s" s="2">
-        <v>87</v>
+        <v>259</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>185</v>
+        <v>754</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M221" s="2"/>
-      <c r="N221" s="2"/>
+        <v>755</v>
+      </c>
+      <c r="M221" t="s" s="2">
+        <v>756</v>
+      </c>
+      <c r="N221" t="s" s="2">
+        <v>757</v>
+      </c>
       <c r="O221" t="s" s="2">
         <v>78</v>
       </c>
@@ -28063,7 +28061,7 @@
         <v>78</v>
       </c>
       <c r="AE221" t="s" s="2">
-        <v>187</v>
+        <v>753</v>
       </c>
       <c r="AF221" t="s" s="2">
         <v>76</v>
@@ -28075,19 +28073,19 @@
         <v>78</v>
       </c>
       <c r="AI221" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AJ221" t="s" s="2">
-        <v>188</v>
+        <v>758</v>
       </c>
       <c r="AK221" t="s" s="2">
-        <v>78</v>
+        <v>759</v>
       </c>
       <c r="AL221" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM221" t="s" s="2">
-        <v>78</v>
+        <v>760</v>
       </c>
       <c r="AN221" t="s" s="2">
         <v>78</v>
@@ -28095,11 +28093,11 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>782</v>
+        <v>761</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
-        <v>167</v>
+        <v>762</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" t="s" s="2">
@@ -28118,16 +28116,16 @@
         <v>78</v>
       </c>
       <c r="J222" t="s" s="2">
-        <v>130</v>
+        <v>763</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>190</v>
+        <v>764</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>191</v>
+        <v>765</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>170</v>
+        <v>766</v>
       </c>
       <c r="N222" s="2"/>
       <c r="O222" t="s" s="2">
@@ -28177,7 +28175,7 @@
         <v>78</v>
       </c>
       <c r="AE222" t="s" s="2">
-        <v>193</v>
+        <v>761</v>
       </c>
       <c r="AF222" t="s" s="2">
         <v>76</v>
@@ -28189,19 +28187,19 @@
         <v>78</v>
       </c>
       <c r="AI222" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ222" t="s" s="2">
+        <v>767</v>
+      </c>
+      <c r="AK222" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AK222" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AL222" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM222" t="s" s="2">
-        <v>78</v>
+        <v>768</v>
       </c>
       <c r="AN222" t="s" s="2">
         <v>78</v>
@@ -28209,42 +28207,42 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>783</v>
+        <v>769</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
-        <v>685</v>
+        <v>78</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F223" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G223" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H223" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I223" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J223" t="s" s="2">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="K223" t="s" s="2">
-        <v>686</v>
+        <v>770</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>687</v>
+        <v>771</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>170</v>
+        <v>772</v>
       </c>
       <c r="N223" t="s" s="2">
-        <v>171</v>
+        <v>773</v>
       </c>
       <c r="O223" t="s" s="2">
         <v>78</v>
@@ -28293,25 +28291,25 @@
         <v>78</v>
       </c>
       <c r="AE223" t="s" s="2">
-        <v>688</v>
+        <v>769</v>
       </c>
       <c r="AF223" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG223" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH223" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI223" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ223" t="s" s="2">
-        <v>128</v>
+        <v>729</v>
       </c>
       <c r="AK223" t="s" s="2">
-        <v>78</v>
+        <v>774</v>
       </c>
       <c r="AL223" t="s" s="2">
         <v>78</v>
@@ -28325,7 +28323,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -28333,33 +28331,35 @@
       </c>
       <c r="D224" s="2"/>
       <c r="E224" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F224" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G224" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H224" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I224" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J224" t="s" s="2">
-        <v>785</v>
+        <v>675</v>
       </c>
       <c r="K224" t="s" s="2">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>788</v>
-      </c>
-      <c r="N224" s="2"/>
+        <v>778</v>
+      </c>
+      <c r="N224" t="s" s="2">
+        <v>779</v>
+      </c>
       <c r="O224" t="s" s="2">
         <v>78</v>
       </c>
@@ -28407,13 +28407,13 @@
         <v>78</v>
       </c>
       <c r="AE224" t="s" s="2">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="AF224" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG224" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH224" t="s" s="2">
         <v>78</v>
@@ -28422,7 +28422,7 @@
         <v>97</v>
       </c>
       <c r="AJ224" t="s" s="2">
-        <v>180</v>
+        <v>780</v>
       </c>
       <c r="AK224" t="s" s="2">
         <v>188</v>
@@ -28431,7 +28431,7 @@
         <v>78</v>
       </c>
       <c r="AM224" t="s" s="2">
-        <v>789</v>
+        <v>78</v>
       </c>
       <c r="AN224" t="s" s="2">
         <v>78</v>
@@ -28439,7 +28439,7 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -28447,7 +28447,7 @@
       </c>
       <c r="D225" s="2"/>
       <c r="E225" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F225" t="s" s="2">
         <v>85</v>
@@ -28459,16 +28459,16 @@
         <v>78</v>
       </c>
       <c r="I225" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J225" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>791</v>
+        <v>185</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>792</v>
+        <v>186</v>
       </c>
       <c r="M225" s="2"/>
       <c r="N225" s="2"/>
@@ -28495,62 +28495,518 @@
         <v>78</v>
       </c>
       <c r="W225" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X225" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y225" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z225" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA225" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB225" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC225" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD225" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE225" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AF225" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG225" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH225" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI225" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ225" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AK225" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL225" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM225" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN225" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="226" hidden="true">
+      <c r="A226" t="s" s="2">
+        <v>782</v>
+      </c>
+      <c r="B226" s="2"/>
+      <c r="C226" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="D226" s="2"/>
+      <c r="E226" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F226" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G226" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H226" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I226" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J226" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K226" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L226" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M226" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="N226" s="2"/>
+      <c r="O226" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P226" s="2"/>
+      <c r="Q226" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R226" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S226" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T226" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U226" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V226" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W226" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X226" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y226" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z226" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA226" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB226" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC226" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD226" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE226" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AF226" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG226" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH226" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI226" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ226" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AK226" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL226" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM226" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN226" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="227" hidden="true">
+      <c r="A227" t="s" s="2">
+        <v>783</v>
+      </c>
+      <c r="B227" s="2"/>
+      <c r="C227" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="D227" s="2"/>
+      <c r="E227" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F227" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G227" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H227" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I227" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J227" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K227" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="L227" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="M227" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="N227" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="O227" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P227" s="2"/>
+      <c r="Q227" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R227" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S227" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T227" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U227" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V227" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W227" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X227" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y227" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z227" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA227" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB227" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC227" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD227" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE227" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="AF227" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG227" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH227" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI227" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ227" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AK227" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL227" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM227" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN227" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="228" hidden="true">
+      <c r="A228" t="s" s="2">
+        <v>784</v>
+      </c>
+      <c r="B228" s="2"/>
+      <c r="C228" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D228" s="2"/>
+      <c r="E228" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F228" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G228" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H228" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I228" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J228" t="s" s="2">
+        <v>785</v>
+      </c>
+      <c r="K228" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="L228" t="s" s="2">
+        <v>787</v>
+      </c>
+      <c r="M228" t="s" s="2">
+        <v>788</v>
+      </c>
+      <c r="N228" s="2"/>
+      <c r="O228" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P228" s="2"/>
+      <c r="Q228" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R228" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S228" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T228" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U228" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V228" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W228" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X228" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y228" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z228" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA228" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB228" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC228" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD228" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE228" t="s" s="2">
+        <v>784</v>
+      </c>
+      <c r="AF228" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG228" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH228" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI228" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ228" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AK228" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AL228" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM228" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="AN228" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="229" hidden="true">
+      <c r="A229" t="s" s="2">
+        <v>790</v>
+      </c>
+      <c r="B229" s="2"/>
+      <c r="C229" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D229" s="2"/>
+      <c r="E229" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F229" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G229" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H229" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I229" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J229" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K229" t="s" s="2">
+        <v>791</v>
+      </c>
+      <c r="L229" t="s" s="2">
+        <v>792</v>
+      </c>
+      <c r="M229" s="2"/>
+      <c r="N229" s="2"/>
+      <c r="O229" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P229" s="2"/>
+      <c r="Q229" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R229" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S229" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T229" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U229" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V229" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W229" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="X225" t="s" s="2">
+      <c r="X229" t="s" s="2">
         <v>792</v>
       </c>
-      <c r="Y225" t="s" s="2">
+      <c r="Y229" t="s" s="2">
         <v>793</v>
       </c>
-      <c r="Z225" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA225" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB225" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC225" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD225" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE225" t="s" s="2">
+      <c r="Z229" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA229" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB229" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC229" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD229" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE229" t="s" s="2">
         <v>790</v>
       </c>
-      <c r="AF225" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AG225" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH225" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI225" t="s" s="2">
+      <c r="AF229" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG229" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH229" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI229" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ225" t="s" s="2">
+      <c r="AJ229" t="s" s="2">
         <v>794</v>
       </c>
-      <c r="AK225" t="s" s="2">
+      <c r="AK229" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AL225" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM225" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN225" t="s" s="2">
+      <c r="AL229" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM229" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN229" t="s" s="2">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN225">
+  <autoFilter ref="A1:AN229">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -28560,7 +29016,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI224">
+  <conditionalFormatting sqref="A2:AI228">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T15:29:31+00:00</t>
+    <t>2021-12-20T14:56:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-20T14:56:49+00:00</t>
+    <t>2021-12-20T16:29:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-20T16:29:48+00:00</t>
+    <t>2021-12-21T09:16:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-21T09:16:10+00:00</t>
+    <t>2021-12-22T09:53:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-22T09:53:41+00:00</t>
+    <t>2022-03-01T16:36:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Swiss TPH</t>
+    <t>openIMIS Initiative</t>
   </si>
   <si>
     <t>Contact</t>

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T16:36:49+00:00</t>
+    <t>2022-05-11T15:46:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-11T15:46:18+00:00</t>
+    <t>2022-05-12T06:50:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-12T06:50:16+00:00</t>
+    <t>2022-05-12T07:23:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-12T07:23:31+00:00</t>
+    <t>2022-05-17T09:34:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T09:34:33+00:00</t>
+    <t>2022-05-31T10:54:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-patient.xlsx
+++ b/StructureDefinition-openimis-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T10:54:20+00:00</t>
+    <t>2022-05-31T10:56:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
